--- a/data/predicción_precios_fertilizantes.xlsx
+++ b/data/predicción_precios_fertilizantes.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>fob_urea_kg</t>
   </si>
@@ -31,7 +28,7 @@
     <t>inflación_mensual</t>
   </si>
   <si>
-    <t>diesel</t>
+    <t>ipc_diesel</t>
   </si>
   <si>
     <t>precipitación_media_mm</t>
@@ -40,7 +37,7 @@
     <t>temp_media_Celsius</t>
   </si>
   <si>
-    <t>otros_prod_agrícolas_exportados</t>
+    <t>fob_otros_prod_agrícolas_exportados_usd</t>
   </si>
   <si>
     <t>fosfato diamónico 18-46-0</t>
@@ -116,7 +113,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,41 +417,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">

--- a/data/predicción_precios_fertilizantes.xlsx
+++ b/data/predicción_precios_fertilizantes.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,5261 +453,5583 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>41305</v>
+        <v>40877</v>
       </c>
       <c r="B2">
-        <v>0.38</v>
+        <v>0.48125</v>
       </c>
       <c r="C2">
-        <v>112.97363636364</v>
+        <v>110.50409090909</v>
       </c>
       <c r="D2">
-        <v>11.87</v>
+        <v>11.32</v>
       </c>
       <c r="E2">
-        <v>0.00502823</v>
-      </c>
-      <c r="F2">
-        <v>99.270073</v>
+        <v>0.00303368</v>
       </c>
       <c r="G2">
-        <v>277.5</v>
+        <v>187.79</v>
       </c>
       <c r="H2">
-        <v>21.4</v>
-      </c>
-      <c r="I2">
-        <v>5824.36382</v>
-      </c>
-      <c r="J2">
-        <v>0.8672605470437807</v>
-      </c>
-      <c r="K2">
-        <v>0.6744008263913943</v>
-      </c>
-      <c r="L2">
-        <v>0.6571884357926305</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>41333</v>
+        <v>40908</v>
       </c>
       <c r="B3">
-        <v>0.41563</v>
+        <v>0.42313</v>
       </c>
       <c r="C3">
-        <v>116.5195</v>
+        <v>107.90904761905</v>
       </c>
       <c r="D3">
-        <v>11.77</v>
+        <v>11.53</v>
       </c>
       <c r="E3">
-        <v>0.00184694</v>
-      </c>
-      <c r="F3">
-        <v>99.270073</v>
+        <v>0.00397937</v>
       </c>
       <c r="G3">
-        <v>389.36</v>
+        <v>270.52</v>
       </c>
       <c r="H3">
-        <v>21.17</v>
-      </c>
-      <c r="I3">
-        <v>5442.94544</v>
-      </c>
-      <c r="J3">
-        <v>0.8685473684210524</v>
-      </c>
-      <c r="K3">
-        <v>0.6973968253968253</v>
-      </c>
-      <c r="L3">
-        <v>0.6790224719101122</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>41364</v>
+        <v>40939</v>
       </c>
       <c r="B4">
-        <v>0.39563</v>
+        <v>0.368</v>
       </c>
       <c r="C4">
-        <v>109.24</v>
+        <v>111.15619047619</v>
       </c>
       <c r="D4">
-        <v>11.87</v>
+        <v>11.45</v>
       </c>
       <c r="E4">
-        <v>0.00438385</v>
-      </c>
-      <c r="F4">
-        <v>99.270073</v>
+        <v>0.00567152</v>
       </c>
       <c r="G4">
-        <v>392.47</v>
+        <v>397.44</v>
       </c>
       <c r="H4">
-        <v>21.64</v>
-      </c>
-      <c r="I4">
-        <v>6370.208441</v>
-      </c>
-      <c r="J4">
-        <v>0.8550798734425991</v>
-      </c>
-      <c r="K4">
-        <v>0.6786829500291331</v>
-      </c>
-      <c r="L4">
-        <v>0.6491428815279966</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>41394</v>
+        <v>40968</v>
       </c>
       <c r="B5">
-        <v>0.36563</v>
+        <v>0.375</v>
       </c>
       <c r="C5">
-        <v>102.87545454546</v>
+        <v>119.70238095238</v>
       </c>
       <c r="D5">
-        <v>12.88</v>
+        <v>11.12</v>
       </c>
       <c r="E5">
-        <v>0.00178991480129</v>
-      </c>
-      <c r="F5">
-        <v>99.270073</v>
+        <v>0.00777487</v>
       </c>
       <c r="G5">
-        <v>315.47</v>
+        <v>432.71</v>
       </c>
       <c r="H5">
-        <v>21.47</v>
-      </c>
-      <c r="I5">
-        <v>5606.19257</v>
-      </c>
-      <c r="J5">
-        <v>0.8518106005524388</v>
-      </c>
-      <c r="K5">
-        <v>0.6778942746051847</v>
-      </c>
-      <c r="L5">
-        <v>0.6543445696018247</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>41425</v>
+        <v>40999</v>
       </c>
       <c r="B6">
-        <v>0.35813</v>
+        <v>0.39313</v>
       </c>
       <c r="C6">
-        <v>103.02695652174</v>
+        <v>124.92863636364</v>
       </c>
       <c r="D6">
-        <v>12.29</v>
+        <v>11.97</v>
       </c>
       <c r="E6">
-        <v>-0.00217898312721</v>
-      </c>
-      <c r="F6">
-        <v>99.270073</v>
+        <v>0.00900918</v>
       </c>
       <c r="G6">
-        <v>294.04</v>
+        <v>445.15</v>
       </c>
       <c r="H6">
-        <v>20.92</v>
-      </c>
-      <c r="I6">
-        <v>5259.66201</v>
-      </c>
-      <c r="J6">
-        <v>0.8422469678076685</v>
-      </c>
-      <c r="K6">
-        <v>0.6676538974803573</v>
-      </c>
-      <c r="L6">
-        <v>0.6478541739249454</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>41455</v>
+        <v>41029</v>
       </c>
       <c r="B7">
-        <v>0.32938</v>
+        <v>0.49438</v>
       </c>
       <c r="C7">
-        <v>103.11</v>
+        <v>120.4635</v>
       </c>
       <c r="D7">
-        <v>11.92</v>
+        <v>11.42</v>
       </c>
       <c r="E7">
-        <v>-0.00144789862262</v>
-      </c>
-      <c r="F7">
-        <v>99.270073</v>
+        <v>0.00157996</v>
       </c>
       <c r="G7">
-        <v>189.7</v>
+        <v>383.58</v>
       </c>
       <c r="H7">
-        <v>20.19</v>
-      </c>
-      <c r="I7">
-        <v>9055.055410000001</v>
-      </c>
-      <c r="J7">
-        <v>0.8585037107303684</v>
-      </c>
-      <c r="K7">
-        <v>0.6499071626810746</v>
-      </c>
-      <c r="L7">
-        <v>0.6320951778946903</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>41486</v>
+        <v>41060</v>
       </c>
       <c r="B8">
-        <v>0.3125</v>
+        <v>0.51313</v>
       </c>
       <c r="C8">
-        <v>107.71608695652</v>
+        <v>110.52173913044</v>
       </c>
       <c r="D8">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="E8">
-        <v>-0.00018660335055</v>
-      </c>
-      <c r="F8">
-        <v>99.270073</v>
+        <v>-0.00194056</v>
       </c>
       <c r="G8">
-        <v>207.07</v>
+        <v>326.04</v>
       </c>
       <c r="H8">
-        <v>19.51</v>
-      </c>
-      <c r="I8">
-        <v>4780.1759</v>
-      </c>
-      <c r="J8">
-        <v>0.8348733420306047</v>
-      </c>
-      <c r="K8">
-        <v>0.6357231285495277</v>
-      </c>
-      <c r="L8">
-        <v>0.608623615595951</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>41517</v>
+        <v>41090</v>
       </c>
       <c r="B9">
-        <v>0.31063</v>
+        <v>0.45688</v>
       </c>
       <c r="C9">
-        <v>110.96454545455</v>
+        <v>95.58904761905001</v>
       </c>
       <c r="D9">
-        <v>11.64</v>
+        <v>11.49</v>
       </c>
       <c r="E9">
-        <v>0.0017359094249</v>
-      </c>
-      <c r="F9">
-        <v>99.270073</v>
+        <v>0.00175095</v>
       </c>
       <c r="G9">
-        <v>180.33</v>
+        <v>207.28</v>
       </c>
       <c r="H9">
-        <v>19.75</v>
-      </c>
-      <c r="I9">
-        <v>5763.38508</v>
-      </c>
-      <c r="J9">
-        <v>0.8405950985701316</v>
-      </c>
-      <c r="K9">
-        <v>0.6467457881835041</v>
-      </c>
-      <c r="L9">
-        <v>0.6213613680524864</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>41547</v>
+        <v>41121</v>
       </c>
       <c r="B10">
-        <v>0.301</v>
+        <v>0.3075</v>
       </c>
       <c r="C10">
-        <v>111.62142857143</v>
+        <v>103.14090909091</v>
       </c>
       <c r="D10">
-        <v>11.25</v>
+        <v>11.13</v>
       </c>
       <c r="E10">
-        <v>0.00567880702632</v>
-      </c>
-      <c r="F10">
-        <v>99.270073</v>
+        <v>0.00261228</v>
       </c>
       <c r="G10">
-        <v>151.4</v>
+        <v>206.41</v>
       </c>
       <c r="H10">
-        <v>20.39</v>
-      </c>
-      <c r="I10">
-        <v>8486.01986</v>
-      </c>
-      <c r="J10">
-        <v>0.8487359058149437</v>
-      </c>
-      <c r="K10">
-        <v>0.6421140644338255</v>
-      </c>
-      <c r="L10">
-        <v>0.6223573908089982</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>41578</v>
+        <v>41152</v>
       </c>
       <c r="B11">
-        <v>0.29688</v>
+        <v>0.3825</v>
       </c>
       <c r="C11">
-        <v>109.47869565217</v>
+        <v>113.34</v>
       </c>
       <c r="D11">
-        <v>11.37</v>
+        <v>11.18</v>
       </c>
       <c r="E11">
-        <v>0.00408272123409</v>
-      </c>
-      <c r="F11">
-        <v>99.270073</v>
+        <v>0.00288668</v>
       </c>
       <c r="G11">
-        <v>193.63</v>
+        <v>157.41</v>
       </c>
       <c r="H11">
-        <v>20.69</v>
-      </c>
-      <c r="I11">
-        <v>7777.98426</v>
-      </c>
-      <c r="J11">
-        <v>0.8232638929131122</v>
-      </c>
-      <c r="K11">
-        <v>0.6348739077977877</v>
-      </c>
-      <c r="L11">
-        <v>0.6073372445208857</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>41608</v>
+        <v>41182</v>
       </c>
       <c r="B12">
-        <v>0.305</v>
+        <v>0.38438</v>
       </c>
       <c r="C12">
-        <v>108.07619047619</v>
+        <v>113.3825</v>
       </c>
       <c r="D12">
-        <v>11.42</v>
+        <v>11.08</v>
       </c>
       <c r="E12">
-        <v>0.00394188623561</v>
-      </c>
-      <c r="F12">
-        <v>99.270073</v>
+        <v>0.01121914</v>
       </c>
       <c r="G12">
-        <v>202.12</v>
+        <v>137.1</v>
       </c>
       <c r="H12">
-        <v>20.9</v>
-      </c>
-      <c r="I12">
-        <v>7698.69394</v>
-      </c>
-      <c r="J12">
-        <v>0.8121355641936376</v>
-      </c>
-      <c r="K12">
-        <v>0.6306641597470233</v>
-      </c>
-      <c r="L12">
-        <v>0.6009369425458041</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>41639</v>
+        <v>41213</v>
       </c>
       <c r="B13">
-        <v>0.305</v>
+        <v>0.349</v>
       </c>
       <c r="C13">
-        <v>110.674</v>
+        <v>111.97347826087</v>
       </c>
       <c r="D13">
-        <v>11.55</v>
+        <v>11.58</v>
       </c>
       <c r="E13">
-        <v>0.00203496635956</v>
-      </c>
-      <c r="F13">
-        <v>99.270073</v>
+        <v>0.00086008</v>
       </c>
       <c r="G13">
-        <v>203.44</v>
+        <v>192.12</v>
       </c>
       <c r="H13">
-        <v>21.3</v>
-      </c>
-      <c r="I13">
-        <v>7647.09121</v>
-      </c>
-      <c r="J13">
-        <v>0.8074058386419162</v>
-      </c>
-      <c r="K13">
-        <v>0.6107523031239191</v>
-      </c>
-      <c r="L13">
-        <v>0.5891253726199061</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
-        <v>41670</v>
+        <v>41243</v>
       </c>
       <c r="B14">
-        <v>0.33</v>
+        <v>0.3835</v>
       </c>
       <c r="C14">
-        <v>107.42</v>
+        <v>109.71181818182</v>
       </c>
       <c r="D14">
-        <v>11.59</v>
+        <v>11.83</v>
       </c>
       <c r="E14">
-        <v>0.00721709623224</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
+        <v>0.00139346</v>
       </c>
       <c r="G14">
-        <v>361.17</v>
+        <v>236.59</v>
       </c>
       <c r="H14">
-        <v>21.29</v>
-      </c>
-      <c r="I14">
-        <v>6541.49859</v>
-      </c>
-      <c r="J14">
-        <v>0.7709181489739785</v>
-      </c>
-      <c r="K14">
-        <v>0.6066373078667835</v>
-      </c>
-      <c r="L14">
-        <v>0.6002775590720512</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>41698</v>
+        <v>41274</v>
       </c>
       <c r="B15">
-        <v>0.35313</v>
+        <v>0.37583</v>
       </c>
       <c r="C15">
-        <v>108.81</v>
+        <v>109.6765</v>
       </c>
       <c r="D15">
-        <v>11.3</v>
+        <v>11.79</v>
       </c>
       <c r="E15">
-        <v>0.00109903582645</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
+        <v>-0.00185782</v>
       </c>
       <c r="G15">
-        <v>296.94</v>
+        <v>236.57</v>
       </c>
       <c r="H15">
-        <v>21.3</v>
-      </c>
-      <c r="I15">
-        <v>4942.11893</v>
-      </c>
-      <c r="J15">
-        <v>0.7925621089687369</v>
-      </c>
-      <c r="K15">
-        <v>0.6139503909803039</v>
-      </c>
-      <c r="L15">
-        <v>0.6597338111517724</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
-        <v>41729</v>
+        <v>41305</v>
       </c>
       <c r="B16">
-        <v>0.3275</v>
+        <v>0.38</v>
       </c>
       <c r="C16">
-        <v>107.4</v>
+        <v>112.97363636364</v>
       </c>
       <c r="D16">
-        <v>10.88</v>
+        <v>11.87</v>
       </c>
       <c r="E16">
-        <v>0.00696282099423</v>
+        <v>0.00502823</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G16">
-        <v>353.4</v>
+        <v>277.5</v>
       </c>
       <c r="H16">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="I16">
-        <v>5504.67138</v>
+        <v>5824.36382</v>
       </c>
       <c r="J16">
-        <v>0.8068686654566634</v>
+        <v>0.8672605470437807</v>
       </c>
       <c r="K16">
-        <v>0.6180948817281297</v>
+        <v>0.6744008263913943</v>
       </c>
       <c r="L16">
-        <v>0.6651449333001744</v>
+        <v>0.6571884357926305</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
-        <v>41759</v>
+        <v>41333</v>
       </c>
       <c r="B17">
-        <v>0.26</v>
+        <v>0.41563</v>
       </c>
       <c r="C17">
-        <v>107.79</v>
+        <v>116.5195</v>
       </c>
       <c r="D17">
-        <v>10.73</v>
+        <v>11.77</v>
       </c>
       <c r="E17">
-        <v>0.0029547590082</v>
+        <v>0.00184694</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G17">
-        <v>330.56</v>
+        <v>389.36</v>
       </c>
       <c r="H17">
-        <v>21.02</v>
+        <v>21.17</v>
       </c>
       <c r="I17">
-        <v>5158.61846</v>
+        <v>5442.94544</v>
       </c>
       <c r="J17">
-        <v>0.8020950461564855</v>
+        <v>0.8685473684210524</v>
       </c>
       <c r="K17">
-        <v>0.6157498824700319</v>
+        <v>0.6973968253968253</v>
       </c>
       <c r="L17">
-        <v>0.6503967749331658</v>
+        <v>0.6790224719101122</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
-        <v>41790</v>
+        <v>41364</v>
       </c>
       <c r="B18">
-        <v>0.265</v>
+        <v>0.39563</v>
       </c>
       <c r="C18">
-        <v>109.68</v>
+        <v>109.24</v>
       </c>
       <c r="D18">
-        <v>10.2</v>
+        <v>11.87</v>
       </c>
       <c r="E18">
-        <v>-0.00041124006945</v>
+        <v>0.00438385</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G18">
-        <v>341.67</v>
+        <v>392.47</v>
       </c>
       <c r="H18">
-        <v>21.02</v>
+        <v>21.64</v>
       </c>
       <c r="I18">
-        <v>6216.49738</v>
+        <v>6370.208441</v>
       </c>
       <c r="J18">
-        <v>0.7871571321656488</v>
+        <v>0.8550798734425991</v>
       </c>
       <c r="K18">
-        <v>0.6024213151913201</v>
+        <v>0.6786829500291331</v>
       </c>
       <c r="L18">
-        <v>0.6364812405234331</v>
+        <v>0.6491428815279966</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2">
-        <v>41820</v>
+        <v>41394</v>
       </c>
       <c r="B19">
-        <v>0.28875</v>
+        <v>0.36563</v>
       </c>
       <c r="C19">
-        <v>111.87</v>
+        <v>102.87545454546</v>
       </c>
       <c r="D19">
-        <v>9.77</v>
+        <v>12.88</v>
       </c>
       <c r="E19">
-        <v>0.00104061164432</v>
+        <v>0.00178991480129</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G19">
-        <v>244.63</v>
+        <v>315.47</v>
       </c>
       <c r="H19">
-        <v>20.83</v>
+        <v>21.47</v>
       </c>
       <c r="I19">
-        <v>5132.147891</v>
+        <v>5606.19257</v>
       </c>
       <c r="J19">
-        <v>0.7605184164311056</v>
+        <v>0.8518106005524388</v>
       </c>
       <c r="K19">
-        <v>0.5887944817376379</v>
+        <v>0.6778942746051847</v>
       </c>
       <c r="L19">
-        <v>0.6153944841018681</v>
+        <v>0.6543445696018247</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2">
-        <v>41851</v>
+        <v>41425</v>
       </c>
       <c r="B20">
-        <v>0.305</v>
+        <v>0.35813</v>
       </c>
       <c r="C20">
-        <v>106.98</v>
+        <v>103.02695652174</v>
       </c>
       <c r="D20">
-        <v>9.27</v>
+        <v>12.29</v>
       </c>
       <c r="E20">
-        <v>0.00403367510875</v>
+        <v>-0.00217898312721</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G20">
-        <v>226.27</v>
+        <v>294.04</v>
       </c>
       <c r="H20">
-        <v>20.33</v>
+        <v>20.92</v>
       </c>
       <c r="I20">
-        <v>5886.179891</v>
+        <v>5259.66201</v>
       </c>
       <c r="J20">
-        <v>0.7638108928979822</v>
+        <v>0.8422469678076685</v>
       </c>
       <c r="K20">
-        <v>0.5866103312581704</v>
+        <v>0.6676538974803573</v>
       </c>
       <c r="L20">
-        <v>0.6019163744878601</v>
+        <v>0.6478541739249454</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2">
-        <v>41882</v>
+        <v>41455</v>
       </c>
       <c r="B21">
-        <v>0.31125</v>
+        <v>0.32938</v>
       </c>
       <c r="C21">
-        <v>101.92</v>
+        <v>103.11</v>
       </c>
       <c r="D21">
-        <v>9.140000000000001</v>
+        <v>11.92</v>
       </c>
       <c r="E21">
-        <v>0.00209425743043</v>
+        <v>-0.00144789862262</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G21">
-        <v>196.13</v>
+        <v>189.7</v>
       </c>
       <c r="H21">
-        <v>20.17</v>
+        <v>20.19</v>
       </c>
       <c r="I21">
-        <v>6830.35478</v>
+        <v>9055.055410000001</v>
       </c>
       <c r="J21">
-        <v>0.7447946316492472</v>
+        <v>0.8585037107303684</v>
       </c>
       <c r="K21">
-        <v>0.5829472606075842</v>
+        <v>0.6499071626810746</v>
       </c>
       <c r="L21">
-        <v>0.580972938994164</v>
+        <v>0.6320951778946903</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2">
-        <v>41912</v>
+        <v>41486</v>
       </c>
       <c r="B22">
-        <v>0.3175</v>
+        <v>0.3125</v>
       </c>
       <c r="C22">
-        <v>97.34</v>
+        <v>107.71608695652</v>
       </c>
       <c r="D22">
-        <v>9.24</v>
+        <v>11.6</v>
       </c>
       <c r="E22">
-        <v>0.00612724231634</v>
+        <v>-0.00018660335055</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G22">
-        <v>162.06</v>
+        <v>207.07</v>
       </c>
       <c r="H22">
-        <v>20.5</v>
+        <v>19.51</v>
       </c>
       <c r="I22">
-        <v>6431.270381</v>
+        <v>4780.1759</v>
       </c>
       <c r="J22">
-        <v>0.7357620290506148</v>
+        <v>0.8348733420306047</v>
       </c>
       <c r="K22">
-        <v>0.5870616816596992</v>
+        <v>0.6357231285495277</v>
       </c>
       <c r="L22">
-        <v>0.5789874107822613</v>
+        <v>0.608623615595951</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2">
-        <v>41943</v>
+        <v>41517</v>
       </c>
       <c r="B23">
-        <v>0.3175</v>
+        <v>0.31063</v>
       </c>
       <c r="C23">
-        <v>87.27</v>
+        <v>110.96454545455</v>
       </c>
       <c r="D23">
-        <v>9.77</v>
+        <v>11.64</v>
       </c>
       <c r="E23">
-        <v>0.00202797923177</v>
+        <v>0.0017359094249</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G23">
-        <v>221.56</v>
+        <v>180.33</v>
       </c>
       <c r="H23">
-        <v>20.83</v>
+        <v>19.75</v>
       </c>
       <c r="I23">
-        <v>10221.54844</v>
+        <v>5763.38508</v>
       </c>
       <c r="J23">
-        <v>0.7253086512339686</v>
+        <v>0.8405950985701316</v>
       </c>
       <c r="K23">
-        <v>0.5785585953770748</v>
+        <v>0.6467457881835041</v>
       </c>
       <c r="L23">
-        <v>0.5644320052005543</v>
+        <v>0.6213613680524864</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2">
-        <v>41973</v>
+        <v>41547</v>
       </c>
       <c r="B24">
-        <v>0.3175</v>
+        <v>0.301</v>
       </c>
       <c r="C24">
-        <v>78.44</v>
+        <v>111.62142857143</v>
       </c>
       <c r="D24">
-        <v>8.9</v>
+        <v>11.25</v>
       </c>
       <c r="E24">
-        <v>0.00181231082894</v>
+        <v>0.00567880702632</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G24">
-        <v>223.24</v>
+        <v>151.4</v>
       </c>
       <c r="H24">
-        <v>20.99</v>
+        <v>20.39</v>
       </c>
       <c r="I24">
-        <v>8013.31036</v>
+        <v>8486.01986</v>
       </c>
       <c r="J24">
-        <v>0.7343521954270652</v>
+        <v>0.8487359058149437</v>
       </c>
       <c r="K24">
-        <v>0.5759530835877673</v>
+        <v>0.6421140644338255</v>
       </c>
       <c r="L24">
-        <v>0.565783392934301</v>
+        <v>0.6223573908089982</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2">
-        <v>42004</v>
+        <v>41578</v>
       </c>
       <c r="B25">
-        <v>0.30813</v>
+        <v>0.29688</v>
       </c>
       <c r="C25">
-        <v>62.33</v>
+        <v>109.47869565217</v>
       </c>
       <c r="D25">
-        <v>9.83</v>
+        <v>11.37</v>
       </c>
       <c r="E25">
-        <v>0.00114753345983</v>
+        <v>0.00408272123409</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="G25">
-        <v>232.19</v>
+        <v>193.63</v>
       </c>
       <c r="H25">
-        <v>21.4</v>
+        <v>20.69</v>
       </c>
       <c r="I25">
-        <v>6036.39379</v>
+        <v>7777.98426</v>
       </c>
       <c r="J25">
-        <v>0.7496580666379383</v>
+        <v>0.8232638929131122</v>
       </c>
       <c r="K25">
-        <v>0.5707380048592361</v>
+        <v>0.6348739077977877</v>
       </c>
       <c r="L25">
-        <v>0.5625403764026504</v>
+        <v>0.6073372445208857</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2">
-        <v>42035</v>
+        <v>41608</v>
       </c>
       <c r="B26">
         <v>0.305</v>
       </c>
       <c r="C26">
-        <v>48.07</v>
+        <v>108.07619047619</v>
       </c>
       <c r="D26">
-        <v>9.25</v>
+        <v>11.42</v>
       </c>
       <c r="E26">
-        <v>0.00590365500828</v>
+        <v>0.00394188623561</v>
       </c>
       <c r="F26">
-        <v>98.02628841387055</v>
+        <v>99.270073</v>
       </c>
       <c r="G26">
-        <v>304.83</v>
+        <v>202.12</v>
       </c>
       <c r="H26">
-        <v>21.08</v>
+        <v>20.9</v>
       </c>
       <c r="I26">
-        <v>4617.67667</v>
+        <v>7698.69394</v>
       </c>
       <c r="J26">
-        <v>0.7511502344638139</v>
+        <v>0.8121355641936376</v>
       </c>
       <c r="K26">
-        <v>0.5684258519003971</v>
+        <v>0.6306641597470233</v>
       </c>
       <c r="L26">
-        <v>0.553810900247991</v>
+        <v>0.6009369425458041</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2">
-        <v>42063</v>
+        <v>41639</v>
       </c>
       <c r="B27">
         <v>0.305</v>
       </c>
       <c r="C27">
-        <v>57.93</v>
+        <v>110.674</v>
       </c>
       <c r="D27">
-        <v>8.27</v>
+        <v>11.55</v>
       </c>
       <c r="E27">
-        <v>0.00612390657803</v>
+        <v>0.00203496635956</v>
       </c>
       <c r="F27">
-        <v>98.12605701209255</v>
+        <v>99.270073</v>
       </c>
       <c r="G27">
-        <v>251.57</v>
+        <v>203.44</v>
       </c>
       <c r="H27">
-        <v>21.61</v>
+        <v>21.3</v>
       </c>
       <c r="I27">
-        <v>4321.84775</v>
+        <v>7647.09121</v>
       </c>
       <c r="J27">
-        <v>0.760122959601557</v>
+        <v>0.8074058386419162</v>
       </c>
       <c r="K27">
-        <v>0.5697013828398625</v>
+        <v>0.6107523031239191</v>
       </c>
       <c r="L27">
-        <v>0.5485366794799648</v>
+        <v>0.5891253726199061</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2">
-        <v>42094</v>
+        <v>41670</v>
       </c>
       <c r="B28">
-        <v>0.2955</v>
+        <v>0.33</v>
       </c>
       <c r="C28">
-        <v>55.79</v>
+        <v>107.42</v>
       </c>
       <c r="D28">
-        <v>8.27</v>
+        <v>11.59</v>
       </c>
       <c r="E28">
-        <v>0.00414185867872</v>
+        <v>0.00721709623224</v>
       </c>
       <c r="F28">
-        <v>98.0838213392952</v>
+        <v>100</v>
       </c>
       <c r="G28">
-        <v>400.65</v>
+        <v>361.17</v>
       </c>
       <c r="H28">
-        <v>21.56</v>
+        <v>21.29</v>
       </c>
       <c r="I28">
-        <v>3843.44886</v>
+        <v>6541.49859</v>
       </c>
       <c r="J28">
-        <v>0.7510792430703208</v>
+        <v>0.7709181489739785</v>
       </c>
       <c r="K28">
-        <v>0.5736145998586352</v>
+        <v>0.6066373078667835</v>
       </c>
       <c r="L28">
-        <v>0.5335659721072206</v>
+        <v>0.6002775590720512</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2">
-        <v>42124</v>
+        <v>41698</v>
       </c>
       <c r="B29">
-        <v>0.26</v>
+        <v>0.35313</v>
       </c>
       <c r="C29">
-        <v>59.39</v>
+        <v>108.81</v>
       </c>
       <c r="D29">
-        <v>6.77444566675</v>
+        <v>11.3</v>
       </c>
       <c r="E29">
-        <v>0.00837239522369</v>
+        <v>0.00109903582645</v>
       </c>
       <c r="F29">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="G29">
-        <v>386.07</v>
+        <v>296.94</v>
       </c>
       <c r="H29">
-        <v>21.67</v>
+        <v>21.3</v>
       </c>
       <c r="I29">
-        <v>4023.48343</v>
+        <v>4942.11893</v>
       </c>
       <c r="J29">
-        <v>0.7504441289241636</v>
+        <v>0.7925621089687369</v>
       </c>
       <c r="K29">
-        <v>0.5693962956377918</v>
+        <v>0.6139503909803039</v>
       </c>
       <c r="L29">
-        <v>0.5323431924868129</v>
+        <v>0.6597338111517724</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2">
-        <v>42155</v>
+        <v>41729</v>
       </c>
       <c r="B30">
-        <v>0.265</v>
+        <v>0.3275</v>
       </c>
       <c r="C30">
-        <v>64.56</v>
+        <v>107.4</v>
       </c>
       <c r="D30">
-        <v>6.68399731108</v>
+        <v>10.88</v>
       </c>
       <c r="E30">
-        <v>0.00177027607802</v>
+        <v>0.00696282099423</v>
       </c>
       <c r="F30">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="G30">
-        <v>352.84</v>
+        <v>353.4</v>
       </c>
       <c r="H30">
-        <v>21.62</v>
+        <v>21.3</v>
       </c>
       <c r="I30">
-        <v>3929.47179</v>
+        <v>5504.67138</v>
       </c>
       <c r="J30">
-        <v>0.7374647734611713</v>
+        <v>0.8068686654566634</v>
       </c>
       <c r="K30">
-        <v>0.5617302190931903</v>
+        <v>0.6180948817281297</v>
       </c>
       <c r="L30">
-        <v>0.5205763152449127</v>
+        <v>0.6651449333001744</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2">
-        <v>42185</v>
+        <v>41759</v>
       </c>
       <c r="B31">
-        <v>0.28875</v>
+        <v>0.26</v>
       </c>
       <c r="C31">
-        <v>62.34</v>
+        <v>107.79</v>
       </c>
       <c r="D31">
-        <v>6.66672592954</v>
+        <v>10.73</v>
       </c>
       <c r="E31">
-        <v>0.00407548979979</v>
+        <v>0.0029547590082</v>
       </c>
       <c r="F31">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>278.02</v>
+        <v>330.56</v>
       </c>
       <c r="H31">
-        <v>21.11</v>
+        <v>21.02</v>
       </c>
       <c r="I31">
-        <v>5889.86492</v>
+        <v>5158.61846</v>
       </c>
       <c r="J31">
-        <v>0.7362471033447635</v>
+        <v>0.8020950461564855</v>
       </c>
       <c r="K31">
-        <v>0.5489128209475207</v>
+        <v>0.6157498824700319</v>
       </c>
       <c r="L31">
-        <v>0.5189061203564601</v>
+        <v>0.6503967749331658</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2">
-        <v>42216</v>
+        <v>41790</v>
       </c>
       <c r="B32">
-        <v>0.28375</v>
+        <v>0.265</v>
       </c>
       <c r="C32">
-        <v>55.87</v>
+        <v>109.68</v>
       </c>
       <c r="D32">
-        <v>6.69403713465</v>
+        <v>10.2</v>
       </c>
       <c r="E32">
-        <v>-0.00079501885287</v>
+        <v>-0.00041124006945</v>
       </c>
       <c r="F32">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="G32">
-        <v>273.59</v>
+        <v>341.67</v>
       </c>
       <c r="H32">
-        <v>20.96</v>
+        <v>21.02</v>
       </c>
       <c r="I32">
-        <v>4836.23076</v>
+        <v>6216.49738</v>
       </c>
       <c r="J32">
-        <v>0.7360409638412788</v>
+        <v>0.7871571321656488</v>
       </c>
       <c r="K32">
-        <v>0.5437687296742808</v>
+        <v>0.6024213151913201</v>
       </c>
       <c r="L32">
-        <v>0.5144546614152439</v>
+        <v>0.6364812405234331</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2">
-        <v>42247</v>
+        <v>41820</v>
       </c>
       <c r="B33">
-        <v>0.27463</v>
+        <v>0.28875</v>
       </c>
       <c r="C33">
-        <v>46.99</v>
+        <v>111.87</v>
       </c>
       <c r="D33">
-        <v>6.34573758328</v>
+        <v>9.77</v>
       </c>
       <c r="E33">
-        <v>-1.30889878E-05</v>
+        <v>0.00104061164432</v>
       </c>
       <c r="F33">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>165.8</v>
+        <v>244.63</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>20.83</v>
       </c>
       <c r="I33">
-        <v>3861.52729</v>
+        <v>5132.147891</v>
       </c>
       <c r="J33">
-        <v>0.7332783886586499</v>
+        <v>0.7605184164311056</v>
       </c>
       <c r="K33">
-        <v>0.5439808398904451</v>
+        <v>0.5887944817376379</v>
       </c>
       <c r="L33">
-        <v>0.5024883515962226</v>
+        <v>0.6153944841018681</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2">
-        <v>42277</v>
+        <v>41851</v>
       </c>
       <c r="B34">
-        <v>0.27938</v>
+        <v>0.305</v>
       </c>
       <c r="C34">
-        <v>47.24</v>
+        <v>106.98</v>
       </c>
       <c r="D34">
-        <v>6.27869866034</v>
+        <v>9.27</v>
       </c>
       <c r="E34">
-        <v>0.00264426749746</v>
+        <v>0.00403367510875</v>
       </c>
       <c r="F34">
-        <v>98.02628841387089</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>141.76</v>
+        <v>226.27</v>
       </c>
       <c r="H34">
-        <v>21.73</v>
+        <v>20.33</v>
       </c>
       <c r="I34">
-        <v>4523.96033</v>
+        <v>5886.179891</v>
       </c>
       <c r="J34">
-        <v>0.7316656752119209</v>
+        <v>0.7638108928979822</v>
       </c>
       <c r="K34">
-        <v>0.5389258902595203</v>
+        <v>0.5866103312581704</v>
       </c>
       <c r="L34">
-        <v>0.5010827813650858</v>
+        <v>0.6019163744878601</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2">
-        <v>42308</v>
+        <v>41882</v>
       </c>
       <c r="B35">
-        <v>0.25063</v>
+        <v>0.31125</v>
       </c>
       <c r="C35">
-        <v>48.12</v>
+        <v>101.92</v>
       </c>
       <c r="D35">
-        <v>6.0269578206</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E35">
-        <v>-0.0009048161875800001</v>
+        <v>0.00209425743043</v>
       </c>
       <c r="F35">
-        <v>98.02829483619688</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>252.51</v>
+        <v>196.13</v>
       </c>
       <c r="H35">
-        <v>21.68</v>
+        <v>20.17</v>
       </c>
       <c r="I35">
-        <v>5986.03261</v>
+        <v>6830.35478</v>
       </c>
       <c r="J35">
-        <v>0.7248172806003725</v>
+        <v>0.7447946316492472</v>
       </c>
       <c r="K35">
-        <v>0.5239990920389065</v>
+        <v>0.5829472606075842</v>
       </c>
       <c r="L35">
-        <v>0.4939633701442998</v>
+        <v>0.580972938994164</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2">
-        <v>42338</v>
+        <v>41912</v>
       </c>
       <c r="B36">
-        <v>0.26363</v>
+        <v>0.3175</v>
       </c>
       <c r="C36">
-        <v>44.42</v>
+        <v>97.34</v>
       </c>
       <c r="D36">
-        <v>5.50083385123</v>
+        <v>9.24</v>
       </c>
       <c r="E36">
-        <v>0.00107409300206</v>
+        <v>0.00612724231634</v>
       </c>
       <c r="F36">
-        <v>98.02829483619688</v>
+        <v>100</v>
       </c>
       <c r="G36">
-        <v>265.22</v>
+        <v>162.06</v>
       </c>
       <c r="H36">
-        <v>21.77</v>
+        <v>20.5</v>
       </c>
       <c r="I36">
-        <v>5198.85892</v>
+        <v>6431.270381</v>
       </c>
       <c r="J36">
-        <v>0.7279191205105335</v>
+        <v>0.7357620290506148</v>
       </c>
       <c r="K36">
-        <v>0.5134723375152869</v>
+        <v>0.5870616816596992</v>
       </c>
       <c r="L36">
-        <v>0.4862558135097635</v>
+        <v>0.5789874107822613</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2">
-        <v>42369</v>
+        <v>41943</v>
       </c>
       <c r="B37">
-        <v>0.264</v>
+        <v>0.3175</v>
       </c>
       <c r="C37">
-        <v>37.72</v>
+        <v>87.27</v>
       </c>
       <c r="D37">
-        <v>5.09276298262</v>
+        <v>9.77</v>
       </c>
       <c r="E37">
-        <v>0.00094405261526</v>
+        <v>0.00202797923177</v>
       </c>
       <c r="F37">
-        <v>98.08582776162112</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>314.72</v>
+        <v>221.56</v>
       </c>
       <c r="H37">
-        <v>22.07</v>
+        <v>20.83</v>
       </c>
       <c r="I37">
-        <v>4485.22452</v>
+        <v>10221.54844</v>
       </c>
       <c r="J37">
-        <v>0.7368903829903433</v>
+        <v>0.7253086512339686</v>
       </c>
       <c r="K37">
-        <v>0.5789985427337893</v>
+        <v>0.5785585953770748</v>
       </c>
       <c r="L37">
-        <v>0.5695672343194765</v>
+        <v>0.5644320052005543</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
-        <v>42400</v>
+        <v>41973</v>
       </c>
       <c r="B38">
-        <v>0.23388</v>
+        <v>0.3175</v>
       </c>
       <c r="C38">
-        <v>30.8</v>
+        <v>78.44</v>
       </c>
       <c r="D38">
-        <v>4.39818627541</v>
+        <v>8.9</v>
       </c>
       <c r="E38">
-        <v>0.00308156793444</v>
+        <v>0.00181231082894</v>
       </c>
       <c r="F38">
-        <v>98.08582776162126</v>
+        <v>100</v>
       </c>
       <c r="G38">
-        <v>298.85</v>
+        <v>223.24</v>
       </c>
       <c r="H38">
-        <v>22.72</v>
+        <v>20.99</v>
       </c>
       <c r="I38">
-        <v>3861.58431</v>
+        <v>8013.31036</v>
       </c>
       <c r="J38">
-        <v>0.7082951047200332</v>
+        <v>0.7343521954270652</v>
       </c>
       <c r="K38">
-        <v>0.52035543962008</v>
+        <v>0.5759530835877673</v>
       </c>
       <c r="L38">
-        <v>0.4820168788629647</v>
+        <v>0.565783392934301</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
-        <v>42429</v>
+        <v>42004</v>
       </c>
       <c r="B39">
-        <v>0.19188</v>
+        <v>0.30813</v>
       </c>
       <c r="C39">
-        <v>33.2</v>
+        <v>62.33</v>
       </c>
       <c r="D39">
-        <v>3.96837858928</v>
+        <v>9.83</v>
       </c>
       <c r="E39">
-        <v>0.00138043624841</v>
+        <v>0.00114753345983</v>
       </c>
       <c r="F39">
-        <v>98.08582776162126</v>
+        <v>100</v>
       </c>
       <c r="G39">
-        <v>371.81</v>
+        <v>232.19</v>
       </c>
       <c r="H39">
-        <v>22.26</v>
+        <v>21.4</v>
       </c>
       <c r="I39">
-        <v>4516.16623</v>
+        <v>6036.39379</v>
       </c>
       <c r="J39">
-        <v>0.7131837726449133</v>
+        <v>0.7496580666379383</v>
       </c>
       <c r="K39">
-        <v>0.50661793829489</v>
+        <v>0.5707380048592361</v>
       </c>
       <c r="L39">
-        <v>0.4752541678252299</v>
+        <v>0.5625403764026504</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
-        <v>42460</v>
+        <v>42035</v>
       </c>
       <c r="B40">
-        <v>0.20175</v>
+        <v>0.305</v>
       </c>
       <c r="C40">
-        <v>39.07</v>
+        <v>48.07</v>
       </c>
       <c r="D40">
-        <v>3.9101802431</v>
+        <v>9.25</v>
       </c>
       <c r="E40">
-        <v>0.00137015609557</v>
+        <v>0.00590365500828</v>
       </c>
       <c r="F40">
-        <v>98.08582776162126</v>
+        <v>98.02628841387055</v>
       </c>
       <c r="G40">
-        <v>400.65</v>
+        <v>304.83</v>
       </c>
       <c r="H40">
-        <v>22.41</v>
+        <v>21.08</v>
       </c>
       <c r="I40">
-        <v>4322.98412</v>
+        <v>4617.67667</v>
       </c>
       <c r="J40">
-        <v>0.7122545484395849</v>
+        <v>0.7511502344638139</v>
       </c>
       <c r="K40">
-        <v>0.5097552412684396</v>
+        <v>0.5684258519003971</v>
       </c>
       <c r="L40">
-        <v>0.4794919871561822</v>
+        <v>0.553810900247991</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
-        <v>42490</v>
+        <v>42063</v>
       </c>
       <c r="B41">
-        <v>0.19625</v>
+        <v>0.305</v>
       </c>
       <c r="C41">
-        <v>42.25</v>
+        <v>57.93</v>
       </c>
       <c r="D41">
-        <v>3.97007508979</v>
+        <v>8.27</v>
       </c>
       <c r="E41">
-        <v>0.00306576018604</v>
+        <v>0.00612390657803</v>
       </c>
       <c r="F41">
-        <v>98.08582776162126</v>
+        <v>98.12605701209255</v>
       </c>
       <c r="G41">
-        <v>392.07</v>
+        <v>251.57</v>
       </c>
       <c r="H41">
-        <v>22.18</v>
+        <v>21.61</v>
       </c>
       <c r="I41">
-        <v>3340.26966</v>
+        <v>4321.84775</v>
       </c>
       <c r="J41">
-        <v>0.70524149096461</v>
+        <v>0.760122959601557</v>
       </c>
       <c r="K41">
-        <v>0.5264900767246228</v>
+        <v>0.5697013828398625</v>
       </c>
       <c r="L41">
-        <v>0.4708083191360896</v>
+        <v>0.5485366794799648</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
-        <v>42521</v>
+        <v>42094</v>
       </c>
       <c r="B42">
-        <v>0.19838</v>
+        <v>0.2955</v>
       </c>
       <c r="C42">
-        <v>47.13</v>
+        <v>55.79</v>
       </c>
       <c r="D42">
-        <v>4.32919186506</v>
+        <v>8.27</v>
       </c>
       <c r="E42">
-        <v>0.0003179953095</v>
+        <v>0.00414185867872</v>
       </c>
       <c r="F42">
-        <v>98.08582776162126</v>
+        <v>98.0838213392952</v>
       </c>
       <c r="G42">
-        <v>296.52</v>
+        <v>400.65</v>
       </c>
       <c r="H42">
-        <v>21.89</v>
+        <v>21.56</v>
       </c>
       <c r="I42">
-        <v>4416.719989</v>
+        <v>3843.44886</v>
       </c>
       <c r="J42">
-        <v>0.6801871339478551</v>
+        <v>0.7510792430703208</v>
       </c>
       <c r="K42">
-        <v>0.4919299661332283</v>
+        <v>0.5736145998586352</v>
       </c>
       <c r="L42">
-        <v>0.4507667876778689</v>
+        <v>0.5335659721072206</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
-        <v>42551</v>
+        <v>42124</v>
       </c>
       <c r="B43">
-        <v>0.14263</v>
+        <v>0.26</v>
       </c>
       <c r="C43">
-        <v>48.48</v>
+        <v>59.39</v>
       </c>
       <c r="D43">
-        <v>4.75572046689</v>
+        <v>6.77444566675</v>
       </c>
       <c r="E43">
-        <v>0.00358857193346</v>
+        <v>0.00837239522369</v>
       </c>
       <c r="F43">
-        <v>97.84130078642208</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G43">
-        <v>246.5</v>
+        <v>386.07</v>
       </c>
       <c r="H43">
-        <v>20.74</v>
+        <v>21.67</v>
       </c>
       <c r="I43">
-        <v>5524.22315</v>
+        <v>4023.48343</v>
       </c>
       <c r="J43">
-        <v>0.6774509940113768</v>
+        <v>0.7504441289241636</v>
       </c>
       <c r="K43">
-        <v>0.4827820835235166</v>
+        <v>0.5693962956377918</v>
       </c>
       <c r="L43">
-        <v>0.4359624158169977</v>
+        <v>0.5323431924868129</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
-        <v>42582</v>
+        <v>42155</v>
       </c>
       <c r="B44">
-        <v>0.181</v>
+        <v>0.265</v>
       </c>
       <c r="C44">
-        <v>45.07</v>
+        <v>64.56</v>
       </c>
       <c r="D44">
-        <v>4.67473769135</v>
+        <v>6.68399731108</v>
       </c>
       <c r="E44">
-        <v>-0.00085202382591</v>
+        <v>0.00177027607802</v>
       </c>
       <c r="F44">
-        <v>97.91208819177156</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G44">
-        <v>181.77</v>
+        <v>352.84</v>
       </c>
       <c r="H44">
-        <v>20.37</v>
+        <v>21.62</v>
       </c>
       <c r="I44">
-        <v>5132.94098</v>
+        <v>3929.47179</v>
       </c>
       <c r="J44">
-        <v>0.67394890533351</v>
+        <v>0.7374647734611713</v>
       </c>
       <c r="K44">
-        <v>0.4749401360383756</v>
+        <v>0.5617302190931903</v>
       </c>
       <c r="L44">
-        <v>0.4324644529996413</v>
+        <v>0.5205763152449127</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
-        <v>42613</v>
+        <v>42185</v>
       </c>
       <c r="B45">
-        <v>0.18625</v>
+        <v>0.28875</v>
       </c>
       <c r="C45">
-        <v>46.14</v>
+        <v>62.34</v>
       </c>
       <c r="D45">
-        <v>4.0474899302</v>
+        <v>6.66672592954</v>
       </c>
       <c r="E45">
-        <v>-0.00163017094656</v>
+        <v>0.00407548979979</v>
       </c>
       <c r="F45">
-        <v>97.91208819177152</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G45">
-        <v>134.29</v>
+        <v>278.02</v>
       </c>
       <c r="H45">
-        <v>20.83</v>
+        <v>21.11</v>
       </c>
       <c r="I45">
-        <v>4812.37234</v>
+        <v>5889.86492</v>
       </c>
       <c r="J45">
-        <v>0.6517968140188468</v>
+        <v>0.7362471033447635</v>
       </c>
       <c r="K45">
-        <v>0.4659717030490173</v>
+        <v>0.5489128209475207</v>
       </c>
       <c r="L45">
-        <v>0.4148335152970328</v>
+        <v>0.5189061203564601</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2">
-        <v>42643</v>
+        <v>42216</v>
       </c>
       <c r="B46">
-        <v>0.1873</v>
+        <v>0.28375</v>
       </c>
       <c r="C46">
-        <v>46.19</v>
+        <v>55.87</v>
       </c>
       <c r="D46">
-        <v>4.25361416995</v>
+        <v>6.69403713465</v>
       </c>
       <c r="E46">
-        <v>0.00152368939712</v>
+        <v>-0.00079501885287</v>
       </c>
       <c r="F46">
-        <v>97.91208819177152</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G46">
-        <v>200.68</v>
+        <v>273.59</v>
       </c>
       <c r="H46">
-        <v>20.83</v>
+        <v>20.96</v>
       </c>
       <c r="I46">
-        <v>5963.76003</v>
+        <v>4836.23076</v>
       </c>
       <c r="J46">
-        <v>0.6581080643125961</v>
+        <v>0.7360409638412788</v>
       </c>
       <c r="K46">
-        <v>0.4622594157791444</v>
+        <v>0.5437687296742808</v>
       </c>
       <c r="L46">
-        <v>0.4049646873664867</v>
+        <v>0.5144546614152439</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2">
-        <v>42674</v>
+        <v>42247</v>
       </c>
       <c r="B47">
-        <v>0.1875</v>
+        <v>0.27463</v>
       </c>
       <c r="C47">
-        <v>49.73</v>
+        <v>46.99</v>
       </c>
       <c r="D47">
-        <v>5.33681888345</v>
+        <v>6.34573758328</v>
       </c>
       <c r="E47">
-        <v>-0.00082248029822</v>
+        <v>-1.30889878E-05</v>
       </c>
       <c r="F47">
-        <v>97.91208819177152</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G47">
-        <v>202.9</v>
+        <v>165.8</v>
       </c>
       <c r="H47">
-        <v>21.13</v>
+        <v>21</v>
       </c>
       <c r="I47">
-        <v>5529.39903</v>
+        <v>3861.52729</v>
       </c>
       <c r="J47">
-        <v>0.6329962394515387</v>
+        <v>0.7332783886586499</v>
       </c>
       <c r="K47">
-        <v>0.4569607153811139</v>
+        <v>0.5439808398904451</v>
       </c>
       <c r="L47">
-        <v>0.4017526614000725</v>
+        <v>0.5024883515962226</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2">
-        <v>42704</v>
+        <v>42277</v>
       </c>
       <c r="B48">
-        <v>0.205</v>
+        <v>0.27938</v>
       </c>
       <c r="C48">
-        <v>46.44</v>
+        <v>47.24</v>
       </c>
       <c r="D48">
-        <v>5.69317950115</v>
+        <v>6.27869866034</v>
       </c>
       <c r="E48">
-        <v>-0.00145242116852</v>
+        <v>0.00264426749746</v>
       </c>
       <c r="F48">
-        <v>97.91208819177152</v>
+        <v>98.02628841387089</v>
       </c>
       <c r="G48">
-        <v>179.69</v>
+        <v>141.76</v>
       </c>
       <c r="H48">
-        <v>21.31</v>
+        <v>21.73</v>
       </c>
       <c r="I48">
-        <v>5152.64297</v>
+        <v>4523.96033</v>
       </c>
       <c r="J48">
-        <v>0.644940891062284</v>
+        <v>0.7316656752119209</v>
       </c>
       <c r="K48">
-        <v>0.4501325491753546</v>
+        <v>0.5389258902595203</v>
       </c>
       <c r="L48">
-        <v>0.3924427379220669</v>
+        <v>0.5010827813650858</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2">
-        <v>42735</v>
+        <v>42308</v>
       </c>
       <c r="B49">
-        <v>0.21775</v>
+        <v>0.25063</v>
       </c>
       <c r="C49">
-        <v>54.07</v>
+        <v>48.12</v>
       </c>
       <c r="D49">
-        <v>5.4235014224</v>
+        <v>6.0269578206</v>
       </c>
       <c r="E49">
-        <v>0.00158789945524</v>
+        <v>-0.0009048161875800001</v>
       </c>
       <c r="F49">
-        <v>97.91208819177152</v>
+        <v>98.02829483619688</v>
       </c>
       <c r="G49">
-        <v>270.98</v>
+        <v>252.51</v>
       </c>
       <c r="H49">
-        <v>21.38</v>
+        <v>21.68</v>
       </c>
       <c r="I49">
-        <v>4194.69998</v>
+        <v>5986.03261</v>
       </c>
       <c r="J49">
-        <v>0.6133937372661861</v>
+        <v>0.7248172806003725</v>
       </c>
       <c r="K49">
-        <v>0.4381112528138649</v>
+        <v>0.5239990920389065</v>
       </c>
       <c r="L49">
-        <v>0.3852240718303008</v>
+        <v>0.4939633701442998</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2">
-        <v>42766</v>
+        <v>42338</v>
       </c>
       <c r="B50">
-        <v>0.23375</v>
+        <v>0.26363</v>
       </c>
       <c r="C50">
-        <v>54.89</v>
+        <v>44.42</v>
       </c>
       <c r="D50">
-        <v>6.1443492548</v>
+        <v>5.50083385123</v>
       </c>
       <c r="E50">
-        <v>0.00087802460833</v>
+        <v>0.00107409300206</v>
       </c>
       <c r="F50">
-        <v>97.91208819177152</v>
+        <v>98.02829483619688</v>
       </c>
       <c r="G50">
-        <v>401.06</v>
+        <v>265.22</v>
       </c>
       <c r="H50">
-        <v>21.31</v>
+        <v>21.77</v>
       </c>
       <c r="I50">
-        <v>3306.6732</v>
+        <v>5198.85892</v>
       </c>
       <c r="J50">
-        <v>0.6119653913513597</v>
+        <v>0.7279191205105335</v>
       </c>
       <c r="K50">
-        <v>0.4189712864604639</v>
+        <v>0.5134723375152869</v>
       </c>
       <c r="L50">
-        <v>0.3757816224299683</v>
+        <v>0.4862558135097635</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2">
-        <v>42794</v>
+        <v>42369</v>
       </c>
       <c r="B51">
-        <v>0.19188</v>
+        <v>0.264</v>
       </c>
       <c r="C51">
-        <v>55.49</v>
+        <v>37.72</v>
       </c>
       <c r="D51">
-        <v>6.0515836448</v>
+        <v>5.09276298262</v>
       </c>
       <c r="E51">
-        <v>0.00198239742056</v>
+        <v>0.00094405261526</v>
       </c>
       <c r="F51">
-        <v>97.91208819177152</v>
+        <v>98.08582776162112</v>
       </c>
       <c r="G51">
-        <v>374.02</v>
+        <v>314.72</v>
       </c>
       <c r="H51">
-        <v>21.73</v>
+        <v>22.07</v>
       </c>
       <c r="I51">
-        <v>4438.75097</v>
+        <v>4485.22452</v>
       </c>
       <c r="J51">
-        <v>0.6094123404924796</v>
+        <v>0.7368903829903433</v>
       </c>
       <c r="K51">
-        <v>0.4194869450039482</v>
+        <v>0.5789985427337893</v>
       </c>
       <c r="L51">
-        <v>0.3801776975183191</v>
+        <v>0.5695672343194765</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2">
-        <v>42825</v>
+        <v>42400</v>
       </c>
       <c r="B52">
-        <v>0.2235</v>
+        <v>0.23388</v>
       </c>
       <c r="C52">
-        <v>51.97</v>
+        <v>30.8</v>
       </c>
       <c r="D52">
-        <v>5.00094507654</v>
+        <v>4.39818627541</v>
       </c>
       <c r="E52">
-        <v>0.00137693262354</v>
+        <v>0.00308156793444</v>
       </c>
       <c r="F52">
-        <v>97.91208819177152</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="G52">
-        <v>506.02</v>
+        <v>298.85</v>
       </c>
       <c r="H52">
-        <v>21.62</v>
+        <v>22.72</v>
       </c>
       <c r="I52">
-        <v>3927.49723</v>
+        <v>3861.58431</v>
       </c>
       <c r="J52">
-        <v>0.5906995176848999</v>
+        <v>0.7082951047200332</v>
       </c>
       <c r="K52">
-        <v>0.4095239204696108</v>
+        <v>0.52035543962008</v>
       </c>
       <c r="L52">
-        <v>0.3796829711461435</v>
+        <v>0.4820168788629647</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2">
-        <v>42855</v>
+        <v>42429</v>
       </c>
       <c r="B53">
-        <v>0.20788</v>
+        <v>0.19188</v>
       </c>
       <c r="C53">
-        <v>52.98</v>
+        <v>33.2</v>
       </c>
       <c r="D53">
-        <v>5.0109139183</v>
+        <v>3.96837858928</v>
       </c>
       <c r="E53">
-        <v>0.00434842015415</v>
+        <v>0.00138043624841</v>
       </c>
       <c r="F53">
-        <v>97.95424232791308</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="G53">
-        <v>415.07</v>
+        <v>371.81</v>
       </c>
       <c r="H53">
-        <v>21.76</v>
+        <v>22.26</v>
       </c>
       <c r="I53">
-        <v>2953.88078</v>
+        <v>4516.16623</v>
       </c>
       <c r="J53">
-        <v>0.5868720639049638</v>
+        <v>0.7131837726449133</v>
       </c>
       <c r="K53">
-        <v>0.405180175617541</v>
+        <v>0.50661793829489</v>
       </c>
       <c r="L53">
-        <v>0.3853709019696611</v>
+        <v>0.4752541678252299</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2">
-        <v>42886</v>
+        <v>42460</v>
       </c>
       <c r="B54">
-        <v>0.17875</v>
+        <v>0.20175</v>
       </c>
       <c r="C54">
-        <v>50.87</v>
+        <v>39.07</v>
       </c>
       <c r="D54">
-        <v>5.05843597847</v>
+        <v>3.9101802431</v>
       </c>
       <c r="E54">
-        <v>0.00045645566958</v>
+        <v>0.00137015609557</v>
       </c>
       <c r="F54">
-        <v>97.97997752065884</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="G54">
-        <v>322.6</v>
+        <v>400.65</v>
       </c>
       <c r="H54">
-        <v>21.63</v>
+        <v>22.41</v>
       </c>
       <c r="I54">
-        <v>3640.82551</v>
+        <v>4322.98412</v>
       </c>
       <c r="J54">
-        <v>0.573869282856736</v>
+        <v>0.7122545484395849</v>
       </c>
       <c r="K54">
-        <v>0.4015699245825985</v>
+        <v>0.5097552412684396</v>
       </c>
       <c r="L54">
-        <v>0.3794184921721392</v>
+        <v>0.4794919871561822</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2">
-        <v>42916</v>
+        <v>42490</v>
       </c>
       <c r="B55">
-        <v>0.191</v>
+        <v>0.19625</v>
       </c>
       <c r="C55">
-        <v>46.89</v>
+        <v>42.25</v>
       </c>
       <c r="D55">
-        <v>4.88676678563</v>
+        <v>3.97007508979</v>
       </c>
       <c r="E55">
-        <v>-0.00576902248113</v>
+        <v>0.00306576018604</v>
       </c>
       <c r="F55">
-        <v>97.97997752065884</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="G55">
-        <v>320.13</v>
+        <v>392.07</v>
       </c>
       <c r="H55">
-        <v>20.94</v>
+        <v>22.18</v>
       </c>
       <c r="I55">
-        <v>3736.72312</v>
+        <v>3340.26966</v>
       </c>
       <c r="J55">
-        <v>0.5712148756594164</v>
+        <v>0.70524149096461</v>
       </c>
       <c r="K55">
-        <v>0.4034776979418357</v>
+        <v>0.5264900767246228</v>
       </c>
       <c r="L55">
-        <v>0.3774734637533921</v>
+        <v>0.4708083191360896</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2">
-        <v>42947</v>
+        <v>42521</v>
       </c>
       <c r="B56">
-        <v>0.181</v>
+        <v>0.19838</v>
       </c>
       <c r="C56">
-        <v>48.69</v>
+        <v>47.13</v>
       </c>
       <c r="D56">
-        <v>5.00392083226</v>
+        <v>4.32919186506</v>
       </c>
       <c r="E56">
-        <v>-0.00140564910807</v>
+        <v>0.0003179953095</v>
       </c>
       <c r="F56">
-        <v>97.97997752065884</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="G56">
-        <v>217.77</v>
+        <v>296.52</v>
       </c>
       <c r="H56">
-        <v>20</v>
+        <v>21.89</v>
       </c>
       <c r="I56">
-        <v>3428.81063</v>
+        <v>4416.719989</v>
       </c>
       <c r="J56">
-        <v>0.5718061065673941</v>
+        <v>0.6801871339478551</v>
       </c>
       <c r="K56">
-        <v>0.4039366566347481</v>
+        <v>0.4919299661332283</v>
       </c>
       <c r="L56">
-        <v>0.3723830460132087</v>
+        <v>0.4507667876778689</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2">
-        <v>42978</v>
+        <v>42551</v>
       </c>
       <c r="B57">
-        <v>0.19263</v>
+        <v>0.14263</v>
       </c>
       <c r="C57">
-        <v>51.37</v>
+        <v>48.48</v>
       </c>
       <c r="D57">
-        <v>5.47660118187</v>
+        <v>4.75572046689</v>
       </c>
       <c r="E57">
-        <v>0.00011880160151</v>
+        <v>0.00358857193346</v>
       </c>
       <c r="F57">
-        <v>97.97997752065884</v>
+        <v>97.84130078642208</v>
       </c>
       <c r="G57">
-        <v>173.8</v>
+        <v>246.5</v>
       </c>
       <c r="H57">
-        <v>20.64</v>
+        <v>20.74</v>
       </c>
       <c r="I57">
-        <v>3790.15657</v>
+        <v>5524.22315</v>
       </c>
       <c r="J57">
-        <v>0.5670839700904221</v>
+        <v>0.6774509940113768</v>
       </c>
       <c r="K57">
-        <v>0.4000445458004329</v>
+        <v>0.4827820835235166</v>
       </c>
       <c r="L57">
-        <v>0.3762183908862028</v>
+        <v>0.4359624158169977</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2">
-        <v>43008</v>
+        <v>42582</v>
       </c>
       <c r="B58">
-        <v>0.219</v>
+        <v>0.181</v>
       </c>
       <c r="C58">
-        <v>55.16</v>
+        <v>45.07</v>
       </c>
       <c r="D58">
-        <v>5.96114997199</v>
+        <v>4.67473769135</v>
       </c>
       <c r="E58">
-        <v>-0.00153016125844</v>
+        <v>-0.00085202382591</v>
       </c>
       <c r="F58">
-        <v>97.97997752065884</v>
+        <v>97.91208819177156</v>
       </c>
       <c r="G58">
-        <v>195.94</v>
+        <v>181.77</v>
       </c>
       <c r="H58">
-        <v>20.83</v>
+        <v>20.37</v>
       </c>
       <c r="I58">
-        <v>5170.16211</v>
+        <v>5132.94098</v>
       </c>
       <c r="J58">
-        <v>0.561030784199779</v>
+        <v>0.67394890533351</v>
       </c>
       <c r="K58">
-        <v>0.4021054445406691</v>
+        <v>0.4749401360383756</v>
       </c>
       <c r="L58">
-        <v>0.372834926962389</v>
+        <v>0.4324644529996413</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2">
-        <v>43039</v>
+        <v>42613</v>
       </c>
       <c r="B59">
-        <v>0.2525</v>
+        <v>0.18625</v>
       </c>
       <c r="C59">
-        <v>57.62</v>
+        <v>46.14</v>
       </c>
       <c r="D59">
-        <v>6.17632034854</v>
+        <v>4.0474899302</v>
       </c>
       <c r="E59">
-        <v>-0.00144501037016</v>
+        <v>-0.00163017094656</v>
       </c>
       <c r="F59">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G59">
-        <v>238.19</v>
+        <v>134.29</v>
       </c>
       <c r="H59">
-        <v>20.9</v>
+        <v>20.83</v>
       </c>
       <c r="I59">
-        <v>4862.82435</v>
+        <v>4812.37234</v>
       </c>
       <c r="J59">
-        <v>0.5626949628126553</v>
+        <v>0.6517968140188468</v>
       </c>
       <c r="K59">
-        <v>0.3995277553379309</v>
+        <v>0.4659717030490173</v>
       </c>
       <c r="L59">
-        <v>0.3807104265648893</v>
+        <v>0.4148335152970328</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2">
-        <v>43069</v>
+        <v>42643</v>
       </c>
       <c r="B60">
-        <v>0.28</v>
+        <v>0.1873</v>
       </c>
       <c r="C60">
-        <v>62.57</v>
+        <v>46.19</v>
       </c>
       <c r="D60">
-        <v>6.69459903982</v>
+        <v>4.25361416995</v>
       </c>
       <c r="E60">
-        <v>-0.00273660660508</v>
+        <v>0.00152368939712</v>
       </c>
       <c r="F60">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G60">
-        <v>195.82</v>
+        <v>200.68</v>
       </c>
       <c r="H60">
-        <v>20.88</v>
+        <v>20.83</v>
       </c>
       <c r="I60">
-        <v>4964.61876</v>
+        <v>5963.76003</v>
       </c>
       <c r="J60">
-        <v>0.5615750418085595</v>
+        <v>0.6581080643125961</v>
       </c>
       <c r="K60">
-        <v>0.4058760094163821</v>
+        <v>0.4622594157791444</v>
       </c>
       <c r="L60">
-        <v>0.3971248781318372</v>
+        <v>0.4049646873664867</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2">
-        <v>43100</v>
+        <v>42674</v>
       </c>
       <c r="B61">
-        <v>0.21463</v>
+        <v>0.1875</v>
       </c>
       <c r="C61">
-        <v>64.20999999999999</v>
+        <v>49.73</v>
       </c>
       <c r="D61">
-        <v>7.13893361413</v>
+        <v>5.33681888345</v>
       </c>
       <c r="E61">
-        <v>0.00179457811322</v>
+        <v>-0.00082248029822</v>
       </c>
       <c r="F61">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G61">
-        <v>230.95</v>
+        <v>202.9</v>
       </c>
       <c r="H61">
-        <v>21.46</v>
+        <v>21.13</v>
       </c>
       <c r="I61">
-        <v>4838.307681</v>
+        <v>5529.39903</v>
       </c>
       <c r="J61">
-        <v>0.5762267455775837</v>
+        <v>0.6329962394515387</v>
       </c>
       <c r="K61">
-        <v>0.4084063713133668</v>
+        <v>0.4569607153811139</v>
       </c>
       <c r="L61">
-        <v>0.4056065803137805</v>
+        <v>0.4017526614000725</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2">
-        <v>43131</v>
+        <v>42704</v>
       </c>
       <c r="B62">
-        <v>0.21963</v>
+        <v>0.205</v>
       </c>
       <c r="C62">
-        <v>68.98999999999999</v>
+        <v>46.44</v>
       </c>
       <c r="D62">
-        <v>6.66225501314</v>
+        <v>5.69317950115</v>
       </c>
       <c r="E62">
-        <v>0.00190552479263</v>
+        <v>-0.00145242116852</v>
       </c>
       <c r="F62">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G62">
-        <v>312.03</v>
+        <v>179.69</v>
       </c>
       <c r="H62">
-        <v>20.94</v>
+        <v>21.31</v>
       </c>
       <c r="I62">
-        <v>3666.273411</v>
+        <v>5152.64297</v>
       </c>
       <c r="J62">
-        <v>0.5776619715289413</v>
+        <v>0.644940891062284</v>
       </c>
       <c r="K62">
-        <v>0.409342352213161</v>
+        <v>0.4501325491753546</v>
       </c>
       <c r="L62">
-        <v>0.4092689479479041</v>
+        <v>0.3924427379220669</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2">
-        <v>43159</v>
+        <v>42735</v>
       </c>
       <c r="B63">
-        <v>0.2325</v>
+        <v>0.21775</v>
       </c>
       <c r="C63">
-        <v>65.42</v>
+        <v>54.07</v>
       </c>
       <c r="D63">
-        <v>6.7187497665</v>
+        <v>5.4235014224</v>
       </c>
       <c r="E63">
-        <v>0.00153156004926</v>
+        <v>0.00158789945524</v>
       </c>
       <c r="F63">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G63">
-        <v>310.7</v>
+        <v>270.98</v>
       </c>
       <c r="H63">
-        <v>21.68</v>
+        <v>21.38</v>
       </c>
       <c r="I63">
-        <v>4324.740451</v>
+        <v>4194.69998</v>
       </c>
       <c r="J63">
-        <v>0.5802853560060884</v>
+        <v>0.6133937372661861</v>
       </c>
       <c r="K63">
-        <v>0.4129828136827214</v>
+        <v>0.4381112528138649</v>
       </c>
       <c r="L63">
-        <v>0.4119379962762168</v>
+        <v>0.3852240718303008</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2">
-        <v>43190</v>
+        <v>42766</v>
       </c>
       <c r="B64">
-        <v>0.2325</v>
+        <v>0.23375</v>
       </c>
       <c r="C64">
-        <v>66.45</v>
+        <v>54.89</v>
       </c>
       <c r="D64">
-        <v>6.69738764036</v>
+        <v>6.1443492548</v>
       </c>
       <c r="E64">
-        <v>0.00063701729307</v>
+        <v>0.00087802460833</v>
       </c>
       <c r="F64">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G64">
-        <v>307.97</v>
+        <v>401.06</v>
       </c>
       <c r="H64">
-        <v>21.53</v>
+        <v>21.31</v>
       </c>
       <c r="I64">
-        <v>3954.51446</v>
+        <v>3306.6732</v>
       </c>
       <c r="J64">
-        <v>0.5887058884603555</v>
+        <v>0.6119653913513597</v>
       </c>
       <c r="K64">
-        <v>0.4194516232675338</v>
+        <v>0.4189712864604639</v>
       </c>
       <c r="L64">
-        <v>0.4084890959634587</v>
+        <v>0.3757816224299683</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2">
-        <v>43220</v>
+        <v>42794</v>
       </c>
       <c r="B65">
-        <v>0.23063</v>
+        <v>0.19188</v>
       </c>
       <c r="C65">
-        <v>71.63</v>
+        <v>55.49</v>
       </c>
       <c r="D65">
-        <v>6.92785820242</v>
+        <v>6.0515836448</v>
       </c>
       <c r="E65">
-        <v>-0.00138895199145</v>
+        <v>0.00198239742056</v>
       </c>
       <c r="F65">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G65">
-        <v>344.31</v>
+        <v>374.02</v>
       </c>
       <c r="H65">
-        <v>21.24</v>
+        <v>21.73</v>
       </c>
       <c r="I65">
-        <v>3663.55946</v>
+        <v>4438.75097</v>
       </c>
       <c r="J65">
-        <v>0.5996765247552019</v>
+        <v>0.6094123404924796</v>
       </c>
       <c r="K65">
-        <v>0.4182540962496526</v>
+        <v>0.4194869450039482</v>
       </c>
       <c r="L65">
-        <v>0.4082163228140767</v>
+        <v>0.3801776975183191</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2">
-        <v>43251</v>
+        <v>42825</v>
       </c>
       <c r="B66">
-        <v>0.22188</v>
+        <v>0.2235</v>
       </c>
       <c r="C66">
-        <v>76.65000000000001</v>
+        <v>51.97</v>
       </c>
       <c r="D66">
-        <v>7.48735405732</v>
+        <v>5.00094507654</v>
       </c>
       <c r="E66">
-        <v>-0.0018259436073</v>
+        <v>0.00137693262354</v>
       </c>
       <c r="F66">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G66">
-        <v>425.86</v>
+        <v>506.02</v>
       </c>
       <c r="H66">
-        <v>20.99</v>
+        <v>21.62</v>
       </c>
       <c r="I66">
-        <v>3401.10983</v>
+        <v>3927.49723</v>
       </c>
       <c r="J66">
-        <v>0.5992319244246379</v>
+        <v>0.5906995176848999</v>
       </c>
       <c r="K66">
-        <v>0.4247061801827444</v>
+        <v>0.4095239204696108</v>
       </c>
       <c r="L66">
-        <v>0.4092757319405805</v>
+        <v>0.3796829711461435</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2">
-        <v>43281</v>
+        <v>42855</v>
       </c>
       <c r="B67">
-        <v>0.224</v>
+        <v>0.20788</v>
       </c>
       <c r="C67">
-        <v>75.19</v>
+        <v>52.98</v>
       </c>
       <c r="D67">
-        <v>7.44894284404</v>
+        <v>5.0109139183</v>
       </c>
       <c r="E67">
-        <v>-0.00274227610422</v>
+        <v>0.00434842015415</v>
       </c>
       <c r="F67">
-        <v>97.97997752065884</v>
+        <v>97.95424232791308</v>
       </c>
       <c r="G67">
-        <v>262.28</v>
+        <v>415.07</v>
       </c>
       <c r="H67">
-        <v>20.13</v>
+        <v>21.76</v>
       </c>
       <c r="I67">
-        <v>3908.36782</v>
+        <v>2953.88078</v>
       </c>
       <c r="J67">
-        <v>0.5925505931277354</v>
+        <v>0.5868720639049638</v>
       </c>
       <c r="K67">
-        <v>0.4232105630033004</v>
+        <v>0.405180175617541</v>
       </c>
       <c r="L67">
-        <v>0.410921143000296</v>
+        <v>0.3853709019696611</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2">
-        <v>43312</v>
+        <v>42886</v>
       </c>
       <c r="B68">
-        <v>0.2525</v>
+        <v>0.17875</v>
       </c>
       <c r="C68">
-        <v>74.44</v>
+        <v>50.87</v>
       </c>
       <c r="D68">
-        <v>7.59883923025</v>
+        <v>5.05843597847</v>
       </c>
       <c r="E68">
-        <v>-4.117844953E-05</v>
+        <v>0.00045645566958</v>
       </c>
       <c r="F68">
         <v>97.97997752065884</v>
       </c>
       <c r="G68">
-        <v>227.12</v>
+        <v>322.6</v>
       </c>
       <c r="H68">
-        <v>20</v>
+        <v>21.63</v>
       </c>
       <c r="I68">
-        <v>3885.60396</v>
+        <v>3640.82551</v>
       </c>
       <c r="J68">
-        <v>0.5926849073507539</v>
+        <v>0.573869282856736</v>
       </c>
       <c r="K68">
-        <v>0.4235829246476788</v>
+        <v>0.4015699245825985</v>
       </c>
       <c r="L68">
-        <v>0.4005033119652912</v>
+        <v>0.3794184921721392</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2">
-        <v>43343</v>
+        <v>42916</v>
       </c>
       <c r="B69">
-        <v>0.26</v>
+        <v>0.191</v>
       </c>
       <c r="C69">
-        <v>73.13</v>
+        <v>46.89</v>
       </c>
       <c r="D69">
-        <v>8.084909938439999</v>
+        <v>4.88676678563</v>
       </c>
       <c r="E69">
-        <v>0.00269488517407</v>
+        <v>-0.00576902248113</v>
       </c>
       <c r="F69">
-        <v>98.01516824569984</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G69">
-        <v>201.97</v>
+        <v>320.13</v>
       </c>
       <c r="H69">
-        <v>20.18</v>
+        <v>20.94</v>
       </c>
       <c r="I69">
-        <v>5077.83115</v>
+        <v>3736.72312</v>
       </c>
       <c r="J69">
-        <v>0.6070360547859387</v>
+        <v>0.5712148756594164</v>
       </c>
       <c r="K69">
-        <v>0.4244212088682396</v>
+        <v>0.4034776979418357</v>
       </c>
       <c r="L69">
-        <v>0.4063387360245332</v>
+        <v>0.3774734637533921</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2">
-        <v>43373</v>
+        <v>42947</v>
       </c>
       <c r="B70">
-        <v>0.2675</v>
+        <v>0.181</v>
       </c>
       <c r="C70">
-        <v>78.86</v>
+        <v>48.69</v>
       </c>
       <c r="D70">
-        <v>9.521577031210001</v>
+        <v>5.00392083226</v>
       </c>
       <c r="E70">
-        <v>0.00391878650828</v>
+        <v>-0.00140564910807</v>
       </c>
       <c r="F70">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G70">
-        <v>149.22</v>
+        <v>217.77</v>
       </c>
       <c r="H70">
-        <v>20.88</v>
+        <v>20</v>
       </c>
       <c r="I70">
-        <v>6525.150167</v>
+        <v>3428.81063</v>
       </c>
       <c r="J70">
-        <v>0.6037781957841553</v>
+        <v>0.5718061065673941</v>
       </c>
       <c r="K70">
-        <v>0.4280846460807511</v>
+        <v>0.4039366566347481</v>
       </c>
       <c r="L70">
-        <v>0.4146280495119632</v>
+        <v>0.3723830460132087</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2">
-        <v>43404</v>
+        <v>42978</v>
       </c>
       <c r="B71">
-        <v>0.27</v>
+        <v>0.19263</v>
       </c>
       <c r="C71">
-        <v>80.47</v>
+        <v>51.37</v>
       </c>
       <c r="D71">
-        <v>8.79096072974</v>
+        <v>5.47660118187</v>
       </c>
       <c r="E71">
-        <v>-0.00047014044846</v>
+        <v>0.00011880160151</v>
       </c>
       <c r="F71">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G71">
-        <v>172.67</v>
+        <v>173.8</v>
       </c>
       <c r="H71">
-        <v>21.05</v>
+        <v>20.64</v>
       </c>
       <c r="I71">
-        <v>6430.85169</v>
+        <v>3790.15657</v>
       </c>
       <c r="J71">
-        <v>0.6039922068969591</v>
+        <v>0.5670839700904221</v>
       </c>
       <c r="K71">
-        <v>0.4407373645281277</v>
+        <v>0.4000445458004329</v>
       </c>
       <c r="L71">
-        <v>0.4195099642783503</v>
+        <v>0.3762183908862028</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2">
-        <v>43434</v>
+        <v>43008</v>
       </c>
       <c r="B72">
-        <v>0.3056</v>
+        <v>0.219</v>
       </c>
       <c r="C72">
-        <v>65.17</v>
+        <v>55.16</v>
       </c>
       <c r="D72">
-        <v>8.26507901291</v>
+        <v>5.96114997199</v>
       </c>
       <c r="E72">
-        <v>-0.00252818995549</v>
+        <v>-0.00153016125844</v>
       </c>
       <c r="F72">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G72">
-        <v>263.9</v>
+        <v>195.94</v>
       </c>
       <c r="H72">
-        <v>21.45</v>
+        <v>20.83</v>
       </c>
       <c r="I72">
-        <v>6460.046536</v>
+        <v>5170.16211</v>
       </c>
       <c r="J72">
-        <v>0.6234575520382455</v>
+        <v>0.561030784199779</v>
       </c>
       <c r="K72">
-        <v>0.4454718421567269</v>
+        <v>0.4021054445406691</v>
       </c>
       <c r="L72">
-        <v>0.4376988824792035</v>
+        <v>0.372834926962389</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2">
-        <v>43465</v>
+        <v>43039</v>
       </c>
       <c r="B73">
-        <v>0.27667</v>
+        <v>0.2525</v>
       </c>
       <c r="C73">
-        <v>56.46</v>
+        <v>57.62</v>
       </c>
       <c r="D73">
-        <v>7.97624238009</v>
+        <v>6.17632034854</v>
       </c>
       <c r="E73">
-        <v>0.0009917513392399999</v>
+        <v>-0.00144501037016</v>
       </c>
       <c r="F73">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G73">
-        <v>295.84</v>
+        <v>238.19</v>
       </c>
       <c r="H73">
-        <v>21.23</v>
+        <v>20.9</v>
       </c>
       <c r="I73">
-        <v>4650.75879</v>
+        <v>4862.82435</v>
       </c>
       <c r="J73">
-        <v>0.6302897123397672</v>
+        <v>0.5626949628126553</v>
       </c>
       <c r="K73">
-        <v>0.4538936917955425</v>
+        <v>0.3995277553379309</v>
       </c>
       <c r="L73">
-        <v>0.4539792377992551</v>
+        <v>0.3807104265648893</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2">
-        <v>43496</v>
+        <v>43069</v>
       </c>
       <c r="B74">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="C74">
-        <v>59.27</v>
+        <v>62.57</v>
       </c>
       <c r="D74">
-        <v>7.26234323345</v>
+        <v>6.69459903982</v>
       </c>
       <c r="E74">
-        <v>0.00465456261143</v>
+        <v>-0.00273660660508</v>
       </c>
       <c r="F74">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G74">
-        <v>394.89</v>
+        <v>195.82</v>
       </c>
       <c r="H74">
-        <v>21.4</v>
+        <v>20.88</v>
       </c>
       <c r="I74">
-        <v>3908.69756</v>
+        <v>4964.61876</v>
       </c>
       <c r="J74">
-        <v>0.6286519971960961</v>
+        <v>0.5615750418085595</v>
       </c>
       <c r="K74">
-        <v>0.4558955064314986</v>
+        <v>0.4058760094163821</v>
       </c>
       <c r="L74">
-        <v>0.4505445931224069</v>
+        <v>0.3971248781318372</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2">
-        <v>43524</v>
+        <v>43100</v>
       </c>
       <c r="B75">
-        <v>0.25063</v>
+        <v>0.21463</v>
       </c>
       <c r="C75">
-        <v>64.13</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="D75">
-        <v>6.0057971222</v>
+        <v>7.13893361413</v>
       </c>
       <c r="E75">
-        <v>-0.00229347078498</v>
+        <v>0.00179457811322</v>
       </c>
       <c r="F75">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G75">
-        <v>355.02</v>
+        <v>230.95</v>
       </c>
       <c r="H75">
-        <v>21.8</v>
+        <v>21.46</v>
       </c>
       <c r="I75">
-        <v>6573.69929</v>
+        <v>4838.307681</v>
       </c>
       <c r="J75">
-        <v>0.6250239082798074</v>
+        <v>0.5762267455775837</v>
       </c>
       <c r="K75">
-        <v>0.4554264112708893</v>
+        <v>0.4084063713133668</v>
       </c>
       <c r="L75">
-        <v>0.4514769796457457</v>
+        <v>0.4056065803137805</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2">
-        <v>43555</v>
+        <v>43131</v>
       </c>
       <c r="B76">
-        <v>0.2475</v>
+        <v>0.21963</v>
       </c>
       <c r="C76">
-        <v>66.41</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="D76">
-        <v>5.17873567413</v>
+        <v>6.66225501314</v>
       </c>
       <c r="E76">
-        <v>-0.00211455999295</v>
+        <v>0.00190552479263</v>
       </c>
       <c r="F76">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G76">
-        <v>436.05</v>
+        <v>312.03</v>
       </c>
       <c r="H76">
-        <v>21.9</v>
+        <v>20.94</v>
       </c>
       <c r="I76">
-        <v>5670.77539</v>
+        <v>3666.273411</v>
       </c>
       <c r="J76">
-        <v>0.6234674327292586</v>
+        <v>0.5776619715289413</v>
       </c>
       <c r="K76">
-        <v>0.460548948085544</v>
+        <v>0.409342352213161</v>
       </c>
       <c r="L76">
-        <v>0.4487622053307301</v>
+        <v>0.4092689479479041</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2">
-        <v>43585</v>
+        <v>43159</v>
       </c>
       <c r="B77">
-        <v>0.2475</v>
+        <v>0.2325</v>
       </c>
       <c r="C77">
-        <v>71.2</v>
+        <v>65.42</v>
       </c>
       <c r="D77">
-        <v>4.92218081968</v>
+        <v>6.7187497665</v>
       </c>
       <c r="E77">
-        <v>0.00171565356043</v>
+        <v>0.00153156004926</v>
       </c>
       <c r="F77">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G77">
-        <v>358.33</v>
+        <v>310.7</v>
       </c>
       <c r="H77">
-        <v>22.01</v>
+        <v>21.68</v>
       </c>
       <c r="I77">
-        <v>5891.17601</v>
+        <v>4324.740451</v>
       </c>
       <c r="J77">
-        <v>0.622</v>
+        <v>0.5802853560060884</v>
       </c>
       <c r="K77">
-        <v>0.4544</v>
+        <v>0.4129828136827214</v>
       </c>
       <c r="L77">
-        <v>0.4476</v>
+        <v>0.4119379962762168</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2">
-        <v>43616</v>
+        <v>43190</v>
       </c>
       <c r="B78">
-        <v>0.2475</v>
+        <v>0.2325</v>
       </c>
       <c r="C78">
-        <v>70.53</v>
+        <v>66.45</v>
       </c>
       <c r="D78">
-        <v>4.34105529405</v>
+        <v>6.69738764036</v>
       </c>
       <c r="E78">
-        <v>-4.207610894E-05</v>
+        <v>0.00063701729307</v>
       </c>
       <c r="F78">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G78">
-        <v>336.86</v>
+        <v>307.97</v>
       </c>
       <c r="H78">
-        <v>21.66</v>
+        <v>21.53</v>
       </c>
       <c r="I78">
-        <v>7782.943649999999</v>
+        <v>3954.51446</v>
       </c>
       <c r="J78">
-        <v>0.6126506698651649</v>
+        <v>0.5887058884603555</v>
       </c>
       <c r="K78">
-        <v>0.4507624943472984</v>
+        <v>0.4194516232675338</v>
       </c>
       <c r="L78">
-        <v>0.4423859214662514</v>
+        <v>0.4084890959634587</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2">
-        <v>43646</v>
+        <v>43220</v>
       </c>
       <c r="B79">
-        <v>0.2475</v>
+        <v>0.23063</v>
       </c>
       <c r="C79">
-        <v>63.3</v>
+        <v>71.63</v>
       </c>
       <c r="D79">
-        <v>3.58800651227</v>
+        <v>6.92785820242</v>
       </c>
       <c r="E79">
-        <v>-0.00035781895471</v>
+        <v>-0.00138895199145</v>
       </c>
       <c r="F79">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G79">
-        <v>345.6</v>
+        <v>344.31</v>
       </c>
       <c r="H79">
-        <v>20.73</v>
+        <v>21.24</v>
       </c>
       <c r="I79">
-        <v>6430.247820000001</v>
+        <v>3663.55946</v>
       </c>
       <c r="J79">
-        <v>0.6274000000000001</v>
+        <v>0.5996765247552019</v>
       </c>
       <c r="K79">
-        <v>0.4554</v>
+        <v>0.4182540962496526</v>
       </c>
       <c r="L79">
-        <v>0.4424</v>
+        <v>0.4082163228140767</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2">
-        <v>43677</v>
+        <v>43251</v>
       </c>
       <c r="B80">
-        <v>0.2635</v>
+        <v>0.22188</v>
       </c>
       <c r="C80">
-        <v>64</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="D80">
-        <v>3.62037140561</v>
+        <v>7.48735405732</v>
       </c>
       <c r="E80">
-        <v>0.00091334275368</v>
+        <v>-0.0018259436073</v>
       </c>
       <c r="F80">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G80">
-        <v>254.23</v>
+        <v>425.86</v>
       </c>
       <c r="H80">
-        <v>20.21</v>
+        <v>20.99</v>
       </c>
       <c r="I80">
-        <v>6257.670698</v>
+        <v>3401.10983</v>
       </c>
       <c r="J80">
-        <v>0.62</v>
+        <v>0.5992319244246379</v>
       </c>
       <c r="K80">
-        <v>0.456</v>
+        <v>0.4247061801827444</v>
       </c>
       <c r="L80">
-        <v>0.4462</v>
+        <v>0.4092757319405805</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2">
-        <v>43708</v>
+        <v>43281</v>
       </c>
       <c r="B81">
-        <v>0.2625</v>
+        <v>0.224</v>
       </c>
       <c r="C81">
-        <v>59.25</v>
+        <v>75.19</v>
       </c>
       <c r="D81">
-        <v>3.67677516041</v>
+        <v>7.44894284404</v>
       </c>
       <c r="E81">
-        <v>-0.00104143223119</v>
+        <v>-0.00274227610422</v>
       </c>
       <c r="F81">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G81">
-        <v>176.19</v>
+        <v>262.28</v>
       </c>
       <c r="H81">
-        <v>20.03</v>
+        <v>20.13</v>
       </c>
       <c r="I81">
-        <v>8281.287778</v>
+        <v>3908.36782</v>
       </c>
       <c r="J81">
-        <v>0.6183587061173751</v>
+        <v>0.5925505931277354</v>
       </c>
       <c r="K81">
-        <v>0.4546927883766855</v>
+        <v>0.4232105630033004</v>
       </c>
       <c r="L81">
-        <v>0.4446507602159024</v>
+        <v>0.410921143000296</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2">
-        <v>43738</v>
+        <v>43312</v>
       </c>
       <c r="B82">
-        <v>0.23775</v>
+        <v>0.2525</v>
       </c>
       <c r="C82">
-        <v>62.33</v>
+        <v>74.44</v>
       </c>
       <c r="D82">
-        <v>4.20525568494</v>
+        <v>7.59883923025</v>
       </c>
       <c r="E82">
-        <v>-0.00011961364761</v>
+        <v>-4.117844953E-05</v>
       </c>
       <c r="F82">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G82">
-        <v>145.09</v>
+        <v>227.12</v>
       </c>
       <c r="H82">
-        <v>20.79</v>
+        <v>20</v>
       </c>
       <c r="I82">
-        <v>7419.157670000001</v>
+        <v>3885.60396</v>
       </c>
       <c r="J82">
-        <v>0.623</v>
+        <v>0.5926849073507539</v>
       </c>
       <c r="K82">
-        <v>0.4606</v>
+        <v>0.4235829246476788</v>
       </c>
       <c r="L82">
-        <v>0.4464</v>
+        <v>0.4005033119652912</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2">
-        <v>43769</v>
+        <v>43343</v>
       </c>
       <c r="B83">
-        <v>0.237</v>
+        <v>0.26</v>
       </c>
       <c r="C83">
-        <v>59.37</v>
+        <v>73.13</v>
       </c>
       <c r="D83">
-        <v>5.05721785787</v>
+        <v>8.084909938439999</v>
       </c>
       <c r="E83">
-        <v>0.00520726461684</v>
+        <v>0.00269488517407</v>
       </c>
       <c r="F83">
-        <v>137.0503756674423</v>
+        <v>98.01516824569984</v>
       </c>
       <c r="G83">
-        <v>244.06</v>
+        <v>201.97</v>
       </c>
       <c r="H83">
-        <v>20.67</v>
+        <v>20.18</v>
       </c>
       <c r="I83">
-        <v>6976.49419</v>
+        <v>5077.83115</v>
       </c>
       <c r="J83">
-        <v>0.6209818009238687</v>
+        <v>0.6070360547859387</v>
       </c>
       <c r="K83">
-        <v>0.4604397761609888</v>
+        <v>0.4244212088682396</v>
       </c>
       <c r="L83">
-        <v>0.4453506664447094</v>
+        <v>0.4063387360245332</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2">
-        <v>43799</v>
+        <v>43373</v>
       </c>
       <c r="B84">
-        <v>0.2245</v>
+        <v>0.2675</v>
       </c>
       <c r="C84">
-        <v>62.74</v>
+        <v>78.86</v>
       </c>
       <c r="D84">
-        <v>5.15000421731</v>
+        <v>9.521577031210001</v>
       </c>
       <c r="E84">
-        <v>-0.00703696796229</v>
+        <v>0.00391878650828</v>
       </c>
       <c r="F84">
-        <v>99.4114860409143</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G84">
-        <v>245.19</v>
+        <v>149.22</v>
       </c>
       <c r="H84">
-        <v>21.26</v>
+        <v>20.88</v>
       </c>
       <c r="I84">
-        <v>10025.937</v>
+        <v>6525.150167</v>
       </c>
       <c r="J84">
-        <v>0.6102945543333986</v>
+        <v>0.6037781957841553</v>
       </c>
       <c r="K84">
-        <v>0.4599395366561294</v>
+        <v>0.4280846460807511</v>
       </c>
       <c r="L84">
-        <v>0.4456775215020361</v>
+        <v>0.4146280495119632</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2">
-        <v>43830</v>
+        <v>43404</v>
       </c>
       <c r="B85">
-        <v>0.2175</v>
+        <v>0.27</v>
       </c>
       <c r="C85">
-        <v>65.84999999999999</v>
+        <v>80.47</v>
       </c>
       <c r="D85">
-        <v>4.62047221239</v>
+        <v>8.79096072974</v>
       </c>
       <c r="E85">
-        <v>-8.186548111E-05</v>
+        <v>-0.00047014044846</v>
       </c>
       <c r="F85">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G85">
-        <v>296.07</v>
+        <v>172.67</v>
       </c>
       <c r="H85">
-        <v>21.5</v>
+        <v>21.05</v>
       </c>
       <c r="I85">
-        <v>6053.644204</v>
+        <v>6430.85169</v>
       </c>
       <c r="J85">
-        <v>0.6121007748619023</v>
+        <v>0.6039922068969591</v>
       </c>
       <c r="K85">
-        <v>0.4559536170868154</v>
+        <v>0.4407373645281277</v>
       </c>
       <c r="L85">
-        <v>0.4454939616221102</v>
+        <v>0.4195099642783503</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2">
-        <v>43861</v>
+        <v>43434</v>
       </c>
       <c r="B86">
-        <v>0.2154</v>
+        <v>0.3056</v>
       </c>
       <c r="C86">
-        <v>63.6</v>
+        <v>65.17</v>
       </c>
       <c r="D86">
-        <v>3.63338434727</v>
+        <v>8.26507901291</v>
       </c>
       <c r="E86">
-        <v>0.00227012721181</v>
+        <v>-0.00252818995549</v>
       </c>
       <c r="F86">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G86">
-        <v>268.32</v>
+        <v>263.9</v>
       </c>
       <c r="H86">
-        <v>22.01</v>
+        <v>21.45</v>
       </c>
       <c r="I86">
-        <v>6823.207037</v>
+        <v>6460.046536</v>
       </c>
       <c r="J86">
-        <v>0.5798794935342798</v>
+        <v>0.6234575520382455</v>
       </c>
       <c r="K86">
-        <v>0.4539837972817095</v>
+        <v>0.4454718421567269</v>
       </c>
       <c r="L86">
-        <v>0.4238762451913749</v>
+        <v>0.4376988824792035</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2">
-        <v>43890</v>
+        <v>43465</v>
       </c>
       <c r="B87">
-        <v>0.21438</v>
+        <v>0.27667</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>56.46</v>
       </c>
       <c r="D87">
-        <v>2.90777364106</v>
+        <v>7.97624238009</v>
       </c>
       <c r="E87">
-        <v>-0.00154420697631</v>
+        <v>0.0009917513392399999</v>
       </c>
       <c r="F87">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G87">
-        <v>321.64</v>
+        <v>295.84</v>
       </c>
       <c r="H87">
-        <v>22.2</v>
+        <v>21.23</v>
       </c>
       <c r="I87">
-        <v>7529.79096</v>
+        <v>4650.75879</v>
       </c>
       <c r="J87">
-        <v>0.5875022997238413</v>
+        <v>0.6302897123397672</v>
       </c>
       <c r="K87">
-        <v>0.461018220276661</v>
+        <v>0.4538936917955425</v>
       </c>
       <c r="L87">
-        <v>0.4278012723222966</v>
+        <v>0.4539792377992551</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2">
-        <v>43921</v>
+        <v>43496</v>
       </c>
       <c r="B88">
-        <v>0.23113</v>
+        <v>0.26</v>
       </c>
       <c r="C88">
-        <v>32.98</v>
+        <v>59.27</v>
       </c>
       <c r="D88">
-        <v>2.71886838175</v>
+        <v>7.26234323345</v>
       </c>
       <c r="E88">
-        <v>0.00197441076879</v>
+        <v>0.00465456261143</v>
       </c>
       <c r="F88">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G88">
-        <v>329.31</v>
+        <v>394.89</v>
       </c>
       <c r="H88">
-        <v>22.22</v>
+        <v>21.4</v>
       </c>
       <c r="I88">
-        <v>6661.60374</v>
+        <v>3908.69756</v>
       </c>
       <c r="J88">
-        <v>0.5910162277330805</v>
+        <v>0.6286519971960961</v>
       </c>
       <c r="K88">
-        <v>0.4634344740544055</v>
+        <v>0.4558955064314986</v>
       </c>
       <c r="L88">
-        <v>0.441561624663992</v>
+        <v>0.4505445931224069</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B89">
-        <v>0.235</v>
+        <v>0.25063</v>
       </c>
       <c r="C89">
-        <v>23.34</v>
+        <v>64.13</v>
       </c>
       <c r="D89">
-        <v>2.12031866732</v>
+        <v>6.0057971222</v>
       </c>
       <c r="E89">
-        <v>0.01002625234371</v>
+        <v>-0.00229347078498</v>
       </c>
       <c r="F89">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G89">
-        <v>287.48</v>
+        <v>355.02</v>
       </c>
       <c r="H89">
-        <v>21.87</v>
+        <v>21.8</v>
       </c>
       <c r="I89">
-        <v>4337.199904</v>
+        <v>6573.69929</v>
       </c>
       <c r="J89">
-        <v>0.5903701357863657</v>
+        <v>0.6250239082798074</v>
       </c>
       <c r="K89">
-        <v>0.4650872943506536</v>
+        <v>0.4554264112708893</v>
       </c>
       <c r="L89">
-        <v>0.4337927922320309</v>
+        <v>0.4514769796457457</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B90">
-        <v>0.2019</v>
+        <v>0.2475</v>
       </c>
       <c r="C90">
-        <v>31.02</v>
+        <v>66.41</v>
       </c>
       <c r="D90">
-        <v>1.57516497792</v>
+        <v>5.17873567413</v>
       </c>
       <c r="E90">
-        <v>-0.00259984108389</v>
+        <v>-0.00211455999295</v>
       </c>
       <c r="F90">
-        <v>98.30844248225289</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G90">
-        <v>275.21</v>
+        <v>436.05</v>
       </c>
       <c r="H90">
-        <v>21.59</v>
+        <v>21.9</v>
       </c>
       <c r="I90">
-        <v>11007.46799</v>
+        <v>5670.77539</v>
       </c>
       <c r="J90">
-        <v>0.5878590666596513</v>
+        <v>0.6234674327292586</v>
       </c>
       <c r="K90">
-        <v>0.4619869070384683</v>
+        <v>0.460548948085544</v>
       </c>
       <c r="L90">
-        <v>0.4363662775517037</v>
+        <v>0.4487622053307301</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2">
-        <v>44012</v>
+        <v>43585</v>
       </c>
       <c r="B91">
-        <v>0.202</v>
+        <v>0.2475</v>
       </c>
       <c r="C91">
-        <v>39.93</v>
+        <v>71.2</v>
       </c>
       <c r="D91">
-        <v>1.75217111218</v>
+        <v>4.92218081968</v>
       </c>
       <c r="E91">
-        <v>-0.00619814666477</v>
+        <v>0.00171565356043</v>
       </c>
       <c r="F91">
-        <v>96.25287528847934</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G91">
-        <v>203.66</v>
+        <v>358.33</v>
       </c>
       <c r="H91">
-        <v>20.85</v>
+        <v>22.01</v>
       </c>
       <c r="I91">
-        <v>7572.009145</v>
+        <v>5891.17601</v>
       </c>
       <c r="J91">
-        <v>0.5936037863571761</v>
+        <v>0.622</v>
       </c>
       <c r="K91">
-        <v>0.463368544993051</v>
+        <v>0.4544</v>
       </c>
       <c r="L91">
-        <v>0.4250314652252695</v>
+        <v>0.4476</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2">
-        <v>44043</v>
+        <v>43616</v>
       </c>
       <c r="B92">
-        <v>0.2144</v>
+        <v>0.2475</v>
       </c>
       <c r="C92">
-        <v>42.81</v>
+        <v>70.53</v>
       </c>
       <c r="D92">
-        <v>1.80103549647</v>
+        <v>4.34105529405</v>
       </c>
       <c r="E92">
-        <v>-0.0061264945265</v>
+        <v>-4.207610894E-05</v>
       </c>
       <c r="F92">
-        <v>98.0489561823302</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G92">
-        <v>204.7</v>
+        <v>336.86</v>
       </c>
       <c r="H92">
-        <v>20.23</v>
+        <v>21.66</v>
       </c>
       <c r="I92">
-        <v>8272.779326</v>
+        <v>7782.943649999999</v>
       </c>
       <c r="J92">
-        <v>0.5950080420233913</v>
+        <v>0.6126506698651649</v>
       </c>
       <c r="K92">
-        <v>0.4596774021676645</v>
+        <v>0.4507624943472984</v>
       </c>
       <c r="L92">
-        <v>0.426920858478315</v>
+        <v>0.4423859214662514</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2">
-        <v>44074</v>
+        <v>43646</v>
       </c>
       <c r="B93">
-        <v>0.2495</v>
+        <v>0.2475</v>
       </c>
       <c r="C93">
-        <v>44.26</v>
+        <v>63.3</v>
       </c>
       <c r="D93">
-        <v>2.86189667673</v>
+        <v>3.58800651227</v>
       </c>
       <c r="E93">
-        <v>-0.00323849742065</v>
+        <v>-0.00035781895471</v>
       </c>
       <c r="F93">
-        <v>103.2035973795328</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G93">
-        <v>106.47</v>
+        <v>345.6</v>
       </c>
       <c r="H93">
-        <v>20.46</v>
+        <v>20.73</v>
       </c>
       <c r="I93">
-        <v>7837.36055</v>
+        <v>6430.247820000001</v>
       </c>
       <c r="J93">
-        <v>0.5839844584757314</v>
+        <v>0.6274000000000001</v>
       </c>
       <c r="K93">
-        <v>0.4475733753158581</v>
+        <v>0.4554</v>
       </c>
       <c r="L93">
-        <v>0.4245467557882587</v>
+        <v>0.4424</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2">
-        <v>44104</v>
+        <v>43677</v>
       </c>
       <c r="B94">
-        <v>0.2505</v>
+        <v>0.2635</v>
       </c>
       <c r="C94">
-        <v>41.09</v>
+        <v>64</v>
       </c>
       <c r="D94">
-        <v>3.95213946267</v>
+        <v>3.62037140561</v>
       </c>
       <c r="E94">
-        <v>-0.00156555891193</v>
+        <v>0.00091334275368</v>
       </c>
       <c r="F94">
-        <v>107.4431956605944</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G94">
-        <v>171.99</v>
+        <v>254.23</v>
       </c>
       <c r="H94">
-        <v>20.66</v>
+        <v>20.21</v>
       </c>
       <c r="I94">
-        <v>7543.88328</v>
+        <v>6257.670698</v>
       </c>
       <c r="J94">
-        <v>0.5801687666759132</v>
+        <v>0.62</v>
       </c>
       <c r="K94">
-        <v>0.4374529502196333</v>
+        <v>0.456</v>
       </c>
       <c r="L94">
-        <v>0.427146900595301</v>
+        <v>0.4462</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2">
-        <v>44135</v>
+        <v>43708</v>
       </c>
       <c r="B95">
-        <v>0.245</v>
+        <v>0.2625</v>
       </c>
       <c r="C95">
-        <v>40.47</v>
+        <v>59.25</v>
       </c>
       <c r="D95">
-        <v>4.88959040816</v>
+        <v>3.67677516041</v>
       </c>
       <c r="E95">
-        <v>-0.00189278490435</v>
+        <v>-0.00104143223119</v>
       </c>
       <c r="F95">
-        <v>113.1483822788417</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G95">
-        <v>157.96</v>
+        <v>176.19</v>
       </c>
       <c r="H95">
-        <v>21.1</v>
+        <v>20.03</v>
       </c>
       <c r="I95">
-        <v>8122.73614</v>
+        <v>8281.287778</v>
       </c>
       <c r="J95">
-        <v>0.5836147884226655</v>
+        <v>0.6183587061173751</v>
       </c>
       <c r="K95">
-        <v>0.4326789864995383</v>
+        <v>0.4546927883766855</v>
       </c>
       <c r="L95">
-        <v>0.4435789806440569</v>
+        <v>0.4446507602159024</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2">
-        <v>44165</v>
+        <v>43738</v>
       </c>
       <c r="B96">
-        <v>0.245</v>
+        <v>0.23775</v>
       </c>
       <c r="C96">
-        <v>43.23</v>
+        <v>62.33</v>
       </c>
       <c r="D96">
-        <v>4.83583900516</v>
+        <v>4.20525568494</v>
       </c>
       <c r="E96">
-        <v>-8.734381945E-05</v>
+        <v>-0.00011961364761</v>
       </c>
       <c r="F96">
-        <v>118.9970042591801</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G96">
-        <v>190.62</v>
+        <v>145.09</v>
       </c>
       <c r="H96">
-        <v>21.16</v>
+        <v>20.79</v>
       </c>
       <c r="I96">
-        <v>7401.836921</v>
+        <v>7419.157670000001</v>
       </c>
       <c r="J96">
-        <v>0.5800873003902469</v>
+        <v>0.623</v>
       </c>
       <c r="K96">
-        <v>0.4362732025320636</v>
+        <v>0.4606</v>
       </c>
       <c r="L96">
-        <v>0.4330661807003539</v>
+        <v>0.4464</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2">
-        <v>44196</v>
+        <v>43769</v>
       </c>
       <c r="B97">
-        <v>0.245</v>
+        <v>0.237</v>
       </c>
       <c r="C97">
-        <v>49.87</v>
+        <v>59.37</v>
       </c>
       <c r="D97">
-        <v>5.85610629604</v>
+        <v>5.05721785787</v>
       </c>
       <c r="E97">
-        <v>-0.00028612321912</v>
+        <v>0.00520726461684</v>
       </c>
       <c r="F97">
-        <v>123.2737384642799</v>
+        <v>137.0503756674423</v>
       </c>
       <c r="G97">
-        <v>337.06</v>
+        <v>244.06</v>
       </c>
       <c r="H97">
-        <v>21.14</v>
+        <v>20.67</v>
       </c>
       <c r="I97">
-        <v>7698.285653</v>
+        <v>6976.49419</v>
       </c>
       <c r="J97">
-        <v>0.5795411821807901</v>
+        <v>0.6209818009238687</v>
       </c>
       <c r="K97">
-        <v>0.4352607196986089</v>
+        <v>0.4604397761609888</v>
       </c>
       <c r="L97">
-        <v>0.4318200771688913</v>
+        <v>0.4453506664447094</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2">
-        <v>44227</v>
+        <v>43799</v>
       </c>
       <c r="B98">
-        <v>0.265</v>
+        <v>0.2245</v>
       </c>
       <c r="C98">
-        <v>54.55</v>
+        <v>62.74</v>
       </c>
       <c r="D98">
-        <v>7.2683017493</v>
+        <v>5.15000421731</v>
       </c>
       <c r="E98">
-        <v>0.00116155048064</v>
+        <v>-0.00703696796229</v>
       </c>
       <c r="F98">
-        <v>128.7950567429762</v>
+        <v>99.4114860409143</v>
       </c>
       <c r="G98">
-        <v>364.08</v>
+        <v>245.19</v>
       </c>
       <c r="H98">
-        <v>21.22</v>
+        <v>21.26</v>
       </c>
       <c r="I98">
-        <v>7851.07915</v>
+        <v>10025.937</v>
       </c>
       <c r="J98">
-        <v>0.5741375881055839</v>
+        <v>0.6102945543333986</v>
       </c>
       <c r="K98">
-        <v>0.4303488303732484</v>
+        <v>0.4599395366561294</v>
       </c>
       <c r="L98">
-        <v>0.4129504877728313</v>
+        <v>0.4456775215020361</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2">
-        <v>44255</v>
+        <v>43830</v>
       </c>
       <c r="B99">
-        <v>0.335</v>
+        <v>0.2175</v>
       </c>
       <c r="C99">
-        <v>61.96</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D99">
-        <v>6.15850716652</v>
+        <v>4.62047221239</v>
       </c>
       <c r="E99">
-        <v>0.00084343695105</v>
+        <v>-8.186548111E-05</v>
       </c>
       <c r="F99">
-        <v>130.4602210142325</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G99">
-        <v>323.81</v>
+        <v>296.07</v>
       </c>
       <c r="H99">
-        <v>21.72</v>
+        <v>21.5</v>
       </c>
       <c r="I99">
-        <v>8168.41338</v>
+        <v>6053.644204</v>
       </c>
       <c r="J99">
-        <v>0.5925340890470545</v>
+        <v>0.6121007748619023</v>
       </c>
       <c r="K99">
-        <v>0.4343623307110566</v>
+        <v>0.4559536170868154</v>
       </c>
       <c r="L99">
-        <v>0.4179983781295215</v>
+        <v>0.4454939616221102</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2">
-        <v>44286</v>
+        <v>43861</v>
       </c>
       <c r="B100">
-        <v>0.35288</v>
+        <v>0.2154</v>
       </c>
       <c r="C100">
-        <v>65.19</v>
+        <v>63.6</v>
       </c>
       <c r="D100">
-        <v>6.12706957935</v>
+        <v>3.63338434727</v>
       </c>
       <c r="E100">
-        <v>0.00175396345918</v>
+        <v>0.00227012721181</v>
       </c>
       <c r="F100">
-        <v>133.9235149398768</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G100">
-        <v>447.53</v>
+        <v>268.32</v>
       </c>
       <c r="H100">
-        <v>21.21</v>
+        <v>22.01</v>
       </c>
       <c r="I100">
-        <v>7616.440713</v>
+        <v>6823.207037</v>
       </c>
       <c r="J100">
-        <v>0.604845247034084</v>
+        <v>0.5798794935342798</v>
       </c>
       <c r="K100">
-        <v>0.4293102842640739</v>
+        <v>0.4539837972817095</v>
       </c>
       <c r="L100">
-        <v>0.4324131120358024</v>
+        <v>0.4238762451913749</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2">
-        <v>44316</v>
+        <v>43890</v>
       </c>
       <c r="B101">
-        <v>0.3281</v>
+        <v>0.21438</v>
       </c>
       <c r="C101">
-        <v>64.77</v>
+        <v>55</v>
       </c>
       <c r="D101">
-        <v>7.14681628809</v>
+        <v>2.90777364106</v>
       </c>
       <c r="E101">
-        <v>0.00349191882645</v>
+        <v>-0.00154420697631</v>
       </c>
       <c r="F101">
-        <v>138.2897485328063</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G101">
-        <v>395.81</v>
+        <v>321.64</v>
       </c>
       <c r="H101">
-        <v>21.39</v>
+        <v>22.2</v>
       </c>
       <c r="I101">
-        <v>7996.31169</v>
+        <v>7529.79096</v>
       </c>
       <c r="J101">
-        <v>0.6526050213256884</v>
+        <v>0.5875022997238413</v>
       </c>
       <c r="K101">
-        <v>0.4378883793091635</v>
+        <v>0.461018220276661</v>
       </c>
       <c r="L101">
-        <v>0.4539710499893974</v>
+        <v>0.4278012723222966</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2">
-        <v>44347</v>
+        <v>43921</v>
       </c>
       <c r="B102">
-        <v>0.33163</v>
+        <v>0.23113</v>
       </c>
       <c r="C102">
-        <v>68.04000000000001</v>
+        <v>32.98</v>
       </c>
       <c r="D102">
-        <v>8.90875692439</v>
+        <v>2.71886838175</v>
       </c>
       <c r="E102">
-        <v>0.00083340753556</v>
+        <v>0.00197441076879</v>
       </c>
       <c r="F102">
-        <v>141.1937490231932</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G102">
-        <v>320.43</v>
+        <v>329.31</v>
       </c>
       <c r="H102">
-        <v>20.99</v>
+        <v>22.22</v>
       </c>
       <c r="I102">
-        <v>9925.828082</v>
+        <v>6661.60374</v>
       </c>
       <c r="J102">
-        <v>0.6630188829662774</v>
+        <v>0.5910162277330805</v>
       </c>
       <c r="K102">
-        <v>0.4367313232507956</v>
+        <v>0.4634344740544055</v>
       </c>
       <c r="L102">
-        <v>0.481955930640822</v>
+        <v>0.441561624663992</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2">
-        <v>44377</v>
+        <v>43951</v>
       </c>
       <c r="B103">
-        <v>0.39325</v>
+        <v>0.235</v>
       </c>
       <c r="C103">
-        <v>73.06999999999999</v>
+        <v>23.34</v>
       </c>
       <c r="D103">
-        <v>10.30105100564</v>
+        <v>2.12031866732</v>
       </c>
       <c r="E103">
-        <v>-0.00175613709191</v>
+        <v>0.01002625234371</v>
       </c>
       <c r="F103">
-        <v>144.0465071540256</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G103">
-        <v>261.45</v>
+        <v>287.48</v>
       </c>
       <c r="H103">
-        <v>20.49</v>
+        <v>21.87</v>
       </c>
       <c r="I103">
-        <v>7937.75175</v>
+        <v>4337.199904</v>
       </c>
       <c r="J103">
-        <v>0.7436</v>
+        <v>0.5903701357863657</v>
       </c>
       <c r="K103">
-        <v>0.5466</v>
+        <v>0.4650872943506536</v>
       </c>
       <c r="L103">
-        <v>0.5714</v>
+        <v>0.4337927922320309</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2">
-        <v>44408</v>
+        <v>43982</v>
       </c>
       <c r="B104">
-        <v>0.4415</v>
+        <v>0.2019</v>
       </c>
       <c r="C104">
-        <v>74.39</v>
+        <v>31.02</v>
       </c>
       <c r="D104">
-        <v>12.50994243239</v>
+        <v>1.57516497792</v>
       </c>
       <c r="E104">
-        <v>0.00526208567962</v>
+        <v>-0.00259984108389</v>
       </c>
       <c r="F104">
-        <v>149.2262641923639</v>
+        <v>98.30844248225289</v>
       </c>
       <c r="G104">
-        <v>176.89</v>
+        <v>275.21</v>
       </c>
       <c r="H104">
-        <v>20.11</v>
+        <v>21.59</v>
       </c>
       <c r="I104">
-        <v>10430.50346</v>
+        <v>11007.46799</v>
       </c>
       <c r="J104">
-        <v>0.8134</v>
+        <v>0.5878590666596513</v>
       </c>
       <c r="K104">
-        <v>0.5746</v>
+        <v>0.4619869070384683</v>
       </c>
       <c r="L104">
-        <v>0.6026</v>
+        <v>0.4363662775517037</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2">
-        <v>44439</v>
+        <v>44012</v>
       </c>
       <c r="B105">
-        <v>0.44688</v>
+        <v>0.202</v>
       </c>
       <c r="C105">
-        <v>70.02</v>
+        <v>39.93</v>
       </c>
       <c r="D105">
-        <v>15.42647593843</v>
+        <v>1.75217111218</v>
       </c>
       <c r="E105">
-        <v>0.00115489930423</v>
+        <v>-0.00619814666477</v>
       </c>
       <c r="F105">
-        <v>153.2980038574362</v>
+        <v>96.25287528847934</v>
       </c>
       <c r="G105">
-        <v>142.63</v>
+        <v>203.66</v>
       </c>
       <c r="H105">
-        <v>20.49</v>
+        <v>20.85</v>
       </c>
       <c r="I105">
-        <v>10146.06828</v>
+        <v>7572.009145</v>
       </c>
       <c r="J105">
-        <v>0.8652</v>
+        <v>0.5936037863571761</v>
       </c>
       <c r="K105">
-        <v>0.6262</v>
+        <v>0.463368544993051</v>
       </c>
       <c r="L105">
-        <v>0.6286</v>
+        <v>0.4250314652252695</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2">
-        <v>44469</v>
+        <v>44043</v>
       </c>
       <c r="B106">
-        <v>0.41875</v>
+        <v>0.2144</v>
       </c>
       <c r="C106">
-        <v>74.59999999999999</v>
+        <v>42.81</v>
       </c>
       <c r="D106">
-        <v>22.84059607792</v>
+        <v>1.80103549647</v>
       </c>
       <c r="E106">
-        <v>0.00015685281085</v>
+        <v>-0.0061264945265</v>
       </c>
       <c r="F106">
-        <v>156.9558378189194</v>
+        <v>98.0489561823302</v>
       </c>
       <c r="G106">
-        <v>178.46</v>
+        <v>204.7</v>
       </c>
       <c r="H106">
-        <v>20.71</v>
+        <v>20.23</v>
       </c>
       <c r="I106">
-        <v>9500.05683</v>
+        <v>8272.779326</v>
       </c>
       <c r="J106">
-        <v>0.8404</v>
+        <v>0.5950080420233913</v>
       </c>
       <c r="K106">
-        <v>0.5968</v>
+        <v>0.4596774021676645</v>
       </c>
       <c r="L106">
-        <v>0.6282</v>
+        <v>0.426920858478315</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2">
-        <v>44500</v>
+        <v>44074</v>
       </c>
       <c r="B107">
-        <v>0.695</v>
+        <v>0.2495</v>
       </c>
       <c r="C107">
-        <v>83.65000000000001</v>
+        <v>44.26</v>
       </c>
       <c r="D107">
-        <v>31.05246636754</v>
+        <v>2.86189667673</v>
       </c>
       <c r="E107">
-        <v>0.00208202988504</v>
+        <v>-0.00323849742065</v>
       </c>
       <c r="F107">
-        <v>167.0008492724532</v>
+        <v>103.2035973795328</v>
       </c>
       <c r="G107">
-        <v>236.57</v>
+        <v>106.47</v>
       </c>
       <c r="H107">
-        <v>21.11</v>
+        <v>20.46</v>
       </c>
       <c r="I107">
-        <v>8707.094958</v>
+        <v>7837.36055</v>
       </c>
       <c r="J107">
-        <v>0.9224</v>
+        <v>0.5839844584757314</v>
       </c>
       <c r="K107">
-        <v>0.7836</v>
+        <v>0.4475733753158581</v>
       </c>
       <c r="L107">
-        <v>0.7372</v>
+        <v>0.4245467557882587</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2">
-        <v>44530</v>
+        <v>44104</v>
       </c>
       <c r="B108">
-        <v>0.9005</v>
+        <v>0.2505</v>
       </c>
       <c r="C108">
-        <v>80.77</v>
+        <v>41.09</v>
       </c>
       <c r="D108">
-        <v>27.62343200775</v>
+        <v>3.95213946267</v>
       </c>
       <c r="E108">
-        <v>0.00359534463091</v>
+        <v>-0.00156555891193</v>
       </c>
       <c r="F108">
-        <v>182.6188365838623</v>
+        <v>107.4431956605944</v>
       </c>
       <c r="G108">
-        <v>222.75</v>
+        <v>171.99</v>
       </c>
       <c r="H108">
-        <v>21.07</v>
+        <v>20.66</v>
       </c>
       <c r="I108">
-        <v>9842.681755</v>
+        <v>7543.88328</v>
       </c>
       <c r="J108">
-        <v>1.043066167386023</v>
+        <v>0.5801687666759132</v>
       </c>
       <c r="K108">
-        <v>0.9369293184852377</v>
+        <v>0.4374529502196333</v>
       </c>
       <c r="L108">
-        <v>0.9002346810072717</v>
+        <v>0.427146900595301</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2">
-        <v>44561</v>
+        <v>44135</v>
       </c>
       <c r="B109">
-        <v>0.89</v>
+        <v>0.245</v>
       </c>
       <c r="C109">
-        <v>74.31</v>
+        <v>40.47</v>
       </c>
       <c r="D109">
-        <v>38.02711984318</v>
+        <v>4.88959040816</v>
       </c>
       <c r="E109">
-        <v>0.00067537719459</v>
+        <v>-0.00189278490435</v>
       </c>
       <c r="F109">
-        <v>182.6188365838624</v>
+        <v>113.1483822788417</v>
       </c>
       <c r="G109">
-        <v>225.22</v>
+        <v>157.96</v>
       </c>
       <c r="H109">
-        <v>21.47</v>
+        <v>21.1</v>
       </c>
       <c r="I109">
-        <v>8215.75668</v>
+        <v>8122.73614</v>
       </c>
       <c r="J109">
-        <v>1.088197583668632</v>
+        <v>0.5836147884226655</v>
       </c>
       <c r="K109">
-        <v>1.034910306862554</v>
+        <v>0.4326789864995383</v>
       </c>
       <c r="L109">
-        <v>1.01467630898368</v>
+        <v>0.4435789806440569</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2">
-        <v>44592</v>
+        <v>44165</v>
       </c>
       <c r="B110">
-        <v>0.84638</v>
+        <v>0.245</v>
       </c>
       <c r="C110">
-        <v>85.53</v>
+        <v>43.23</v>
       </c>
       <c r="D110">
-        <v>28.26067331655</v>
+        <v>4.83583900516</v>
       </c>
       <c r="E110">
-        <v>0.00721327782143</v>
+        <v>-8.734381945E-05</v>
       </c>
       <c r="F110">
-        <v>182.6188365838624</v>
+        <v>118.9970042591801</v>
       </c>
       <c r="G110">
-        <v>246.66</v>
+        <v>190.62</v>
       </c>
       <c r="H110">
-        <v>21.51</v>
+        <v>21.16</v>
       </c>
       <c r="I110">
-        <v>8167.568842</v>
+        <v>7401.836921</v>
       </c>
       <c r="J110">
-        <v>1.096824782</v>
+        <v>0.5800873003902469</v>
       </c>
       <c r="K110">
-        <v>1.0750197</v>
+        <v>0.4362732025320636</v>
       </c>
       <c r="L110">
-        <v>1.011899418</v>
+        <v>0.4330661807003539</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2">
-        <v>44620</v>
+        <v>44196</v>
       </c>
       <c r="B111">
-        <v>0.74417</v>
+        <v>0.245</v>
       </c>
       <c r="C111">
-        <v>95.76000000000001</v>
+        <v>49.87</v>
       </c>
       <c r="D111">
-        <v>27.2297159067</v>
+        <v>5.85610629604</v>
       </c>
       <c r="E111">
-        <v>0.0023249575061</v>
+        <v>-0.00028612321912</v>
       </c>
       <c r="F111">
-        <v>182.6188365838624</v>
+        <v>123.2737384642799</v>
       </c>
       <c r="G111">
-        <v>290.32</v>
+        <v>337.06</v>
       </c>
       <c r="H111">
-        <v>21.22</v>
+        <v>21.14</v>
       </c>
       <c r="I111">
-        <v>9076.221814</v>
+        <v>7698.285653</v>
       </c>
       <c r="J111">
-        <v>1.078351677188643</v>
+        <v>0.5795411821807901</v>
       </c>
       <c r="K111">
-        <v>1.051642326050862</v>
+        <v>0.4352607196986089</v>
       </c>
       <c r="L111">
-        <v>0.9671592693428841</v>
+        <v>0.4318200771688913</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2">
-        <v>44651</v>
+        <v>44227</v>
       </c>
       <c r="B112">
-        <v>0.8725000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="C112">
-        <v>115.59</v>
+        <v>54.55</v>
       </c>
       <c r="D112">
-        <v>42.39297079612</v>
+        <v>7.2683017493</v>
       </c>
       <c r="E112">
-        <v>0.00112435970591</v>
+        <v>0.00116155048064</v>
       </c>
       <c r="F112">
-        <v>182.6188365838624</v>
+        <v>128.7950567429762</v>
       </c>
       <c r="G112">
-        <v>469.51</v>
+        <v>364.08</v>
       </c>
       <c r="H112">
-        <v>21.34</v>
+        <v>21.22</v>
       </c>
       <c r="I112">
-        <v>8501.634407</v>
+        <v>7851.07915</v>
       </c>
       <c r="J112">
-        <v>1.102667170194235</v>
+        <v>0.5741375881055839</v>
       </c>
       <c r="K112">
-        <v>1.091178913291982</v>
+        <v>0.4303488303732484</v>
       </c>
       <c r="L112">
-        <v>1.039086833340783</v>
+        <v>0.4129504877728313</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2">
-        <v>44681</v>
+        <v>44255</v>
       </c>
       <c r="B113">
-        <v>0.925</v>
+        <v>0.335</v>
       </c>
       <c r="C113">
-        <v>105.78</v>
+        <v>61.96</v>
       </c>
       <c r="D113">
-        <v>32.20418722871</v>
+        <v>6.15850716652</v>
       </c>
       <c r="E113">
-        <v>0.00593647834028</v>
+        <v>0.00084343695105</v>
       </c>
       <c r="F113">
-        <v>182.6188365838624</v>
+        <v>130.4602210142325</v>
       </c>
       <c r="G113">
-        <v>354.62</v>
+        <v>323.81</v>
       </c>
       <c r="H113">
-        <v>21.43</v>
+        <v>21.72</v>
       </c>
       <c r="I113">
-        <v>6838.69447</v>
+        <v>8168.41338</v>
       </c>
       <c r="J113">
-        <v>1.097080675155382</v>
+        <v>0.5925340890470545</v>
       </c>
       <c r="K113">
-        <v>1.099004662934887</v>
+        <v>0.4343623307110566</v>
       </c>
       <c r="L113">
-        <v>1.093198592925966</v>
+        <v>0.4179983781295215</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2">
-        <v>44712</v>
+        <v>44286</v>
       </c>
       <c r="B114">
-        <v>0.7075</v>
+        <v>0.35288</v>
       </c>
       <c r="C114">
-        <v>112.37</v>
+        <v>65.19</v>
       </c>
       <c r="D114">
-        <v>29.17072267381</v>
+        <v>6.12706957935</v>
       </c>
       <c r="E114">
-        <v>0.00557410999677</v>
+        <v>0.00175396345918</v>
       </c>
       <c r="F114">
-        <v>182.6188365838624</v>
+        <v>133.9235149398768</v>
       </c>
       <c r="G114">
-        <v>289.56</v>
+        <v>447.53</v>
       </c>
       <c r="H114">
-        <v>20.79</v>
+        <v>21.21</v>
       </c>
       <c r="I114">
-        <v>8749.578089999999</v>
+        <v>7616.440713</v>
       </c>
       <c r="J114">
-        <v>1.108720278516534</v>
+        <v>0.604845247034084</v>
       </c>
       <c r="K114">
-        <v>1.086155403232221</v>
+        <v>0.4293102842640739</v>
       </c>
       <c r="L114">
-        <v>1.066823352432961</v>
+        <v>0.4324131120358024</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2">
-        <v>44742</v>
+        <v>44316</v>
       </c>
       <c r="B115">
-        <v>0.6899999999999999</v>
+        <v>0.3281</v>
       </c>
       <c r="C115">
-        <v>120.08</v>
+        <v>64.77</v>
       </c>
       <c r="D115">
-        <v>33.55773104275</v>
+        <v>7.14681628809</v>
       </c>
       <c r="E115">
-        <v>0.006482245167</v>
+        <v>0.00349191882645</v>
       </c>
       <c r="F115">
-        <v>182.6188365838624</v>
+        <v>138.2897485328063</v>
       </c>
       <c r="G115">
-        <v>218.07</v>
+        <v>395.81</v>
       </c>
       <c r="H115">
-        <v>20.07</v>
+        <v>21.39</v>
       </c>
       <c r="I115">
-        <v>5857.973666</v>
+        <v>7996.31169</v>
       </c>
       <c r="J115">
-        <v>1.120474861733276</v>
+        <v>0.6526050213256884</v>
       </c>
       <c r="K115">
-        <v>1.124131073777351</v>
+        <v>0.4378883793091635</v>
       </c>
       <c r="L115">
-        <v>1.038634438513443</v>
+        <v>0.4539710499893974</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2">
-        <v>44773</v>
+        <v>44347</v>
       </c>
       <c r="B116">
-        <v>0.601</v>
+        <v>0.33163</v>
       </c>
       <c r="C116">
-        <v>108.92</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="D116">
-        <v>51.33003047298</v>
+        <v>8.90875692439</v>
       </c>
       <c r="E116">
-        <v>0.00160236369256</v>
+        <v>0.00083340753556</v>
       </c>
       <c r="F116">
-        <v>168.201560011453</v>
+        <v>141.1937490231932</v>
       </c>
       <c r="G116">
-        <v>191.59</v>
+        <v>320.43</v>
       </c>
       <c r="H116">
-        <v>20.08</v>
+        <v>20.99</v>
       </c>
       <c r="I116">
-        <v>10346.628875</v>
+        <v>9925.828082</v>
       </c>
       <c r="J116">
-        <v>1.16786800286767</v>
+        <v>0.6630188829662774</v>
       </c>
       <c r="K116">
-        <v>1.123289004127497</v>
+        <v>0.4367313232507956</v>
       </c>
       <c r="L116">
-        <v>0.9989557845133211</v>
+        <v>0.481955930640822</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2">
-        <v>44804</v>
+        <v>44377</v>
       </c>
       <c r="B117">
-        <v>0.5912500000000001</v>
+        <v>0.39325</v>
       </c>
       <c r="C117">
-        <v>98.59999999999999</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="D117">
-        <v>70.04363980338999</v>
+        <v>10.30105100564</v>
       </c>
       <c r="E117">
-        <v>0.00028598623682</v>
+        <v>-0.00175613709191</v>
       </c>
       <c r="F117">
-        <v>168.201560011453</v>
+        <v>144.0465071540256</v>
       </c>
       <c r="G117">
-        <v>159.22</v>
+        <v>261.45</v>
       </c>
       <c r="H117">
-        <v>20.2</v>
+        <v>20.49</v>
       </c>
       <c r="I117">
-        <v>10080.216522</v>
+        <v>7937.75175</v>
       </c>
       <c r="J117">
-        <v>1.248267995093507</v>
+        <v>0.7436</v>
       </c>
       <c r="K117">
-        <v>1.172336613778829</v>
+        <v>0.5466</v>
       </c>
       <c r="L117">
-        <v>0.9920444986539785</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2">
-        <v>44834</v>
+        <v>44408</v>
       </c>
       <c r="B118">
-        <v>0.678</v>
+        <v>0.4415</v>
       </c>
       <c r="C118">
-        <v>90.16</v>
+        <v>74.39</v>
       </c>
       <c r="D118">
-        <v>59.10262225038</v>
+        <v>12.50994243239</v>
       </c>
       <c r="E118">
-        <v>0.00356911638598</v>
+        <v>0.00526208567962</v>
       </c>
       <c r="F118">
-        <v>168.201560011453</v>
+        <v>149.2262641923639</v>
       </c>
       <c r="G118">
-        <v>134.72</v>
+        <v>176.89</v>
       </c>
       <c r="H118">
-        <v>20.8</v>
+        <v>20.11</v>
       </c>
       <c r="I118">
-        <v>13366.05091</v>
+        <v>10430.50346</v>
       </c>
       <c r="J118">
-        <v>1.292183548195688</v>
+        <v>0.8134</v>
       </c>
       <c r="K118">
-        <v>1.203163518701642</v>
+        <v>0.5746</v>
       </c>
       <c r="L118">
-        <v>1.004394113331451</v>
+        <v>0.6026</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2">
-        <v>44865</v>
+        <v>44439</v>
       </c>
       <c r="B119">
-        <v>0.63625</v>
+        <v>0.44688</v>
       </c>
       <c r="C119">
-        <v>93.13</v>
+        <v>70.02</v>
       </c>
       <c r="D119">
-        <v>39.02204993845</v>
+        <v>15.42647593843</v>
       </c>
       <c r="E119">
-        <v>0.00116745907546</v>
+        <v>0.00115489930423</v>
       </c>
       <c r="F119">
-        <v>168.201560011453</v>
+        <v>153.2980038574362</v>
       </c>
       <c r="G119">
-        <v>198.93</v>
+        <v>142.63</v>
       </c>
       <c r="H119">
-        <v>20.84</v>
+        <v>20.49</v>
       </c>
       <c r="I119">
-        <v>10682.94357</v>
+        <v>10146.06828</v>
       </c>
       <c r="J119">
-        <v>1.310196068599417</v>
+        <v>0.8652</v>
       </c>
       <c r="K119">
-        <v>1.19618507878302</v>
+        <v>0.6262</v>
       </c>
       <c r="L119">
-        <v>1.018680420397299</v>
+        <v>0.6286</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2">
-        <v>44895</v>
+        <v>44469</v>
       </c>
       <c r="B120">
-        <v>0.58875</v>
+        <v>0.41875</v>
       </c>
       <c r="C120">
-        <v>91.06999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D120">
-        <v>35.72328224044</v>
+        <v>22.84059607792</v>
       </c>
       <c r="E120">
-        <v>-7.020727067E-05</v>
+        <v>0.00015685281085</v>
       </c>
       <c r="F120">
-        <v>168.201560011453</v>
+        <v>156.9558378189194</v>
       </c>
       <c r="G120">
-        <v>171.93</v>
+        <v>178.46</v>
       </c>
       <c r="H120">
-        <v>20.82</v>
+        <v>20.71</v>
       </c>
       <c r="I120">
-        <v>8996.46902</v>
+        <v>9500.05683</v>
       </c>
       <c r="J120">
-        <v>1.293497790224196</v>
+        <v>0.8404</v>
       </c>
       <c r="K120">
-        <v>1.197417748251064</v>
+        <v>0.5968</v>
       </c>
       <c r="L120">
-        <v>0.9970284436912492</v>
+        <v>0.6282</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2">
-        <v>44926</v>
+        <v>44500</v>
       </c>
       <c r="B121">
-        <v>0.51938</v>
+        <v>0.695</v>
       </c>
       <c r="C121">
-        <v>80.90000000000001</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="D121">
-        <v>36.04426003614</v>
+        <v>31.05246636754</v>
       </c>
       <c r="E121">
-        <v>0.00157748202329</v>
+        <v>0.00208202988504</v>
       </c>
       <c r="F121">
-        <v>168.201560011453</v>
+        <v>167.0008492724532</v>
       </c>
       <c r="G121">
-        <v>169.82</v>
+        <v>236.57</v>
       </c>
       <c r="H121">
-        <v>21.29</v>
+        <v>21.11</v>
       </c>
       <c r="I121">
-        <v>10896.84343</v>
+        <v>8707.094958</v>
       </c>
       <c r="J121">
-        <v>1.198608495949633</v>
+        <v>0.9224</v>
       </c>
       <c r="K121">
-        <v>1.181452698983275</v>
+        <v>0.7836</v>
       </c>
       <c r="L121">
-        <v>0.9651399526635926</v>
+        <v>0.7372</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2">
-        <v>44957</v>
+        <v>44530</v>
       </c>
       <c r="B122">
-        <v>0.44375</v>
+        <v>0.9005</v>
       </c>
       <c r="C122">
-        <v>83.09</v>
+        <v>80.77</v>
       </c>
       <c r="D122">
-        <v>20.18397092135</v>
+        <v>27.62343200775</v>
       </c>
       <c r="E122">
-        <v>0.00120586983033</v>
+        <v>0.00359534463091</v>
       </c>
       <c r="F122">
-        <v>168.201560011453</v>
+        <v>182.6188365838623</v>
       </c>
       <c r="G122">
-        <v>287.2845205479452</v>
+        <v>222.75</v>
       </c>
       <c r="H122">
-        <v>20.77054794520548</v>
+        <v>21.07</v>
       </c>
       <c r="I122">
-        <v>11764.143317</v>
+        <v>9842.681755</v>
       </c>
       <c r="J122">
-        <v>1.174684475237928</v>
+        <v>1.043066167386023</v>
       </c>
       <c r="K122">
-        <v>1.170395373570146</v>
+        <v>0.9369293184852377</v>
       </c>
       <c r="L122">
-        <v>0.9331739747173603</v>
+        <v>0.9002346810072717</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2">
-        <v>44985</v>
+        <v>44561</v>
       </c>
       <c r="B123">
-        <v>0.3575</v>
+        <v>0.89</v>
       </c>
       <c r="C123">
-        <v>82.70999999999999</v>
+        <v>74.31</v>
       </c>
       <c r="D123">
-        <v>16.53713727891</v>
+        <v>38.02711984318</v>
       </c>
       <c r="E123">
-        <v>0.00018277274577</v>
+        <v>0.00067537719459</v>
       </c>
       <c r="F123">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G123">
-        <v>315.8471232876713</v>
+        <v>225.22</v>
       </c>
       <c r="H123">
-        <v>20.86972602739726</v>
+        <v>21.47</v>
       </c>
       <c r="I123">
-        <v>10729.088323</v>
+        <v>8215.75668</v>
       </c>
       <c r="J123">
-        <v>1.175842764216333</v>
+        <v>1.088197583668632</v>
       </c>
       <c r="K123">
-        <v>1.157921425669146</v>
+        <v>1.034910306862554</v>
       </c>
       <c r="L123">
-        <v>0.9225762745756159</v>
+        <v>1.01467630898368</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2">
-        <v>45016</v>
+        <v>44592</v>
       </c>
       <c r="B124">
-        <v>0.3135</v>
+        <v>0.84638</v>
       </c>
       <c r="C124">
-        <v>78.53</v>
+        <v>85.53</v>
       </c>
       <c r="D124">
-        <v>13.81207686229</v>
+        <v>28.26067331655</v>
       </c>
       <c r="E124">
-        <v>0.00064985238999</v>
+        <v>0.00721327782143</v>
       </c>
       <c r="F124">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G124">
-        <v>367.957808219178</v>
+        <v>246.66</v>
       </c>
       <c r="H124">
-        <v>20.91493150684931</v>
+        <v>21.51</v>
       </c>
       <c r="I124">
-        <v>12897.554323</v>
+        <v>8167.568842</v>
       </c>
       <c r="J124">
-        <v>1.157828202699635</v>
+        <v>1.096824782</v>
       </c>
       <c r="K124">
-        <v>1.141032377340076</v>
+        <v>1.0750197</v>
       </c>
       <c r="L124">
-        <v>0.8861632827753628</v>
+        <v>1.011899418</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2">
-        <v>45046</v>
+        <v>44620</v>
       </c>
       <c r="B125">
-        <v>0.31338</v>
+        <v>0.74417</v>
       </c>
       <c r="C125">
-        <v>84.11</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="D125">
-        <v>13.52052961513</v>
+        <v>27.2297159067</v>
       </c>
       <c r="E125">
-        <v>0.00196217461898</v>
+        <v>0.0023249575061</v>
       </c>
       <c r="F125">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G125">
-        <v>346.8073972602739</v>
+        <v>290.32</v>
       </c>
       <c r="H125">
-        <v>20.85602739726027</v>
+        <v>21.22</v>
       </c>
       <c r="I125">
-        <v>11470.164393</v>
+        <v>9076.221814</v>
       </c>
       <c r="J125">
-        <v>1.078547904516356</v>
+        <v>1.078351677188643</v>
       </c>
       <c r="K125">
-        <v>0.9467313649913774</v>
+        <v>1.051642326050862</v>
       </c>
       <c r="L125">
-        <v>0.8421060630243679</v>
+        <v>0.9671592693428841</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2">
-        <v>45077</v>
+        <v>44651</v>
       </c>
       <c r="B126">
-        <v>0.32925</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="C126">
-        <v>75.7</v>
+        <v>115.59</v>
       </c>
       <c r="D126">
-        <v>10.10875599841</v>
+        <v>42.39297079612</v>
       </c>
       <c r="E126">
-        <v>0.00089208560651</v>
+        <v>0.00112435970591</v>
       </c>
       <c r="F126">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G126">
-        <v>294.9939726027397</v>
+        <v>469.51</v>
       </c>
       <c r="H126">
-        <v>20.53438356164384</v>
+        <v>21.34</v>
       </c>
       <c r="I126">
-        <v>12468.853061</v>
+        <v>8501.634407</v>
       </c>
       <c r="J126">
-        <v>1.038640692544284</v>
+        <v>1.102667170194235</v>
       </c>
       <c r="K126">
-        <v>0.8510623188811773</v>
+        <v>1.091178913291982</v>
       </c>
       <c r="L126">
-        <v>0.7742078805271971</v>
+        <v>1.039086833340783</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2">
-        <v>45107</v>
+        <v>44681</v>
       </c>
       <c r="B127">
-        <v>0.2875</v>
+        <v>0.925</v>
       </c>
       <c r="C127">
-        <v>74.89</v>
+        <v>105.78</v>
       </c>
       <c r="D127">
-        <v>10.35062473915</v>
+        <v>32.20418722871</v>
       </c>
       <c r="E127">
-        <v>0.00373710729929</v>
+        <v>0.00593647834028</v>
       </c>
       <c r="F127">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G127">
-        <v>230.5506849315069</v>
+        <v>354.62</v>
       </c>
       <c r="H127">
-        <v>19.79232876712329</v>
+        <v>21.43</v>
       </c>
       <c r="I127">
-        <v>12420.80496</v>
+        <v>6838.69447</v>
       </c>
       <c r="J127">
-        <v>0.9959642247694664</v>
+        <v>1.097080675155382</v>
       </c>
       <c r="K127">
-        <v>0.7995310846400768</v>
+        <v>1.099004662934887</v>
       </c>
       <c r="L127">
-        <v>0.6957576403035699</v>
+        <v>1.093198592925966</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2">
-        <v>45138</v>
+        <v>44712</v>
       </c>
       <c r="B128">
-        <v>0.33463</v>
+        <v>0.7075</v>
       </c>
       <c r="C128">
-        <v>80.09999999999999</v>
+        <v>112.37</v>
       </c>
       <c r="D128">
-        <v>9.54528398968</v>
+        <v>29.17072267381</v>
       </c>
       <c r="E128">
-        <v>0.00539043331312</v>
+        <v>0.00557410999677</v>
       </c>
       <c r="F128">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G128">
-        <v>198.7842465753425</v>
+        <v>289.56</v>
       </c>
       <c r="H128">
-        <v>19.32369863013699</v>
+        <v>20.79</v>
       </c>
       <c r="I128">
-        <v>10706.056593</v>
+        <v>8749.578089999999</v>
       </c>
       <c r="J128">
-        <v>0.9463975731257724</v>
+        <v>1.108720278516534</v>
       </c>
       <c r="K128">
-        <v>0.7403079644465607</v>
+        <v>1.086155403232221</v>
       </c>
       <c r="L128">
-        <v>0.6519426044369245</v>
+        <v>1.066823352432961</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2">
-        <v>45169</v>
+        <v>44742</v>
       </c>
       <c r="B129">
-        <v>0.38563</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C129">
-        <v>86.163</v>
+        <v>120.08</v>
       </c>
       <c r="D129">
-        <v>11.19194456369</v>
+        <v>33.55773104275</v>
       </c>
       <c r="E129">
-        <v>0.00502968878962</v>
+        <v>0.006482245167</v>
       </c>
       <c r="F129">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G129">
-        <v>164.7102739726027</v>
+        <v>218.07</v>
       </c>
       <c r="H129">
-        <v>19.58</v>
+        <v>20.07</v>
       </c>
       <c r="I129">
-        <v>10530.22184</v>
+        <v>5857.973666</v>
       </c>
       <c r="J129">
-        <v>0.925686200847129</v>
+        <v>1.120474861733276</v>
       </c>
       <c r="K129">
-        <v>0.7460920696494301</v>
+        <v>1.124131073777351</v>
       </c>
       <c r="L129">
-        <v>0.6517089982436903</v>
+        <v>1.038634438513443</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2">
-        <v>45199</v>
+        <v>44773</v>
       </c>
       <c r="B130">
-        <v>0.38</v>
+        <v>0.601</v>
       </c>
       <c r="C130">
-        <v>94</v>
+        <v>108.92</v>
       </c>
       <c r="D130">
-        <v>11.54929514615</v>
+        <v>51.33003047298</v>
       </c>
       <c r="E130">
-        <v>0.00037853311465</v>
+        <v>0.00160236369256</v>
       </c>
       <c r="F130">
         <v>168.201560011453</v>
       </c>
       <c r="G130">
-        <v>177.4602739726027</v>
+        <v>191.59</v>
       </c>
       <c r="H130">
-        <v>19.95342465753425</v>
+        <v>20.08</v>
       </c>
       <c r="I130">
-        <v>16206.180956</v>
+        <v>10346.628875</v>
       </c>
       <c r="J130">
-        <v>0.9532274154468331</v>
+        <v>1.16786800286767</v>
       </c>
       <c r="K130">
-        <v>0.7346532009962643</v>
+        <v>1.123289004127497</v>
       </c>
       <c r="L130">
-        <v>0.6629292773257311</v>
+        <v>0.9989557845133211</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2">
-        <v>45230</v>
+        <v>44804</v>
       </c>
       <c r="B131">
-        <v>0.41138</v>
+        <v>0.5912500000000001</v>
       </c>
       <c r="C131">
-        <v>91.06100000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D131">
-        <v>14.56950705657</v>
+        <v>70.04363980338999</v>
       </c>
       <c r="E131">
-        <v>-0.00175018038644</v>
+        <v>0.00028598623682</v>
       </c>
       <c r="F131">
         <v>168.201560011453</v>
       </c>
       <c r="G131">
-        <v>205.4786301369863</v>
+        <v>159.22</v>
       </c>
       <c r="H131">
-        <v>20.23178082191781</v>
+        <v>20.2</v>
       </c>
       <c r="I131">
-        <v>14718.155</v>
+        <v>10080.216522</v>
       </c>
       <c r="J131">
-        <v>0.9459924711429784</v>
+        <v>1.248267995093507</v>
       </c>
       <c r="K131">
-        <v>0.7338951871106011</v>
+        <v>1.172336613778829</v>
       </c>
       <c r="L131">
-        <v>0.6771679200974766</v>
+        <v>0.9920444986539785</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2">
-        <v>45260</v>
+        <v>44834</v>
       </c>
       <c r="B132">
-        <v>0.3855</v>
+        <v>0.678</v>
       </c>
       <c r="C132">
-        <v>83.18300000000001</v>
+        <v>90.16</v>
       </c>
       <c r="D132">
-        <v>14.48505487638</v>
+        <v>59.10262225038</v>
       </c>
       <c r="E132">
-        <v>-0.00399199617135</v>
+        <v>0.00356911638598</v>
       </c>
       <c r="F132">
         <v>168.201560011453</v>
       </c>
       <c r="G132">
-        <v>208.5208219178082</v>
+        <v>134.72</v>
       </c>
       <c r="H132">
-        <v>20.38205479452055</v>
+        <v>20.8</v>
       </c>
       <c r="I132">
-        <v>13071.85952</v>
+        <v>13366.05091</v>
       </c>
       <c r="J132">
-        <v>0.9376818916124229</v>
+        <v>1.292183548195688</v>
       </c>
       <c r="K132">
-        <v>0.7125767115559107</v>
+        <v>1.203163518701642</v>
       </c>
       <c r="L132">
-        <v>0.6766752451945396</v>
+        <v>1.004394113331451</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2">
-        <v>45291</v>
+        <v>44865</v>
       </c>
       <c r="B133">
-        <v>0.354</v>
+        <v>0.63625</v>
       </c>
       <c r="C133">
-        <v>77.858</v>
+        <v>93.13</v>
       </c>
       <c r="D133">
-        <v>11.50665790666</v>
+        <v>39.02204993845</v>
       </c>
       <c r="E133">
-        <v>-0.00023225585349</v>
+        <v>0.00116745907546</v>
       </c>
       <c r="F133">
         <v>168.201560011453</v>
       </c>
       <c r="G133">
-        <v>240.8878082191781</v>
+        <v>198.93</v>
       </c>
       <c r="H133">
-        <v>20.62109589041096</v>
+        <v>20.84</v>
       </c>
       <c r="I133">
-        <v>16298.91089</v>
+        <v>10682.94357</v>
       </c>
       <c r="J133">
-        <v>0.9282134437222956</v>
+        <v>1.310196068599417</v>
       </c>
       <c r="K133">
-        <v>0.6873759924061151</v>
+        <v>1.19618507878302</v>
       </c>
       <c r="L133">
-        <v>0.6482963362209007</v>
+        <v>1.018680420397299</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2">
-        <v>45322</v>
+        <v>44895</v>
       </c>
       <c r="B134">
-        <v>0.33538</v>
+        <v>0.58875</v>
       </c>
       <c r="C134">
-        <v>80.227</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="D134">
-        <v>9.55961355312</v>
+        <v>35.72328224044</v>
       </c>
       <c r="E134">
-        <v>0.00125345701049</v>
+        <v>-7.020727067E-05</v>
       </c>
       <c r="F134">
         <v>168.201560011453</v>
       </c>
+      <c r="G134">
+        <v>171.93</v>
+      </c>
+      <c r="H134">
+        <v>20.82</v>
+      </c>
       <c r="I134">
-        <v>13485.387704</v>
+        <v>8996.46902</v>
       </c>
       <c r="J134">
-        <v>0.8908317735767547</v>
+        <v>1.293497790224196</v>
       </c>
       <c r="K134">
-        <v>0.645802120316499</v>
+        <v>1.197417748251064</v>
       </c>
       <c r="L134">
-        <v>0.6219078592027808</v>
+        <v>0.9970284436912492</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2">
-        <v>45351</v>
+        <v>44926</v>
       </c>
       <c r="B135">
-        <v>0.35125</v>
+        <v>0.51938</v>
       </c>
       <c r="C135">
-        <v>83.764</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D135">
-        <v>8.14838086764</v>
+        <v>36.04426003614</v>
       </c>
       <c r="E135">
-        <v>0.00092817046871</v>
+        <v>0.00157748202329</v>
       </c>
       <c r="F135">
         <v>168.201560011453</v>
       </c>
+      <c r="G135">
+        <v>169.82</v>
+      </c>
+      <c r="H135">
+        <v>21.29</v>
+      </c>
       <c r="I135">
-        <v>14071.209981</v>
+        <v>10896.84343</v>
       </c>
       <c r="J135">
-        <v>0.698660134397402</v>
+        <v>1.198608495949633</v>
       </c>
       <c r="K135">
-        <v>0.4955697133892522</v>
+        <v>1.181452698983275</v>
       </c>
       <c r="L135">
-        <v>0.4838418500636259</v>
+        <v>0.9651399526635926</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="2">
-        <v>45382</v>
+        <v>44957</v>
       </c>
       <c r="B136">
-        <v>0.33</v>
+        <v>0.44375</v>
       </c>
       <c r="C136">
-        <v>85.447</v>
+        <v>83.09</v>
       </c>
       <c r="D136">
-        <v>8.55372632183</v>
+        <v>20.18397092135</v>
       </c>
       <c r="E136">
-        <v>0.00288040947349</v>
+        <v>0.00120586983033</v>
       </c>
       <c r="F136">
         <v>168.201560011453</v>
       </c>
+      <c r="G136">
+        <v>287.2845205479452</v>
+      </c>
+      <c r="H136">
+        <v>20.77054794520548</v>
+      </c>
       <c r="I136">
-        <v>11421.68639</v>
+        <v>11764.143317</v>
       </c>
       <c r="J136">
-        <v>0.777707726822921</v>
+        <v>1.174684475237928</v>
       </c>
       <c r="K136">
-        <v>0.5408107856002339</v>
+        <v>1.170395373570146</v>
       </c>
       <c r="L136">
-        <v>0.5253723011732939</v>
+        <v>0.9331739747173603</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2">
-        <v>45412</v>
+        <v>44985</v>
       </c>
       <c r="B137">
-        <v>0.32</v>
+        <v>0.3575</v>
       </c>
       <c r="C137">
-        <v>90.054</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="D137">
-        <v>9.08511900567</v>
+        <v>16.53713727891</v>
       </c>
       <c r="E137">
-        <v>0.01273099920596</v>
+        <v>0.00018277274577</v>
       </c>
       <c r="F137">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="G137">
+        <v>315.8471232876713</v>
+      </c>
+      <c r="H137">
+        <v>20.86972602739726</v>
       </c>
       <c r="I137">
-        <v>9400.963992000001</v>
+        <v>10729.088323</v>
       </c>
       <c r="J137">
-        <v>0.8778057898078694</v>
+        <v>1.175842764216333</v>
       </c>
       <c r="K137">
-        <v>0.6265261958603363</v>
+        <v>1.157921425669146</v>
       </c>
       <c r="L137">
-        <v>0.5922828949331166</v>
+        <v>0.9225762745756159</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2">
-        <v>45443</v>
+        <v>45016</v>
+      </c>
+      <c r="B138">
+        <v>0.3135</v>
       </c>
       <c r="C138">
-        <v>81.995</v>
+        <v>78.53</v>
       </c>
       <c r="D138">
-        <v>10.12306554509</v>
+        <v>13.81207686229</v>
       </c>
       <c r="E138">
-        <v>-0.00119194037903</v>
+        <v>0.00064985238999</v>
       </c>
       <c r="F138">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="G138">
+        <v>367.957808219178</v>
+      </c>
+      <c r="H138">
+        <v>20.91493150684931</v>
       </c>
       <c r="I138">
-        <v>13379.146654</v>
+        <v>12897.554323</v>
       </c>
       <c r="J138">
-        <v>0.8505496862719805</v>
+        <v>1.157828202699635</v>
       </c>
       <c r="K138">
-        <v>0.5982628139590228</v>
+        <v>1.141032377340076</v>
       </c>
       <c r="L138">
-        <v>0.5782225728556203</v>
+        <v>0.8861632827753628</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2">
-        <v>45473</v>
+        <v>45046</v>
+      </c>
+      <c r="B139">
+        <v>0.31338</v>
       </c>
       <c r="C139">
-        <v>82.55500000000001</v>
+        <v>84.11</v>
       </c>
       <c r="D139">
-        <v>10.86897789978</v>
+        <v>13.52052961513</v>
       </c>
       <c r="E139">
-        <v>-0.009520711175700001</v>
+        <v>0.00196217461898</v>
       </c>
       <c r="F139">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="G139">
+        <v>346.8073972602739</v>
+      </c>
+      <c r="H139">
+        <v>20.85602739726027</v>
       </c>
       <c r="I139">
-        <v>14004.094447</v>
+        <v>11470.164393</v>
       </c>
       <c r="J139">
-        <v>0.8558800712909602</v>
+        <v>1.078547904516356</v>
       </c>
       <c r="K139">
-        <v>0.5824914772285323</v>
+        <v>0.9467313649913774</v>
       </c>
       <c r="L139">
-        <v>0.5555706738719839</v>
+        <v>0.8421060630243679</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2">
-        <v>45504</v>
+        <v>45077</v>
+      </c>
+      <c r="B140">
+        <v>0.32925</v>
       </c>
       <c r="C140">
-        <v>85.29600000000001</v>
+        <v>75.7</v>
       </c>
       <c r="D140">
-        <v>10.34681932853</v>
+        <v>10.10875599841</v>
       </c>
       <c r="E140">
-        <v>0.00930392901235</v>
+        <v>0.00089208560651</v>
       </c>
       <c r="F140">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="G140">
+        <v>294.9939726027397</v>
+      </c>
+      <c r="H140">
+        <v>20.53438356164384</v>
       </c>
       <c r="I140">
-        <v>13014.65721</v>
+        <v>12468.853061</v>
       </c>
       <c r="J140">
-        <v>0.8803907347272377</v>
+        <v>1.038640692544284</v>
       </c>
       <c r="K140">
-        <v>0.5768220543219431</v>
+        <v>0.8510623188811773</v>
       </c>
       <c r="L140">
-        <v>0.5583286069431294</v>
+        <v>0.7742078805271971</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B141">
+        <v>0.2875</v>
+      </c>
+      <c r="C141">
+        <v>74.89</v>
+      </c>
+      <c r="D141">
+        <v>10.35062473915</v>
+      </c>
+      <c r="E141">
+        <v>0.00373710729929</v>
+      </c>
+      <c r="F141">
+        <v>168.201560011453</v>
+      </c>
+      <c r="G141">
+        <v>230.5506849315069</v>
+      </c>
+      <c r="H141">
+        <v>19.79232876712329</v>
+      </c>
+      <c r="I141">
+        <v>12420.80496</v>
+      </c>
+      <c r="J141">
+        <v>0.9959642247694664</v>
+      </c>
+      <c r="K141">
+        <v>0.7995310846400768</v>
+      </c>
+      <c r="L141">
+        <v>0.6957576403035699</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B142">
+        <v>0.33463</v>
+      </c>
+      <c r="C142">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="D142">
+        <v>9.54528398968</v>
+      </c>
+      <c r="E142">
+        <v>0.00539043331312</v>
+      </c>
+      <c r="F142">
+        <v>168.201560011453</v>
+      </c>
+      <c r="G142">
+        <v>198.7842465753425</v>
+      </c>
+      <c r="H142">
+        <v>19.32369863013699</v>
+      </c>
+      <c r="I142">
+        <v>10706.056593</v>
+      </c>
+      <c r="J142">
+        <v>0.9463975731257724</v>
+      </c>
+      <c r="K142">
+        <v>0.7403079644465607</v>
+      </c>
+      <c r="L142">
+        <v>0.6519426044369245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B143">
+        <v>0.38563</v>
+      </c>
+      <c r="C143">
+        <v>86.163</v>
+      </c>
+      <c r="D143">
+        <v>11.19194456369</v>
+      </c>
+      <c r="E143">
+        <v>0.00502968878962</v>
+      </c>
+      <c r="F143">
+        <v>168.201560011453</v>
+      </c>
+      <c r="G143">
+        <v>164.7102739726027</v>
+      </c>
+      <c r="H143">
+        <v>19.58</v>
+      </c>
+      <c r="I143">
+        <v>10530.22184</v>
+      </c>
+      <c r="J143">
+        <v>0.925686200847129</v>
+      </c>
+      <c r="K143">
+        <v>0.7460920696494301</v>
+      </c>
+      <c r="L143">
+        <v>0.6517089982436903</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B144">
+        <v>0.38</v>
+      </c>
+      <c r="C144">
+        <v>94</v>
+      </c>
+      <c r="D144">
+        <v>11.54929514615</v>
+      </c>
+      <c r="E144">
+        <v>0.00037853311465</v>
+      </c>
+      <c r="F144">
+        <v>168.201560011453</v>
+      </c>
+      <c r="G144">
+        <v>177.4602739726027</v>
+      </c>
+      <c r="H144">
+        <v>19.95342465753425</v>
+      </c>
+      <c r="I144">
+        <v>16206.180956</v>
+      </c>
+      <c r="J144">
+        <v>0.9532274154468331</v>
+      </c>
+      <c r="K144">
+        <v>0.7346532009962643</v>
+      </c>
+      <c r="L144">
+        <v>0.6629292773257311</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B145">
+        <v>0.41138</v>
+      </c>
+      <c r="C145">
+        <v>91.06100000000001</v>
+      </c>
+      <c r="D145">
+        <v>14.56950705657</v>
+      </c>
+      <c r="E145">
+        <v>-0.00175018038644</v>
+      </c>
+      <c r="F145">
+        <v>168.201560011453</v>
+      </c>
+      <c r="G145">
+        <v>205.4786301369863</v>
+      </c>
+      <c r="H145">
+        <v>20.23178082191781</v>
+      </c>
+      <c r="I145">
+        <v>14718.155</v>
+      </c>
+      <c r="J145">
+        <v>0.9459924711429784</v>
+      </c>
+      <c r="K145">
+        <v>0.7338951871106011</v>
+      </c>
+      <c r="L145">
+        <v>0.6771679200974766</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B146">
+        <v>0.3855</v>
+      </c>
+      <c r="C146">
+        <v>83.18300000000001</v>
+      </c>
+      <c r="D146">
+        <v>14.48505487638</v>
+      </c>
+      <c r="E146">
+        <v>-0.00399199617135</v>
+      </c>
+      <c r="F146">
+        <v>168.201560011453</v>
+      </c>
+      <c r="G146">
+        <v>208.5208219178082</v>
+      </c>
+      <c r="H146">
+        <v>20.38205479452055</v>
+      </c>
+      <c r="I146">
+        <v>13071.85952</v>
+      </c>
+      <c r="J146">
+        <v>0.9376818916124229</v>
+      </c>
+      <c r="K146">
+        <v>0.7125767115559107</v>
+      </c>
+      <c r="L146">
+        <v>0.6766752451945396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B147">
+        <v>0.354</v>
+      </c>
+      <c r="C147">
+        <v>77.858</v>
+      </c>
+      <c r="D147">
+        <v>11.50665790666</v>
+      </c>
+      <c r="E147">
+        <v>-0.00023225585349</v>
+      </c>
+      <c r="F147">
+        <v>168.201560011453</v>
+      </c>
+      <c r="G147">
+        <v>240.8878082191781</v>
+      </c>
+      <c r="H147">
+        <v>20.62109589041096</v>
+      </c>
+      <c r="I147">
+        <v>16298.91089</v>
+      </c>
+      <c r="J147">
+        <v>0.9282134437222956</v>
+      </c>
+      <c r="K147">
+        <v>0.6873759924061151</v>
+      </c>
+      <c r="L147">
+        <v>0.6482963362209007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B148">
+        <v>0.33538</v>
+      </c>
+      <c r="C148">
+        <v>80.227</v>
+      </c>
+      <c r="D148">
+        <v>9.55961355312</v>
+      </c>
+      <c r="E148">
+        <v>0.00125345701049</v>
+      </c>
+      <c r="F148">
+        <v>168.201560011453</v>
+      </c>
+      <c r="I148">
+        <v>13485.387704</v>
+      </c>
+      <c r="J148">
+        <v>0.8908317735767547</v>
+      </c>
+      <c r="K148">
+        <v>0.645802120316499</v>
+      </c>
+      <c r="L148">
+        <v>0.6219078592027808</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B149">
+        <v>0.35125</v>
+      </c>
+      <c r="C149">
+        <v>83.764</v>
+      </c>
+      <c r="D149">
+        <v>8.14838086764</v>
+      </c>
+      <c r="E149">
+        <v>0.00092817046871</v>
+      </c>
+      <c r="F149">
+        <v>168.201560011453</v>
+      </c>
+      <c r="I149">
+        <v>14071.209981</v>
+      </c>
+      <c r="J149">
+        <v>0.698660134397402</v>
+      </c>
+      <c r="K149">
+        <v>0.4955697133892522</v>
+      </c>
+      <c r="L149">
+        <v>0.4838418500636259</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B150">
+        <v>0.33</v>
+      </c>
+      <c r="C150">
+        <v>85.447</v>
+      </c>
+      <c r="D150">
+        <v>8.55372632183</v>
+      </c>
+      <c r="E150">
+        <v>0.00288040947349</v>
+      </c>
+      <c r="F150">
+        <v>168.201560011453</v>
+      </c>
+      <c r="I150">
+        <v>11421.68639</v>
+      </c>
+      <c r="J150">
+        <v>0.777707726822921</v>
+      </c>
+      <c r="K150">
+        <v>0.5408107856002339</v>
+      </c>
+      <c r="L150">
+        <v>0.5253723011732939</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B151">
+        <v>0.32</v>
+      </c>
+      <c r="C151">
+        <v>90.054</v>
+      </c>
+      <c r="D151">
+        <v>9.08511900567</v>
+      </c>
+      <c r="E151">
+        <v>0.01273099920596</v>
+      </c>
+      <c r="F151">
+        <v>173.007318868923</v>
+      </c>
+      <c r="I151">
+        <v>9400.963992000001</v>
+      </c>
+      <c r="J151">
+        <v>0.8778057898078694</v>
+      </c>
+      <c r="K151">
+        <v>0.6265261958603363</v>
+      </c>
+      <c r="L151">
+        <v>0.5922828949331166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="2">
+        <v>45443</v>
+      </c>
+      <c r="C152">
+        <v>81.995</v>
+      </c>
+      <c r="D152">
+        <v>10.12306554509</v>
+      </c>
+      <c r="E152">
+        <v>-0.00119194037903</v>
+      </c>
+      <c r="F152">
+        <v>173.007318868923</v>
+      </c>
+      <c r="I152">
+        <v>13379.146654</v>
+      </c>
+      <c r="J152">
+        <v>0.8505496862719805</v>
+      </c>
+      <c r="K152">
+        <v>0.5982628139590228</v>
+      </c>
+      <c r="L152">
+        <v>0.5782225728556203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="2">
+        <v>45473</v>
+      </c>
+      <c r="C153">
+        <v>82.55500000000001</v>
+      </c>
+      <c r="D153">
+        <v>10.86897789978</v>
+      </c>
+      <c r="E153">
+        <v>-0.009520711175700001</v>
+      </c>
+      <c r="F153">
+        <v>173.007318868923</v>
+      </c>
+      <c r="I153">
+        <v>14004.094447</v>
+      </c>
+      <c r="J153">
+        <v>0.8558800712909602</v>
+      </c>
+      <c r="K153">
+        <v>0.5824914772285323</v>
+      </c>
+      <c r="L153">
+        <v>0.5555706738719839</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="2">
+        <v>45504</v>
+      </c>
+      <c r="C154">
+        <v>85.29600000000001</v>
+      </c>
+      <c r="D154">
+        <v>10.34681932853</v>
+      </c>
+      <c r="E154">
+        <v>0.00930392901235</v>
+      </c>
+      <c r="F154">
+        <v>173.007318868923</v>
+      </c>
+      <c r="I154">
+        <v>13014.65721</v>
+      </c>
+      <c r="J154">
+        <v>0.8803907347272377</v>
+      </c>
+      <c r="K154">
+        <v>0.5768220543219431</v>
+      </c>
+      <c r="L154">
+        <v>0.5583286069431294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="2">
         <v>45535</v>
       </c>
-      <c r="C141">
+      <c r="C155">
         <v>80.863</v>
       </c>
-      <c r="D141">
+      <c r="D155">
         <v>12.37459819711</v>
       </c>
-      <c r="E141">
+      <c r="E155">
         <v>0.00216291477707</v>
       </c>
-      <c r="F141">
+      <c r="F155">
         <v>173.007318868923</v>
       </c>
-      <c r="I141">
+      <c r="I155">
         <v>13914.46856</v>
       </c>
-      <c r="J141">
+      <c r="J155">
         <v>0.879706142553904</v>
       </c>
-      <c r="K141">
+      <c r="K155">
         <v>0.576673867712157</v>
       </c>
-      <c r="L141">
+      <c r="L155">
         <v>0.5656612019411791</v>
       </c>
     </row>

--- a/data/predicción_precios_fertilizantes.xlsx
+++ b/data/predicción_precios_fertilizantes.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28311"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a98dfaf1ce87dfc/DataScience/Proyectos/time-series-fertilizer-price-predictor/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_62F1812DB160DE462A1D2BD2F87AE3803880C9C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30713D7C-A242-47C0-8D3F-E610EF8E0D9A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>fob_urea_kg</t>
   </si>
@@ -48,15 +54,18 @@
   <si>
     <t>urea 46-0-0</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -116,19 +125,28 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,14 +429,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,12 +474,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40877</v>
       </c>
       <c r="B2">
-        <v>0.48125</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="C2">
         <v>110.50409090909</v>
@@ -465,7 +488,7 @@
         <v>11.32</v>
       </c>
       <c r="E2">
-        <v>0.00303368</v>
+        <v>3.03368E-3</v>
       </c>
       <c r="G2">
         <v>187.79</v>
@@ -474,12 +497,12 @@
         <v>20.77</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40908</v>
       </c>
       <c r="B3">
-        <v>0.42313</v>
+        <v>0.42313000000000001</v>
       </c>
       <c r="C3">
         <v>107.90904761905</v>
@@ -488,7 +511,7 @@
         <v>11.53</v>
       </c>
       <c r="E3">
-        <v>0.00397937</v>
+        <v>3.9793700000000003E-3</v>
       </c>
       <c r="G3">
         <v>270.52</v>
@@ -497,21 +520,21 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40939</v>
       </c>
       <c r="B4">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="C4">
-        <v>111.15619047619</v>
+        <v>111.15619047619001</v>
       </c>
       <c r="D4">
         <v>11.45</v>
       </c>
       <c r="E4">
-        <v>0.00567152</v>
+        <v>5.6715200000000002E-3</v>
       </c>
       <c r="G4">
         <v>397.44</v>
@@ -520,7 +543,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>40968</v>
       </c>
@@ -534,7 +557,7 @@
         <v>11.12</v>
       </c>
       <c r="E5">
-        <v>0.00777487</v>
+        <v>7.7748699999999997E-3</v>
       </c>
       <c r="G5">
         <v>432.71</v>
@@ -543,12 +566,12 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40999</v>
       </c>
       <c r="B6">
-        <v>0.39313</v>
+        <v>0.39312999999999998</v>
       </c>
       <c r="C6">
         <v>124.92863636364</v>
@@ -557,7 +580,7 @@
         <v>11.97</v>
       </c>
       <c r="E6">
-        <v>0.00900918</v>
+        <v>9.0091800000000003E-3</v>
       </c>
       <c r="G6">
         <v>445.15</v>
@@ -566,12 +589,12 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>41029</v>
       </c>
       <c r="B7">
-        <v>0.49438</v>
+        <v>0.49437999999999999</v>
       </c>
       <c r="C7">
         <v>120.4635</v>
@@ -580,7 +603,7 @@
         <v>11.42</v>
       </c>
       <c r="E7">
-        <v>0.00157996</v>
+        <v>1.57996E-3</v>
       </c>
       <c r="G7">
         <v>383.58</v>
@@ -589,12 +612,12 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>41060</v>
       </c>
       <c r="B8">
-        <v>0.51313</v>
+        <v>0.51312999999999998</v>
       </c>
       <c r="C8">
         <v>110.52173913044</v>
@@ -603,30 +626,30 @@
         <v>11.64</v>
       </c>
       <c r="E8">
-        <v>-0.00194056</v>
+        <v>-1.94056E-3</v>
       </c>
       <c r="G8">
-        <v>326.04</v>
+        <v>326.04000000000002</v>
       </c>
       <c r="H8">
         <v>21.03</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>41090</v>
       </c>
       <c r="B9">
-        <v>0.45688</v>
+        <v>0.45688000000000001</v>
       </c>
       <c r="C9">
-        <v>95.58904761905001</v>
+        <v>95.589047619050007</v>
       </c>
       <c r="D9">
         <v>11.49</v>
       </c>
       <c r="E9">
-        <v>0.00175095</v>
+        <v>1.75095E-3</v>
       </c>
       <c r="G9">
         <v>207.28</v>
@@ -635,7 +658,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>41121</v>
       </c>
@@ -649,21 +672,21 @@
         <v>11.13</v>
       </c>
       <c r="E10">
-        <v>0.00261228</v>
+        <v>2.6122799999999998E-3</v>
       </c>
       <c r="G10">
         <v>206.41</v>
       </c>
       <c r="H10">
-        <v>20.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.170000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41152</v>
       </c>
       <c r="B11">
-        <v>0.3825</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="C11">
         <v>113.34</v>
@@ -672,16 +695,16 @@
         <v>11.18</v>
       </c>
       <c r="E11">
-        <v>0.00288668</v>
+        <v>2.88668E-3</v>
       </c>
       <c r="G11">
         <v>157.41</v>
       </c>
       <c r="H11">
-        <v>20.15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41182</v>
       </c>
@@ -689,13 +712,13 @@
         <v>0.38438</v>
       </c>
       <c r="C12">
-        <v>113.3825</v>
+        <v>113.38249999999999</v>
       </c>
       <c r="D12">
         <v>11.08</v>
       </c>
       <c r="E12">
-        <v>0.01121914</v>
+        <v>1.1219140000000001E-2</v>
       </c>
       <c r="G12">
         <v>137.1</v>
@@ -704,12 +727,12 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41213</v>
       </c>
       <c r="B13">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="C13">
         <v>111.97347826087</v>
@@ -718,7 +741,7 @@
         <v>11.58</v>
       </c>
       <c r="E13">
-        <v>0.00086008</v>
+        <v>8.6008000000000005E-4</v>
       </c>
       <c r="G13">
         <v>192.12</v>
@@ -727,21 +750,21 @@
         <v>20.77</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41243</v>
       </c>
       <c r="B14">
-        <v>0.3835</v>
+        <v>0.38350000000000001</v>
       </c>
       <c r="C14">
-        <v>109.71181818182</v>
+        <v>109.71181818181999</v>
       </c>
       <c r="D14">
         <v>11.83</v>
       </c>
       <c r="E14">
-        <v>0.00139346</v>
+        <v>1.39346E-3</v>
       </c>
       <c r="G14">
         <v>236.59</v>
@@ -750,7 +773,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41274</v>
       </c>
@@ -764,7 +787,7 @@
         <v>11.79</v>
       </c>
       <c r="E15">
-        <v>-0.00185782</v>
+        <v>-1.85782E-3</v>
       </c>
       <c r="G15">
         <v>236.57</v>
@@ -773,7 +796,7 @@
         <v>21.09</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>41305</v>
       </c>
@@ -787,10 +810,10 @@
         <v>11.87</v>
       </c>
       <c r="E16">
-        <v>0.00502823</v>
+        <v>5.0282299999999999E-3</v>
       </c>
       <c r="F16">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G16">
         <v>277.5</v>
@@ -799,19 +822,19 @@
         <v>21.4</v>
       </c>
       <c r="I16">
-        <v>5824.36382</v>
+        <v>5824.3638199999996</v>
       </c>
       <c r="J16">
-        <v>0.8672605470437807</v>
+        <v>0.86726054704378075</v>
       </c>
       <c r="K16">
-        <v>0.6744008263913943</v>
+        <v>0.67440082639139431</v>
       </c>
       <c r="L16">
-        <v>0.6571884357926305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.65718843579263053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>41333</v>
       </c>
@@ -819,16 +842,16 @@
         <v>0.41563</v>
       </c>
       <c r="C17">
-        <v>116.5195</v>
+        <v>116.51949999999999</v>
       </c>
       <c r="D17">
         <v>11.77</v>
       </c>
       <c r="E17">
-        <v>0.00184694</v>
+        <v>1.84694E-3</v>
       </c>
       <c r="F17">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G17">
         <v>389.36</v>
@@ -837,24 +860,24 @@
         <v>21.17</v>
       </c>
       <c r="I17">
-        <v>5442.94544</v>
+        <v>5442.9454400000004</v>
       </c>
       <c r="J17">
         <v>0.8685473684210524</v>
       </c>
       <c r="K17">
-        <v>0.6973968253968253</v>
+        <v>0.69739682539682535</v>
       </c>
       <c r="L17">
-        <v>0.6790224719101122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.67902247191011222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>41364</v>
       </c>
       <c r="B18">
-        <v>0.39563</v>
+        <v>0.39562999999999998</v>
       </c>
       <c r="C18">
         <v>109.24</v>
@@ -863,10 +886,10 @@
         <v>11.87</v>
       </c>
       <c r="E18">
-        <v>0.00438385</v>
+        <v>4.3838499999999999E-3</v>
       </c>
       <c r="F18">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G18">
         <v>392.47</v>
@@ -875,24 +898,24 @@
         <v>21.64</v>
       </c>
       <c r="I18">
-        <v>6370.208441</v>
+        <v>6370.2084409999998</v>
       </c>
       <c r="J18">
-        <v>0.8550798734425991</v>
+        <v>0.85507987344259906</v>
       </c>
       <c r="K18">
-        <v>0.6786829500291331</v>
+        <v>0.67868295002913315</v>
       </c>
       <c r="L18">
         <v>0.6491428815279966</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>41394</v>
       </c>
       <c r="B19">
-        <v>0.36563</v>
+        <v>0.36563000000000001</v>
       </c>
       <c r="C19">
         <v>102.87545454546</v>
@@ -901,31 +924,31 @@
         <v>12.88</v>
       </c>
       <c r="E19">
-        <v>0.00178991480129</v>
+        <v>1.7899148012899999E-3</v>
       </c>
       <c r="F19">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G19">
-        <v>315.47</v>
+        <v>315.47000000000003</v>
       </c>
       <c r="H19">
         <v>21.47</v>
       </c>
       <c r="I19">
-        <v>5606.19257</v>
+        <v>5606.1925700000002</v>
       </c>
       <c r="J19">
-        <v>0.8518106005524388</v>
+        <v>0.85181060055243885</v>
       </c>
       <c r="K19">
         <v>0.6778942746051847</v>
       </c>
       <c r="L19">
-        <v>0.6543445696018247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.65434456960182474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>41425</v>
       </c>
@@ -939,13 +962,13 @@
         <v>12.29</v>
       </c>
       <c r="E20">
-        <v>-0.00217898312721</v>
+        <v>-2.1789831272100001E-3</v>
       </c>
       <c r="F20">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G20">
-        <v>294.04</v>
+        <v>294.04000000000002</v>
       </c>
       <c r="H20">
         <v>20.92</v>
@@ -957,18 +980,18 @@
         <v>0.8422469678076685</v>
       </c>
       <c r="K20">
-        <v>0.6676538974803573</v>
+        <v>0.66765389748035731</v>
       </c>
       <c r="L20">
-        <v>0.6478541739249454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.64785417392494538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41455</v>
       </c>
       <c r="B21">
-        <v>0.32938</v>
+        <v>0.32938000000000001</v>
       </c>
       <c r="C21">
         <v>103.11</v>
@@ -977,31 +1000,31 @@
         <v>11.92</v>
       </c>
       <c r="E21">
-        <v>-0.00144789862262</v>
+        <v>-1.44789862262E-3</v>
       </c>
       <c r="F21">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G21">
         <v>189.7</v>
       </c>
       <c r="H21">
-        <v>20.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="I21">
-        <v>9055.055410000001</v>
+        <v>9055.0554100000008</v>
       </c>
       <c r="J21">
-        <v>0.8585037107303684</v>
+        <v>0.85850371073036835</v>
       </c>
       <c r="K21">
-        <v>0.6499071626810746</v>
+        <v>0.64990716268107462</v>
       </c>
       <c r="L21">
-        <v>0.6320951778946903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.63209517789469027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>41486</v>
       </c>
@@ -1015,48 +1038,48 @@
         <v>11.6</v>
       </c>
       <c r="E22">
-        <v>-0.00018660335055</v>
+        <v>-1.8660335055E-4</v>
       </c>
       <c r="F22">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G22">
         <v>207.07</v>
       </c>
       <c r="H22">
-        <v>19.51</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="I22">
-        <v>4780.1759</v>
+        <v>4780.1759000000002</v>
       </c>
       <c r="J22">
         <v>0.8348733420306047</v>
       </c>
       <c r="K22">
-        <v>0.6357231285495277</v>
+        <v>0.63572312854952773</v>
       </c>
       <c r="L22">
-        <v>0.608623615595951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.60862361559595102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>41517</v>
       </c>
       <c r="B23">
-        <v>0.31063</v>
+        <v>0.31063000000000002</v>
       </c>
       <c r="C23">
-        <v>110.96454545455</v>
+        <v>110.96454545455001</v>
       </c>
       <c r="D23">
         <v>11.64</v>
       </c>
       <c r="E23">
-        <v>0.0017359094249</v>
+        <v>1.7359094249000001E-3</v>
       </c>
       <c r="F23">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G23">
         <v>180.33</v>
@@ -1068,21 +1091,21 @@
         <v>5763.38508</v>
       </c>
       <c r="J23">
-        <v>0.8405950985701316</v>
+        <v>0.84059509857013159</v>
       </c>
       <c r="K23">
-        <v>0.6467457881835041</v>
+        <v>0.64674578818350414</v>
       </c>
       <c r="L23">
-        <v>0.6213613680524864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.62136136805248643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>41547</v>
       </c>
       <c r="B24">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="C24">
         <v>111.62142857143</v>
@@ -1091,10 +1114,10 @@
         <v>11.25</v>
       </c>
       <c r="E24">
-        <v>0.00567880702632</v>
+        <v>5.6788070263200001E-3</v>
       </c>
       <c r="F24">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G24">
         <v>151.4</v>
@@ -1103,24 +1126,24 @@
         <v>20.39</v>
       </c>
       <c r="I24">
-        <v>8486.01986</v>
+        <v>8486.0198600000003</v>
       </c>
       <c r="J24">
-        <v>0.8487359058149437</v>
+        <v>0.84873590581494374</v>
       </c>
       <c r="K24">
-        <v>0.6421140644338255</v>
+        <v>0.64211406443382546</v>
       </c>
       <c r="L24">
-        <v>0.6223573908089982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.62235739080899821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>41578</v>
       </c>
       <c r="B25">
-        <v>0.29688</v>
+        <v>0.29687999999999998</v>
       </c>
       <c r="C25">
         <v>109.47869565217</v>
@@ -1129,10 +1152,10 @@
         <v>11.37</v>
       </c>
       <c r="E25">
-        <v>0.00408272123409</v>
+        <v>4.0827212340900001E-3</v>
       </c>
       <c r="F25">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G25">
         <v>193.63</v>
@@ -1141,36 +1164,36 @@
         <v>20.69</v>
       </c>
       <c r="I25">
-        <v>7777.98426</v>
+        <v>7777.9842600000002</v>
       </c>
       <c r="J25">
-        <v>0.8232638929131122</v>
+        <v>0.82326389291311219</v>
       </c>
       <c r="K25">
-        <v>0.6348739077977877</v>
+        <v>0.63487390779778774</v>
       </c>
       <c r="L25">
-        <v>0.6073372445208857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.60733724452088567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>41608</v>
       </c>
       <c r="B26">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C26">
-        <v>108.07619047619</v>
+        <v>108.07619047619001</v>
       </c>
       <c r="D26">
         <v>11.42</v>
       </c>
       <c r="E26">
-        <v>0.00394188623561</v>
+        <v>3.9418862356099997E-3</v>
       </c>
       <c r="F26">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G26">
         <v>202.12</v>
@@ -1179,36 +1202,36 @@
         <v>20.9</v>
       </c>
       <c r="I26">
-        <v>7698.69394</v>
+        <v>7698.6939400000001</v>
       </c>
       <c r="J26">
-        <v>0.8121355641936376</v>
+        <v>0.81213556419363764</v>
       </c>
       <c r="K26">
-        <v>0.6306641597470233</v>
+        <v>0.63066415974702328</v>
       </c>
       <c r="L26">
         <v>0.6009369425458041</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41639</v>
       </c>
       <c r="B27">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C27">
-        <v>110.674</v>
+        <v>110.67400000000001</v>
       </c>
       <c r="D27">
         <v>11.55</v>
       </c>
       <c r="E27">
-        <v>0.00203496635956</v>
+        <v>2.0349663595599999E-3</v>
       </c>
       <c r="F27">
-        <v>99.270073</v>
+        <v>99.270072999999996</v>
       </c>
       <c r="G27">
         <v>203.44</v>
@@ -1217,19 +1240,19 @@
         <v>21.3</v>
       </c>
       <c r="I27">
-        <v>7647.09121</v>
+        <v>7647.0912099999996</v>
       </c>
       <c r="J27">
-        <v>0.8074058386419162</v>
+        <v>0.80740583864191617</v>
       </c>
       <c r="K27">
-        <v>0.6107523031239191</v>
+        <v>0.61075230312391915</v>
       </c>
       <c r="L27">
-        <v>0.5891253726199061</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.58912537261990605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>41670</v>
       </c>
@@ -1243,7 +1266,7 @@
         <v>11.59</v>
       </c>
       <c r="E28">
-        <v>0.00721709623224</v>
+        <v>7.2170962322399999E-3</v>
       </c>
       <c r="F28">
         <v>100</v>
@@ -1255,19 +1278,19 @@
         <v>21.29</v>
       </c>
       <c r="I28">
-        <v>6541.49859</v>
+        <v>6541.4985900000001</v>
       </c>
       <c r="J28">
-        <v>0.7709181489739785</v>
+        <v>0.77091814897397848</v>
       </c>
       <c r="K28">
-        <v>0.6066373078667835</v>
+        <v>0.60663730786678349</v>
       </c>
       <c r="L28">
-        <v>0.6002775590720512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.60027755907205116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>41698</v>
       </c>
@@ -1281,7 +1304,7 @@
         <v>11.3</v>
       </c>
       <c r="E29">
-        <v>0.00109903582645</v>
+        <v>1.09903582645E-3</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -1293,24 +1316,24 @@
         <v>21.3</v>
       </c>
       <c r="I29">
-        <v>4942.11893</v>
+        <v>4942.1189299999996</v>
       </c>
       <c r="J29">
-        <v>0.7925621089687369</v>
+        <v>0.79256210896873691</v>
       </c>
       <c r="K29">
-        <v>0.6139503909803039</v>
+        <v>0.61395039098030391</v>
       </c>
       <c r="L29">
-        <v>0.6597338111517724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.65973381115177243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>41729</v>
       </c>
       <c r="B30">
-        <v>0.3275</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="C30">
         <v>107.4</v>
@@ -1319,7 +1342,7 @@
         <v>10.88</v>
       </c>
       <c r="E30">
-        <v>0.00696282099423</v>
+        <v>6.9628209942300002E-3</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -1331,19 +1354,19 @@
         <v>21.3</v>
       </c>
       <c r="I30">
-        <v>5504.67138</v>
+        <v>5504.6713799999998</v>
       </c>
       <c r="J30">
-        <v>0.8068686654566634</v>
+        <v>0.80686866545666336</v>
       </c>
       <c r="K30">
-        <v>0.6180948817281297</v>
+        <v>0.61809488172812965</v>
       </c>
       <c r="L30">
-        <v>0.6651449333001744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0.66514493330017443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>41759</v>
       </c>
@@ -1357,7 +1380,7 @@
         <v>10.73</v>
       </c>
       <c r="E31">
-        <v>0.0029547590082</v>
+        <v>2.9547590082000001E-3</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -1369,33 +1392,33 @@
         <v>21.02</v>
       </c>
       <c r="I31">
-        <v>5158.61846</v>
+        <v>5158.6184599999997</v>
       </c>
       <c r="J31">
-        <v>0.8020950461564855</v>
+        <v>0.80209504615648552</v>
       </c>
       <c r="K31">
-        <v>0.6157498824700319</v>
+        <v>0.61574988247003193</v>
       </c>
       <c r="L31">
-        <v>0.6503967749331658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.65039677493316583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41790</v>
       </c>
       <c r="B32">
-        <v>0.265</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C32">
         <v>109.68</v>
       </c>
       <c r="D32">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E32">
-        <v>-0.00041124006945</v>
+        <v>-4.1124006945E-4</v>
       </c>
       <c r="F32">
         <v>100</v>
@@ -1407,24 +1430,24 @@
         <v>21.02</v>
       </c>
       <c r="I32">
-        <v>6216.49738</v>
+        <v>6216.4973799999998</v>
       </c>
       <c r="J32">
-        <v>0.7871571321656488</v>
+        <v>0.78715713216564875</v>
       </c>
       <c r="K32">
-        <v>0.6024213151913201</v>
+        <v>0.60242131519132014</v>
       </c>
       <c r="L32">
-        <v>0.6364812405234331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>0.63648124052343313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>41820</v>
       </c>
       <c r="B33">
-        <v>0.28875</v>
+        <v>0.28875000000000001</v>
       </c>
       <c r="C33">
         <v>111.87</v>
@@ -1433,7 +1456,7 @@
         <v>9.77</v>
       </c>
       <c r="E33">
-        <v>0.00104061164432</v>
+        <v>1.04061164432E-3</v>
       </c>
       <c r="F33">
         <v>100</v>
@@ -1445,24 +1468,24 @@
         <v>20.83</v>
       </c>
       <c r="I33">
-        <v>5132.147891</v>
+        <v>5132.1478909999996</v>
       </c>
       <c r="J33">
-        <v>0.7605184164311056</v>
+        <v>0.76051841643110563</v>
       </c>
       <c r="K33">
-        <v>0.5887944817376379</v>
+        <v>0.58879448173763793</v>
       </c>
       <c r="L33">
-        <v>0.6153944841018681</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0.61539448410186814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41851</v>
       </c>
       <c r="B34">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C34">
         <v>106.98</v>
@@ -1471,7 +1494,7 @@
         <v>9.27</v>
       </c>
       <c r="E34">
-        <v>0.00403367510875</v>
+        <v>4.0336751087499999E-3</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -1480,36 +1503,36 @@
         <v>226.27</v>
       </c>
       <c r="H34">
-        <v>20.33</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="I34">
-        <v>5886.179891</v>
+        <v>5886.1798909999998</v>
       </c>
       <c r="J34">
-        <v>0.7638108928979822</v>
+        <v>0.76381089289798221</v>
       </c>
       <c r="K34">
-        <v>0.5866103312581704</v>
+        <v>0.58661033125817041</v>
       </c>
       <c r="L34">
-        <v>0.6019163744878601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>0.60191637448786006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41882</v>
       </c>
       <c r="B35">
-        <v>0.31125</v>
+        <v>0.31125000000000003</v>
       </c>
       <c r="C35">
         <v>101.92</v>
       </c>
       <c r="D35">
-        <v>9.140000000000001</v>
+        <v>9.14</v>
       </c>
       <c r="E35">
-        <v>0.00209425743043</v>
+        <v>2.0942574304300002E-3</v>
       </c>
       <c r="F35">
         <v>100</v>
@@ -1518,22 +1541,22 @@
         <v>196.13</v>
       </c>
       <c r="H35">
-        <v>20.17</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="I35">
-        <v>6830.35478</v>
+        <v>6830.3547799999997</v>
       </c>
       <c r="J35">
         <v>0.7447946316492472</v>
       </c>
       <c r="K35">
-        <v>0.5829472606075842</v>
+        <v>0.58294726060758417</v>
       </c>
       <c r="L35">
-        <v>0.580972938994164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>0.58097293899416402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>41912</v>
       </c>
@@ -1547,7 +1570,7 @@
         <v>9.24</v>
       </c>
       <c r="E36">
-        <v>0.00612724231634</v>
+        <v>6.12724231634E-3</v>
       </c>
       <c r="F36">
         <v>100</v>
@@ -1559,19 +1582,19 @@
         <v>20.5</v>
       </c>
       <c r="I36">
-        <v>6431.270381</v>
+        <v>6431.2703810000003</v>
       </c>
       <c r="J36">
-        <v>0.7357620290506148</v>
+        <v>0.73576202905061483</v>
       </c>
       <c r="K36">
-        <v>0.5870616816596992</v>
+        <v>0.58706168165969919</v>
       </c>
       <c r="L36">
-        <v>0.5789874107822613</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>0.57898741078226135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>41943</v>
       </c>
@@ -1585,7 +1608,7 @@
         <v>9.77</v>
       </c>
       <c r="E37">
-        <v>0.00202797923177</v>
+        <v>2.02797923177E-3</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -1600,16 +1623,16 @@
         <v>10221.54844</v>
       </c>
       <c r="J37">
-        <v>0.7253086512339686</v>
+        <v>0.72530865123396859</v>
       </c>
       <c r="K37">
-        <v>0.5785585953770748</v>
+        <v>0.57855859537707477</v>
       </c>
       <c r="L37">
-        <v>0.5644320052005543</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>0.56443200520055425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>41973</v>
       </c>
@@ -1623,7 +1646,7 @@
         <v>8.9</v>
       </c>
       <c r="E38">
-        <v>0.00181231082894</v>
+        <v>1.8123108289399999E-3</v>
       </c>
       <c r="F38">
         <v>100</v>
@@ -1635,24 +1658,24 @@
         <v>20.99</v>
       </c>
       <c r="I38">
-        <v>8013.31036</v>
+        <v>8013.3103600000004</v>
       </c>
       <c r="J38">
         <v>0.7343521954270652</v>
       </c>
       <c r="K38">
-        <v>0.5759530835877673</v>
+        <v>0.57595308358776731</v>
       </c>
       <c r="L38">
-        <v>0.565783392934301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>0.56578339293430102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42004</v>
       </c>
       <c r="B39">
-        <v>0.30813</v>
+        <v>0.30813000000000001</v>
       </c>
       <c r="C39">
         <v>62.33</v>
@@ -1661,7 +1684,7 @@
         <v>9.83</v>
       </c>
       <c r="E39">
-        <v>0.00114753345983</v>
+        <v>1.1475334598300001E-3</v>
       </c>
       <c r="F39">
         <v>100</v>
@@ -1673,24 +1696,24 @@
         <v>21.4</v>
       </c>
       <c r="I39">
-        <v>6036.39379</v>
+        <v>6036.3937900000001</v>
       </c>
       <c r="J39">
-        <v>0.7496580666379383</v>
+        <v>0.74965806663793833</v>
       </c>
       <c r="K39">
-        <v>0.5707380048592361</v>
+        <v>0.57073800485923609</v>
       </c>
       <c r="L39">
-        <v>0.5625403764026504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0.56254037640265042</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42035</v>
       </c>
       <c r="B40">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C40">
         <v>48.07</v>
@@ -1699,10 +1722,10 @@
         <v>9.25</v>
       </c>
       <c r="E40">
-        <v>0.00590365500828</v>
+        <v>5.9036550082799998E-3</v>
       </c>
       <c r="F40">
-        <v>98.02628841387055</v>
+        <v>98.026288413870546</v>
       </c>
       <c r="G40">
         <v>304.83</v>
@@ -1711,24 +1734,24 @@
         <v>21.08</v>
       </c>
       <c r="I40">
-        <v>4617.67667</v>
+        <v>4617.6766699999998</v>
       </c>
       <c r="J40">
         <v>0.7511502344638139</v>
       </c>
       <c r="K40">
-        <v>0.5684258519003971</v>
+        <v>0.56842585190039707</v>
       </c>
       <c r="L40">
-        <v>0.553810900247991</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>0.55381090024799096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>42063</v>
       </c>
       <c r="B41">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C41">
         <v>57.93</v>
@@ -1737,10 +1760,10 @@
         <v>8.27</v>
       </c>
       <c r="E41">
-        <v>0.00612390657803</v>
+        <v>6.1239065780299999E-3</v>
       </c>
       <c r="F41">
-        <v>98.12605701209255</v>
+        <v>98.126057012092545</v>
       </c>
       <c r="G41">
         <v>251.57</v>
@@ -1749,24 +1772,24 @@
         <v>21.61</v>
       </c>
       <c r="I41">
-        <v>4321.84775</v>
+        <v>4321.8477499999999</v>
       </c>
       <c r="J41">
-        <v>0.760122959601557</v>
+        <v>0.76012295960155696</v>
       </c>
       <c r="K41">
-        <v>0.5697013828398625</v>
+        <v>0.56970138283986249</v>
       </c>
       <c r="L41">
-        <v>0.5485366794799648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>0.54853667947996476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42094</v>
       </c>
       <c r="B42">
-        <v>0.2955</v>
+        <v>0.29549999999999998</v>
       </c>
       <c r="C42">
         <v>55.79</v>
@@ -1775,10 +1798,10 @@
         <v>8.27</v>
       </c>
       <c r="E42">
-        <v>0.00414185867872</v>
+        <v>4.1418586787200003E-3</v>
       </c>
       <c r="F42">
-        <v>98.0838213392952</v>
+        <v>98.083821339295199</v>
       </c>
       <c r="G42">
         <v>400.65</v>
@@ -1790,16 +1813,16 @@
         <v>3843.44886</v>
       </c>
       <c r="J42">
-        <v>0.7510792430703208</v>
+        <v>0.75107924307032081</v>
       </c>
       <c r="K42">
-        <v>0.5736145998586352</v>
+        <v>0.57361459985863517</v>
       </c>
       <c r="L42">
-        <v>0.5335659721072206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>0.53356597210722057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42124</v>
       </c>
@@ -1810,13 +1833,13 @@
         <v>59.39</v>
       </c>
       <c r="D43">
-        <v>6.77444566675</v>
+        <v>6.7744456667500002</v>
       </c>
       <c r="E43">
-        <v>0.00837239522369</v>
+        <v>8.37239522369E-3</v>
       </c>
       <c r="F43">
-        <v>98.08382133929511</v>
+        <v>98.083821339295113</v>
       </c>
       <c r="G43">
         <v>386.07</v>
@@ -1825,36 +1848,36 @@
         <v>21.67</v>
       </c>
       <c r="I43">
-        <v>4023.48343</v>
+        <v>4023.4834300000002</v>
       </c>
       <c r="J43">
-        <v>0.7504441289241636</v>
+        <v>0.75044412892416357</v>
       </c>
       <c r="K43">
-        <v>0.5693962956377918</v>
+        <v>0.56939629563779182</v>
       </c>
       <c r="L43">
-        <v>0.5323431924868129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>0.53234319248681294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42155</v>
       </c>
       <c r="B44">
-        <v>0.265</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C44">
         <v>64.56</v>
       </c>
       <c r="D44">
-        <v>6.68399731108</v>
+        <v>6.6839973110799997</v>
       </c>
       <c r="E44">
-        <v>0.00177027607802</v>
+        <v>1.7702760780200001E-3</v>
       </c>
       <c r="F44">
-        <v>98.08382133929511</v>
+        <v>98.083821339295113</v>
       </c>
       <c r="G44">
         <v>352.84</v>
@@ -1863,36 +1886,36 @@
         <v>21.62</v>
       </c>
       <c r="I44">
-        <v>3929.47179</v>
+        <v>3929.4717900000001</v>
       </c>
       <c r="J44">
-        <v>0.7374647734611713</v>
+        <v>0.73746477346117134</v>
       </c>
       <c r="K44">
-        <v>0.5617302190931903</v>
+        <v>0.56173021909319032</v>
       </c>
       <c r="L44">
-        <v>0.5205763152449127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>0.52057631524491266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42185</v>
       </c>
       <c r="B45">
-        <v>0.28875</v>
+        <v>0.28875000000000001</v>
       </c>
       <c r="C45">
         <v>62.34</v>
       </c>
       <c r="D45">
-        <v>6.66672592954</v>
+        <v>6.6667259295400001</v>
       </c>
       <c r="E45">
-        <v>0.00407548979979</v>
+        <v>4.0754897997899997E-3</v>
       </c>
       <c r="F45">
-        <v>98.08382133929511</v>
+        <v>98.083821339295113</v>
       </c>
       <c r="G45">
         <v>278.02</v>
@@ -1904,16 +1927,16 @@
         <v>5889.86492</v>
       </c>
       <c r="J45">
-        <v>0.7362471033447635</v>
+        <v>0.73624710334476351</v>
       </c>
       <c r="K45">
         <v>0.5489128209475207</v>
       </c>
       <c r="L45">
-        <v>0.5189061203564601</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>0.51890612035646011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42216</v>
       </c>
@@ -1924,39 +1947,39 @@
         <v>55.87</v>
       </c>
       <c r="D46">
-        <v>6.69403713465</v>
+        <v>6.6940371346500003</v>
       </c>
       <c r="E46">
-        <v>-0.00079501885287</v>
+        <v>-7.9501885286999998E-4</v>
       </c>
       <c r="F46">
-        <v>98.08382133929511</v>
+        <v>98.083821339295113</v>
       </c>
       <c r="G46">
-        <v>273.59</v>
+        <v>273.58999999999997</v>
       </c>
       <c r="H46">
         <v>20.96</v>
       </c>
       <c r="I46">
-        <v>4836.23076</v>
+        <v>4836.2307600000004</v>
       </c>
       <c r="J46">
-        <v>0.7360409638412788</v>
+        <v>0.73604096384127882</v>
       </c>
       <c r="K46">
         <v>0.5437687296742808</v>
       </c>
       <c r="L46">
-        <v>0.5144546614152439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>0.51445466141524387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42247</v>
       </c>
       <c r="B47">
-        <v>0.27463</v>
+        <v>0.27462999999999999</v>
       </c>
       <c r="C47">
         <v>46.99</v>
@@ -1965,10 +1988,10 @@
         <v>6.34573758328</v>
       </c>
       <c r="E47">
-        <v>-1.30889878E-05</v>
+        <v>-1.30889878E-5</v>
       </c>
       <c r="F47">
-        <v>98.08382133929511</v>
+        <v>98.083821339295113</v>
       </c>
       <c r="G47">
         <v>165.8</v>
@@ -1980,33 +2003,33 @@
         <v>3861.52729</v>
       </c>
       <c r="J47">
-        <v>0.7332783886586499</v>
+        <v>0.73327838865864992</v>
       </c>
       <c r="K47">
         <v>0.5439808398904451</v>
       </c>
       <c r="L47">
-        <v>0.5024883515962226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>0.50248835159622263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42277</v>
       </c>
       <c r="B48">
-        <v>0.27938</v>
+        <v>0.27938000000000002</v>
       </c>
       <c r="C48">
         <v>47.24</v>
       </c>
       <c r="D48">
-        <v>6.27869866034</v>
+        <v>6.2786986603399999</v>
       </c>
       <c r="E48">
-        <v>0.00264426749746</v>
+        <v>2.6442674974599999E-3</v>
       </c>
       <c r="F48">
-        <v>98.02628841387089</v>
+        <v>98.026288413870887</v>
       </c>
       <c r="G48">
         <v>141.76</v>
@@ -2015,36 +2038,36 @@
         <v>21.73</v>
       </c>
       <c r="I48">
-        <v>4523.96033</v>
+        <v>4523.9603299999999</v>
       </c>
       <c r="J48">
-        <v>0.7316656752119209</v>
+        <v>0.73166567521192094</v>
       </c>
       <c r="K48">
-        <v>0.5389258902595203</v>
+        <v>0.53892589025952031</v>
       </c>
       <c r="L48">
-        <v>0.5010827813650858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>0.50108278136508577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>42308</v>
       </c>
       <c r="B49">
-        <v>0.25063</v>
+        <v>0.25063000000000002</v>
       </c>
       <c r="C49">
         <v>48.12</v>
       </c>
       <c r="D49">
-        <v>6.0269578206</v>
+        <v>6.0269578205999998</v>
       </c>
       <c r="E49">
-        <v>-0.0009048161875800001</v>
+        <v>-9.0481618758000005E-4</v>
       </c>
       <c r="F49">
-        <v>98.02829483619688</v>
+        <v>98.028294836196878</v>
       </c>
       <c r="G49">
         <v>252.51</v>
@@ -2053,62 +2076,62 @@
         <v>21.68</v>
       </c>
       <c r="I49">
-        <v>5986.03261</v>
+        <v>5986.0326100000002</v>
       </c>
       <c r="J49">
-        <v>0.7248172806003725</v>
+        <v>0.72481728060037254</v>
       </c>
       <c r="K49">
-        <v>0.5239990920389065</v>
+        <v>0.52399909203890649</v>
       </c>
       <c r="L49">
-        <v>0.4939633701442998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>0.49396337014429981</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>42338</v>
       </c>
       <c r="B50">
-        <v>0.26363</v>
+        <v>0.26362999999999998</v>
       </c>
       <c r="C50">
         <v>44.42</v>
       </c>
       <c r="D50">
-        <v>5.50083385123</v>
+        <v>5.5008338512300003</v>
       </c>
       <c r="E50">
-        <v>0.00107409300206</v>
+        <v>1.0740930020600001E-3</v>
       </c>
       <c r="F50">
-        <v>98.02829483619688</v>
+        <v>98.028294836196878</v>
       </c>
       <c r="G50">
-        <v>265.22</v>
+        <v>265.22000000000003</v>
       </c>
       <c r="H50">
         <v>21.77</v>
       </c>
       <c r="I50">
-        <v>5198.85892</v>
+        <v>5198.8589199999997</v>
       </c>
       <c r="J50">
-        <v>0.7279191205105335</v>
+        <v>0.72791912051053353</v>
       </c>
       <c r="K50">
-        <v>0.5134723375152869</v>
+        <v>0.51347233751528687</v>
       </c>
       <c r="L50">
-        <v>0.4862558135097635</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>0.48625581350976349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42369</v>
       </c>
       <c r="B51">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="C51">
         <v>37.72</v>
@@ -2117,31 +2140,31 @@
         <v>5.09276298262</v>
       </c>
       <c r="E51">
-        <v>0.00094405261526</v>
+        <v>9.4405261525999998E-4</v>
       </c>
       <c r="F51">
-        <v>98.08582776162112</v>
+        <v>98.085827761621118</v>
       </c>
       <c r="G51">
-        <v>314.72</v>
+        <v>314.72000000000003</v>
       </c>
       <c r="H51">
         <v>22.07</v>
       </c>
       <c r="I51">
-        <v>4485.22452</v>
+        <v>4485.2245199999998</v>
       </c>
       <c r="J51">
-        <v>0.7368903829903433</v>
+        <v>0.73689038299034326</v>
       </c>
       <c r="K51">
-        <v>0.5789985427337893</v>
+        <v>0.57899854273378926</v>
       </c>
       <c r="L51">
-        <v>0.5695672343194765</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>0.56956723431947653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42400</v>
       </c>
@@ -2152,34 +2175,34 @@
         <v>30.8</v>
       </c>
       <c r="D52">
-        <v>4.39818627541</v>
+        <v>4.3981862754099996</v>
       </c>
       <c r="E52">
-        <v>0.00308156793444</v>
+        <v>3.0815679344400001E-3</v>
       </c>
       <c r="F52">
         <v>98.08582776162126</v>
       </c>
       <c r="G52">
-        <v>298.85</v>
+        <v>298.85000000000002</v>
       </c>
       <c r="H52">
         <v>22.72</v>
       </c>
       <c r="I52">
-        <v>3861.58431</v>
+        <v>3861.5843100000002</v>
       </c>
       <c r="J52">
-        <v>0.7082951047200332</v>
+        <v>0.70829510472003321</v>
       </c>
       <c r="K52">
-        <v>0.52035543962008</v>
+        <v>0.52035543962008002</v>
       </c>
       <c r="L52">
-        <v>0.4820168788629647</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>0.48201687886296468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42429</v>
       </c>
@@ -2187,13 +2210,13 @@
         <v>0.19188</v>
       </c>
       <c r="C53">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D53">
-        <v>3.96837858928</v>
+        <v>3.9683785892799999</v>
       </c>
       <c r="E53">
-        <v>0.00138043624841</v>
+        <v>1.3804362484099999E-3</v>
       </c>
       <c r="F53">
         <v>98.08582776162126</v>
@@ -2205,33 +2228,33 @@
         <v>22.26</v>
       </c>
       <c r="I53">
-        <v>4516.16623</v>
+        <v>4516.1662299999998</v>
       </c>
       <c r="J53">
-        <v>0.7131837726449133</v>
+        <v>0.71318377264491328</v>
       </c>
       <c r="K53">
-        <v>0.50661793829489</v>
+        <v>0.50661793829488999</v>
       </c>
       <c r="L53">
-        <v>0.4752541678252299</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>0.47525416782522989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>42460</v>
       </c>
       <c r="B54">
-        <v>0.20175</v>
+        <v>0.20175000000000001</v>
       </c>
       <c r="C54">
         <v>39.07</v>
       </c>
       <c r="D54">
-        <v>3.9101802431</v>
+        <v>3.9101802431000001</v>
       </c>
       <c r="E54">
-        <v>0.00137015609557</v>
+        <v>1.37015609557E-3</v>
       </c>
       <c r="F54">
         <v>98.08582776162126</v>
@@ -2243,33 +2266,33 @@
         <v>22.41</v>
       </c>
       <c r="I54">
-        <v>4322.98412</v>
+        <v>4322.9841200000001</v>
       </c>
       <c r="J54">
-        <v>0.7122545484395849</v>
+        <v>0.71225454843958491</v>
       </c>
       <c r="K54">
-        <v>0.5097552412684396</v>
+        <v>0.50975524126843963</v>
       </c>
       <c r="L54">
-        <v>0.4794919871561822</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>0.47949198715618219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42490</v>
       </c>
       <c r="B55">
-        <v>0.19625</v>
+        <v>0.19625000000000001</v>
       </c>
       <c r="C55">
         <v>42.25</v>
       </c>
       <c r="D55">
-        <v>3.97007508979</v>
+        <v>3.9700750897899999</v>
       </c>
       <c r="E55">
-        <v>0.00306576018604</v>
+        <v>3.0657601860400001E-3</v>
       </c>
       <c r="F55">
         <v>98.08582776162126</v>
@@ -2281,19 +2304,19 @@
         <v>22.18</v>
       </c>
       <c r="I55">
-        <v>3340.26966</v>
+        <v>3340.2696599999999</v>
       </c>
       <c r="J55">
-        <v>0.70524149096461</v>
+        <v>0.70524149096460997</v>
       </c>
       <c r="K55">
-        <v>0.5264900767246228</v>
+        <v>0.52649007672462278</v>
       </c>
       <c r="L55">
-        <v>0.4708083191360896</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>0.47080831913608961</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>42521</v>
       </c>
@@ -2304,10 +2327,10 @@
         <v>47.13</v>
       </c>
       <c r="D56">
-        <v>4.32919186506</v>
+        <v>4.3291918650600003</v>
       </c>
       <c r="E56">
-        <v>0.0003179953095</v>
+        <v>3.1799530950000002E-4</v>
       </c>
       <c r="F56">
         <v>98.08582776162126</v>
@@ -2319,36 +2342,36 @@
         <v>21.89</v>
       </c>
       <c r="I56">
-        <v>4416.719989</v>
+        <v>4416.7199890000002</v>
       </c>
       <c r="J56">
-        <v>0.6801871339478551</v>
+        <v>0.68018713394785513</v>
       </c>
       <c r="K56">
-        <v>0.4919299661332283</v>
+        <v>0.49192996613322831</v>
       </c>
       <c r="L56">
-        <v>0.4507667876778689</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>0.45076678767786887</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42551</v>
       </c>
       <c r="B57">
-        <v>0.14263</v>
+        <v>0.14263000000000001</v>
       </c>
       <c r="C57">
         <v>48.48</v>
       </c>
       <c r="D57">
-        <v>4.75572046689</v>
+        <v>4.7557204668899997</v>
       </c>
       <c r="E57">
-        <v>0.00358857193346</v>
+        <v>3.5885719334599999E-3</v>
       </c>
       <c r="F57">
-        <v>97.84130078642208</v>
+        <v>97.841300786422082</v>
       </c>
       <c r="G57">
         <v>246.5</v>
@@ -2357,36 +2380,36 @@
         <v>20.74</v>
       </c>
       <c r="I57">
-        <v>5524.22315</v>
+        <v>5524.2231499999998</v>
       </c>
       <c r="J57">
-        <v>0.6774509940113768</v>
+        <v>0.67745099401137676</v>
       </c>
       <c r="K57">
-        <v>0.4827820835235166</v>
+        <v>0.48278208352351659</v>
       </c>
       <c r="L57">
-        <v>0.4359624158169977</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>0.43596241581699768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42582</v>
       </c>
       <c r="B58">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C58">
         <v>45.07</v>
       </c>
       <c r="D58">
-        <v>4.67473769135</v>
+        <v>4.6747376913499998</v>
       </c>
       <c r="E58">
-        <v>-0.00085202382591</v>
+        <v>-8.5202382591000004E-4</v>
       </c>
       <c r="F58">
-        <v>97.91208819177156</v>
+        <v>97.912088191771559</v>
       </c>
       <c r="G58">
         <v>181.77</v>
@@ -2395,19 +2418,19 @@
         <v>20.37</v>
       </c>
       <c r="I58">
-        <v>5132.94098</v>
+        <v>5132.9409800000003</v>
       </c>
       <c r="J58">
-        <v>0.67394890533351</v>
+        <v>0.67394890533351004</v>
       </c>
       <c r="K58">
-        <v>0.4749401360383756</v>
+        <v>0.47494013603837559</v>
       </c>
       <c r="L58">
-        <v>0.4324644529996413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>0.43246445299964131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>42613</v>
       </c>
@@ -2418,13 +2441,13 @@
         <v>46.14</v>
       </c>
       <c r="D59">
-        <v>4.0474899302</v>
+        <v>4.0474899302000003</v>
       </c>
       <c r="E59">
-        <v>-0.00163017094656</v>
+        <v>-1.6301709465600001E-3</v>
       </c>
       <c r="F59">
-        <v>97.91208819177152</v>
+        <v>97.912088191771517</v>
       </c>
       <c r="G59">
         <v>134.29</v>
@@ -2433,36 +2456,36 @@
         <v>20.83</v>
       </c>
       <c r="I59">
-        <v>4812.37234</v>
+        <v>4812.3723399999999</v>
       </c>
       <c r="J59">
-        <v>0.6517968140188468</v>
+        <v>0.65179681401884682</v>
       </c>
       <c r="K59">
-        <v>0.4659717030490173</v>
+        <v>0.46597170304901731</v>
       </c>
       <c r="L59">
-        <v>0.4148335152970328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>0.41483351529703277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>42643</v>
       </c>
       <c r="B60">
-        <v>0.1873</v>
+        <v>0.18729999999999999</v>
       </c>
       <c r="C60">
         <v>46.19</v>
       </c>
       <c r="D60">
-        <v>4.25361416995</v>
+        <v>4.2536141699499996</v>
       </c>
       <c r="E60">
-        <v>0.00152368939712</v>
+        <v>1.52368939712E-3</v>
       </c>
       <c r="F60">
-        <v>97.91208819177152</v>
+        <v>97.912088191771517</v>
       </c>
       <c r="G60">
         <v>200.68</v>
@@ -2471,19 +2494,19 @@
         <v>20.83</v>
       </c>
       <c r="I60">
-        <v>5963.76003</v>
+        <v>5963.7600300000004</v>
       </c>
       <c r="J60">
-        <v>0.6581080643125961</v>
+        <v>0.65810806431259605</v>
       </c>
       <c r="K60">
-        <v>0.4622594157791444</v>
+        <v>0.46225941577914442</v>
       </c>
       <c r="L60">
-        <v>0.4049646873664867</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>0.40496468736648672</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42674</v>
       </c>
@@ -2494,13 +2517,13 @@
         <v>49.73</v>
       </c>
       <c r="D61">
-        <v>5.33681888345</v>
+        <v>5.3368188834500003</v>
       </c>
       <c r="E61">
-        <v>-0.00082248029822</v>
+        <v>-8.2248029822000002E-4</v>
       </c>
       <c r="F61">
-        <v>97.91208819177152</v>
+        <v>97.912088191771517</v>
       </c>
       <c r="G61">
         <v>202.9</v>
@@ -2509,36 +2532,36 @@
         <v>21.13</v>
       </c>
       <c r="I61">
-        <v>5529.39903</v>
+        <v>5529.3990299999996</v>
       </c>
       <c r="J61">
-        <v>0.6329962394515387</v>
+        <v>0.63299623945153871</v>
       </c>
       <c r="K61">
-        <v>0.4569607153811139</v>
+        <v>0.45696071538111388</v>
       </c>
       <c r="L61">
-        <v>0.4017526614000725</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>0.40175266140007249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42704</v>
       </c>
       <c r="B62">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C62">
         <v>46.44</v>
       </c>
       <c r="D62">
-        <v>5.69317950115</v>
+        <v>5.6931795011500004</v>
       </c>
       <c r="E62">
-        <v>-0.00145242116852</v>
+        <v>-1.45242116852E-3</v>
       </c>
       <c r="F62">
-        <v>97.91208819177152</v>
+        <v>97.912088191771517</v>
       </c>
       <c r="G62">
         <v>179.69</v>
@@ -2547,19 +2570,19 @@
         <v>21.31</v>
       </c>
       <c r="I62">
-        <v>5152.64297</v>
+        <v>5152.6429699999999</v>
       </c>
       <c r="J62">
-        <v>0.644940891062284</v>
+        <v>0.64494089106228403</v>
       </c>
       <c r="K62">
-        <v>0.4501325491753546</v>
+        <v>0.45013254917535461</v>
       </c>
       <c r="L62">
-        <v>0.3924427379220669</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>0.39244273792206691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42735</v>
       </c>
@@ -2570,13 +2593,13 @@
         <v>54.07</v>
       </c>
       <c r="D63">
-        <v>5.4235014224</v>
+        <v>5.4235014224000002</v>
       </c>
       <c r="E63">
-        <v>0.00158789945524</v>
+        <v>1.58789945524E-3</v>
       </c>
       <c r="F63">
-        <v>97.91208819177152</v>
+        <v>97.912088191771517</v>
       </c>
       <c r="G63">
         <v>270.98</v>
@@ -2585,36 +2608,36 @@
         <v>21.38</v>
       </c>
       <c r="I63">
-        <v>4194.69998</v>
+        <v>4194.6999800000003</v>
       </c>
       <c r="J63">
-        <v>0.6133937372661861</v>
+        <v>0.61339373726618607</v>
       </c>
       <c r="K63">
-        <v>0.4381112528138649</v>
+        <v>0.43811125281386493</v>
       </c>
       <c r="L63">
-        <v>0.3852240718303008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>0.38522407183030077</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42766</v>
       </c>
       <c r="B64">
-        <v>0.23375</v>
+        <v>0.23375000000000001</v>
       </c>
       <c r="C64">
         <v>54.89</v>
       </c>
       <c r="D64">
-        <v>6.1443492548</v>
+        <v>6.1443492547999998</v>
       </c>
       <c r="E64">
-        <v>0.00087802460833</v>
+        <v>8.7802460833000002E-4</v>
       </c>
       <c r="F64">
-        <v>97.91208819177152</v>
+        <v>97.912088191771517</v>
       </c>
       <c r="G64">
         <v>401.06</v>
@@ -2623,19 +2646,19 @@
         <v>21.31</v>
       </c>
       <c r="I64">
-        <v>3306.6732</v>
+        <v>3306.6732000000002</v>
       </c>
       <c r="J64">
-        <v>0.6119653913513597</v>
+        <v>0.61196539135135974</v>
       </c>
       <c r="K64">
-        <v>0.4189712864604639</v>
+        <v>0.41897128646046389</v>
       </c>
       <c r="L64">
-        <v>0.3757816224299683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>0.37578162242996832</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42794</v>
       </c>
@@ -2649,10 +2672,10 @@
         <v>6.0515836448</v>
       </c>
       <c r="E65">
-        <v>0.00198239742056</v>
+        <v>1.9823974205599999E-3</v>
       </c>
       <c r="F65">
-        <v>97.91208819177152</v>
+        <v>97.912088191771517</v>
       </c>
       <c r="G65">
         <v>374.02</v>
@@ -2661,19 +2684,19 @@
         <v>21.73</v>
       </c>
       <c r="I65">
-        <v>4438.75097</v>
+        <v>4438.7509700000001</v>
       </c>
       <c r="J65">
-        <v>0.6094123404924796</v>
+        <v>0.60941234049247961</v>
       </c>
       <c r="K65">
-        <v>0.4194869450039482</v>
+        <v>0.41948694500394818</v>
       </c>
       <c r="L65">
-        <v>0.3801776975183191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>0.38017769751831909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42825</v>
       </c>
@@ -2684,13 +2707,13 @@
         <v>51.97</v>
       </c>
       <c r="D66">
-        <v>5.00094507654</v>
+        <v>5.0009450765399999</v>
       </c>
       <c r="E66">
-        <v>0.00137693262354</v>
+        <v>1.37693262354E-3</v>
       </c>
       <c r="F66">
-        <v>97.91208819177152</v>
+        <v>97.912088191771517</v>
       </c>
       <c r="G66">
         <v>506.02</v>
@@ -2699,24 +2722,24 @@
         <v>21.62</v>
       </c>
       <c r="I66">
-        <v>3927.49723</v>
+        <v>3927.4972299999999</v>
       </c>
       <c r="J66">
-        <v>0.5906995176848999</v>
+        <v>0.59069951768489992</v>
       </c>
       <c r="K66">
-        <v>0.4095239204696108</v>
+        <v>0.40952392046961078</v>
       </c>
       <c r="L66">
-        <v>0.3796829711461435</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>0.37968297114614352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42855</v>
       </c>
       <c r="B67">
-        <v>0.20788</v>
+        <v>0.20788000000000001</v>
       </c>
       <c r="C67">
         <v>52.98</v>
@@ -2725,10 +2748,10 @@
         <v>5.0109139183</v>
       </c>
       <c r="E67">
-        <v>0.00434842015415</v>
+        <v>4.3484201541499996E-3</v>
       </c>
       <c r="F67">
-        <v>97.95424232791308</v>
+        <v>97.954242327913079</v>
       </c>
       <c r="G67">
         <v>415.07</v>
@@ -2740,54 +2763,54 @@
         <v>2953.88078</v>
       </c>
       <c r="J67">
-        <v>0.5868720639049638</v>
+        <v>0.58687206390496383</v>
       </c>
       <c r="K67">
-        <v>0.405180175617541</v>
+        <v>0.40518017561754099</v>
       </c>
       <c r="L67">
-        <v>0.3853709019696611</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>0.38537090196966112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>42886</v>
       </c>
       <c r="B68">
-        <v>0.17875</v>
+        <v>0.17874999999999999</v>
       </c>
       <c r="C68">
         <v>50.87</v>
       </c>
       <c r="D68">
-        <v>5.05843597847</v>
+        <v>5.0584359784700004</v>
       </c>
       <c r="E68">
-        <v>0.00045645566958</v>
+        <v>4.5645566957999999E-4</v>
       </c>
       <c r="F68">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G68">
-        <v>322.6</v>
+        <v>322.60000000000002</v>
       </c>
       <c r="H68">
         <v>21.63</v>
       </c>
       <c r="I68">
-        <v>3640.82551</v>
+        <v>3640.8255100000001</v>
       </c>
       <c r="J68">
         <v>0.573869282856736</v>
       </c>
       <c r="K68">
-        <v>0.4015699245825985</v>
+        <v>0.40156992458259849</v>
       </c>
       <c r="L68">
-        <v>0.3794184921721392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>0.37941849217213919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>42916</v>
       </c>
@@ -2798,13 +2821,13 @@
         <v>46.89</v>
       </c>
       <c r="D69">
-        <v>4.88676678563</v>
+        <v>4.8867667856299999</v>
       </c>
       <c r="E69">
-        <v>-0.00576902248113</v>
+        <v>-5.7690224811299999E-3</v>
       </c>
       <c r="F69">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G69">
         <v>320.13</v>
@@ -2813,36 +2836,36 @@
         <v>20.94</v>
       </c>
       <c r="I69">
-        <v>3736.72312</v>
+        <v>3736.7231200000001</v>
       </c>
       <c r="J69">
-        <v>0.5712148756594164</v>
+        <v>0.57121487565941642</v>
       </c>
       <c r="K69">
-        <v>0.4034776979418357</v>
+        <v>0.40347769794183569</v>
       </c>
       <c r="L69">
-        <v>0.3774734637533921</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>0.37747346375339208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42947</v>
       </c>
       <c r="B70">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C70">
         <v>48.69</v>
       </c>
       <c r="D70">
-        <v>5.00392083226</v>
+        <v>5.0039208322600004</v>
       </c>
       <c r="E70">
-        <v>-0.00140564910807</v>
+        <v>-1.4056491080699999E-3</v>
       </c>
       <c r="F70">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G70">
         <v>217.77</v>
@@ -2851,19 +2874,19 @@
         <v>20</v>
       </c>
       <c r="I70">
-        <v>3428.81063</v>
+        <v>3428.8106299999999</v>
       </c>
       <c r="J70">
-        <v>0.5718061065673941</v>
+        <v>0.57180610656739406</v>
       </c>
       <c r="K70">
-        <v>0.4039366566347481</v>
+        <v>0.40393665663474809</v>
       </c>
       <c r="L70">
-        <v>0.3723830460132087</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>0.37238304601320871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>42978</v>
       </c>
@@ -2874,13 +2897,13 @@
         <v>51.37</v>
       </c>
       <c r="D71">
-        <v>5.47660118187</v>
+        <v>5.4766011818699996</v>
       </c>
       <c r="E71">
-        <v>0.00011880160151</v>
+        <v>1.1880160151E-4</v>
       </c>
       <c r="F71">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G71">
         <v>173.8</v>
@@ -2889,19 +2912,19 @@
         <v>20.64</v>
       </c>
       <c r="I71">
-        <v>3790.15657</v>
+        <v>3790.1565700000001</v>
       </c>
       <c r="J71">
-        <v>0.5670839700904221</v>
+        <v>0.56708397009042211</v>
       </c>
       <c r="K71">
-        <v>0.4000445458004329</v>
+        <v>0.40004454580043292</v>
       </c>
       <c r="L71">
-        <v>0.3762183908862028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>0.37621839088620279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43008</v>
       </c>
@@ -2912,13 +2935,13 @@
         <v>55.16</v>
       </c>
       <c r="D72">
-        <v>5.96114997199</v>
+        <v>5.9611499719900003</v>
       </c>
       <c r="E72">
-        <v>-0.00153016125844</v>
+        <v>-1.53016125844E-3</v>
       </c>
       <c r="F72">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G72">
         <v>195.94</v>
@@ -2927,19 +2950,19 @@
         <v>20.83</v>
       </c>
       <c r="I72">
-        <v>5170.16211</v>
+        <v>5170.1621100000002</v>
       </c>
       <c r="J72">
-        <v>0.561030784199779</v>
+        <v>0.56103078419977903</v>
       </c>
       <c r="K72">
         <v>0.4021054445406691</v>
       </c>
       <c r="L72">
-        <v>0.372834926962389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>0.37283492696238901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43039</v>
       </c>
@@ -2953,10 +2976,10 @@
         <v>6.17632034854</v>
       </c>
       <c r="E73">
-        <v>-0.00144501037016</v>
+        <v>-1.4450103701599999E-3</v>
       </c>
       <c r="F73">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G73">
         <v>238.19</v>
@@ -2965,36 +2988,36 @@
         <v>20.9</v>
       </c>
       <c r="I73">
-        <v>4862.82435</v>
+        <v>4862.8243499999999</v>
       </c>
       <c r="J73">
         <v>0.5626949628126553</v>
       </c>
       <c r="K73">
-        <v>0.3995277553379309</v>
+        <v>0.39952775533793089</v>
       </c>
       <c r="L73">
-        <v>0.3807104265648893</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>0.38071042656488929</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43069</v>
       </c>
       <c r="B74">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C74">
         <v>62.57</v>
       </c>
       <c r="D74">
-        <v>6.69459903982</v>
+        <v>6.6945990398199999</v>
       </c>
       <c r="E74">
-        <v>-0.00273660660508</v>
+        <v>-2.7366066050799999E-3</v>
       </c>
       <c r="F74">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G74">
         <v>195.82</v>
@@ -3003,36 +3026,36 @@
         <v>20.88</v>
       </c>
       <c r="I74">
-        <v>4964.61876</v>
+        <v>4964.6187600000003</v>
       </c>
       <c r="J74">
-        <v>0.5615750418085595</v>
+        <v>0.56157504180855955</v>
       </c>
       <c r="K74">
-        <v>0.4058760094163821</v>
+        <v>0.40587600941638208</v>
       </c>
       <c r="L74">
-        <v>0.3971248781318372</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>0.39712487813183722</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43100</v>
       </c>
       <c r="B75">
-        <v>0.21463</v>
+        <v>0.21462999999999999</v>
       </c>
       <c r="C75">
-        <v>64.20999999999999</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="D75">
-        <v>7.13893361413</v>
+        <v>7.1389336141299999</v>
       </c>
       <c r="E75">
-        <v>0.00179457811322</v>
+        <v>1.79457811322E-3</v>
       </c>
       <c r="F75">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G75">
         <v>230.95</v>
@@ -3041,74 +3064,74 @@
         <v>21.46</v>
       </c>
       <c r="I75">
-        <v>4838.307681</v>
+        <v>4838.3076810000002</v>
       </c>
       <c r="J75">
-        <v>0.5762267455775837</v>
+        <v>0.57622674557758369</v>
       </c>
       <c r="K75">
-        <v>0.4084063713133668</v>
+        <v>0.40840637131336682</v>
       </c>
       <c r="L75">
         <v>0.4056065803137805</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43131</v>
       </c>
       <c r="B76">
-        <v>0.21963</v>
+        <v>0.21962999999999999</v>
       </c>
       <c r="C76">
-        <v>68.98999999999999</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="D76">
-        <v>6.66225501314</v>
+        <v>6.6622550131400002</v>
       </c>
       <c r="E76">
-        <v>0.00190552479263</v>
+        <v>1.9055247926300001E-3</v>
       </c>
       <c r="F76">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G76">
-        <v>312.03</v>
+        <v>312.02999999999997</v>
       </c>
       <c r="H76">
         <v>20.94</v>
       </c>
       <c r="I76">
-        <v>3666.273411</v>
+        <v>3666.2734110000001</v>
       </c>
       <c r="J76">
-        <v>0.5776619715289413</v>
+        <v>0.57766197152894128</v>
       </c>
       <c r="K76">
-        <v>0.409342352213161</v>
+        <v>0.40934235221316101</v>
       </c>
       <c r="L76">
-        <v>0.4092689479479041</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>0.40926894794790408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43159</v>
       </c>
       <c r="B77">
-        <v>0.2325</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="C77">
         <v>65.42</v>
       </c>
       <c r="D77">
-        <v>6.7187497665</v>
+        <v>6.7187497665000002</v>
       </c>
       <c r="E77">
-        <v>0.00153156004926</v>
+        <v>1.5315600492599999E-3</v>
       </c>
       <c r="F77">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G77">
         <v>310.7</v>
@@ -3117,57 +3140,57 @@
         <v>21.68</v>
       </c>
       <c r="I77">
-        <v>4324.740451</v>
+        <v>4324.7404509999997</v>
       </c>
       <c r="J77">
-        <v>0.5802853560060884</v>
+        <v>0.58028535600608844</v>
       </c>
       <c r="K77">
-        <v>0.4129828136827214</v>
+        <v>0.41298281368272138</v>
       </c>
       <c r="L77">
         <v>0.4119379962762168</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43190</v>
       </c>
       <c r="B78">
-        <v>0.2325</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="C78">
         <v>66.45</v>
       </c>
       <c r="D78">
-        <v>6.69738764036</v>
+        <v>6.6973876403599997</v>
       </c>
       <c r="E78">
-        <v>0.00063701729307</v>
+        <v>6.3701729307000005E-4</v>
       </c>
       <c r="F78">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G78">
-        <v>307.97</v>
+        <v>307.97000000000003</v>
       </c>
       <c r="H78">
         <v>21.53</v>
       </c>
       <c r="I78">
-        <v>3954.51446</v>
+        <v>3954.5144599999999</v>
       </c>
       <c r="J78">
-        <v>0.5887058884603555</v>
+        <v>0.58870588846035554</v>
       </c>
       <c r="K78">
-        <v>0.4194516232675338</v>
+        <v>0.41945162326753382</v>
       </c>
       <c r="L78">
-        <v>0.4084890959634587</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>0.40848909596345873</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43220</v>
       </c>
@@ -3178,13 +3201,13 @@
         <v>71.63</v>
       </c>
       <c r="D79">
-        <v>6.92785820242</v>
+        <v>6.9278582024200004</v>
       </c>
       <c r="E79">
-        <v>-0.00138895199145</v>
+        <v>-1.38895199145E-3</v>
       </c>
       <c r="F79">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G79">
         <v>344.31</v>
@@ -3193,36 +3216,36 @@
         <v>21.24</v>
       </c>
       <c r="I79">
-        <v>3663.55946</v>
+        <v>3663.5594599999999</v>
       </c>
       <c r="J79">
-        <v>0.5996765247552019</v>
+        <v>0.59967652475520195</v>
       </c>
       <c r="K79">
         <v>0.4182540962496526</v>
       </c>
       <c r="L79">
-        <v>0.4082163228140767</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>0.40821632281407672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43251</v>
       </c>
       <c r="B80">
-        <v>0.22188</v>
+        <v>0.22187999999999999</v>
       </c>
       <c r="C80">
-        <v>76.65000000000001</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="D80">
-        <v>7.48735405732</v>
+        <v>7.4873540573200001</v>
       </c>
       <c r="E80">
-        <v>-0.0018259436073</v>
+        <v>-1.8259436073E-3</v>
       </c>
       <c r="F80">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G80">
         <v>425.86</v>
@@ -3231,19 +3254,19 @@
         <v>20.99</v>
       </c>
       <c r="I80">
-        <v>3401.10983</v>
+        <v>3401.1098299999999</v>
       </c>
       <c r="J80">
-        <v>0.5992319244246379</v>
+        <v>0.59923192442463791</v>
       </c>
       <c r="K80">
-        <v>0.4247061801827444</v>
+        <v>0.42470618018274442</v>
       </c>
       <c r="L80">
-        <v>0.4092757319405805</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>0.40927573194058048</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43281</v>
       </c>
@@ -3254,34 +3277,34 @@
         <v>75.19</v>
       </c>
       <c r="D81">
-        <v>7.44894284404</v>
+        <v>7.4489428440400003</v>
       </c>
       <c r="E81">
-        <v>-0.00274227610422</v>
+        <v>-2.7422761042199999E-3</v>
       </c>
       <c r="F81">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G81">
-        <v>262.28</v>
+        <v>262.27999999999997</v>
       </c>
       <c r="H81">
         <v>20.13</v>
       </c>
       <c r="I81">
-        <v>3908.36782</v>
+        <v>3908.3678199999999</v>
       </c>
       <c r="J81">
-        <v>0.5925505931277354</v>
+        <v>0.59255059312773539</v>
       </c>
       <c r="K81">
         <v>0.4232105630033004</v>
       </c>
       <c r="L81">
-        <v>0.410921143000296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>0.41092114300029597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43312</v>
       </c>
@@ -3292,13 +3315,13 @@
         <v>74.44</v>
       </c>
       <c r="D82">
-        <v>7.59883923025</v>
+        <v>7.5988392302500003</v>
       </c>
       <c r="E82">
-        <v>-4.117844953E-05</v>
+        <v>-4.117844953E-5</v>
       </c>
       <c r="F82">
-        <v>97.97997752065884</v>
+        <v>97.979977520658835</v>
       </c>
       <c r="G82">
         <v>227.12</v>
@@ -3307,19 +3330,19 @@
         <v>20</v>
       </c>
       <c r="I82">
-        <v>3885.60396</v>
+        <v>3885.6039599999999</v>
       </c>
       <c r="J82">
-        <v>0.5926849073507539</v>
+        <v>0.59268490735075385</v>
       </c>
       <c r="K82">
-        <v>0.4235829246476788</v>
+        <v>0.42358292464767883</v>
       </c>
       <c r="L82">
-        <v>0.4005033119652912</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>0.40050331196529121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43343</v>
       </c>
@@ -3330,10 +3353,10 @@
         <v>73.13</v>
       </c>
       <c r="D83">
-        <v>8.084909938439999</v>
+        <v>8.0849099384399992</v>
       </c>
       <c r="E83">
-        <v>0.00269488517407</v>
+        <v>2.6948851740699999E-3</v>
       </c>
       <c r="F83">
         <v>98.01516824569984</v>
@@ -3348,33 +3371,33 @@
         <v>5077.83115</v>
       </c>
       <c r="J83">
-        <v>0.6070360547859387</v>
+        <v>0.60703605478593869</v>
       </c>
       <c r="K83">
-        <v>0.4244212088682396</v>
+        <v>0.42442120886823959</v>
       </c>
       <c r="L83">
-        <v>0.4063387360245332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>0.40633873602453319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43373</v>
       </c>
       <c r="B84">
-        <v>0.2675</v>
+        <v>0.26750000000000002</v>
       </c>
       <c r="C84">
         <v>78.86</v>
       </c>
       <c r="D84">
-        <v>9.521577031210001</v>
+        <v>9.5215770312100005</v>
       </c>
       <c r="E84">
-        <v>0.00391878650828</v>
+        <v>3.9187865082800002E-3</v>
       </c>
       <c r="F84">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G84">
         <v>149.22</v>
@@ -3383,19 +3406,19 @@
         <v>20.88</v>
       </c>
       <c r="I84">
-        <v>6525.150167</v>
+        <v>6525.1501669999998</v>
       </c>
       <c r="J84">
-        <v>0.6037781957841553</v>
+        <v>0.60377819578415526</v>
       </c>
       <c r="K84">
-        <v>0.4280846460807511</v>
+        <v>0.42808464608075109</v>
       </c>
       <c r="L84">
-        <v>0.4146280495119632</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>0.41462804951196319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43404</v>
       </c>
@@ -3406,13 +3429,13 @@
         <v>80.47</v>
       </c>
       <c r="D85">
-        <v>8.79096072974</v>
+        <v>8.7909607297400001</v>
       </c>
       <c r="E85">
-        <v>-0.00047014044846</v>
+        <v>-4.7014044846000001E-4</v>
       </c>
       <c r="F85">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G85">
         <v>172.67</v>
@@ -3421,95 +3444,95 @@
         <v>21.05</v>
       </c>
       <c r="I85">
-        <v>6430.85169</v>
+        <v>6430.8516900000004</v>
       </c>
       <c r="J85">
-        <v>0.6039922068969591</v>
+        <v>0.60399220689695909</v>
       </c>
       <c r="K85">
-        <v>0.4407373645281277</v>
+        <v>0.44073736452812767</v>
       </c>
       <c r="L85">
         <v>0.4195099642783503</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43434</v>
       </c>
       <c r="B86">
-        <v>0.3056</v>
+        <v>0.30559999999999998</v>
       </c>
       <c r="C86">
         <v>65.17</v>
       </c>
       <c r="D86">
-        <v>8.26507901291</v>
+        <v>8.2650790129100002</v>
       </c>
       <c r="E86">
-        <v>-0.00252818995549</v>
+        <v>-2.5281899554900002E-3</v>
       </c>
       <c r="F86">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G86">
-        <v>263.9</v>
+        <v>263.89999999999998</v>
       </c>
       <c r="H86">
         <v>21.45</v>
       </c>
       <c r="I86">
-        <v>6460.046536</v>
+        <v>6460.0465359999998</v>
       </c>
       <c r="J86">
-        <v>0.6234575520382455</v>
+        <v>0.62345755203824549</v>
       </c>
       <c r="K86">
-        <v>0.4454718421567269</v>
+        <v>0.44547184215672692</v>
       </c>
       <c r="L86">
-        <v>0.4376988824792035</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>0.43769888247920352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43465</v>
       </c>
       <c r="B87">
-        <v>0.27667</v>
+        <v>0.27667000000000003</v>
       </c>
       <c r="C87">
         <v>56.46</v>
       </c>
       <c r="D87">
-        <v>7.97624238009</v>
+        <v>7.9762423800900004</v>
       </c>
       <c r="E87">
-        <v>0.0009917513392399999</v>
+        <v>9.9175133923999994E-4</v>
       </c>
       <c r="F87">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G87">
-        <v>295.84</v>
+        <v>295.83999999999997</v>
       </c>
       <c r="H87">
         <v>21.23</v>
       </c>
       <c r="I87">
-        <v>4650.75879</v>
+        <v>4650.7587899999999</v>
       </c>
       <c r="J87">
-        <v>0.6302897123397672</v>
+        <v>0.63028971233976716</v>
       </c>
       <c r="K87">
-        <v>0.4538936917955425</v>
+        <v>0.45389369179554251</v>
       </c>
       <c r="L87">
-        <v>0.4539792377992551</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>0.45397923779925509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43496</v>
       </c>
@@ -3520,13 +3543,13 @@
         <v>59.27</v>
       </c>
       <c r="D88">
-        <v>7.26234323345</v>
+        <v>7.2623432334500002</v>
       </c>
       <c r="E88">
-        <v>0.00465456261143</v>
+        <v>4.6545626114299996E-3</v>
       </c>
       <c r="F88">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G88">
         <v>394.89</v>
@@ -3535,36 +3558,36 @@
         <v>21.4</v>
       </c>
       <c r="I88">
-        <v>3908.69756</v>
+        <v>3908.6975600000001</v>
       </c>
       <c r="J88">
         <v>0.6286519971960961</v>
       </c>
       <c r="K88">
-        <v>0.4558955064314986</v>
+        <v>0.45589550643149862</v>
       </c>
       <c r="L88">
-        <v>0.4505445931224069</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>0.45054459312240691</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43524</v>
       </c>
       <c r="B89">
-        <v>0.25063</v>
+        <v>0.25063000000000002</v>
       </c>
       <c r="C89">
         <v>64.13</v>
       </c>
       <c r="D89">
-        <v>6.0057971222</v>
+        <v>6.0057971221999997</v>
       </c>
       <c r="E89">
-        <v>-0.00229347078498</v>
+        <v>-2.29347078498E-3</v>
       </c>
       <c r="F89">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G89">
         <v>355.02</v>
@@ -3573,19 +3596,19 @@
         <v>21.8</v>
       </c>
       <c r="I89">
-        <v>6573.69929</v>
+        <v>6573.6992899999996</v>
       </c>
       <c r="J89">
-        <v>0.6250239082798074</v>
+        <v>0.62502390827980736</v>
       </c>
       <c r="K89">
-        <v>0.4554264112708893</v>
+        <v>0.45542641127088929</v>
       </c>
       <c r="L89">
-        <v>0.4514769796457457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>0.45147697964574568</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43555</v>
       </c>
@@ -3596,13 +3619,13 @@
         <v>66.41</v>
       </c>
       <c r="D90">
-        <v>5.17873567413</v>
+        <v>5.1787356741300004</v>
       </c>
       <c r="E90">
-        <v>-0.00211455999295</v>
+        <v>-2.1145599929499998E-3</v>
       </c>
       <c r="F90">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G90">
         <v>436.05</v>
@@ -3611,19 +3634,19 @@
         <v>21.9</v>
       </c>
       <c r="I90">
-        <v>5670.77539</v>
+        <v>5670.7753899999998</v>
       </c>
       <c r="J90">
-        <v>0.6234674327292586</v>
+        <v>0.62346743272925864</v>
       </c>
       <c r="K90">
-        <v>0.460548948085544</v>
+        <v>0.46054894808554397</v>
       </c>
       <c r="L90">
-        <v>0.4487622053307301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>0.44876220533073008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43585</v>
       </c>
@@ -3634,13 +3657,13 @@
         <v>71.2</v>
       </c>
       <c r="D91">
-        <v>4.92218081968</v>
+        <v>4.9221808196800003</v>
       </c>
       <c r="E91">
-        <v>0.00171565356043</v>
+        <v>1.7156535604300001E-3</v>
       </c>
       <c r="F91">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G91">
         <v>358.33</v>
@@ -3649,19 +3672,19 @@
         <v>22.01</v>
       </c>
       <c r="I91">
-        <v>5891.17601</v>
+        <v>5891.1760100000001</v>
       </c>
       <c r="J91">
         <v>0.622</v>
       </c>
       <c r="K91">
-        <v>0.4544</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="L91">
         <v>0.4476</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43616</v>
       </c>
@@ -3672,13 +3695,13 @@
         <v>70.53</v>
       </c>
       <c r="D92">
-        <v>4.34105529405</v>
+        <v>4.3410552940500002</v>
       </c>
       <c r="E92">
-        <v>-4.207610894E-05</v>
+        <v>-4.2076108940000001E-5</v>
       </c>
       <c r="F92">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G92">
         <v>336.86</v>
@@ -3687,19 +3710,19 @@
         <v>21.66</v>
       </c>
       <c r="I92">
-        <v>7782.943649999999</v>
+        <v>7782.9436499999993</v>
       </c>
       <c r="J92">
-        <v>0.6126506698651649</v>
+        <v>0.61265066986516492</v>
       </c>
       <c r="K92">
-        <v>0.4507624943472984</v>
+        <v>0.45076249434729843</v>
       </c>
       <c r="L92">
-        <v>0.4423859214662514</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>0.44238592146625139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43646</v>
       </c>
@@ -3710,13 +3733,13 @@
         <v>63.3</v>
       </c>
       <c r="D93">
-        <v>3.58800651227</v>
+        <v>3.5880065122699998</v>
       </c>
       <c r="E93">
-        <v>-0.00035781895471</v>
+        <v>-3.5781895471E-4</v>
       </c>
       <c r="F93">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G93">
         <v>345.6</v>
@@ -3725,36 +3748,36 @@
         <v>20.73</v>
       </c>
       <c r="I93">
-        <v>6430.247820000001</v>
+        <v>6430.2478200000014</v>
       </c>
       <c r="J93">
-        <v>0.6274000000000001</v>
+        <v>0.62740000000000007</v>
       </c>
       <c r="K93">
-        <v>0.4554</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="L93">
-        <v>0.4424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>0.44240000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43677</v>
       </c>
       <c r="B94">
-        <v>0.2635</v>
+        <v>0.26350000000000001</v>
       </c>
       <c r="C94">
         <v>64</v>
       </c>
       <c r="D94">
-        <v>3.62037140561</v>
+        <v>3.6203714056099998</v>
       </c>
       <c r="E94">
-        <v>0.00091334275368</v>
+        <v>9.1334275367999996E-4</v>
       </c>
       <c r="F94">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G94">
         <v>254.23</v>
@@ -3763,36 +3786,36 @@
         <v>20.21</v>
       </c>
       <c r="I94">
-        <v>6257.670698</v>
+        <v>6257.6706979999999</v>
       </c>
       <c r="J94">
         <v>0.62</v>
       </c>
       <c r="K94">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="L94">
-        <v>0.4462</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>0.44619999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43708</v>
       </c>
       <c r="B95">
-        <v>0.2625</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="C95">
         <v>59.25</v>
       </c>
       <c r="D95">
-        <v>3.67677516041</v>
+        <v>3.6767751604100001</v>
       </c>
       <c r="E95">
-        <v>-0.00104143223119</v>
+        <v>-1.04143223119E-3</v>
       </c>
       <c r="F95">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G95">
         <v>176.19</v>
@@ -3801,24 +3824,24 @@
         <v>20.03</v>
       </c>
       <c r="I95">
-        <v>8281.287778</v>
+        <v>8281.2877779999999</v>
       </c>
       <c r="J95">
-        <v>0.6183587061173751</v>
+        <v>0.61835870611737509</v>
       </c>
       <c r="K95">
-        <v>0.4546927883766855</v>
+        <v>0.45469278837668547</v>
       </c>
       <c r="L95">
-        <v>0.4446507602159024</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>0.44465076021590239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43738</v>
       </c>
       <c r="B96">
-        <v>0.23775</v>
+        <v>0.23774999999999999</v>
       </c>
       <c r="C96">
         <v>62.33</v>
@@ -3827,10 +3850,10 @@
         <v>4.20525568494</v>
       </c>
       <c r="E96">
-        <v>-0.00011961364761</v>
+        <v>-1.1961364761E-4</v>
       </c>
       <c r="F96">
-        <v>98.01516824569973</v>
+        <v>98.015168245699726</v>
       </c>
       <c r="G96">
         <v>145.09</v>
@@ -3839,33 +3862,33 @@
         <v>20.79</v>
       </c>
       <c r="I96">
-        <v>7419.157670000001</v>
+        <v>7419.1576700000014</v>
       </c>
       <c r="J96">
         <v>0.623</v>
       </c>
       <c r="K96">
-        <v>0.4606</v>
+        <v>0.46060000000000001</v>
       </c>
       <c r="L96">
-        <v>0.4464</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>0.44640000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43769</v>
       </c>
       <c r="B97">
-        <v>0.237</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="C97">
         <v>59.37</v>
       </c>
       <c r="D97">
-        <v>5.05721785787</v>
+        <v>5.0572178578700004</v>
       </c>
       <c r="E97">
-        <v>0.00520726461684</v>
+        <v>5.2072646168399997E-3</v>
       </c>
       <c r="F97">
         <v>137.0503756674423</v>
@@ -3877,36 +3900,36 @@
         <v>20.67</v>
       </c>
       <c r="I97">
-        <v>6976.49419</v>
+        <v>6976.4941900000003</v>
       </c>
       <c r="J97">
-        <v>0.6209818009238687</v>
+        <v>0.62098180092386868</v>
       </c>
       <c r="K97">
         <v>0.4604397761609888</v>
       </c>
       <c r="L97">
-        <v>0.4453506664447094</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>0.44535066644470939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43799</v>
       </c>
       <c r="B98">
-        <v>0.2245</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="C98">
         <v>62.74</v>
       </c>
       <c r="D98">
-        <v>5.15000421731</v>
+        <v>5.1500042173100002</v>
       </c>
       <c r="E98">
-        <v>-0.00703696796229</v>
+        <v>-7.0369679622900002E-3</v>
       </c>
       <c r="F98">
-        <v>99.4114860409143</v>
+        <v>99.411486040914298</v>
       </c>
       <c r="G98">
         <v>245.19</v>
@@ -3918,16 +3941,16 @@
         <v>10025.937</v>
       </c>
       <c r="J98">
-        <v>0.6102945543333986</v>
+        <v>0.61029455433339863</v>
       </c>
       <c r="K98">
-        <v>0.4599395366561294</v>
+        <v>0.45993953665612941</v>
       </c>
       <c r="L98">
         <v>0.4456775215020361</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43830</v>
       </c>
@@ -3935,16 +3958,16 @@
         <v>0.2175</v>
       </c>
       <c r="C99">
-        <v>65.84999999999999</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="D99">
-        <v>4.62047221239</v>
+        <v>4.6204722123900002</v>
       </c>
       <c r="E99">
-        <v>-8.186548111E-05</v>
+        <v>-8.186548111E-5</v>
       </c>
       <c r="F99">
-        <v>99.41148604091443</v>
+        <v>99.411486040914426</v>
       </c>
       <c r="G99">
         <v>296.07</v>
@@ -3953,36 +3976,36 @@
         <v>21.5</v>
       </c>
       <c r="I99">
-        <v>6053.644204</v>
+        <v>6053.6442040000002</v>
       </c>
       <c r="J99">
-        <v>0.6121007748619023</v>
+        <v>0.61210077486190229</v>
       </c>
       <c r="K99">
-        <v>0.4559536170868154</v>
+        <v>0.45595361708681542</v>
       </c>
       <c r="L99">
-        <v>0.4454939616221102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>0.44549396162211019</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43861</v>
       </c>
       <c r="B100">
-        <v>0.2154</v>
+        <v>0.21540000000000001</v>
       </c>
       <c r="C100">
         <v>63.6</v>
       </c>
       <c r="D100">
-        <v>3.63338434727</v>
+        <v>3.6333843472699998</v>
       </c>
       <c r="E100">
-        <v>0.00227012721181</v>
+        <v>2.2701272118099999E-3</v>
       </c>
       <c r="F100">
-        <v>99.41148604091443</v>
+        <v>99.411486040914426</v>
       </c>
       <c r="G100">
         <v>268.32</v>
@@ -3991,36 +4014,36 @@
         <v>22.01</v>
       </c>
       <c r="I100">
-        <v>6823.207037</v>
+        <v>6823.2070370000001</v>
       </c>
       <c r="J100">
-        <v>0.5798794935342798</v>
+        <v>0.57987949353427981</v>
       </c>
       <c r="K100">
-        <v>0.4539837972817095</v>
+        <v>0.45398379728170951</v>
       </c>
       <c r="L100">
         <v>0.4238762451913749</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43890</v>
       </c>
       <c r="B101">
-        <v>0.21438</v>
+        <v>0.21437999999999999</v>
       </c>
       <c r="C101">
         <v>55</v>
       </c>
       <c r="D101">
-        <v>2.90777364106</v>
+        <v>2.9077736410599999</v>
       </c>
       <c r="E101">
-        <v>-0.00154420697631</v>
+        <v>-1.5442069763100001E-3</v>
       </c>
       <c r="F101">
-        <v>99.41148604091443</v>
+        <v>99.411486040914426</v>
       </c>
       <c r="G101">
         <v>321.64</v>
@@ -4029,19 +4052,19 @@
         <v>22.2</v>
       </c>
       <c r="I101">
-        <v>7529.79096</v>
+        <v>7529.7909600000003</v>
       </c>
       <c r="J101">
-        <v>0.5875022997238413</v>
+        <v>0.58750229972384127</v>
       </c>
       <c r="K101">
-        <v>0.461018220276661</v>
+        <v>0.46101822027666101</v>
       </c>
       <c r="L101">
-        <v>0.4278012723222966</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>0.42780127232229659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43921</v>
       </c>
@@ -4049,16 +4072,16 @@
         <v>0.23113</v>
       </c>
       <c r="C102">
-        <v>32.98</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="D102">
-        <v>2.71886838175</v>
+        <v>2.7188683817500001</v>
       </c>
       <c r="E102">
-        <v>0.00197441076879</v>
+        <v>1.9744107687900002E-3</v>
       </c>
       <c r="F102">
-        <v>99.41148604091443</v>
+        <v>99.411486040914426</v>
       </c>
       <c r="G102">
         <v>329.31</v>
@@ -4067,36 +4090,36 @@
         <v>22.22</v>
       </c>
       <c r="I102">
-        <v>6661.60374</v>
+        <v>6661.6037399999996</v>
       </c>
       <c r="J102">
-        <v>0.5910162277330805</v>
+        <v>0.59101622773308049</v>
       </c>
       <c r="K102">
-        <v>0.4634344740544055</v>
+        <v>0.46343447405440552</v>
       </c>
       <c r="L102">
-        <v>0.441561624663992</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>0.44156162466399201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43951</v>
       </c>
       <c r="B103">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C103">
         <v>23.34</v>
       </c>
       <c r="D103">
-        <v>2.12031866732</v>
+        <v>2.1203186673199999</v>
       </c>
       <c r="E103">
-        <v>0.01002625234371</v>
+        <v>1.0026252343710001E-2</v>
       </c>
       <c r="F103">
-        <v>99.41148604091443</v>
+        <v>99.411486040914426</v>
       </c>
       <c r="G103">
         <v>287.48</v>
@@ -4105,19 +4128,19 @@
         <v>21.87</v>
       </c>
       <c r="I103">
-        <v>4337.199904</v>
+        <v>4337.1999040000001</v>
       </c>
       <c r="J103">
-        <v>0.5903701357863657</v>
+        <v>0.59037013578636566</v>
       </c>
       <c r="K103">
         <v>0.4650872943506536</v>
       </c>
       <c r="L103">
-        <v>0.4337927922320309</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>0.43379279223203088</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43982</v>
       </c>
@@ -4128,51 +4151,51 @@
         <v>31.02</v>
       </c>
       <c r="D104">
-        <v>1.57516497792</v>
+        <v>1.5751649779200001</v>
       </c>
       <c r="E104">
-        <v>-0.00259984108389</v>
+        <v>-2.5998410838899999E-3</v>
       </c>
       <c r="F104">
-        <v>98.30844248225289</v>
+        <v>98.308442482252886</v>
       </c>
       <c r="G104">
-        <v>275.21</v>
+        <v>275.20999999999998</v>
       </c>
       <c r="H104">
         <v>21.59</v>
       </c>
       <c r="I104">
-        <v>11007.46799</v>
+        <v>11007.467989999999</v>
       </c>
       <c r="J104">
-        <v>0.5878590666596513</v>
+        <v>0.58785906665965126</v>
       </c>
       <c r="K104">
-        <v>0.4619869070384683</v>
+        <v>0.46198690703846829</v>
       </c>
       <c r="L104">
-        <v>0.4363662775517037</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>0.43636627755170371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44012</v>
       </c>
       <c r="B105">
-        <v>0.202</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C105">
         <v>39.93</v>
       </c>
       <c r="D105">
-        <v>1.75217111218</v>
+        <v>1.7521711121800001</v>
       </c>
       <c r="E105">
-        <v>-0.00619814666477</v>
+        <v>-6.1981466647700002E-3</v>
       </c>
       <c r="F105">
-        <v>96.25287528847934</v>
+        <v>96.252875288479345</v>
       </c>
       <c r="G105">
         <v>203.66</v>
@@ -4184,33 +4207,33 @@
         <v>7572.009145</v>
       </c>
       <c r="J105">
-        <v>0.5936037863571761</v>
+        <v>0.59360378635717614</v>
       </c>
       <c r="K105">
-        <v>0.463368544993051</v>
+        <v>0.46336854499305102</v>
       </c>
       <c r="L105">
-        <v>0.4250314652252695</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>0.42503146522526952</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44043</v>
       </c>
       <c r="B106">
-        <v>0.2144</v>
+        <v>0.21440000000000001</v>
       </c>
       <c r="C106">
         <v>42.81</v>
       </c>
       <c r="D106">
-        <v>1.80103549647</v>
+        <v>1.8010354964699999</v>
       </c>
       <c r="E106">
-        <v>-0.0061264945265</v>
+        <v>-6.1264945265000004E-3</v>
       </c>
       <c r="F106">
-        <v>98.0489561823302</v>
+        <v>98.048956182330201</v>
       </c>
       <c r="G106">
         <v>204.7</v>
@@ -4219,19 +4242,19 @@
         <v>20.23</v>
       </c>
       <c r="I106">
-        <v>8272.779326</v>
+        <v>8272.7793259999999</v>
       </c>
       <c r="J106">
         <v>0.5950080420233913</v>
       </c>
       <c r="K106">
-        <v>0.4596774021676645</v>
+        <v>0.45967740216766451</v>
       </c>
       <c r="L106">
-        <v>0.426920858478315</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>0.42692085847831501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44074</v>
       </c>
@@ -4242,13 +4265,13 @@
         <v>44.26</v>
       </c>
       <c r="D107">
-        <v>2.86189667673</v>
+        <v>2.8618966767299998</v>
       </c>
       <c r="E107">
-        <v>-0.00323849742065</v>
+        <v>-3.23849742065E-3</v>
       </c>
       <c r="F107">
-        <v>103.2035973795328</v>
+        <v>103.20359737953279</v>
       </c>
       <c r="G107">
         <v>106.47</v>
@@ -4257,19 +4280,19 @@
         <v>20.46</v>
       </c>
       <c r="I107">
-        <v>7837.36055</v>
+        <v>7837.3605500000003</v>
       </c>
       <c r="J107">
-        <v>0.5839844584757314</v>
+        <v>0.58398445847573144</v>
       </c>
       <c r="K107">
-        <v>0.4475733753158581</v>
+        <v>0.44757337531585811</v>
       </c>
       <c r="L107">
-        <v>0.4245467557882587</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>0.42454675578825868</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44104</v>
       </c>
@@ -4280,10 +4303,10 @@
         <v>41.09</v>
       </c>
       <c r="D108">
-        <v>3.95213946267</v>
+        <v>3.9521394626699999</v>
       </c>
       <c r="E108">
-        <v>-0.00156555891193</v>
+        <v>-1.5655589119299999E-3</v>
       </c>
       <c r="F108">
         <v>107.4431956605944</v>
@@ -4298,16 +4321,16 @@
         <v>7543.88328</v>
       </c>
       <c r="J108">
-        <v>0.5801687666759132</v>
+        <v>0.58016876667591322</v>
       </c>
       <c r="K108">
-        <v>0.4374529502196333</v>
+        <v>0.43745295021963332</v>
       </c>
       <c r="L108">
-        <v>0.427146900595301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>0.42714690059530103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44135</v>
       </c>
@@ -4318,13 +4341,13 @@
         <v>40.47</v>
       </c>
       <c r="D109">
-        <v>4.88959040816</v>
+        <v>4.8895904081600001</v>
       </c>
       <c r="E109">
-        <v>-0.00189278490435</v>
+        <v>-1.8927849043500001E-3</v>
       </c>
       <c r="F109">
-        <v>113.1483822788417</v>
+        <v>113.14838227884169</v>
       </c>
       <c r="G109">
         <v>157.96</v>
@@ -4336,16 +4359,16 @@
         <v>8122.73614</v>
       </c>
       <c r="J109">
-        <v>0.5836147884226655</v>
+        <v>0.58361478842266545</v>
       </c>
       <c r="K109">
-        <v>0.4326789864995383</v>
+        <v>0.43267898649953829</v>
       </c>
       <c r="L109">
-        <v>0.4435789806440569</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>0.44357898064405687</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44165</v>
       </c>
@@ -4356,10 +4379,10 @@
         <v>43.23</v>
       </c>
       <c r="D110">
-        <v>4.83583900516</v>
+        <v>4.8358390051600004</v>
       </c>
       <c r="E110">
-        <v>-8.734381945E-05</v>
+        <v>-8.7343819449999996E-5</v>
       </c>
       <c r="F110">
         <v>118.9970042591801</v>
@@ -4371,19 +4394,19 @@
         <v>21.16</v>
       </c>
       <c r="I110">
-        <v>7401.836921</v>
+        <v>7401.8369210000001</v>
       </c>
       <c r="J110">
-        <v>0.5800873003902469</v>
+        <v>0.58008730039024692</v>
       </c>
       <c r="K110">
-        <v>0.4362732025320636</v>
+        <v>0.43627320253206359</v>
       </c>
       <c r="L110">
-        <v>0.4330661807003539</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>0.43306618070035391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44196</v>
       </c>
@@ -4394,10 +4417,10 @@
         <v>49.87</v>
       </c>
       <c r="D111">
-        <v>5.85610629604</v>
+        <v>5.8561062960400001</v>
       </c>
       <c r="E111">
-        <v>-0.00028612321912</v>
+        <v>-2.8612321911999997E-4</v>
       </c>
       <c r="F111">
         <v>123.2737384642799</v>
@@ -4409,36 +4432,36 @@
         <v>21.14</v>
       </c>
       <c r="I111">
-        <v>7698.285653</v>
+        <v>7698.2856529999999</v>
       </c>
       <c r="J111">
-        <v>0.5795411821807901</v>
+        <v>0.57954118218079009</v>
       </c>
       <c r="K111">
-        <v>0.4352607196986089</v>
+        <v>0.43526071969860891</v>
       </c>
       <c r="L111">
-        <v>0.4318200771688913</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>0.43182007716889131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44227</v>
       </c>
       <c r="B112">
-        <v>0.265</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C112">
         <v>54.55</v>
       </c>
       <c r="D112">
-        <v>7.2683017493</v>
+        <v>7.2683017492999999</v>
       </c>
       <c r="E112">
-        <v>0.00116155048064</v>
+        <v>1.1615504806399999E-3</v>
       </c>
       <c r="F112">
-        <v>128.7950567429762</v>
+        <v>128.79505674297619</v>
       </c>
       <c r="G112">
         <v>364.08</v>
@@ -4447,33 +4470,33 @@
         <v>21.22</v>
       </c>
       <c r="I112">
-        <v>7851.07915</v>
+        <v>7851.0791499999996</v>
       </c>
       <c r="J112">
-        <v>0.5741375881055839</v>
+        <v>0.57413758810558391</v>
       </c>
       <c r="K112">
-        <v>0.4303488303732484</v>
+        <v>0.43034883037324839</v>
       </c>
       <c r="L112">
-        <v>0.4129504877728313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>0.41295048777283128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44255</v>
       </c>
       <c r="B113">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C113">
         <v>61.96</v>
       </c>
       <c r="D113">
-        <v>6.15850716652</v>
+        <v>6.1585071665199997</v>
       </c>
       <c r="E113">
-        <v>0.00084343695105</v>
+        <v>8.4343695104999996E-4</v>
       </c>
       <c r="F113">
         <v>130.4602210142325</v>
@@ -4488,33 +4511,33 @@
         <v>8168.41338</v>
       </c>
       <c r="J113">
-        <v>0.5925340890470545</v>
+        <v>0.59253408904705451</v>
       </c>
       <c r="K113">
-        <v>0.4343623307110566</v>
+        <v>0.43436233071105662</v>
       </c>
       <c r="L113">
-        <v>0.4179983781295215</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>0.41799837812952151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44286</v>
       </c>
       <c r="B114">
-        <v>0.35288</v>
+        <v>0.35288000000000003</v>
       </c>
       <c r="C114">
         <v>65.19</v>
       </c>
       <c r="D114">
-        <v>6.12706957935</v>
+        <v>6.1270695793499996</v>
       </c>
       <c r="E114">
-        <v>0.00175396345918</v>
+        <v>1.7539634591800001E-3</v>
       </c>
       <c r="F114">
-        <v>133.9235149398768</v>
+        <v>133.92351493987681</v>
       </c>
       <c r="G114">
         <v>447.53</v>
@@ -4526,16 +4549,16 @@
         <v>7616.440713</v>
       </c>
       <c r="J114">
-        <v>0.604845247034084</v>
+        <v>0.60484524703408404</v>
       </c>
       <c r="K114">
-        <v>0.4293102842640739</v>
+        <v>0.42931028426407392</v>
       </c>
       <c r="L114">
         <v>0.4324131120358024</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44316</v>
       </c>
@@ -4546,10 +4569,10 @@
         <v>64.77</v>
       </c>
       <c r="D115">
-        <v>7.14681628809</v>
+        <v>7.1468162880900001</v>
       </c>
       <c r="E115">
-        <v>0.00349191882645</v>
+        <v>3.4919188264500001E-3</v>
       </c>
       <c r="F115">
         <v>138.2897485328063</v>
@@ -4561,36 +4584,36 @@
         <v>21.39</v>
       </c>
       <c r="I115">
-        <v>7996.31169</v>
+        <v>7996.3116900000005</v>
       </c>
       <c r="J115">
-        <v>0.6526050213256884</v>
+        <v>0.65260502132568843</v>
       </c>
       <c r="K115">
-        <v>0.4378883793091635</v>
+        <v>0.43788837930916352</v>
       </c>
       <c r="L115">
-        <v>0.4539710499893974</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>0.45397104998939741</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44347</v>
       </c>
       <c r="B116">
-        <v>0.33163</v>
+        <v>0.33162999999999998</v>
       </c>
       <c r="C116">
-        <v>68.04000000000001</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="D116">
-        <v>8.90875692439</v>
+        <v>8.9087569243899996</v>
       </c>
       <c r="E116">
-        <v>0.00083340753556</v>
+        <v>8.3340753555999998E-4</v>
       </c>
       <c r="F116">
-        <v>141.1937490231932</v>
+        <v>141.19374902319319</v>
       </c>
       <c r="G116">
         <v>320.43</v>
@@ -4602,33 +4625,33 @@
         <v>9925.828082</v>
       </c>
       <c r="J116">
-        <v>0.6630188829662774</v>
+        <v>0.66301888296627742</v>
       </c>
       <c r="K116">
-        <v>0.4367313232507956</v>
+        <v>0.43673132325079561</v>
       </c>
       <c r="L116">
-        <v>0.481955930640822</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>0.48195593064082198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44377</v>
       </c>
       <c r="B117">
-        <v>0.39325</v>
+        <v>0.39324999999999999</v>
       </c>
       <c r="C117">
-        <v>73.06999999999999</v>
+        <v>73.069999999999993</v>
       </c>
       <c r="D117">
         <v>10.30105100564</v>
       </c>
       <c r="E117">
-        <v>-0.00175613709191</v>
+        <v>-1.7561370919100001E-3</v>
       </c>
       <c r="F117">
-        <v>144.0465071540256</v>
+        <v>144.04650715402559</v>
       </c>
       <c r="G117">
         <v>261.45</v>
@@ -4637,19 +4660,19 @@
         <v>20.49</v>
       </c>
       <c r="I117">
-        <v>7937.75175</v>
+        <v>7937.7517500000004</v>
       </c>
       <c r="J117">
-        <v>0.7436</v>
+        <v>0.74360000000000004</v>
       </c>
       <c r="K117">
-        <v>0.5466</v>
+        <v>0.54659999999999997</v>
       </c>
       <c r="L117">
-        <v>0.5714</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>0.57140000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44408</v>
       </c>
@@ -4663,10 +4686,10 @@
         <v>12.50994243239</v>
       </c>
       <c r="E118">
-        <v>0.00526208567962</v>
+        <v>5.2620856796199997E-3</v>
       </c>
       <c r="F118">
-        <v>149.2262641923639</v>
+        <v>149.22626419236391</v>
       </c>
       <c r="G118">
         <v>176.89</v>
@@ -4678,16 +4701,16 @@
         <v>10430.50346</v>
       </c>
       <c r="J118">
-        <v>0.8134</v>
+        <v>0.81340000000000001</v>
       </c>
       <c r="K118">
         <v>0.5746</v>
       </c>
       <c r="L118">
-        <v>0.6026</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>0.60260000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44439</v>
       </c>
@@ -4701,10 +4724,10 @@
         <v>15.42647593843</v>
       </c>
       <c r="E119">
-        <v>0.00115489930423</v>
+        <v>1.1548993042299999E-3</v>
       </c>
       <c r="F119">
-        <v>153.2980038574362</v>
+        <v>153.29800385743621</v>
       </c>
       <c r="G119">
         <v>142.63</v>
@@ -4716,33 +4739,33 @@
         <v>10146.06828</v>
       </c>
       <c r="J119">
-        <v>0.8652</v>
+        <v>0.86519999999999997</v>
       </c>
       <c r="K119">
-        <v>0.6262</v>
+        <v>0.62619999999999998</v>
       </c>
       <c r="L119">
-        <v>0.6286</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>0.62860000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44469</v>
       </c>
       <c r="B120">
-        <v>0.41875</v>
+        <v>0.41875000000000001</v>
       </c>
       <c r="C120">
-        <v>74.59999999999999</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D120">
-        <v>22.84059607792</v>
+        <v>22.840596077920001</v>
       </c>
       <c r="E120">
-        <v>0.00015685281085</v>
+        <v>1.5685281085000001E-4</v>
       </c>
       <c r="F120">
-        <v>156.9558378189194</v>
+        <v>156.95583781891941</v>
       </c>
       <c r="G120">
         <v>178.46</v>
@@ -4751,36 +4774,36 @@
         <v>20.71</v>
       </c>
       <c r="I120">
-        <v>9500.05683</v>
+        <v>9500.0568299999995</v>
       </c>
       <c r="J120">
-        <v>0.8404</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="K120">
         <v>0.5968</v>
       </c>
       <c r="L120">
-        <v>0.6282</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>0.62819999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44500</v>
       </c>
       <c r="B121">
-        <v>0.695</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="C121">
-        <v>83.65000000000001</v>
+        <v>83.65</v>
       </c>
       <c r="D121">
-        <v>31.05246636754</v>
+        <v>31.052466367539999</v>
       </c>
       <c r="E121">
-        <v>0.00208202988504</v>
+        <v>2.0820298850400001E-3</v>
       </c>
       <c r="F121">
-        <v>167.0008492724532</v>
+        <v>167.00084927245319</v>
       </c>
       <c r="G121">
         <v>236.57</v>
@@ -4789,33 +4812,33 @@
         <v>21.11</v>
       </c>
       <c r="I121">
-        <v>8707.094958</v>
+        <v>8707.0949579999997</v>
       </c>
       <c r="J121">
         <v>0.9224</v>
       </c>
       <c r="K121">
-        <v>0.7836</v>
+        <v>0.78359999999999996</v>
       </c>
       <c r="L121">
-        <v>0.7372</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>0.73719999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44530</v>
       </c>
       <c r="B122">
-        <v>0.9005</v>
+        <v>0.90049999999999997</v>
       </c>
       <c r="C122">
         <v>80.77</v>
       </c>
       <c r="D122">
-        <v>27.62343200775</v>
+        <v>27.623432007750001</v>
       </c>
       <c r="E122">
-        <v>0.00359534463091</v>
+        <v>3.5953446309099999E-3</v>
       </c>
       <c r="F122">
         <v>182.6188365838623</v>
@@ -4827,19 +4850,19 @@
         <v>21.07</v>
       </c>
       <c r="I122">
-        <v>9842.681755</v>
+        <v>9842.6817549999996</v>
       </c>
       <c r="J122">
-        <v>1.043066167386023</v>
+        <v>1.0430661673860231</v>
       </c>
       <c r="K122">
-        <v>0.9369293184852377</v>
+        <v>0.93692931848523775</v>
       </c>
       <c r="L122">
-        <v>0.9002346810072717</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>0.90023468100727166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44561</v>
       </c>
@@ -4850,13 +4873,13 @@
         <v>74.31</v>
       </c>
       <c r="D123">
-        <v>38.02711984318</v>
+        <v>38.027119843180003</v>
       </c>
       <c r="E123">
-        <v>0.00067537719459</v>
+        <v>6.7537719459000005E-4</v>
       </c>
       <c r="F123">
-        <v>182.6188365838624</v>
+        <v>182.61883658386239</v>
       </c>
       <c r="G123">
         <v>225.22</v>
@@ -4865,7 +4888,7 @@
         <v>21.47</v>
       </c>
       <c r="I123">
-        <v>8215.75668</v>
+        <v>8215.7566800000004</v>
       </c>
       <c r="J123">
         <v>1.088197583668632</v>
@@ -4874,27 +4897,27 @@
         <v>1.034910306862554</v>
       </c>
       <c r="L123">
-        <v>1.01467630898368</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>1.0146763089836801</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44592</v>
       </c>
       <c r="B124">
-        <v>0.84638</v>
+        <v>0.84638000000000002</v>
       </c>
       <c r="C124">
         <v>85.53</v>
       </c>
       <c r="D124">
-        <v>28.26067331655</v>
+        <v>28.260673316550001</v>
       </c>
       <c r="E124">
-        <v>0.00721327782143</v>
+        <v>7.2132778214300001E-3</v>
       </c>
       <c r="F124">
-        <v>182.6188365838624</v>
+        <v>182.61883658386239</v>
       </c>
       <c r="G124">
         <v>246.66</v>
@@ -4903,19 +4926,19 @@
         <v>21.51</v>
       </c>
       <c r="I124">
-        <v>8167.568842</v>
+        <v>8167.5688419999997</v>
       </c>
       <c r="J124">
-        <v>1.096824782</v>
+        <v>1.0968247820000001</v>
       </c>
       <c r="K124">
-        <v>1.0750197</v>
+        <v>1.0750196999999999</v>
       </c>
       <c r="L124">
-        <v>1.011899418</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>1.0118994180000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44620</v>
       </c>
@@ -4923,16 +4946,16 @@
         <v>0.74417</v>
       </c>
       <c r="C125">
-        <v>95.76000000000001</v>
+        <v>95.76</v>
       </c>
       <c r="D125">
-        <v>27.2297159067</v>
+        <v>27.229715906700001</v>
       </c>
       <c r="E125">
-        <v>0.0023249575061</v>
+        <v>2.3249575060999999E-3</v>
       </c>
       <c r="F125">
-        <v>182.6188365838624</v>
+        <v>182.61883658386239</v>
       </c>
       <c r="G125">
         <v>290.32</v>
@@ -4941,36 +4964,36 @@
         <v>21.22</v>
       </c>
       <c r="I125">
-        <v>9076.221814</v>
+        <v>9076.2218140000004</v>
       </c>
       <c r="J125">
         <v>1.078351677188643</v>
       </c>
       <c r="K125">
-        <v>1.051642326050862</v>
+        <v>1.0516423260508621</v>
       </c>
       <c r="L125">
         <v>0.9671592693428841</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44651</v>
       </c>
       <c r="B126">
-        <v>0.8725000000000001</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="C126">
         <v>115.59</v>
       </c>
       <c r="D126">
-        <v>42.39297079612</v>
+        <v>42.392970796119997</v>
       </c>
       <c r="E126">
-        <v>0.00112435970591</v>
+        <v>1.1243597059100001E-3</v>
       </c>
       <c r="F126">
-        <v>182.6188365838624</v>
+        <v>182.61883658386239</v>
       </c>
       <c r="G126">
         <v>469.51</v>
@@ -4979,7 +5002,7 @@
         <v>21.34</v>
       </c>
       <c r="I126">
-        <v>8501.634407</v>
+        <v>8501.6344069999996</v>
       </c>
       <c r="J126">
         <v>1.102667170194235</v>
@@ -4991,24 +5014,24 @@
         <v>1.039086833340783</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44681</v>
       </c>
       <c r="B127">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C127">
         <v>105.78</v>
       </c>
       <c r="D127">
-        <v>32.20418722871</v>
+        <v>32.204187228709998</v>
       </c>
       <c r="E127">
-        <v>0.00593647834028</v>
+        <v>5.9364783402799997E-3</v>
       </c>
       <c r="F127">
-        <v>182.6188365838624</v>
+        <v>182.61883658386239</v>
       </c>
       <c r="G127">
         <v>354.62</v>
@@ -5017,36 +5040,36 @@
         <v>21.43</v>
       </c>
       <c r="I127">
-        <v>6838.69447</v>
+        <v>6838.6944700000004</v>
       </c>
       <c r="J127">
-        <v>1.097080675155382</v>
+        <v>1.0970806751553821</v>
       </c>
       <c r="K127">
-        <v>1.099004662934887</v>
+        <v>1.0990046629348871</v>
       </c>
       <c r="L127">
         <v>1.093198592925966</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44712</v>
       </c>
       <c r="B128">
-        <v>0.7075</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="C128">
         <v>112.37</v>
       </c>
       <c r="D128">
-        <v>29.17072267381</v>
+        <v>29.170722673810001</v>
       </c>
       <c r="E128">
-        <v>0.00557410999677</v>
+        <v>5.5741099967699997E-3</v>
       </c>
       <c r="F128">
-        <v>182.6188365838624</v>
+        <v>182.61883658386239</v>
       </c>
       <c r="G128">
         <v>289.56</v>
@@ -5055,24 +5078,24 @@
         <v>20.79</v>
       </c>
       <c r="I128">
-        <v>8749.578089999999</v>
+        <v>8749.5780899999991</v>
       </c>
       <c r="J128">
         <v>1.108720278516534</v>
       </c>
       <c r="K128">
-        <v>1.086155403232221</v>
+        <v>1.0861554032322209</v>
       </c>
       <c r="L128">
-        <v>1.066823352432961</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>1.0668233524329609</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44742</v>
       </c>
       <c r="B129">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="C129">
         <v>120.08</v>
@@ -5081,10 +5104,10 @@
         <v>33.55773104275</v>
       </c>
       <c r="E129">
-        <v>0.006482245167</v>
+        <v>6.482245167E-3</v>
       </c>
       <c r="F129">
-        <v>182.6188365838624</v>
+        <v>182.61883658386239</v>
       </c>
       <c r="G129">
         <v>218.07</v>
@@ -5093,42 +5116,42 @@
         <v>20.07</v>
       </c>
       <c r="I129">
-        <v>5857.973666</v>
+        <v>5857.9736659999999</v>
       </c>
       <c r="J129">
         <v>1.120474861733276</v>
       </c>
       <c r="K129">
-        <v>1.124131073777351</v>
+        <v>1.1241310737773511</v>
       </c>
       <c r="L129">
-        <v>1.038634438513443</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>1.0386344385134429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44773</v>
       </c>
       <c r="B130">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="C130">
         <v>108.92</v>
       </c>
       <c r="D130">
-        <v>51.33003047298</v>
+        <v>51.330030472979999</v>
       </c>
       <c r="E130">
-        <v>0.00160236369256</v>
+        <v>1.6023636925599999E-3</v>
       </c>
       <c r="F130">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G130">
         <v>191.59</v>
       </c>
       <c r="H130">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="I130">
         <v>10346.628875</v>
@@ -5140,27 +5163,27 @@
         <v>1.123289004127497</v>
       </c>
       <c r="L130">
-        <v>0.9989557845133211</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>0.99895578451332112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44804</v>
       </c>
       <c r="B131">
-        <v>0.5912500000000001</v>
+        <v>0.59125000000000005</v>
       </c>
       <c r="C131">
-        <v>98.59999999999999</v>
+        <v>98.6</v>
       </c>
       <c r="D131">
-        <v>70.04363980338999</v>
+        <v>70.043639803389993</v>
       </c>
       <c r="E131">
-        <v>0.00028598623682</v>
+        <v>2.8598623681999998E-4</v>
       </c>
       <c r="F131">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G131">
         <v>159.22</v>
@@ -5169,36 +5192,36 @@
         <v>20.2</v>
       </c>
       <c r="I131">
-        <v>10080.216522</v>
+        <v>10080.216522000001</v>
       </c>
       <c r="J131">
-        <v>1.248267995093507</v>
+        <v>1.2482679950935069</v>
       </c>
       <c r="K131">
-        <v>1.172336613778829</v>
+        <v>1.1723366137788289</v>
       </c>
       <c r="L131">
-        <v>0.9920444986539785</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>0.99204449865397848</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44834</v>
       </c>
       <c r="B132">
-        <v>0.678</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="C132">
         <v>90.16</v>
       </c>
       <c r="D132">
-        <v>59.10262225038</v>
+        <v>59.102622250380001</v>
       </c>
       <c r="E132">
-        <v>0.00356911638598</v>
+        <v>3.5691163859799999E-3</v>
       </c>
       <c r="F132">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G132">
         <v>134.72</v>
@@ -5213,30 +5236,30 @@
         <v>1.292183548195688</v>
       </c>
       <c r="K132">
-        <v>1.203163518701642</v>
+        <v>1.2031635187016421</v>
       </c>
       <c r="L132">
-        <v>1.004394113331451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>1.0043941133314509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44865</v>
       </c>
       <c r="B133">
-        <v>0.63625</v>
+        <v>0.63624999999999998</v>
       </c>
       <c r="C133">
         <v>93.13</v>
       </c>
       <c r="D133">
-        <v>39.02204993845</v>
+        <v>39.022049938450003</v>
       </c>
       <c r="E133">
-        <v>0.00116745907546</v>
+        <v>1.16745907546E-3</v>
       </c>
       <c r="F133">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G133">
         <v>198.93</v>
@@ -5245,19 +5268,19 @@
         <v>20.84</v>
       </c>
       <c r="I133">
-        <v>10682.94357</v>
+        <v>10682.943569999999</v>
       </c>
       <c r="J133">
         <v>1.310196068599417</v>
       </c>
       <c r="K133">
-        <v>1.19618507878302</v>
+        <v>1.1961850787830199</v>
       </c>
       <c r="L133">
         <v>1.018680420397299</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44895</v>
       </c>
@@ -5265,16 +5288,16 @@
         <v>0.58875</v>
       </c>
       <c r="C134">
-        <v>91.06999999999999</v>
+        <v>91.07</v>
       </c>
       <c r="D134">
         <v>35.72328224044</v>
       </c>
       <c r="E134">
-        <v>-7.020727067E-05</v>
+        <v>-7.0207270670000004E-5</v>
       </c>
       <c r="F134">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G134">
         <v>171.93</v>
@@ -5283,7 +5306,7 @@
         <v>20.82</v>
       </c>
       <c r="I134">
-        <v>8996.46902</v>
+        <v>8996.4690200000005</v>
       </c>
       <c r="J134">
         <v>1.293497790224196</v>
@@ -5292,27 +5315,27 @@
         <v>1.197417748251064</v>
       </c>
       <c r="L134">
-        <v>0.9970284436912492</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <v>0.99702844369124921</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44926</v>
       </c>
       <c r="B135">
-        <v>0.51938</v>
+        <v>0.51937999999999995</v>
       </c>
       <c r="C135">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="D135">
-        <v>36.04426003614</v>
+        <v>36.044260036140003</v>
       </c>
       <c r="E135">
-        <v>0.00157748202329</v>
+        <v>1.57748202329E-3</v>
       </c>
       <c r="F135">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G135">
         <v>169.82</v>
@@ -5321,7 +5344,7 @@
         <v>21.29</v>
       </c>
       <c r="I135">
-        <v>10896.84343</v>
+        <v>10896.843430000001</v>
       </c>
       <c r="J135">
         <v>1.198608495949633</v>
@@ -5330,33 +5353,33 @@
         <v>1.181452698983275</v>
       </c>
       <c r="L135">
-        <v>0.9651399526635926</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>0.96513995266359265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44957</v>
       </c>
       <c r="B136">
-        <v>0.44375</v>
+        <v>0.44374999999999998</v>
       </c>
       <c r="C136">
         <v>83.09</v>
       </c>
       <c r="D136">
-        <v>20.18397092135</v>
+        <v>20.183970921349999</v>
       </c>
       <c r="E136">
-        <v>0.00120586983033</v>
+        <v>1.2058698303300001E-3</v>
       </c>
       <c r="F136">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G136">
-        <v>287.2845205479452</v>
+        <v>287.28452054794519</v>
       </c>
       <c r="H136">
-        <v>20.77054794520548</v>
+        <v>20.770547945205479</v>
       </c>
       <c r="I136">
         <v>11764.143317</v>
@@ -5371,27 +5394,27 @@
         <v>0.9331739747173603</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44985</v>
       </c>
       <c r="B137">
-        <v>0.3575</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="C137">
-        <v>82.70999999999999</v>
+        <v>82.71</v>
       </c>
       <c r="D137">
-        <v>16.53713727891</v>
+        <v>16.537137278909999</v>
       </c>
       <c r="E137">
-        <v>0.00018277274577</v>
+        <v>1.8277274577E-4</v>
       </c>
       <c r="F137">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G137">
-        <v>315.8471232876713</v>
+        <v>315.84712328767131</v>
       </c>
       <c r="H137">
         <v>20.86972602739726</v>
@@ -5400,16 +5423,16 @@
         <v>10729.088323</v>
       </c>
       <c r="J137">
-        <v>1.175842764216333</v>
+        <v>1.1758427642163329</v>
       </c>
       <c r="K137">
-        <v>1.157921425669146</v>
+        <v>1.1579214256691459</v>
       </c>
       <c r="L137">
-        <v>0.9225762745756159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>0.92257627457561586</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>45016</v>
       </c>
@@ -5420,16 +5443,16 @@
         <v>78.53</v>
       </c>
       <c r="D138">
-        <v>13.81207686229</v>
+        <v>13.812076862290001</v>
       </c>
       <c r="E138">
-        <v>0.00064985238999</v>
+        <v>6.4985238998999995E-4</v>
       </c>
       <c r="F138">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G138">
-        <v>367.957808219178</v>
+        <v>367.95780821917799</v>
       </c>
       <c r="H138">
         <v>20.91493150684931</v>
@@ -5438,21 +5461,21 @@
         <v>12897.554323</v>
       </c>
       <c r="J138">
-        <v>1.157828202699635</v>
+        <v>1.1578282026996349</v>
       </c>
       <c r="K138">
-        <v>1.141032377340076</v>
+        <v>1.1410323773400759</v>
       </c>
       <c r="L138">
-        <v>0.8861632827753628</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>0.88616328277536283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>45046</v>
       </c>
       <c r="B139">
-        <v>0.31338</v>
+        <v>0.31337999999999999</v>
       </c>
       <c r="C139">
         <v>84.11</v>
@@ -5461,36 +5484,36 @@
         <v>13.52052961513</v>
       </c>
       <c r="E139">
-        <v>0.00196217461898</v>
+        <v>1.9621746189800002E-3</v>
       </c>
       <c r="F139">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G139">
-        <v>346.8073972602739</v>
+        <v>346.80739726027389</v>
       </c>
       <c r="H139">
         <v>20.85602739726027</v>
       </c>
       <c r="I139">
-        <v>11470.164393</v>
+        <v>11470.164392999999</v>
       </c>
       <c r="J139">
         <v>1.078547904516356</v>
       </c>
       <c r="K139">
-        <v>0.9467313649913774</v>
+        <v>0.94673136499137744</v>
       </c>
       <c r="L139">
-        <v>0.8421060630243679</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+        <v>0.84210606302436786</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>45077</v>
       </c>
       <c r="B140">
-        <v>0.32925</v>
+        <v>0.32924999999999999</v>
       </c>
       <c r="C140">
         <v>75.7</v>
@@ -5499,36 +5522,36 @@
         <v>10.10875599841</v>
       </c>
       <c r="E140">
-        <v>0.00089208560651</v>
+        <v>8.9208560651000003E-4</v>
       </c>
       <c r="F140">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G140">
-        <v>294.9939726027397</v>
+        <v>294.99397260273969</v>
       </c>
       <c r="H140">
-        <v>20.53438356164384</v>
+        <v>20.534383561643839</v>
       </c>
       <c r="I140">
         <v>12468.853061</v>
       </c>
       <c r="J140">
-        <v>1.038640692544284</v>
+        <v>1.0386406925442839</v>
       </c>
       <c r="K140">
-        <v>0.8510623188811773</v>
+        <v>0.85106231888117734</v>
       </c>
       <c r="L140">
-        <v>0.7742078805271971</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>0.77420788052719713</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45107</v>
       </c>
       <c r="B141">
-        <v>0.2875</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="C141">
         <v>74.89</v>
@@ -5537,107 +5560,107 @@
         <v>10.35062473915</v>
       </c>
       <c r="E141">
-        <v>0.00373710729929</v>
+        <v>3.7371072992899998E-3</v>
       </c>
       <c r="F141">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G141">
-        <v>230.5506849315069</v>
+        <v>230.55068493150691</v>
       </c>
       <c r="H141">
-        <v>19.79232876712329</v>
+        <v>19.792328767123291</v>
       </c>
       <c r="I141">
-        <v>12420.80496</v>
+        <v>12420.804959999999</v>
       </c>
       <c r="J141">
-        <v>0.9959642247694664</v>
+        <v>0.99596422476946644</v>
       </c>
       <c r="K141">
-        <v>0.7995310846400768</v>
+        <v>0.79953108464007683</v>
       </c>
       <c r="L141">
         <v>0.6957576403035699</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>45138</v>
       </c>
       <c r="B142">
-        <v>0.33463</v>
+        <v>0.33462999999999998</v>
       </c>
       <c r="C142">
-        <v>80.09999999999999</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="D142">
-        <v>9.54528398968</v>
+        <v>9.5452839896799997</v>
       </c>
       <c r="E142">
-        <v>0.00539043331312</v>
+        <v>5.3904333131199996E-3</v>
       </c>
       <c r="F142">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G142">
-        <v>198.7842465753425</v>
+        <v>198.78424657534251</v>
       </c>
       <c r="H142">
-        <v>19.32369863013699</v>
+        <v>19.323698630136992</v>
       </c>
       <c r="I142">
-        <v>10706.056593</v>
+        <v>10706.056592999999</v>
       </c>
       <c r="J142">
-        <v>0.9463975731257724</v>
+        <v>0.94639757312577244</v>
       </c>
       <c r="K142">
-        <v>0.7403079644465607</v>
+        <v>0.74030796444656066</v>
       </c>
       <c r="L142">
-        <v>0.6519426044369245</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+        <v>0.65194260443692453</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45169</v>
       </c>
       <c r="B143">
-        <v>0.38563</v>
+        <v>0.38562999999999997</v>
       </c>
       <c r="C143">
-        <v>86.163</v>
+        <v>86.162999999999997</v>
       </c>
       <c r="D143">
-        <v>11.19194456369</v>
+        <v>11.191944563690001</v>
       </c>
       <c r="E143">
-        <v>0.00502968878962</v>
+        <v>5.0296887896199996E-3</v>
       </c>
       <c r="F143">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G143">
-        <v>164.7102739726027</v>
+        <v>164.71027397260269</v>
       </c>
       <c r="H143">
-        <v>19.58</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="I143">
         <v>10530.22184</v>
       </c>
       <c r="J143">
-        <v>0.925686200847129</v>
+        <v>0.92568620084712905</v>
       </c>
       <c r="K143">
-        <v>0.7460920696494301</v>
+        <v>0.74609206964943009</v>
       </c>
       <c r="L143">
-        <v>0.6517089982436903</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>0.65170899824369033</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>45199</v>
       </c>
@@ -5651,209 +5674,209 @@
         <v>11.54929514615</v>
       </c>
       <c r="E144">
-        <v>0.00037853311465</v>
+        <v>3.7853311465000001E-4</v>
       </c>
       <c r="F144">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G144">
-        <v>177.4602739726027</v>
+        <v>177.46027397260269</v>
       </c>
       <c r="H144">
-        <v>19.95342465753425</v>
+        <v>19.953424657534249</v>
       </c>
       <c r="I144">
         <v>16206.180956</v>
       </c>
       <c r="J144">
-        <v>0.9532274154468331</v>
+        <v>0.95322741544683309</v>
       </c>
       <c r="K144">
         <v>0.7346532009962643</v>
       </c>
       <c r="L144">
-        <v>0.6629292773257311</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>0.66292927732573115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45230</v>
       </c>
       <c r="B145">
-        <v>0.41138</v>
+        <v>0.41138000000000002</v>
       </c>
       <c r="C145">
-        <v>91.06100000000001</v>
+        <v>91.061000000000007</v>
       </c>
       <c r="D145">
         <v>14.56950705657</v>
       </c>
       <c r="E145">
-        <v>-0.00175018038644</v>
+        <v>-1.7501803864400001E-3</v>
       </c>
       <c r="F145">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G145">
-        <v>205.4786301369863</v>
+        <v>205.47863013698631</v>
       </c>
       <c r="H145">
-        <v>20.23178082191781</v>
+        <v>20.231780821917809</v>
       </c>
       <c r="I145">
-        <v>14718.155</v>
+        <v>14718.155000000001</v>
       </c>
       <c r="J145">
-        <v>0.9459924711429784</v>
+        <v>0.94599247114297835</v>
       </c>
       <c r="K145">
-        <v>0.7338951871106011</v>
+        <v>0.73389518711060109</v>
       </c>
       <c r="L145">
-        <v>0.6771679200974766</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>0.67716792009747662</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>45260</v>
       </c>
       <c r="B146">
-        <v>0.3855</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="C146">
-        <v>83.18300000000001</v>
+        <v>83.183000000000007</v>
       </c>
       <c r="D146">
         <v>14.48505487638</v>
       </c>
       <c r="E146">
-        <v>-0.00399199617135</v>
+        <v>-3.9919961713500004E-3</v>
       </c>
       <c r="F146">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G146">
-        <v>208.5208219178082</v>
+        <v>208.52082191780821</v>
       </c>
       <c r="H146">
-        <v>20.38205479452055</v>
+        <v>20.382054794520549</v>
       </c>
       <c r="I146">
         <v>13071.85952</v>
       </c>
       <c r="J146">
-        <v>0.9376818916124229</v>
+        <v>0.93768189161242288</v>
       </c>
       <c r="K146">
-        <v>0.7125767115559107</v>
+        <v>0.71257671155591074</v>
       </c>
       <c r="L146">
-        <v>0.6766752451945396</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+        <v>0.67667524519453959</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45291</v>
       </c>
       <c r="B147">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C147">
-        <v>77.858</v>
+        <v>77.858000000000004</v>
       </c>
       <c r="D147">
-        <v>11.50665790666</v>
+        <v>11.506657906659999</v>
       </c>
       <c r="E147">
-        <v>-0.00023225585349</v>
+        <v>-2.3225585349000001E-4</v>
       </c>
       <c r="F147">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="G147">
-        <v>240.8878082191781</v>
+        <v>240.88780821917811</v>
       </c>
       <c r="H147">
         <v>20.62109589041096</v>
       </c>
       <c r="I147">
-        <v>16298.91089</v>
+        <v>16298.910889999999</v>
       </c>
       <c r="J147">
-        <v>0.9282134437222956</v>
+        <v>0.92821344372229564</v>
       </c>
       <c r="K147">
-        <v>0.6873759924061151</v>
+        <v>0.68737599240611513</v>
       </c>
       <c r="L147">
-        <v>0.6482963362209007</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>0.64829633622090066</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>45322</v>
       </c>
       <c r="B148">
-        <v>0.33538</v>
+        <v>0.33538000000000001</v>
       </c>
       <c r="C148">
-        <v>80.227</v>
+        <v>80.227000000000004</v>
       </c>
       <c r="D148">
-        <v>9.55961355312</v>
+        <v>9.5596135531200002</v>
       </c>
       <c r="E148">
-        <v>0.00125345701049</v>
+        <v>1.2534570104900001E-3</v>
       </c>
       <c r="F148">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="I148">
-        <v>13485.387704</v>
+        <v>13485.387704000001</v>
       </c>
       <c r="J148">
-        <v>0.8908317735767547</v>
+        <v>0.89083177357675469</v>
       </c>
       <c r="K148">
-        <v>0.645802120316499</v>
+        <v>0.64580212031649897</v>
       </c>
       <c r="L148">
         <v>0.6219078592027808</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45351</v>
       </c>
       <c r="B149">
-        <v>0.35125</v>
+        <v>0.35125000000000001</v>
       </c>
       <c r="C149">
-        <v>83.764</v>
+        <v>83.763999999999996</v>
       </c>
       <c r="D149">
-        <v>8.14838086764</v>
+        <v>8.1483808676400002</v>
       </c>
       <c r="E149">
-        <v>0.00092817046871</v>
+        <v>9.2817046871000004E-4</v>
       </c>
       <c r="F149">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="I149">
         <v>14071.209981</v>
       </c>
       <c r="J149">
-        <v>0.698660134397402</v>
+        <v>0.69866013439740204</v>
       </c>
       <c r="K149">
-        <v>0.4955697133892522</v>
+        <v>0.49556971338925221</v>
       </c>
       <c r="L149">
         <v>0.4838418500636259</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45382</v>
       </c>
@@ -5861,31 +5884,31 @@
         <v>0.33</v>
       </c>
       <c r="C150">
-        <v>85.447</v>
+        <v>85.447000000000003</v>
       </c>
       <c r="D150">
-        <v>8.55372632183</v>
+        <v>8.5537263218300001</v>
       </c>
       <c r="E150">
-        <v>0.00288040947349</v>
+        <v>2.8804094734899998E-3</v>
       </c>
       <c r="F150">
-        <v>168.201560011453</v>
+        <v>168.20156001145301</v>
       </c>
       <c r="I150">
-        <v>11421.68639</v>
+        <v>11421.686390000001</v>
       </c>
       <c r="J150">
         <v>0.777707726822921</v>
       </c>
       <c r="K150">
-        <v>0.5408107856002339</v>
+        <v>0.54081078560023388</v>
       </c>
       <c r="L150">
-        <v>0.5253723011732939</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+        <v>0.52537230117329392</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45412</v>
       </c>
@@ -5893,118 +5916,118 @@
         <v>0.32</v>
       </c>
       <c r="C151">
-        <v>90.054</v>
+        <v>90.054000000000002</v>
       </c>
       <c r="D151">
-        <v>9.08511900567</v>
+        <v>9.0851190056700002</v>
       </c>
       <c r="E151">
-        <v>0.01273099920596</v>
+        <v>1.2730999205960001E-2</v>
       </c>
       <c r="F151">
-        <v>173.007318868923</v>
+        <v>173.00731886892299</v>
       </c>
       <c r="I151">
-        <v>9400.963992000001</v>
+        <v>9400.9639920000009</v>
       </c>
       <c r="J151">
-        <v>0.8778057898078694</v>
+        <v>0.87780578980786939</v>
       </c>
       <c r="K151">
-        <v>0.6265261958603363</v>
+        <v>0.62652619586033631</v>
       </c>
       <c r="L151">
-        <v>0.5922828949331166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>0.59228289493311659</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45443</v>
       </c>
       <c r="C152">
-        <v>81.995</v>
+        <v>81.995000000000005</v>
       </c>
       <c r="D152">
         <v>10.12306554509</v>
       </c>
       <c r="E152">
-        <v>-0.00119194037903</v>
+        <v>-1.1919403790299999E-3</v>
       </c>
       <c r="F152">
-        <v>173.007318868923</v>
+        <v>173.00731886892299</v>
       </c>
       <c r="I152">
         <v>13379.146654</v>
       </c>
       <c r="J152">
-        <v>0.8505496862719805</v>
+        <v>0.85054968627198047</v>
       </c>
       <c r="K152">
-        <v>0.5982628139590228</v>
+        <v>0.59826281395902281</v>
       </c>
       <c r="L152">
-        <v>0.5782225728556203</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>0.57822257285562029</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>45473</v>
       </c>
       <c r="C153">
-        <v>82.55500000000001</v>
+        <v>82.555000000000007</v>
       </c>
       <c r="D153">
-        <v>10.86897789978</v>
+        <v>10.868977899780001</v>
       </c>
       <c r="E153">
-        <v>-0.009520711175700001</v>
+        <v>-9.5207111757000008E-3</v>
       </c>
       <c r="F153">
-        <v>173.007318868923</v>
+        <v>173.00731886892299</v>
       </c>
       <c r="I153">
-        <v>14004.094447</v>
+        <v>14004.094446999999</v>
       </c>
       <c r="J153">
-        <v>0.8558800712909602</v>
+        <v>0.85588007129096022</v>
       </c>
       <c r="K153">
-        <v>0.5824914772285323</v>
+        <v>0.58249147722853234</v>
       </c>
       <c r="L153">
-        <v>0.5555706738719839</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+        <v>0.55557067387198389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45504</v>
       </c>
       <c r="C154">
-        <v>85.29600000000001</v>
+        <v>85.296000000000006</v>
       </c>
       <c r="D154">
         <v>10.34681932853</v>
       </c>
       <c r="E154">
-        <v>0.00930392901235</v>
+        <v>9.3039290123500002E-3</v>
       </c>
       <c r="F154">
-        <v>173.007318868923</v>
+        <v>173.00731886892299</v>
       </c>
       <c r="I154">
-        <v>13014.65721</v>
+        <v>13014.657209999999</v>
       </c>
       <c r="J154">
-        <v>0.8803907347272377</v>
+        <v>0.88039073472723772</v>
       </c>
       <c r="K154">
-        <v>0.5768220543219431</v>
+        <v>0.57682205432194311</v>
       </c>
       <c r="L154">
-        <v>0.5583286069431294</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>0.55832860694312936</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>45535</v>
       </c>
@@ -6015,22 +6038,22 @@
         <v>12.37459819711</v>
       </c>
       <c r="E155">
-        <v>0.00216291477707</v>
+        <v>2.1629147770700001E-3</v>
       </c>
       <c r="F155">
-        <v>173.007318868923</v>
+        <v>173.00731886892299</v>
       </c>
       <c r="I155">
-        <v>13914.46856</v>
+        <v>13914.468559999999</v>
       </c>
       <c r="J155">
         <v>0.879706142553904</v>
       </c>
       <c r="K155">
-        <v>0.576673867712157</v>
+        <v>0.57667386771215701</v>
       </c>
       <c r="L155">
-        <v>0.5656612019411791</v>
+        <v>0.56566120194117908</v>
       </c>
     </row>
   </sheetData>

--- a/data/predicción_precios_fertilizantes.xlsx
+++ b/data/predicción_precios_fertilizantes.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a98dfaf1ce87dfc/DataScience/Proyectos/time-series-fertilizer-price-predictor/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_62F1812DB160DE462A1D2BD2F87AE3803880C9C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30713D7C-A242-47C0-8D3F-E610EF8E0D9A}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>fob_urea_kg</t>
   </si>
@@ -43,7 +37,10 @@
     <t>temp_media_Celsius</t>
   </si>
   <si>
-    <t>fob_otros_prod_agrícolas_exportados_usd</t>
+    <t>baltic_dry_idx_last</t>
+  </si>
+  <si>
+    <t>pct_pobreza_rural</t>
   </si>
   <si>
     <t>fosfato diamónico 18-46-0</t>
@@ -61,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -125,28 +122,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -218,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -253,10 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,16 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -473,13 +459,16 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>40877</v>
       </c>
       <c r="B2">
-        <v>0.48125000000000001</v>
+        <v>0.48125</v>
       </c>
       <c r="C2">
         <v>110.50409090909</v>
@@ -488,7 +477,7 @@
         <v>11.32</v>
       </c>
       <c r="E2">
-        <v>3.03368E-3</v>
+        <v>0.00303368</v>
       </c>
       <c r="G2">
         <v>187.79</v>
@@ -497,12 +486,12 @@
         <v>20.77</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>40908</v>
       </c>
       <c r="B3">
-        <v>0.42313000000000001</v>
+        <v>0.42313</v>
       </c>
       <c r="C3">
         <v>107.90904761905</v>
@@ -511,7 +500,7 @@
         <v>11.53</v>
       </c>
       <c r="E3">
-        <v>3.9793700000000003E-3</v>
+        <v>0.00397937</v>
       </c>
       <c r="G3">
         <v>270.52</v>
@@ -520,21 +509,21 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>40939</v>
       </c>
       <c r="B4">
-        <v>0.36799999999999999</v>
+        <v>0.368</v>
       </c>
       <c r="C4">
-        <v>111.15619047619001</v>
+        <v>111.15619047619</v>
       </c>
       <c r="D4">
         <v>11.45</v>
       </c>
       <c r="E4">
-        <v>5.6715200000000002E-3</v>
+        <v>0.00567152</v>
       </c>
       <c r="G4">
         <v>397.44</v>
@@ -542,8 +531,11 @@
       <c r="H4">
         <v>20.87</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>40968</v>
       </c>
@@ -557,7 +549,7 @@
         <v>11.12</v>
       </c>
       <c r="E5">
-        <v>7.7748699999999997E-3</v>
+        <v>0.00777487</v>
       </c>
       <c r="G5">
         <v>432.71</v>
@@ -565,13 +557,16 @@
       <c r="H5">
         <v>20.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>40999</v>
       </c>
       <c r="B6">
-        <v>0.39312999999999998</v>
+        <v>0.39313</v>
       </c>
       <c r="C6">
         <v>124.92863636364</v>
@@ -580,7 +575,7 @@
         <v>11.97</v>
       </c>
       <c r="E6">
-        <v>9.0091800000000003E-3</v>
+        <v>0.00900918</v>
       </c>
       <c r="G6">
         <v>445.15</v>
@@ -588,13 +583,16 @@
       <c r="H6">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>41029</v>
       </c>
       <c r="B7">
-        <v>0.49437999999999999</v>
+        <v>0.49438</v>
       </c>
       <c r="C7">
         <v>120.4635</v>
@@ -603,7 +601,7 @@
         <v>11.42</v>
       </c>
       <c r="E7">
-        <v>1.57996E-3</v>
+        <v>0.00157996</v>
       </c>
       <c r="G7">
         <v>383.58</v>
@@ -611,13 +609,16 @@
       <c r="H7">
         <v>21.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>41060</v>
       </c>
       <c r="B8">
-        <v>0.51312999999999998</v>
+        <v>0.51313</v>
       </c>
       <c r="C8">
         <v>110.52173913044</v>
@@ -626,30 +627,33 @@
         <v>11.64</v>
       </c>
       <c r="E8">
-        <v>-1.94056E-3</v>
+        <v>-0.00194056</v>
       </c>
       <c r="G8">
-        <v>326.04000000000002</v>
+        <v>326.04</v>
       </c>
       <c r="H8">
         <v>21.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>41090</v>
       </c>
       <c r="B9">
-        <v>0.45688000000000001</v>
+        <v>0.45688</v>
       </c>
       <c r="C9">
-        <v>95.589047619050007</v>
+        <v>95.58904761905001</v>
       </c>
       <c r="D9">
         <v>11.49</v>
       </c>
       <c r="E9">
-        <v>1.75095E-3</v>
+        <v>0.00175095</v>
       </c>
       <c r="G9">
         <v>207.28</v>
@@ -657,8 +661,14 @@
       <c r="H9">
         <v>20.66</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>897</v>
+      </c>
+      <c r="J9">
+        <v>0.45156912230711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>41121</v>
       </c>
@@ -672,21 +682,27 @@
         <v>11.13</v>
       </c>
       <c r="E10">
-        <v>2.6122799999999998E-3</v>
+        <v>0.00261228</v>
       </c>
       <c r="G10">
         <v>206.41</v>
       </c>
       <c r="H10">
-        <v>20.170000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20.17</v>
+      </c>
+      <c r="I10">
+        <v>703</v>
+      </c>
+      <c r="J10">
+        <v>0.4563965557663374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>41152</v>
       </c>
       <c r="B11">
-        <v>0.38250000000000001</v>
+        <v>0.3825</v>
       </c>
       <c r="C11">
         <v>113.34</v>
@@ -695,16 +711,22 @@
         <v>11.18</v>
       </c>
       <c r="E11">
-        <v>2.88668E-3</v>
+        <v>0.00288668</v>
       </c>
       <c r="G11">
         <v>157.41</v>
       </c>
       <c r="H11">
-        <v>20.149999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20.15</v>
+      </c>
+      <c r="I11">
+        <v>766</v>
+      </c>
+      <c r="J11">
+        <v>0.4657127177546659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>41182</v>
       </c>
@@ -712,13 +734,13 @@
         <v>0.38438</v>
       </c>
       <c r="C12">
-        <v>113.38249999999999</v>
+        <v>113.3825</v>
       </c>
       <c r="D12">
         <v>11.08</v>
       </c>
       <c r="E12">
-        <v>1.1219140000000001E-2</v>
+        <v>0.01121914</v>
       </c>
       <c r="G12">
         <v>137.1</v>
@@ -726,13 +748,19 @@
       <c r="H12">
         <v>20.29</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>1026</v>
+      </c>
+      <c r="J12">
+        <v>0.4753112583617692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>41213</v>
       </c>
       <c r="B13">
-        <v>0.34899999999999998</v>
+        <v>0.349</v>
       </c>
       <c r="C13">
         <v>111.97347826087</v>
@@ -741,7 +769,7 @@
         <v>11.58</v>
       </c>
       <c r="E13">
-        <v>8.6008000000000005E-4</v>
+        <v>0.00086008</v>
       </c>
       <c r="G13">
         <v>192.12</v>
@@ -749,22 +777,28 @@
       <c r="H13">
         <v>20.77</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>1086</v>
+      </c>
+      <c r="J13">
+        <v>0.4765936417394134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>41243</v>
       </c>
       <c r="B14">
-        <v>0.38350000000000001</v>
+        <v>0.3835</v>
       </c>
       <c r="C14">
-        <v>109.71181818181999</v>
+        <v>109.71181818182</v>
       </c>
       <c r="D14">
         <v>11.83</v>
       </c>
       <c r="E14">
-        <v>1.39346E-3</v>
+        <v>0.00139346</v>
       </c>
       <c r="G14">
         <v>236.59</v>
@@ -772,8 +806,14 @@
       <c r="H14">
         <v>21.13</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>699</v>
+      </c>
+      <c r="J14">
+        <v>0.4834270269365712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>41274</v>
       </c>
@@ -787,7 +827,7 @@
         <v>11.79</v>
       </c>
       <c r="E15">
-        <v>-1.85782E-3</v>
+        <v>-0.00185782</v>
       </c>
       <c r="G15">
         <v>236.57</v>
@@ -795,8 +835,14 @@
       <c r="H15">
         <v>21.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>760</v>
+      </c>
+      <c r="J15">
+        <v>0.4959887405894605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>41305</v>
       </c>
@@ -810,10 +856,10 @@
         <v>11.87</v>
       </c>
       <c r="E16">
-        <v>5.0282299999999999E-3</v>
+        <v>0.00502823</v>
       </c>
       <c r="F16">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G16">
         <v>277.5</v>
@@ -822,19 +868,22 @@
         <v>21.4</v>
       </c>
       <c r="I16">
-        <v>5824.3638199999996</v>
+        <v>757</v>
       </c>
       <c r="J16">
-        <v>0.86726054704378075</v>
+        <v>0.4794243298594665</v>
       </c>
       <c r="K16">
-        <v>0.67440082639139431</v>
+        <v>0.8672605470437807</v>
       </c>
       <c r="L16">
-        <v>0.65718843579263053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6744008263913943</v>
+      </c>
+      <c r="M16">
+        <v>0.6571884357926305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>41333</v>
       </c>
@@ -842,16 +891,16 @@
         <v>0.41563</v>
       </c>
       <c r="C17">
-        <v>116.51949999999999</v>
+        <v>116.5195</v>
       </c>
       <c r="D17">
         <v>11.77</v>
       </c>
       <c r="E17">
-        <v>1.84694E-3</v>
+        <v>0.00184694</v>
       </c>
       <c r="F17">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G17">
         <v>389.36</v>
@@ -860,24 +909,27 @@
         <v>21.17</v>
       </c>
       <c r="I17">
-        <v>5442.9454400000004</v>
+        <v>910</v>
       </c>
       <c r="J17">
+        <v>0.4615169282430922</v>
+      </c>
+      <c r="K17">
         <v>0.8685473684210524</v>
       </c>
-      <c r="K17">
-        <v>0.69739682539682535</v>
-      </c>
       <c r="L17">
-        <v>0.67902247191011222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6973968253968253</v>
+      </c>
+      <c r="M17">
+        <v>0.6790224719101122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>41364</v>
       </c>
       <c r="B18">
-        <v>0.39562999999999998</v>
+        <v>0.39563</v>
       </c>
       <c r="C18">
         <v>109.24</v>
@@ -886,10 +938,10 @@
         <v>11.87</v>
       </c>
       <c r="E18">
-        <v>4.3838499999999999E-3</v>
+        <v>0.00438385</v>
       </c>
       <c r="F18">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G18">
         <v>392.47</v>
@@ -898,24 +950,27 @@
         <v>21.64</v>
       </c>
       <c r="I18">
-        <v>6370.2084409999998</v>
+        <v>863</v>
       </c>
       <c r="J18">
-        <v>0.85507987344259906</v>
+        <v>0.4507139496875138</v>
       </c>
       <c r="K18">
-        <v>0.67868295002913315</v>
+        <v>0.8550798734425991</v>
       </c>
       <c r="L18">
+        <v>0.6786829500291331</v>
+      </c>
+      <c r="M18">
         <v>0.6491428815279966</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>41394</v>
       </c>
       <c r="B19">
-        <v>0.36563000000000001</v>
+        <v>0.36563</v>
       </c>
       <c r="C19">
         <v>102.87545454546</v>
@@ -924,31 +979,34 @@
         <v>12.88</v>
       </c>
       <c r="E19">
-        <v>1.7899148012899999E-3</v>
+        <v>0.00178991480129</v>
       </c>
       <c r="F19">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G19">
-        <v>315.47000000000003</v>
+        <v>315.47</v>
       </c>
       <c r="H19">
         <v>21.47</v>
       </c>
       <c r="I19">
-        <v>5606.1925700000002</v>
+        <v>809</v>
       </c>
       <c r="J19">
-        <v>0.85181060055243885</v>
+        <v>0.4335360613646838</v>
       </c>
       <c r="K19">
+        <v>0.8518106005524388</v>
+      </c>
+      <c r="L19">
         <v>0.6778942746051847</v>
       </c>
-      <c r="L19">
-        <v>0.65434456960182474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>0.6543445696018247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>41425</v>
       </c>
@@ -962,36 +1020,39 @@
         <v>12.29</v>
       </c>
       <c r="E20">
-        <v>-2.1789831272100001E-3</v>
+        <v>-0.00217898312721</v>
       </c>
       <c r="F20">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G20">
-        <v>294.04000000000002</v>
+        <v>294.04</v>
       </c>
       <c r="H20">
         <v>20.92</v>
       </c>
       <c r="I20">
-        <v>5259.66201</v>
+        <v>1171</v>
       </c>
       <c r="J20">
+        <v>0.4195287575540546</v>
+      </c>
+      <c r="K20">
         <v>0.8422469678076685</v>
       </c>
-      <c r="K20">
-        <v>0.66765389748035731</v>
-      </c>
       <c r="L20">
-        <v>0.64785417392494538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6676538974803573</v>
+      </c>
+      <c r="M20">
+        <v>0.6478541739249454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>41455</v>
       </c>
       <c r="B21">
-        <v>0.32938000000000001</v>
+        <v>0.32938</v>
       </c>
       <c r="C21">
         <v>103.11</v>
@@ -1000,31 +1061,34 @@
         <v>11.92</v>
       </c>
       <c r="E21">
-        <v>-1.44789862262E-3</v>
+        <v>-0.00144789862262</v>
       </c>
       <c r="F21">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G21">
         <v>189.7</v>
       </c>
       <c r="H21">
-        <v>20.190000000000001</v>
+        <v>20.19</v>
       </c>
       <c r="I21">
-        <v>9055.0554100000008</v>
+        <v>1062</v>
       </c>
       <c r="J21">
-        <v>0.85850371073036835</v>
+        <v>0.4077643599351691</v>
       </c>
       <c r="K21">
-        <v>0.64990716268107462</v>
+        <v>0.8585037107303684</v>
       </c>
       <c r="L21">
-        <v>0.63209517789469027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6499071626810746</v>
+      </c>
+      <c r="M21">
+        <v>0.6320951778946903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>41486</v>
       </c>
@@ -1038,48 +1102,51 @@
         <v>11.6</v>
       </c>
       <c r="E22">
-        <v>-1.8660335055E-4</v>
+        <v>-0.00018660335055</v>
       </c>
       <c r="F22">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G22">
         <v>207.07</v>
       </c>
       <c r="H22">
-        <v>19.510000000000002</v>
+        <v>19.51</v>
       </c>
       <c r="I22">
-        <v>4780.1759000000002</v>
+        <v>1132</v>
       </c>
       <c r="J22">
+        <v>0.4031226055231591</v>
+      </c>
+      <c r="K22">
         <v>0.8348733420306047</v>
       </c>
-      <c r="K22">
-        <v>0.63572312854952773</v>
-      </c>
       <c r="L22">
-        <v>0.60862361559595102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6357231285495277</v>
+      </c>
+      <c r="M22">
+        <v>0.608623615595951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>41517</v>
       </c>
       <c r="B23">
-        <v>0.31063000000000002</v>
+        <v>0.31063</v>
       </c>
       <c r="C23">
-        <v>110.96454545455001</v>
+        <v>110.96454545455</v>
       </c>
       <c r="D23">
         <v>11.64</v>
       </c>
       <c r="E23">
-        <v>1.7359094249000001E-3</v>
+        <v>0.0017359094249</v>
       </c>
       <c r="F23">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G23">
         <v>180.33</v>
@@ -1088,24 +1155,27 @@
         <v>19.75</v>
       </c>
       <c r="I23">
-        <v>5763.38508</v>
+        <v>2003</v>
       </c>
       <c r="J23">
-        <v>0.84059509857013159</v>
+        <v>0.4058843099211358</v>
       </c>
       <c r="K23">
-        <v>0.64674578818350414</v>
+        <v>0.8405950985701316</v>
       </c>
       <c r="L23">
-        <v>0.62136136805248643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6467457881835041</v>
+      </c>
+      <c r="M23">
+        <v>0.6213613680524864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>41547</v>
       </c>
       <c r="B24">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="C24">
         <v>111.62142857143</v>
@@ -1114,10 +1184,10 @@
         <v>11.25</v>
       </c>
       <c r="E24">
-        <v>5.6788070263200001E-3</v>
+        <v>0.00567880702632</v>
       </c>
       <c r="F24">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G24">
         <v>151.4</v>
@@ -1126,24 +1196,27 @@
         <v>20.39</v>
       </c>
       <c r="I24">
-        <v>8486.0198600000003</v>
+        <v>1504</v>
       </c>
       <c r="J24">
-        <v>0.84873590581494374</v>
+        <v>0.4117237310940446</v>
       </c>
       <c r="K24">
-        <v>0.64211406443382546</v>
+        <v>0.8487359058149437</v>
       </c>
       <c r="L24">
-        <v>0.62235739080899821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6421140644338255</v>
+      </c>
+      <c r="M24">
+        <v>0.6223573908089982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>41578</v>
       </c>
       <c r="B25">
-        <v>0.29687999999999998</v>
+        <v>0.29688</v>
       </c>
       <c r="C25">
         <v>109.47869565217</v>
@@ -1152,10 +1225,10 @@
         <v>11.37</v>
       </c>
       <c r="E25">
-        <v>4.0827212340900001E-3</v>
+        <v>0.00408272123409</v>
       </c>
       <c r="F25">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G25">
         <v>193.63</v>
@@ -1164,36 +1237,39 @@
         <v>20.69</v>
       </c>
       <c r="I25">
-        <v>7777.9842600000002</v>
+        <v>1821</v>
       </c>
       <c r="J25">
-        <v>0.82326389291311219</v>
+        <v>0.4124671284722797</v>
       </c>
       <c r="K25">
-        <v>0.63487390779778774</v>
+        <v>0.8232638929131122</v>
       </c>
       <c r="L25">
-        <v>0.60733724452088567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6348739077977877</v>
+      </c>
+      <c r="M25">
+        <v>0.6073372445208857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>41608</v>
       </c>
       <c r="B26">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="C26">
-        <v>108.07619047619001</v>
+        <v>108.07619047619</v>
       </c>
       <c r="D26">
         <v>11.42</v>
       </c>
       <c r="E26">
-        <v>3.9418862356099997E-3</v>
+        <v>0.00394188623561</v>
       </c>
       <c r="F26">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G26">
         <v>202.12</v>
@@ -1202,36 +1278,39 @@
         <v>20.9</v>
       </c>
       <c r="I26">
-        <v>7698.6939400000001</v>
+        <v>2277</v>
       </c>
       <c r="J26">
-        <v>0.81213556419363764</v>
+        <v>0.418826042110677</v>
       </c>
       <c r="K26">
-        <v>0.63066415974702328</v>
+        <v>0.8121355641936376</v>
       </c>
       <c r="L26">
+        <v>0.6306641597470233</v>
+      </c>
+      <c r="M26">
         <v>0.6009369425458041</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>41639</v>
       </c>
       <c r="B27">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="C27">
-        <v>110.67400000000001</v>
+        <v>110.674</v>
       </c>
       <c r="D27">
         <v>11.55</v>
       </c>
       <c r="E27">
-        <v>2.0349663595599999E-3</v>
+        <v>0.00203496635956</v>
       </c>
       <c r="F27">
-        <v>99.270072999999996</v>
+        <v>99.270073</v>
       </c>
       <c r="G27">
         <v>203.44</v>
@@ -1240,19 +1319,22 @@
         <v>21.3</v>
       </c>
       <c r="I27">
-        <v>7647.0912099999996</v>
+        <v>1110</v>
       </c>
       <c r="J27">
-        <v>0.80740583864191617</v>
+        <v>0.4171315477450044</v>
       </c>
       <c r="K27">
-        <v>0.61075230312391915</v>
+        <v>0.8074058386419162</v>
       </c>
       <c r="L27">
-        <v>0.58912537261990605</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6107523031239191</v>
+      </c>
+      <c r="M27">
+        <v>0.5891253726199061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>41670</v>
       </c>
@@ -1266,7 +1348,7 @@
         <v>11.59</v>
       </c>
       <c r="E28">
-        <v>7.2170962322399999E-3</v>
+        <v>0.00721709623224</v>
       </c>
       <c r="F28">
         <v>100</v>
@@ -1278,19 +1360,22 @@
         <v>21.29</v>
       </c>
       <c r="I28">
-        <v>6541.4985900000001</v>
+        <v>1258</v>
       </c>
       <c r="J28">
-        <v>0.77091814897397848</v>
+        <v>0.4150385260743131</v>
       </c>
       <c r="K28">
-        <v>0.60663730786678349</v>
+        <v>0.7709181489739785</v>
       </c>
       <c r="L28">
-        <v>0.60027755907205116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6066373078667835</v>
+      </c>
+      <c r="M28">
+        <v>0.6002775590720512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>41698</v>
       </c>
@@ -1304,7 +1389,7 @@
         <v>11.3</v>
       </c>
       <c r="E29">
-        <v>1.09903582645E-3</v>
+        <v>0.00109903582645</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -1316,24 +1401,27 @@
         <v>21.3</v>
       </c>
       <c r="I29">
-        <v>4942.1189299999996</v>
+        <v>1362</v>
       </c>
       <c r="J29">
-        <v>0.79256210896873691</v>
+        <v>0.4236299912409605</v>
       </c>
       <c r="K29">
-        <v>0.61395039098030391</v>
+        <v>0.7925621089687369</v>
       </c>
       <c r="L29">
-        <v>0.65973381115177243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6139503909803039</v>
+      </c>
+      <c r="M29">
+        <v>0.6597338111517724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>41729</v>
       </c>
       <c r="B30">
-        <v>0.32750000000000001</v>
+        <v>0.3275</v>
       </c>
       <c r="C30">
         <v>107.4</v>
@@ -1342,7 +1430,7 @@
         <v>10.88</v>
       </c>
       <c r="E30">
-        <v>6.9628209942300002E-3</v>
+        <v>0.00696282099423</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -1354,19 +1442,22 @@
         <v>21.3</v>
       </c>
       <c r="I30">
-        <v>5504.6713799999998</v>
+        <v>943</v>
       </c>
       <c r="J30">
-        <v>0.80686866545666336</v>
+        <v>0.4177867716223456</v>
       </c>
       <c r="K30">
-        <v>0.61809488172812965</v>
+        <v>0.8068686654566634</v>
       </c>
       <c r="L30">
-        <v>0.66514493330017443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6180948817281297</v>
+      </c>
+      <c r="M30">
+        <v>0.6651449333001744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>41759</v>
       </c>
@@ -1380,7 +1471,7 @@
         <v>10.73</v>
       </c>
       <c r="E31">
-        <v>2.9547590082000001E-3</v>
+        <v>0.0029547590082</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -1392,33 +1483,36 @@
         <v>21.02</v>
       </c>
       <c r="I31">
-        <v>5158.6184599999997</v>
+        <v>934</v>
       </c>
       <c r="J31">
-        <v>0.80209504615648552</v>
+        <v>0.4182133219109875</v>
       </c>
       <c r="K31">
-        <v>0.61574988247003193</v>
+        <v>0.8020950461564855</v>
       </c>
       <c r="L31">
-        <v>0.65039677493316583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6157498824700319</v>
+      </c>
+      <c r="M31">
+        <v>0.6503967749331658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>41790</v>
       </c>
       <c r="B32">
-        <v>0.26500000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="C32">
         <v>109.68</v>
       </c>
       <c r="D32">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E32">
-        <v>-4.1124006945E-4</v>
+        <v>-0.00041124006945</v>
       </c>
       <c r="F32">
         <v>100</v>
@@ -1430,24 +1524,27 @@
         <v>21.02</v>
       </c>
       <c r="I32">
-        <v>6216.4973799999998</v>
+        <v>850</v>
       </c>
       <c r="J32">
-        <v>0.78715713216564875</v>
+        <v>0.4129992138890161</v>
       </c>
       <c r="K32">
-        <v>0.60242131519132014</v>
+        <v>0.7871571321656488</v>
       </c>
       <c r="L32">
-        <v>0.63648124052343313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6024213151913201</v>
+      </c>
+      <c r="M32">
+        <v>0.6364812405234331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>41820</v>
       </c>
       <c r="B33">
-        <v>0.28875000000000001</v>
+        <v>0.28875</v>
       </c>
       <c r="C33">
         <v>111.87</v>
@@ -1456,7 +1553,7 @@
         <v>9.77</v>
       </c>
       <c r="E33">
-        <v>1.04061164432E-3</v>
+        <v>0.00104061164432</v>
       </c>
       <c r="F33">
         <v>100</v>
@@ -1468,24 +1565,27 @@
         <v>20.83</v>
       </c>
       <c r="I33">
-        <v>5132.1478909999996</v>
+        <v>755</v>
       </c>
       <c r="J33">
-        <v>0.76051841643110563</v>
+        <v>0.4152802924549676</v>
       </c>
       <c r="K33">
-        <v>0.58879448173763793</v>
+        <v>0.7605184164311056</v>
       </c>
       <c r="L33">
-        <v>0.61539448410186814</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5887944817376379</v>
+      </c>
+      <c r="M33">
+        <v>0.6153944841018681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>41851</v>
       </c>
       <c r="B34">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="C34">
         <v>106.98</v>
@@ -1494,7 +1594,7 @@
         <v>9.27</v>
       </c>
       <c r="E34">
-        <v>4.0336751087499999E-3</v>
+        <v>0.00403367510875</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -1503,36 +1603,39 @@
         <v>226.27</v>
       </c>
       <c r="H34">
-        <v>20.329999999999998</v>
+        <v>20.33</v>
       </c>
       <c r="I34">
-        <v>5886.1798909999998</v>
+        <v>1147</v>
       </c>
       <c r="J34">
-        <v>0.76381089289798221</v>
+        <v>0.4066837383073431</v>
       </c>
       <c r="K34">
-        <v>0.58661033125817041</v>
+        <v>0.7638108928979822</v>
       </c>
       <c r="L34">
-        <v>0.60191637448786006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5866103312581704</v>
+      </c>
+      <c r="M34">
+        <v>0.6019163744878601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>41882</v>
       </c>
       <c r="B35">
-        <v>0.31125000000000003</v>
+        <v>0.31125</v>
       </c>
       <c r="C35">
         <v>101.92</v>
       </c>
       <c r="D35">
-        <v>9.14</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E35">
-        <v>2.0942574304300002E-3</v>
+        <v>0.00209425743043</v>
       </c>
       <c r="F35">
         <v>100</v>
@@ -1541,22 +1644,25 @@
         <v>196.13</v>
       </c>
       <c r="H35">
-        <v>20.170000000000002</v>
+        <v>20.17</v>
       </c>
       <c r="I35">
-        <v>6830.3547799999997</v>
+        <v>1063</v>
       </c>
       <c r="J35">
+        <v>0.3920306726312142</v>
+      </c>
+      <c r="K35">
         <v>0.7447946316492472</v>
       </c>
-      <c r="K35">
-        <v>0.58294726060758417</v>
-      </c>
       <c r="L35">
-        <v>0.58097293899416402</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5829472606075842</v>
+      </c>
+      <c r="M35">
+        <v>0.580972938994164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>41912</v>
       </c>
@@ -1570,7 +1676,7 @@
         <v>9.24</v>
       </c>
       <c r="E36">
-        <v>6.12724231634E-3</v>
+        <v>0.00612724231634</v>
       </c>
       <c r="F36">
         <v>100</v>
@@ -1582,19 +1688,22 @@
         <v>20.5</v>
       </c>
       <c r="I36">
-        <v>6431.2703810000003</v>
+        <v>1428</v>
       </c>
       <c r="J36">
-        <v>0.73576202905061483</v>
+        <v>0.3861868317778936</v>
       </c>
       <c r="K36">
-        <v>0.58706168165969919</v>
+        <v>0.7357620290506148</v>
       </c>
       <c r="L36">
-        <v>0.57898741078226135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5870616816596992</v>
+      </c>
+      <c r="M36">
+        <v>0.5789874107822613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>41943</v>
       </c>
@@ -1608,7 +1717,7 @@
         <v>9.77</v>
       </c>
       <c r="E37">
-        <v>2.02797923177E-3</v>
+        <v>0.00202797923177</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -1620,19 +1729,22 @@
         <v>20.83</v>
       </c>
       <c r="I37">
-        <v>10221.54844</v>
+        <v>1153</v>
       </c>
       <c r="J37">
-        <v>0.72530865123396859</v>
+        <v>0.3724359129333883</v>
       </c>
       <c r="K37">
-        <v>0.57855859537707477</v>
+        <v>0.7253086512339686</v>
       </c>
       <c r="L37">
-        <v>0.56443200520055425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5785585953770748</v>
+      </c>
+      <c r="M37">
+        <v>0.5644320052005543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>41973</v>
       </c>
@@ -1646,7 +1758,7 @@
         <v>8.9</v>
       </c>
       <c r="E38">
-        <v>1.8123108289399999E-3</v>
+        <v>0.00181231082894</v>
       </c>
       <c r="F38">
         <v>100</v>
@@ -1658,24 +1770,27 @@
         <v>20.99</v>
       </c>
       <c r="I38">
-        <v>8013.3103600000004</v>
+        <v>782</v>
       </c>
       <c r="J38">
+        <v>0.362745204761725</v>
+      </c>
+      <c r="K38">
         <v>0.7343521954270652</v>
       </c>
-      <c r="K38">
-        <v>0.57595308358776731</v>
-      </c>
       <c r="L38">
-        <v>0.56578339293430102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5759530835877673</v>
+      </c>
+      <c r="M38">
+        <v>0.565783392934301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>42004</v>
       </c>
       <c r="B39">
-        <v>0.30813000000000001</v>
+        <v>0.30813</v>
       </c>
       <c r="C39">
         <v>62.33</v>
@@ -1684,7 +1799,7 @@
         <v>9.83</v>
       </c>
       <c r="E39">
-        <v>1.1475334598300001E-3</v>
+        <v>0.00114753345983</v>
       </c>
       <c r="F39">
         <v>100</v>
@@ -1696,24 +1811,27 @@
         <v>21.4</v>
       </c>
       <c r="I39">
-        <v>6036.3937900000001</v>
+        <v>608</v>
       </c>
       <c r="J39">
-        <v>0.74965806663793833</v>
+        <v>0.3510992060285357</v>
       </c>
       <c r="K39">
-        <v>0.57073800485923609</v>
+        <v>0.7496580666379383</v>
       </c>
       <c r="L39">
-        <v>0.56254037640265042</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5707380048592361</v>
+      </c>
+      <c r="M39">
+        <v>0.5625403764026504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
         <v>42035</v>
       </c>
       <c r="B40">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="C40">
         <v>48.07</v>
@@ -1722,10 +1840,10 @@
         <v>9.25</v>
       </c>
       <c r="E40">
-        <v>5.9036550082799998E-3</v>
+        <v>0.00590365500828</v>
       </c>
       <c r="F40">
-        <v>98.026288413870546</v>
+        <v>98.02628841387055</v>
       </c>
       <c r="G40">
         <v>304.83</v>
@@ -1734,24 +1852,27 @@
         <v>21.08</v>
       </c>
       <c r="I40">
-        <v>4617.6766699999998</v>
+        <v>540</v>
       </c>
       <c r="J40">
+        <v>0.3633513553533081</v>
+      </c>
+      <c r="K40">
         <v>0.7511502344638139</v>
       </c>
-      <c r="K40">
-        <v>0.56842585190039707</v>
-      </c>
       <c r="L40">
-        <v>0.55381090024799096</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5684258519003971</v>
+      </c>
+      <c r="M40">
+        <v>0.553810900247991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
         <v>42063</v>
       </c>
       <c r="B41">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="C41">
         <v>57.93</v>
@@ -1760,10 +1881,10 @@
         <v>8.27</v>
       </c>
       <c r="E41">
-        <v>6.1239065780299999E-3</v>
+        <v>0.00612390657803</v>
       </c>
       <c r="F41">
-        <v>98.126057012092545</v>
+        <v>98.12605701209255</v>
       </c>
       <c r="G41">
         <v>251.57</v>
@@ -1772,24 +1893,27 @@
         <v>21.61</v>
       </c>
       <c r="I41">
-        <v>4321.8477499999999</v>
+        <v>602</v>
       </c>
       <c r="J41">
-        <v>0.76012295960155696</v>
+        <v>0.3619573622046161</v>
       </c>
       <c r="K41">
-        <v>0.56970138283986249</v>
+        <v>0.760122959601557</v>
       </c>
       <c r="L41">
-        <v>0.54853667947996476</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5697013828398625</v>
+      </c>
+      <c r="M41">
+        <v>0.5485366794799648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
         <v>42094</v>
       </c>
       <c r="B42">
-        <v>0.29549999999999998</v>
+        <v>0.2955</v>
       </c>
       <c r="C42">
         <v>55.79</v>
@@ -1798,10 +1922,10 @@
         <v>8.27</v>
       </c>
       <c r="E42">
-        <v>4.1418586787200003E-3</v>
+        <v>0.00414185867872</v>
       </c>
       <c r="F42">
-        <v>98.083821339295199</v>
+        <v>98.0838213392952</v>
       </c>
       <c r="G42">
         <v>400.65</v>
@@ -1810,19 +1934,22 @@
         <v>21.56</v>
       </c>
       <c r="I42">
-        <v>3843.44886</v>
+        <v>591</v>
       </c>
       <c r="J42">
-        <v>0.75107924307032081</v>
+        <v>0.3631586862825686</v>
       </c>
       <c r="K42">
-        <v>0.57361459985863517</v>
+        <v>0.7510792430703208</v>
       </c>
       <c r="L42">
-        <v>0.53356597210722057</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5736145998586352</v>
+      </c>
+      <c r="M42">
+        <v>0.5335659721072206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
         <v>42124</v>
       </c>
@@ -1833,13 +1960,13 @@
         <v>59.39</v>
       </c>
       <c r="D43">
-        <v>6.7744456667500002</v>
+        <v>6.77444566675</v>
       </c>
       <c r="E43">
-        <v>8.37239522369E-3</v>
+        <v>0.00837239522369</v>
       </c>
       <c r="F43">
-        <v>98.083821339295113</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G43">
         <v>386.07</v>
@@ -1848,36 +1975,39 @@
         <v>21.67</v>
       </c>
       <c r="I43">
-        <v>4023.4834300000002</v>
+        <v>589</v>
       </c>
       <c r="J43">
-        <v>0.75044412892416357</v>
+        <v>0.3735984231823404</v>
       </c>
       <c r="K43">
-        <v>0.56939629563779182</v>
+        <v>0.7504441289241636</v>
       </c>
       <c r="L43">
-        <v>0.53234319248681294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5693962956377918</v>
+      </c>
+      <c r="M43">
+        <v>0.5323431924868129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
         <v>42155</v>
       </c>
       <c r="B44">
-        <v>0.26500000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="C44">
         <v>64.56</v>
       </c>
       <c r="D44">
-        <v>6.6839973110799997</v>
+        <v>6.68399731108</v>
       </c>
       <c r="E44">
-        <v>1.7702760780200001E-3</v>
+        <v>0.00177027607802</v>
       </c>
       <c r="F44">
-        <v>98.083821339295113</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G44">
         <v>352.84</v>
@@ -1886,36 +2016,39 @@
         <v>21.62</v>
       </c>
       <c r="I44">
-        <v>3929.4717900000001</v>
+        <v>800</v>
       </c>
       <c r="J44">
-        <v>0.73746477346117134</v>
+        <v>0.371643349262247</v>
       </c>
       <c r="K44">
-        <v>0.56173021909319032</v>
+        <v>0.7374647734611713</v>
       </c>
       <c r="L44">
-        <v>0.52057631524491266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5617302190931903</v>
+      </c>
+      <c r="M44">
+        <v>0.5205763152449127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>42185</v>
       </c>
       <c r="B45">
-        <v>0.28875000000000001</v>
+        <v>0.28875</v>
       </c>
       <c r="C45">
         <v>62.34</v>
       </c>
       <c r="D45">
-        <v>6.6667259295400001</v>
+        <v>6.66672592954</v>
       </c>
       <c r="E45">
-        <v>4.0754897997899997E-3</v>
+        <v>0.00407548979979</v>
       </c>
       <c r="F45">
-        <v>98.083821339295113</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G45">
         <v>278.02</v>
@@ -1924,19 +2057,22 @@
         <v>21.11</v>
       </c>
       <c r="I45">
-        <v>5889.86492</v>
+        <v>1131</v>
       </c>
       <c r="J45">
-        <v>0.73624710334476351</v>
+        <v>0.3806598010628011</v>
       </c>
       <c r="K45">
+        <v>0.7362471033447635</v>
+      </c>
+      <c r="L45">
         <v>0.5489128209475207</v>
       </c>
-      <c r="L45">
-        <v>0.51890612035646011</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>0.5189061203564601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
         <v>42216</v>
       </c>
@@ -1947,39 +2083,42 @@
         <v>55.87</v>
       </c>
       <c r="D46">
-        <v>6.6940371346500003</v>
+        <v>6.69403713465</v>
       </c>
       <c r="E46">
-        <v>-7.9501885286999998E-4</v>
+        <v>-0.00079501885287</v>
       </c>
       <c r="F46">
-        <v>98.083821339295113</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G46">
-        <v>273.58999999999997</v>
+        <v>273.59</v>
       </c>
       <c r="H46">
         <v>20.96</v>
       </c>
       <c r="I46">
-        <v>4836.2307600000004</v>
+        <v>903</v>
       </c>
       <c r="J46">
-        <v>0.73604096384127882</v>
+        <v>0.3759760596801022</v>
       </c>
       <c r="K46">
+        <v>0.7360409638412788</v>
+      </c>
+      <c r="L46">
         <v>0.5437687296742808</v>
       </c>
-      <c r="L46">
-        <v>0.51445466141524387</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>0.5144546614152439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
         <v>42247</v>
       </c>
       <c r="B47">
-        <v>0.27462999999999999</v>
+        <v>0.27463</v>
       </c>
       <c r="C47">
         <v>46.99</v>
@@ -1988,10 +2127,10 @@
         <v>6.34573758328</v>
       </c>
       <c r="E47">
-        <v>-1.30889878E-5</v>
+        <v>-1.30889878E-05</v>
       </c>
       <c r="F47">
-        <v>98.083821339295113</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="G47">
         <v>165.8</v>
@@ -2000,36 +2139,39 @@
         <v>21</v>
       </c>
       <c r="I47">
-        <v>3861.52729</v>
+        <v>900</v>
       </c>
       <c r="J47">
-        <v>0.73327838865864992</v>
+        <v>0.380137587460814</v>
       </c>
       <c r="K47">
+        <v>0.7332783886586499</v>
+      </c>
+      <c r="L47">
         <v>0.5439808398904451</v>
       </c>
-      <c r="L47">
-        <v>0.50248835159622263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>0.5024883515962226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>42277</v>
       </c>
       <c r="B48">
-        <v>0.27938000000000002</v>
+        <v>0.27938</v>
       </c>
       <c r="C48">
         <v>47.24</v>
       </c>
       <c r="D48">
-        <v>6.2786986603399999</v>
+        <v>6.27869866034</v>
       </c>
       <c r="E48">
-        <v>2.6442674974599999E-3</v>
+        <v>0.00264426749746</v>
       </c>
       <c r="F48">
-        <v>98.026288413870887</v>
+        <v>98.02628841387089</v>
       </c>
       <c r="G48">
         <v>141.76</v>
@@ -2038,36 +2180,39 @@
         <v>21.73</v>
       </c>
       <c r="I48">
-        <v>4523.9603299999999</v>
+        <v>721</v>
       </c>
       <c r="J48">
-        <v>0.73166567521192094</v>
+        <v>0.38712188555477</v>
       </c>
       <c r="K48">
-        <v>0.53892589025952031</v>
+        <v>0.7316656752119209</v>
       </c>
       <c r="L48">
-        <v>0.50108278136508577</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5389258902595203</v>
+      </c>
+      <c r="M48">
+        <v>0.5010827813650858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>42308</v>
       </c>
       <c r="B49">
-        <v>0.25063000000000002</v>
+        <v>0.25063</v>
       </c>
       <c r="C49">
         <v>48.12</v>
       </c>
       <c r="D49">
-        <v>6.0269578205999998</v>
+        <v>6.0269578206</v>
       </c>
       <c r="E49">
-        <v>-9.0481618758000005E-4</v>
+        <v>-0.0009048161875800001</v>
       </c>
       <c r="F49">
-        <v>98.028294836196878</v>
+        <v>98.02829483619688</v>
       </c>
       <c r="G49">
         <v>252.51</v>
@@ -2076,62 +2221,68 @@
         <v>21.68</v>
       </c>
       <c r="I49">
-        <v>5986.0326100000002</v>
+        <v>584</v>
       </c>
       <c r="J49">
-        <v>0.72481728060037254</v>
+        <v>0.390999486008941</v>
       </c>
       <c r="K49">
-        <v>0.52399909203890649</v>
+        <v>0.7248172806003725</v>
       </c>
       <c r="L49">
-        <v>0.49396337014429981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5239990920389065</v>
+      </c>
+      <c r="M49">
+        <v>0.4939633701442998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
         <v>42338</v>
       </c>
       <c r="B50">
-        <v>0.26362999999999998</v>
+        <v>0.26363</v>
       </c>
       <c r="C50">
         <v>44.42</v>
       </c>
       <c r="D50">
-        <v>5.5008338512300003</v>
+        <v>5.50083385123</v>
       </c>
       <c r="E50">
-        <v>1.0740930020600001E-3</v>
+        <v>0.00107409300206</v>
       </c>
       <c r="F50">
-        <v>98.028294836196878</v>
+        <v>98.02829483619688</v>
       </c>
       <c r="G50">
-        <v>265.22000000000003</v>
+        <v>265.22</v>
       </c>
       <c r="H50">
         <v>21.77</v>
       </c>
       <c r="I50">
-        <v>5198.8589199999997</v>
+        <v>478</v>
       </c>
       <c r="J50">
-        <v>0.72791912051053353</v>
+        <v>0.3913746865263442</v>
       </c>
       <c r="K50">
-        <v>0.51347233751528687</v>
+        <v>0.7279191205105335</v>
       </c>
       <c r="L50">
-        <v>0.48625581350976349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5134723375152869</v>
+      </c>
+      <c r="M50">
+        <v>0.4862558135097635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
         <v>42369</v>
       </c>
       <c r="B51">
-        <v>0.26400000000000001</v>
+        <v>0.264</v>
       </c>
       <c r="C51">
         <v>37.72</v>
@@ -2140,31 +2291,34 @@
         <v>5.09276298262</v>
       </c>
       <c r="E51">
-        <v>9.4405261525999998E-4</v>
+        <v>0.00094405261526</v>
       </c>
       <c r="F51">
-        <v>98.085827761621118</v>
+        <v>98.08582776162112</v>
       </c>
       <c r="G51">
-        <v>314.72000000000003</v>
+        <v>314.72</v>
       </c>
       <c r="H51">
         <v>22.07</v>
       </c>
       <c r="I51">
-        <v>4485.2245199999998</v>
+        <v>317</v>
       </c>
       <c r="J51">
-        <v>0.73689038299034326</v>
+        <v>0.3926346665409587</v>
       </c>
       <c r="K51">
-        <v>0.57899854273378926</v>
+        <v>0.7368903829903433</v>
       </c>
       <c r="L51">
-        <v>0.56956723431947653</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5789985427337893</v>
+      </c>
+      <c r="M51">
+        <v>0.5695672343194765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
         <v>42400</v>
       </c>
@@ -2175,34 +2329,37 @@
         <v>30.8</v>
       </c>
       <c r="D52">
-        <v>4.3981862754099996</v>
+        <v>4.39818627541</v>
       </c>
       <c r="E52">
-        <v>3.0815679344400001E-3</v>
+        <v>0.00308156793444</v>
       </c>
       <c r="F52">
         <v>98.08582776162126</v>
       </c>
       <c r="G52">
-        <v>298.85000000000002</v>
+        <v>298.85</v>
       </c>
       <c r="H52">
         <v>22.72</v>
       </c>
       <c r="I52">
-        <v>3861.5843100000002</v>
+        <v>329</v>
       </c>
       <c r="J52">
-        <v>0.70829510472003321</v>
+        <v>0.394715478699426</v>
       </c>
       <c r="K52">
-        <v>0.52035543962008002</v>
+        <v>0.7082951047200332</v>
       </c>
       <c r="L52">
-        <v>0.48201687886296468</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52035543962008</v>
+      </c>
+      <c r="M52">
+        <v>0.4820168788629647</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
         <v>42429</v>
       </c>
@@ -2210,13 +2367,13 @@
         <v>0.19188</v>
       </c>
       <c r="C53">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="D53">
-        <v>3.9683785892799999</v>
+        <v>3.96837858928</v>
       </c>
       <c r="E53">
-        <v>1.3804362484099999E-3</v>
+        <v>0.00138043624841</v>
       </c>
       <c r="F53">
         <v>98.08582776162126</v>
@@ -2228,33 +2385,36 @@
         <v>22.26</v>
       </c>
       <c r="I53">
-        <v>4516.1662299999998</v>
+        <v>429</v>
       </c>
       <c r="J53">
-        <v>0.71318377264491328</v>
+        <v>0.3936626755262751</v>
       </c>
       <c r="K53">
-        <v>0.50661793829488999</v>
+        <v>0.7131837726449133</v>
       </c>
       <c r="L53">
-        <v>0.47525416782522989</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.50661793829489</v>
+      </c>
+      <c r="M53">
+        <v>0.4752541678252299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
         <v>42460</v>
       </c>
       <c r="B54">
-        <v>0.20175000000000001</v>
+        <v>0.20175</v>
       </c>
       <c r="C54">
         <v>39.07</v>
       </c>
       <c r="D54">
-        <v>3.9101802431000001</v>
+        <v>3.9101802431</v>
       </c>
       <c r="E54">
-        <v>1.37015609557E-3</v>
+        <v>0.00137015609557</v>
       </c>
       <c r="F54">
         <v>98.08582776162126</v>
@@ -2266,33 +2426,36 @@
         <v>22.41</v>
       </c>
       <c r="I54">
-        <v>4322.9841200000001</v>
+        <v>703</v>
       </c>
       <c r="J54">
-        <v>0.71225454843958491</v>
+        <v>0.3987260088157574</v>
       </c>
       <c r="K54">
-        <v>0.50975524126843963</v>
+        <v>0.7122545484395849</v>
       </c>
       <c r="L54">
-        <v>0.47949198715618219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5097552412684396</v>
+      </c>
+      <c r="M54">
+        <v>0.4794919871561822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
         <v>42490</v>
       </c>
       <c r="B55">
-        <v>0.19625000000000001</v>
+        <v>0.19625</v>
       </c>
       <c r="C55">
         <v>42.25</v>
       </c>
       <c r="D55">
-        <v>3.9700750897899999</v>
+        <v>3.97007508979</v>
       </c>
       <c r="E55">
-        <v>3.0657601860400001E-3</v>
+        <v>0.00306576018604</v>
       </c>
       <c r="F55">
         <v>98.08582776162126</v>
@@ -2304,19 +2467,22 @@
         <v>22.18</v>
       </c>
       <c r="I55">
-        <v>3340.2696599999999</v>
+        <v>612</v>
       </c>
       <c r="J55">
-        <v>0.70524149096460997</v>
+        <v>0.4022115066583381</v>
       </c>
       <c r="K55">
-        <v>0.52649007672462278</v>
+        <v>0.70524149096461</v>
       </c>
       <c r="L55">
-        <v>0.47080831913608961</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5264900767246228</v>
+      </c>
+      <c r="M55">
+        <v>0.4708083191360896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
         <v>42521</v>
       </c>
@@ -2327,10 +2493,10 @@
         <v>47.13</v>
       </c>
       <c r="D56">
-        <v>4.3291918650600003</v>
+        <v>4.32919186506</v>
       </c>
       <c r="E56">
-        <v>3.1799530950000002E-4</v>
+        <v>0.0003179953095</v>
       </c>
       <c r="F56">
         <v>98.08582776162126</v>
@@ -2342,36 +2508,39 @@
         <v>21.89</v>
       </c>
       <c r="I56">
-        <v>4416.7199890000002</v>
+        <v>660</v>
       </c>
       <c r="J56">
-        <v>0.68018713394785513</v>
+        <v>0.4096727873360953</v>
       </c>
       <c r="K56">
-        <v>0.49192996613322831</v>
+        <v>0.6801871339478551</v>
       </c>
       <c r="L56">
-        <v>0.45076678767786887</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4919299661332283</v>
+      </c>
+      <c r="M56">
+        <v>0.4507667876778689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
         <v>42551</v>
       </c>
       <c r="B57">
-        <v>0.14263000000000001</v>
+        <v>0.14263</v>
       </c>
       <c r="C57">
         <v>48.48</v>
       </c>
       <c r="D57">
-        <v>4.7557204668899997</v>
+        <v>4.75572046689</v>
       </c>
       <c r="E57">
-        <v>3.5885719334599999E-3</v>
+        <v>0.00358857193346</v>
       </c>
       <c r="F57">
-        <v>97.841300786422082</v>
+        <v>97.84130078642208</v>
       </c>
       <c r="G57">
         <v>246.5</v>
@@ -2380,36 +2549,39 @@
         <v>20.74</v>
       </c>
       <c r="I57">
-        <v>5524.2231499999998</v>
+        <v>656</v>
       </c>
       <c r="J57">
-        <v>0.67745099401137676</v>
+        <v>0.4100854917662889</v>
       </c>
       <c r="K57">
-        <v>0.48278208352351659</v>
+        <v>0.6774509940113768</v>
       </c>
       <c r="L57">
-        <v>0.43596241581699768</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4827820835235166</v>
+      </c>
+      <c r="M57">
+        <v>0.4359624158169977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
         <v>42582</v>
       </c>
       <c r="B58">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="C58">
         <v>45.07</v>
       </c>
       <c r="D58">
-        <v>4.6747376913499998</v>
+        <v>4.67473769135</v>
       </c>
       <c r="E58">
-        <v>-8.5202382591000004E-4</v>
+        <v>-0.00085202382591</v>
       </c>
       <c r="F58">
-        <v>97.912088191771559</v>
+        <v>97.91208819177156</v>
       </c>
       <c r="G58">
         <v>181.77</v>
@@ -2418,19 +2590,22 @@
         <v>20.37</v>
       </c>
       <c r="I58">
-        <v>5132.9409800000003</v>
+        <v>711</v>
       </c>
       <c r="J58">
-        <v>0.67394890533351004</v>
+        <v>0.3989305479935704</v>
       </c>
       <c r="K58">
-        <v>0.47494013603837559</v>
+        <v>0.67394890533351</v>
       </c>
       <c r="L58">
-        <v>0.43246445299964131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4749401360383756</v>
+      </c>
+      <c r="M58">
+        <v>0.4324644529996413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
         <v>42613</v>
       </c>
@@ -2441,13 +2616,13 @@
         <v>46.14</v>
       </c>
       <c r="D59">
-        <v>4.0474899302000003</v>
+        <v>4.0474899302</v>
       </c>
       <c r="E59">
-        <v>-1.6301709465600001E-3</v>
+        <v>-0.00163017094656</v>
       </c>
       <c r="F59">
-        <v>97.912088191771517</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G59">
         <v>134.29</v>
@@ -2456,36 +2631,39 @@
         <v>20.83</v>
       </c>
       <c r="I59">
-        <v>4812.3723399999999</v>
+        <v>875</v>
       </c>
       <c r="J59">
-        <v>0.65179681401884682</v>
+        <v>0.4010237827584965</v>
       </c>
       <c r="K59">
-        <v>0.46597170304901731</v>
+        <v>0.6517968140188468</v>
       </c>
       <c r="L59">
-        <v>0.41483351529703277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4659717030490173</v>
+      </c>
+      <c r="M59">
+        <v>0.4148335152970328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
         <v>42643</v>
       </c>
       <c r="B60">
-        <v>0.18729999999999999</v>
+        <v>0.1873</v>
       </c>
       <c r="C60">
         <v>46.19</v>
       </c>
       <c r="D60">
-        <v>4.2536141699499996</v>
+        <v>4.25361416995</v>
       </c>
       <c r="E60">
-        <v>1.52368939712E-3</v>
+        <v>0.00152368939712</v>
       </c>
       <c r="F60">
-        <v>97.912088191771517</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G60">
         <v>200.68</v>
@@ -2494,19 +2672,22 @@
         <v>20.83</v>
       </c>
       <c r="I60">
-        <v>5963.7600300000004</v>
+        <v>857</v>
       </c>
       <c r="J60">
-        <v>0.65810806431259605</v>
+        <v>0.3942835232948146</v>
       </c>
       <c r="K60">
-        <v>0.46225941577914442</v>
+        <v>0.6581080643125961</v>
       </c>
       <c r="L60">
-        <v>0.40496468736648672</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4622594157791444</v>
+      </c>
+      <c r="M60">
+        <v>0.4049646873664867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
         <v>42674</v>
       </c>
@@ -2517,13 +2698,13 @@
         <v>49.73</v>
       </c>
       <c r="D61">
-        <v>5.3368188834500003</v>
+        <v>5.33681888345</v>
       </c>
       <c r="E61">
-        <v>-8.2248029822000002E-4</v>
+        <v>-0.00082248029822</v>
       </c>
       <c r="F61">
-        <v>97.912088191771517</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G61">
         <v>202.9</v>
@@ -2532,36 +2713,39 @@
         <v>21.13</v>
       </c>
       <c r="I61">
-        <v>5529.3990299999996</v>
+        <v>1204</v>
       </c>
       <c r="J61">
-        <v>0.63299623945153871</v>
+        <v>0.3888616002696634</v>
       </c>
       <c r="K61">
-        <v>0.45696071538111388</v>
+        <v>0.6329962394515387</v>
       </c>
       <c r="L61">
-        <v>0.40175266140007249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4569607153811139</v>
+      </c>
+      <c r="M61">
+        <v>0.4017526614000725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2">
         <v>42704</v>
       </c>
       <c r="B62">
-        <v>0.20499999999999999</v>
+        <v>0.205</v>
       </c>
       <c r="C62">
         <v>46.44</v>
       </c>
       <c r="D62">
-        <v>5.6931795011500004</v>
+        <v>5.69317950115</v>
       </c>
       <c r="E62">
-        <v>-1.45242116852E-3</v>
+        <v>-0.00145242116852</v>
       </c>
       <c r="F62">
-        <v>97.912088191771517</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G62">
         <v>179.69</v>
@@ -2570,19 +2754,22 @@
         <v>21.31</v>
       </c>
       <c r="I62">
-        <v>5152.6429699999999</v>
+        <v>961</v>
       </c>
       <c r="J62">
-        <v>0.64494089106228403</v>
+        <v>0.3884322882259986</v>
       </c>
       <c r="K62">
-        <v>0.45013254917535461</v>
+        <v>0.644940891062284</v>
       </c>
       <c r="L62">
-        <v>0.39244273792206691</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4501325491753546</v>
+      </c>
+      <c r="M62">
+        <v>0.3924427379220669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2">
         <v>42735</v>
       </c>
@@ -2593,13 +2780,13 @@
         <v>54.07</v>
       </c>
       <c r="D63">
-        <v>5.4235014224000002</v>
+        <v>5.4235014224</v>
       </c>
       <c r="E63">
-        <v>1.58789945524E-3</v>
+        <v>0.00158789945524</v>
       </c>
       <c r="F63">
-        <v>97.912088191771517</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G63">
         <v>270.98</v>
@@ -2608,36 +2795,39 @@
         <v>21.38</v>
       </c>
       <c r="I63">
-        <v>4194.6999800000003</v>
+        <v>800</v>
       </c>
       <c r="J63">
-        <v>0.61339373726618607</v>
+        <v>0.3852569322608603</v>
       </c>
       <c r="K63">
-        <v>0.43811125281386493</v>
+        <v>0.6133937372661861</v>
       </c>
       <c r="L63">
-        <v>0.38522407183030077</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4381112528138649</v>
+      </c>
+      <c r="M63">
+        <v>0.3852240718303008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2">
         <v>42766</v>
       </c>
       <c r="B64">
-        <v>0.23375000000000001</v>
+        <v>0.23375</v>
       </c>
       <c r="C64">
         <v>54.89</v>
       </c>
       <c r="D64">
-        <v>6.1443492547999998</v>
+        <v>6.1443492548</v>
       </c>
       <c r="E64">
-        <v>8.7802460833000002E-4</v>
+        <v>0.00087802460833</v>
       </c>
       <c r="F64">
-        <v>97.912088191771517</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G64">
         <v>401.06</v>
@@ -2646,19 +2836,22 @@
         <v>21.31</v>
       </c>
       <c r="I64">
-        <v>3306.6732000000002</v>
+        <v>859</v>
       </c>
       <c r="J64">
-        <v>0.61196539135135974</v>
+        <v>0.3896085848709588</v>
       </c>
       <c r="K64">
-        <v>0.41897128646046389</v>
+        <v>0.6119653913513597</v>
       </c>
       <c r="L64">
-        <v>0.37578162242996832</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4189712864604639</v>
+      </c>
+      <c r="M64">
+        <v>0.3757816224299683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2">
         <v>42794</v>
       </c>
@@ -2672,10 +2865,10 @@
         <v>6.0515836448</v>
       </c>
       <c r="E65">
-        <v>1.9823974205599999E-3</v>
+        <v>0.00198239742056</v>
       </c>
       <c r="F65">
-        <v>97.912088191771517</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G65">
         <v>374.02</v>
@@ -2684,19 +2877,22 @@
         <v>21.73</v>
       </c>
       <c r="I65">
-        <v>4438.7509700000001</v>
+        <v>1297</v>
       </c>
       <c r="J65">
-        <v>0.60941234049247961</v>
+        <v>0.3886822412953408</v>
       </c>
       <c r="K65">
-        <v>0.41948694500394818</v>
+        <v>0.6094123404924796</v>
       </c>
       <c r="L65">
-        <v>0.38017769751831909</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4194869450039482</v>
+      </c>
+      <c r="M65">
+        <v>0.3801776975183191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2">
         <v>42825</v>
       </c>
@@ -2707,13 +2903,13 @@
         <v>51.97</v>
       </c>
       <c r="D66">
-        <v>5.0009450765399999</v>
+        <v>5.00094507654</v>
       </c>
       <c r="E66">
-        <v>1.37693262354E-3</v>
+        <v>0.00137693262354</v>
       </c>
       <c r="F66">
-        <v>97.912088191771517</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="G66">
         <v>506.02</v>
@@ -2722,24 +2918,27 @@
         <v>21.62</v>
       </c>
       <c r="I66">
-        <v>3927.4972299999999</v>
+        <v>1109</v>
       </c>
       <c r="J66">
-        <v>0.59069951768489992</v>
+        <v>0.395023196674302</v>
       </c>
       <c r="K66">
-        <v>0.40952392046961078</v>
+        <v>0.5906995176848999</v>
       </c>
       <c r="L66">
-        <v>0.37968297114614352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4095239204696108</v>
+      </c>
+      <c r="M66">
+        <v>0.3796829711461435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2">
         <v>42855</v>
       </c>
       <c r="B67">
-        <v>0.20788000000000001</v>
+        <v>0.20788</v>
       </c>
       <c r="C67">
         <v>52.98</v>
@@ -2748,10 +2947,10 @@
         <v>5.0109139183</v>
       </c>
       <c r="E67">
-        <v>4.3484201541499996E-3</v>
+        <v>0.00434842015415</v>
       </c>
       <c r="F67">
-        <v>97.954242327913079</v>
+        <v>97.95424232791308</v>
       </c>
       <c r="G67">
         <v>415.07</v>
@@ -2760,57 +2959,63 @@
         <v>21.76</v>
       </c>
       <c r="I67">
-        <v>2953.88078</v>
+        <v>878</v>
       </c>
       <c r="J67">
-        <v>0.58687206390496383</v>
+        <v>0.4017131293788604</v>
       </c>
       <c r="K67">
-        <v>0.40518017561754099</v>
+        <v>0.5868720639049638</v>
       </c>
       <c r="L67">
-        <v>0.38537090196966112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.405180175617541</v>
+      </c>
+      <c r="M67">
+        <v>0.3853709019696611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2">
         <v>42886</v>
       </c>
       <c r="B68">
-        <v>0.17874999999999999</v>
+        <v>0.17875</v>
       </c>
       <c r="C68">
         <v>50.87</v>
       </c>
       <c r="D68">
-        <v>5.0584359784700004</v>
+        <v>5.05843597847</v>
       </c>
       <c r="E68">
-        <v>4.5645566957999999E-4</v>
+        <v>0.00045645566958</v>
       </c>
       <c r="F68">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G68">
-        <v>322.60000000000002</v>
+        <v>322.6</v>
       </c>
       <c r="H68">
         <v>21.63</v>
       </c>
       <c r="I68">
-        <v>3640.8255100000001</v>
+        <v>901</v>
       </c>
       <c r="J68">
+        <v>0.4084150849026822</v>
+      </c>
+      <c r="K68">
         <v>0.573869282856736</v>
       </c>
-      <c r="K68">
-        <v>0.40156992458259849</v>
-      </c>
       <c r="L68">
-        <v>0.37941849217213919</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4015699245825985</v>
+      </c>
+      <c r="M68">
+        <v>0.3794184921721392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2">
         <v>42916</v>
       </c>
@@ -2821,13 +3026,13 @@
         <v>46.89</v>
       </c>
       <c r="D69">
-        <v>4.8867667856299999</v>
+        <v>4.88676678563</v>
       </c>
       <c r="E69">
-        <v>-5.7690224811299999E-3</v>
+        <v>-0.00576902248113</v>
       </c>
       <c r="F69">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G69">
         <v>320.13</v>
@@ -2836,36 +3041,39 @@
         <v>20.94</v>
       </c>
       <c r="I69">
-        <v>3736.7231200000001</v>
+        <v>946</v>
       </c>
       <c r="J69">
-        <v>0.57121487565941642</v>
+        <v>0.408486286366037</v>
       </c>
       <c r="K69">
-        <v>0.40347769794183569</v>
+        <v>0.5712148756594164</v>
       </c>
       <c r="L69">
-        <v>0.37747346375339208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4034776979418357</v>
+      </c>
+      <c r="M69">
+        <v>0.3774734637533921</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2">
         <v>42947</v>
       </c>
       <c r="B70">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="C70">
         <v>48.69</v>
       </c>
       <c r="D70">
-        <v>5.0039208322600004</v>
+        <v>5.00392083226</v>
       </c>
       <c r="E70">
-        <v>-1.4056491080699999E-3</v>
+        <v>-0.00140564910807</v>
       </c>
       <c r="F70">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G70">
         <v>217.77</v>
@@ -2874,19 +3082,22 @@
         <v>20</v>
       </c>
       <c r="I70">
-        <v>3428.8106299999999</v>
+        <v>1184</v>
       </c>
       <c r="J70">
-        <v>0.57180610656739406</v>
+        <v>0.4065801691005467</v>
       </c>
       <c r="K70">
-        <v>0.40393665663474809</v>
+        <v>0.5718061065673941</v>
       </c>
       <c r="L70">
-        <v>0.37238304601320871</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4039366566347481</v>
+      </c>
+      <c r="M70">
+        <v>0.3723830460132087</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2">
         <v>42978</v>
       </c>
@@ -2897,13 +3108,13 @@
         <v>51.37</v>
       </c>
       <c r="D71">
-        <v>5.4766011818699996</v>
+        <v>5.47660118187</v>
       </c>
       <c r="E71">
-        <v>1.1880160151E-4</v>
+        <v>0.00011880160151</v>
       </c>
       <c r="F71">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G71">
         <v>173.8</v>
@@ -2912,19 +3123,22 @@
         <v>20.64</v>
       </c>
       <c r="I71">
-        <v>3790.1565700000001</v>
+        <v>1356</v>
       </c>
       <c r="J71">
-        <v>0.56708397009042211</v>
+        <v>0.4008384160326589</v>
       </c>
       <c r="K71">
-        <v>0.40004454580043292</v>
+        <v>0.5670839700904221</v>
       </c>
       <c r="L71">
-        <v>0.37621839088620279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4000445458004329</v>
+      </c>
+      <c r="M71">
+        <v>0.3762183908862028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
         <v>43008</v>
       </c>
@@ -2935,13 +3149,13 @@
         <v>55.16</v>
       </c>
       <c r="D72">
-        <v>5.9611499719900003</v>
+        <v>5.96114997199</v>
       </c>
       <c r="E72">
-        <v>-1.53016125844E-3</v>
+        <v>-0.00153016125844</v>
       </c>
       <c r="F72">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G72">
         <v>195.94</v>
@@ -2950,19 +3164,22 @@
         <v>20.83</v>
       </c>
       <c r="I72">
-        <v>5170.1621100000002</v>
+        <v>1522</v>
       </c>
       <c r="J72">
-        <v>0.56103078419977903</v>
+        <v>0.3977211777410029</v>
       </c>
       <c r="K72">
+        <v>0.561030784199779</v>
+      </c>
+      <c r="L72">
         <v>0.4021054445406691</v>
       </c>
-      <c r="L72">
-        <v>0.37283492696238901</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>0.372834926962389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
         <v>43039</v>
       </c>
@@ -2976,10 +3193,10 @@
         <v>6.17632034854</v>
       </c>
       <c r="E73">
-        <v>-1.4450103701599999E-3</v>
+        <v>-0.00144501037016</v>
       </c>
       <c r="F73">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G73">
         <v>238.19</v>
@@ -2988,36 +3205,39 @@
         <v>20.9</v>
       </c>
       <c r="I73">
-        <v>4862.8243499999999</v>
+        <v>1578</v>
       </c>
       <c r="J73">
+        <v>0.4012334394982691</v>
+      </c>
+      <c r="K73">
         <v>0.5626949628126553</v>
       </c>
-      <c r="K73">
-        <v>0.39952775533793089</v>
-      </c>
       <c r="L73">
-        <v>0.38071042656488929</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.3995277553379309</v>
+      </c>
+      <c r="M73">
+        <v>0.3807104265648893</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2">
         <v>43069</v>
       </c>
       <c r="B74">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="C74">
         <v>62.57</v>
       </c>
       <c r="D74">
-        <v>6.6945990398199999</v>
+        <v>6.69459903982</v>
       </c>
       <c r="E74">
-        <v>-2.7366066050799999E-3</v>
+        <v>-0.00273660660508</v>
       </c>
       <c r="F74">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G74">
         <v>195.82</v>
@@ -3026,36 +3246,39 @@
         <v>20.88</v>
       </c>
       <c r="I74">
-        <v>4964.6187600000003</v>
+        <v>1366</v>
       </c>
       <c r="J74">
-        <v>0.56157504180855955</v>
+        <v>0.4001177018574126</v>
       </c>
       <c r="K74">
-        <v>0.40587600941638208</v>
+        <v>0.5615750418085595</v>
       </c>
       <c r="L74">
-        <v>0.39712487813183722</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4058760094163821</v>
+      </c>
+      <c r="M74">
+        <v>0.3971248781318372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
         <v>43100</v>
       </c>
       <c r="B75">
-        <v>0.21462999999999999</v>
+        <v>0.21463</v>
       </c>
       <c r="C75">
-        <v>64.209999999999994</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="D75">
-        <v>7.1389336141299999</v>
+        <v>7.13893361413</v>
       </c>
       <c r="E75">
-        <v>1.79457811322E-3</v>
+        <v>0.00179457811322</v>
       </c>
       <c r="F75">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G75">
         <v>230.95</v>
@@ -3064,74 +3287,80 @@
         <v>21.46</v>
       </c>
       <c r="I75">
-        <v>4838.3076810000002</v>
+        <v>1152</v>
       </c>
       <c r="J75">
-        <v>0.57622674557758369</v>
+        <v>0.3927725196928165</v>
       </c>
       <c r="K75">
-        <v>0.40840637131336682</v>
+        <v>0.5762267455775837</v>
       </c>
       <c r="L75">
+        <v>0.4084063713133668</v>
+      </c>
+      <c r="M75">
         <v>0.4056065803137805</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
         <v>43131</v>
       </c>
       <c r="B76">
-        <v>0.21962999999999999</v>
+        <v>0.21963</v>
       </c>
       <c r="C76">
-        <v>68.989999999999995</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="D76">
-        <v>6.6622550131400002</v>
+        <v>6.66225501314</v>
       </c>
       <c r="E76">
-        <v>1.9055247926300001E-3</v>
+        <v>0.00190552479263</v>
       </c>
       <c r="F76">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G76">
-        <v>312.02999999999997</v>
+        <v>312.03</v>
       </c>
       <c r="H76">
         <v>20.94</v>
       </c>
       <c r="I76">
-        <v>3666.2734110000001</v>
+        <v>1192</v>
       </c>
       <c r="J76">
-        <v>0.57766197152894128</v>
+        <v>0.4023368317333454</v>
       </c>
       <c r="K76">
-        <v>0.40934235221316101</v>
+        <v>0.5776619715289413</v>
       </c>
       <c r="L76">
-        <v>0.40926894794790408</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.409342352213161</v>
+      </c>
+      <c r="M76">
+        <v>0.4092689479479041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
         <v>43159</v>
       </c>
       <c r="B77">
-        <v>0.23250000000000001</v>
+        <v>0.2325</v>
       </c>
       <c r="C77">
         <v>65.42</v>
       </c>
       <c r="D77">
-        <v>6.7187497665000002</v>
+        <v>6.7187497665</v>
       </c>
       <c r="E77">
-        <v>1.5315600492599999E-3</v>
+        <v>0.00153156004926</v>
       </c>
       <c r="F77">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G77">
         <v>310.7</v>
@@ -3140,57 +3369,63 @@
         <v>21.68</v>
       </c>
       <c r="I77">
-        <v>4324.7404509999997</v>
+        <v>1055</v>
       </c>
       <c r="J77">
-        <v>0.58028535600608844</v>
+        <v>0.4064757432093491</v>
       </c>
       <c r="K77">
-        <v>0.41298281368272138</v>
+        <v>0.5802853560060884</v>
       </c>
       <c r="L77">
+        <v>0.4129828136827214</v>
+      </c>
+      <c r="M77">
         <v>0.4119379962762168</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
         <v>43190</v>
       </c>
       <c r="B78">
-        <v>0.23250000000000001</v>
+        <v>0.2325</v>
       </c>
       <c r="C78">
         <v>66.45</v>
       </c>
       <c r="D78">
-        <v>6.6973876403599997</v>
+        <v>6.69738764036</v>
       </c>
       <c r="E78">
-        <v>6.3701729307000005E-4</v>
+        <v>0.00063701729307</v>
       </c>
       <c r="F78">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G78">
-        <v>307.97000000000003</v>
+        <v>307.97</v>
       </c>
       <c r="H78">
         <v>21.53</v>
       </c>
       <c r="I78">
-        <v>3954.5144599999999</v>
+        <v>1341</v>
       </c>
       <c r="J78">
-        <v>0.58870588846035554</v>
+        <v>0.4094620637109461</v>
       </c>
       <c r="K78">
-        <v>0.41945162326753382</v>
+        <v>0.5887058884603555</v>
       </c>
       <c r="L78">
-        <v>0.40848909596345873</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4194516232675338</v>
+      </c>
+      <c r="M78">
+        <v>0.4084890959634587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2">
         <v>43220</v>
       </c>
@@ -3201,13 +3436,13 @@
         <v>71.63</v>
       </c>
       <c r="D79">
-        <v>6.9278582024200004</v>
+        <v>6.92785820242</v>
       </c>
       <c r="E79">
-        <v>-1.38895199145E-3</v>
+        <v>-0.00138895199145</v>
       </c>
       <c r="F79">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G79">
         <v>344.31</v>
@@ -3216,36 +3451,39 @@
         <v>21.24</v>
       </c>
       <c r="I79">
-        <v>3663.5594599999999</v>
+        <v>1090</v>
       </c>
       <c r="J79">
-        <v>0.59967652475520195</v>
+        <v>0.4188083170562459</v>
       </c>
       <c r="K79">
+        <v>0.5996765247552019</v>
+      </c>
+      <c r="L79">
         <v>0.4182540962496526</v>
       </c>
-      <c r="L79">
-        <v>0.40821632281407672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>0.4082163228140767</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2">
         <v>43251</v>
       </c>
       <c r="B80">
-        <v>0.22187999999999999</v>
+        <v>0.22188</v>
       </c>
       <c r="C80">
-        <v>76.650000000000006</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="D80">
-        <v>7.4873540573200001</v>
+        <v>7.48735405732</v>
       </c>
       <c r="E80">
-        <v>-1.8259436073E-3</v>
+        <v>-0.0018259436073</v>
       </c>
       <c r="F80">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G80">
         <v>425.86</v>
@@ -3254,19 +3492,22 @@
         <v>20.99</v>
       </c>
       <c r="I80">
-        <v>3401.1098299999999</v>
+        <v>1385</v>
       </c>
       <c r="J80">
-        <v>0.59923192442463791</v>
+        <v>0.428691997961595</v>
       </c>
       <c r="K80">
-        <v>0.42470618018274442</v>
+        <v>0.5992319244246379</v>
       </c>
       <c r="L80">
-        <v>0.40927573194058048</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4247061801827444</v>
+      </c>
+      <c r="M80">
+        <v>0.4092757319405805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
         <v>43281</v>
       </c>
@@ -3277,34 +3518,37 @@
         <v>75.19</v>
       </c>
       <c r="D81">
-        <v>7.4489428440400003</v>
+        <v>7.44894284404</v>
       </c>
       <c r="E81">
-        <v>-2.7422761042199999E-3</v>
+        <v>-0.00274227610422</v>
       </c>
       <c r="F81">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G81">
-        <v>262.27999999999997</v>
+        <v>262.28</v>
       </c>
       <c r="H81">
         <v>20.13</v>
       </c>
       <c r="I81">
-        <v>3908.3678199999999</v>
+        <v>1747</v>
       </c>
       <c r="J81">
-        <v>0.59255059312773539</v>
+        <v>0.4298868253767242</v>
       </c>
       <c r="K81">
+        <v>0.5925505931277354</v>
+      </c>
+      <c r="L81">
         <v>0.4232105630033004</v>
       </c>
-      <c r="L81">
-        <v>0.41092114300029597</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>0.410921143000296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="2">
         <v>43312</v>
       </c>
@@ -3315,13 +3559,13 @@
         <v>74.44</v>
       </c>
       <c r="D82">
-        <v>7.5988392302500003</v>
+        <v>7.59883923025</v>
       </c>
       <c r="E82">
-        <v>-4.117844953E-5</v>
+        <v>-4.117844953E-05</v>
       </c>
       <c r="F82">
-        <v>97.979977520658835</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="G82">
         <v>227.12</v>
@@ -3330,19 +3574,22 @@
         <v>20</v>
       </c>
       <c r="I82">
-        <v>3885.6039599999999</v>
+        <v>1579</v>
       </c>
       <c r="J82">
-        <v>0.59268490735075385</v>
+        <v>0.429976049879927</v>
       </c>
       <c r="K82">
-        <v>0.42358292464767883</v>
+        <v>0.5926849073507539</v>
       </c>
       <c r="L82">
-        <v>0.40050331196529121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4235829246476788</v>
+      </c>
+      <c r="M82">
+        <v>0.4005033119652912</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2">
         <v>43343</v>
       </c>
@@ -3353,10 +3600,10 @@
         <v>73.13</v>
       </c>
       <c r="D83">
-        <v>8.0849099384399992</v>
+        <v>8.084909938439999</v>
       </c>
       <c r="E83">
-        <v>2.6948851740699999E-3</v>
+        <v>0.00269488517407</v>
       </c>
       <c r="F83">
         <v>98.01516824569984</v>
@@ -3368,36 +3615,39 @@
         <v>20.18</v>
       </c>
       <c r="I83">
-        <v>5077.83115</v>
+        <v>1540</v>
       </c>
       <c r="J83">
-        <v>0.60703605478593869</v>
+        <v>0.4117908797641813</v>
       </c>
       <c r="K83">
-        <v>0.42442120886823959</v>
+        <v>0.6070360547859387</v>
       </c>
       <c r="L83">
-        <v>0.40633873602453319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4244212088682396</v>
+      </c>
+      <c r="M83">
+        <v>0.4063387360245332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
         <v>43373</v>
       </c>
       <c r="B84">
-        <v>0.26750000000000002</v>
+        <v>0.2675</v>
       </c>
       <c r="C84">
         <v>78.86</v>
       </c>
       <c r="D84">
-        <v>9.5215770312100005</v>
+        <v>9.521577031210001</v>
       </c>
       <c r="E84">
-        <v>3.9187865082800002E-3</v>
+        <v>0.00391878650828</v>
       </c>
       <c r="F84">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G84">
         <v>149.22</v>
@@ -3406,19 +3656,22 @@
         <v>20.88</v>
       </c>
       <c r="I84">
-        <v>6525.1501669999998</v>
+        <v>1490</v>
       </c>
       <c r="J84">
-        <v>0.60377819578415526</v>
+        <v>0.417696393813356</v>
       </c>
       <c r="K84">
-        <v>0.42808464608075109</v>
+        <v>0.6037781957841553</v>
       </c>
       <c r="L84">
-        <v>0.41462804951196319</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4280846460807511</v>
+      </c>
+      <c r="M84">
+        <v>0.4146280495119632</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2">
         <v>43404</v>
       </c>
@@ -3429,13 +3682,13 @@
         <v>80.47</v>
       </c>
       <c r="D85">
-        <v>8.7909607297400001</v>
+        <v>8.79096072974</v>
       </c>
       <c r="E85">
-        <v>-4.7014044846000001E-4</v>
+        <v>-0.00047014044846</v>
       </c>
       <c r="F85">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G85">
         <v>172.67</v>
@@ -3444,95 +3697,104 @@
         <v>21.05</v>
       </c>
       <c r="I85">
-        <v>6430.8516900000004</v>
+        <v>1231</v>
       </c>
       <c r="J85">
-        <v>0.60399220689695909</v>
+        <v>0.4104083154245683</v>
       </c>
       <c r="K85">
-        <v>0.44073736452812767</v>
+        <v>0.6039922068969591</v>
       </c>
       <c r="L85">
+        <v>0.4407373645281277</v>
+      </c>
+      <c r="M85">
         <v>0.4195099642783503</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86" s="2">
         <v>43434</v>
       </c>
       <c r="B86">
-        <v>0.30559999999999998</v>
+        <v>0.3056</v>
       </c>
       <c r="C86">
         <v>65.17</v>
       </c>
       <c r="D86">
-        <v>8.2650790129100002</v>
+        <v>8.26507901291</v>
       </c>
       <c r="E86">
-        <v>-2.5281899554900002E-3</v>
+        <v>-0.00252818995549</v>
       </c>
       <c r="F86">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G86">
-        <v>263.89999999999998</v>
+        <v>263.9</v>
       </c>
       <c r="H86">
         <v>21.45</v>
       </c>
       <c r="I86">
-        <v>6460.0465359999998</v>
+        <v>1271</v>
       </c>
       <c r="J86">
-        <v>0.62345755203824549</v>
+        <v>0.4042221010633684</v>
       </c>
       <c r="K86">
-        <v>0.44547184215672692</v>
+        <v>0.6234575520382455</v>
       </c>
       <c r="L86">
-        <v>0.43769888247920352</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4454718421567269</v>
+      </c>
+      <c r="M86">
+        <v>0.4376988824792035</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
         <v>43465</v>
       </c>
       <c r="B87">
-        <v>0.27667000000000003</v>
+        <v>0.27667</v>
       </c>
       <c r="C87">
         <v>56.46</v>
       </c>
       <c r="D87">
-        <v>7.9762423800900004</v>
+        <v>7.97624238009</v>
       </c>
       <c r="E87">
-        <v>9.9175133923999994E-4</v>
+        <v>0.0009917513392399999</v>
       </c>
       <c r="F87">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G87">
-        <v>295.83999999999997</v>
+        <v>295.84</v>
       </c>
       <c r="H87">
         <v>21.23</v>
       </c>
       <c r="I87">
-        <v>4650.7587899999999</v>
+        <v>668</v>
       </c>
       <c r="J87">
-        <v>0.63028971233976716</v>
+        <v>0.4004898727175514</v>
       </c>
       <c r="K87">
-        <v>0.45389369179554251</v>
+        <v>0.6302897123397672</v>
       </c>
       <c r="L87">
-        <v>0.45397923779925509</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4538936917955425</v>
+      </c>
+      <c r="M87">
+        <v>0.4539792377992551</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
         <v>43496</v>
       </c>
@@ -3543,13 +3805,13 @@
         <v>59.27</v>
       </c>
       <c r="D88">
-        <v>7.2623432334500002</v>
+        <v>7.26234323345</v>
       </c>
       <c r="E88">
-        <v>4.6545626114299996E-3</v>
+        <v>0.00465456261143</v>
       </c>
       <c r="F88">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G88">
         <v>394.89</v>
@@ -3558,36 +3820,39 @@
         <v>21.4</v>
       </c>
       <c r="I88">
-        <v>3908.6975600000001</v>
+        <v>658</v>
       </c>
       <c r="J88">
+        <v>0.4002712606044906</v>
+      </c>
+      <c r="K88">
         <v>0.6286519971960961</v>
       </c>
-      <c r="K88">
-        <v>0.45589550643149862</v>
-      </c>
       <c r="L88">
-        <v>0.45054459312240691</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4558955064314986</v>
+      </c>
+      <c r="M88">
+        <v>0.4505445931224069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
         <v>43524</v>
       </c>
       <c r="B89">
-        <v>0.25063000000000002</v>
+        <v>0.25063</v>
       </c>
       <c r="C89">
         <v>64.13</v>
       </c>
       <c r="D89">
-        <v>6.0057971221999997</v>
+        <v>6.0057971222</v>
       </c>
       <c r="E89">
-        <v>-2.29347078498E-3</v>
+        <v>-0.00229347078498</v>
       </c>
       <c r="F89">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G89">
         <v>355.02</v>
@@ -3596,19 +3861,22 @@
         <v>21.8</v>
       </c>
       <c r="I89">
-        <v>6573.6992899999996</v>
+        <v>689</v>
       </c>
       <c r="J89">
-        <v>0.62502390827980736</v>
+        <v>0.4122060554901423</v>
       </c>
       <c r="K89">
-        <v>0.45542641127088929</v>
+        <v>0.6250239082798074</v>
       </c>
       <c r="L89">
-        <v>0.45147697964574568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4554264112708893</v>
+      </c>
+      <c r="M89">
+        <v>0.4514769796457457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2">
         <v>43555</v>
       </c>
@@ -3619,13 +3887,13 @@
         <v>66.41</v>
       </c>
       <c r="D90">
-        <v>5.1787356741300004</v>
+        <v>5.17873567413</v>
       </c>
       <c r="E90">
-        <v>-2.1145599929499998E-3</v>
+        <v>-0.00211455999295</v>
       </c>
       <c r="F90">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G90">
         <v>436.05</v>
@@ -3634,19 +3902,22 @@
         <v>21.9</v>
       </c>
       <c r="I90">
-        <v>5670.7753899999998</v>
+        <v>1011</v>
       </c>
       <c r="J90">
-        <v>0.62346743272925864</v>
+        <v>0.4203781202653709</v>
       </c>
       <c r="K90">
-        <v>0.46054894808554397</v>
+        <v>0.6234674327292586</v>
       </c>
       <c r="L90">
-        <v>0.44876220533073008</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.460548948085544</v>
+      </c>
+      <c r="M90">
+        <v>0.4487622053307301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2">
         <v>43585</v>
       </c>
@@ -3657,13 +3928,13 @@
         <v>71.2</v>
       </c>
       <c r="D91">
-        <v>4.9221808196800003</v>
+        <v>4.92218081968</v>
       </c>
       <c r="E91">
-        <v>1.7156535604300001E-3</v>
+        <v>0.00171565356043</v>
       </c>
       <c r="F91">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G91">
         <v>358.33</v>
@@ -3672,19 +3943,22 @@
         <v>22.01</v>
       </c>
       <c r="I91">
-        <v>5891.1760100000001</v>
+        <v>1096</v>
       </c>
       <c r="J91">
+        <v>0.4302686741239212</v>
+      </c>
+      <c r="K91">
         <v>0.622</v>
       </c>
-      <c r="K91">
-        <v>0.45440000000000003</v>
-      </c>
       <c r="L91">
+        <v>0.4544</v>
+      </c>
+      <c r="M91">
         <v>0.4476</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
         <v>43616</v>
       </c>
@@ -3695,13 +3969,13 @@
         <v>70.53</v>
       </c>
       <c r="D92">
-        <v>4.3410552940500002</v>
+        <v>4.34105529405</v>
       </c>
       <c r="E92">
-        <v>-4.2076108940000001E-5</v>
+        <v>-4.207610894E-05</v>
       </c>
       <c r="F92">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G92">
         <v>336.86</v>
@@ -3710,19 +3984,22 @@
         <v>21.66</v>
       </c>
       <c r="I92">
-        <v>7782.9436499999993</v>
+        <v>1354</v>
       </c>
       <c r="J92">
-        <v>0.61265066986516492</v>
+        <v>0.43031278198301</v>
       </c>
       <c r="K92">
-        <v>0.45076249434729843</v>
+        <v>0.6126506698651649</v>
       </c>
       <c r="L92">
-        <v>0.44238592146625139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4507624943472984</v>
+      </c>
+      <c r="M92">
+        <v>0.4423859214662514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2">
         <v>43646</v>
       </c>
@@ -3733,13 +4010,13 @@
         <v>63.3</v>
       </c>
       <c r="D93">
-        <v>3.5880065122699998</v>
+        <v>3.58800651227</v>
       </c>
       <c r="E93">
-        <v>-3.5781895471E-4</v>
+        <v>-0.00035781895471</v>
       </c>
       <c r="F93">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G93">
         <v>345.6</v>
@@ -3748,36 +4025,39 @@
         <v>20.73</v>
       </c>
       <c r="I93">
-        <v>6430.2478200000014</v>
+        <v>1868</v>
       </c>
       <c r="J93">
-        <v>0.62740000000000007</v>
+        <v>0.435745964968454</v>
       </c>
       <c r="K93">
-        <v>0.45540000000000003</v>
+        <v>0.6274000000000001</v>
       </c>
       <c r="L93">
-        <v>0.44240000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4554</v>
+      </c>
+      <c r="M93">
+        <v>0.4424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
         <v>43677</v>
       </c>
       <c r="B94">
-        <v>0.26350000000000001</v>
+        <v>0.2635</v>
       </c>
       <c r="C94">
         <v>64</v>
       </c>
       <c r="D94">
-        <v>3.6203714056099998</v>
+        <v>3.62037140561</v>
       </c>
       <c r="E94">
-        <v>9.1334275367999996E-4</v>
+        <v>0.00091334275368</v>
       </c>
       <c r="F94">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G94">
         <v>254.23</v>
@@ -3786,36 +4066,39 @@
         <v>20.21</v>
       </c>
       <c r="I94">
-        <v>6257.6706979999999</v>
+        <v>2378</v>
       </c>
       <c r="J94">
+        <v>0.4333316138449078</v>
+      </c>
+      <c r="K94">
         <v>0.62</v>
       </c>
-      <c r="K94">
-        <v>0.45600000000000002</v>
-      </c>
       <c r="L94">
-        <v>0.44619999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.456</v>
+      </c>
+      <c r="M94">
+        <v>0.4462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
         <v>43708</v>
       </c>
       <c r="B95">
-        <v>0.26250000000000001</v>
+        <v>0.2625</v>
       </c>
       <c r="C95">
         <v>59.25</v>
       </c>
       <c r="D95">
-        <v>3.6767751604100001</v>
+        <v>3.67677516041</v>
       </c>
       <c r="E95">
-        <v>-1.04143223119E-3</v>
+        <v>-0.00104143223119</v>
       </c>
       <c r="F95">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G95">
         <v>176.19</v>
@@ -3824,24 +4107,27 @@
         <v>20.03</v>
       </c>
       <c r="I95">
-        <v>8281.2877779999999</v>
+        <v>1823</v>
       </c>
       <c r="J95">
-        <v>0.61835870611737509</v>
+        <v>0.4344250928577083</v>
       </c>
       <c r="K95">
-        <v>0.45469278837668547</v>
+        <v>0.6183587061173751</v>
       </c>
       <c r="L95">
-        <v>0.44465076021590239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4546927883766855</v>
+      </c>
+      <c r="M95">
+        <v>0.4446507602159024</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2">
         <v>43738</v>
       </c>
       <c r="B96">
-        <v>0.23774999999999999</v>
+        <v>0.23775</v>
       </c>
       <c r="C96">
         <v>62.33</v>
@@ -3850,10 +4136,10 @@
         <v>4.20525568494</v>
       </c>
       <c r="E96">
-        <v>-1.1961364761E-4</v>
+        <v>-0.00011961364761</v>
       </c>
       <c r="F96">
-        <v>98.015168245699726</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="G96">
         <v>145.09</v>
@@ -3862,33 +4148,36 @@
         <v>20.79</v>
       </c>
       <c r="I96">
-        <v>7419.1576700000014</v>
+        <v>1731</v>
       </c>
       <c r="J96">
+        <v>0.4291885262761831</v>
+      </c>
+      <c r="K96">
         <v>0.623</v>
       </c>
-      <c r="K96">
-        <v>0.46060000000000001</v>
-      </c>
       <c r="L96">
-        <v>0.44640000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4606</v>
+      </c>
+      <c r="M96">
+        <v>0.4464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
         <v>43769</v>
       </c>
       <c r="B97">
-        <v>0.23699999999999999</v>
+        <v>0.237</v>
       </c>
       <c r="C97">
         <v>59.37</v>
       </c>
       <c r="D97">
-        <v>5.0572178578700004</v>
+        <v>5.05721785787</v>
       </c>
       <c r="E97">
-        <v>5.2072646168399997E-3</v>
+        <v>0.00520726461684</v>
       </c>
       <c r="F97">
         <v>137.0503756674423</v>
@@ -3900,36 +4189,39 @@
         <v>20.67</v>
       </c>
       <c r="I97">
-        <v>6976.4941900000003</v>
+        <v>1528</v>
       </c>
       <c r="J97">
-        <v>0.62098180092386868</v>
+        <v>0.4230931517323515</v>
       </c>
       <c r="K97">
+        <v>0.6209818009238687</v>
+      </c>
+      <c r="L97">
         <v>0.4604397761609888</v>
       </c>
-      <c r="L97">
-        <v>0.44535066644470939</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>0.4453506664447094</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
         <v>43799</v>
       </c>
       <c r="B98">
-        <v>0.22450000000000001</v>
+        <v>0.2245</v>
       </c>
       <c r="C98">
         <v>62.74</v>
       </c>
       <c r="D98">
-        <v>5.1500042173100002</v>
+        <v>5.15000421731</v>
       </c>
       <c r="E98">
-        <v>-7.0369679622900002E-3</v>
+        <v>-0.00703696796229</v>
       </c>
       <c r="F98">
-        <v>99.411486040914298</v>
+        <v>99.4114860409143</v>
       </c>
       <c r="G98">
         <v>245.19</v>
@@ -3938,19 +4230,22 @@
         <v>21.26</v>
       </c>
       <c r="I98">
-        <v>10025.937</v>
+        <v>1090</v>
       </c>
       <c r="J98">
-        <v>0.61029455433339863</v>
+        <v>0.4230047475288597</v>
       </c>
       <c r="K98">
-        <v>0.45993953665612941</v>
+        <v>0.6102945543333986</v>
       </c>
       <c r="L98">
+        <v>0.4599395366561294</v>
+      </c>
+      <c r="M98">
         <v>0.4456775215020361</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99" s="2">
         <v>43830</v>
       </c>
@@ -3958,16 +4253,16 @@
         <v>0.2175</v>
       </c>
       <c r="C99">
-        <v>65.849999999999994</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D99">
-        <v>4.6204722123900002</v>
+        <v>4.62047221239</v>
       </c>
       <c r="E99">
-        <v>-8.186548111E-5</v>
+        <v>-8.186548111E-05</v>
       </c>
       <c r="F99">
-        <v>99.411486040914426</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G99">
         <v>296.07</v>
@@ -3976,36 +4271,39 @@
         <v>21.5</v>
       </c>
       <c r="I99">
-        <v>6053.6442040000002</v>
+        <v>487</v>
       </c>
       <c r="J99">
-        <v>0.61210077486190229</v>
+        <v>0.418306668427461</v>
       </c>
       <c r="K99">
-        <v>0.45595361708681542</v>
+        <v>0.6121007748619023</v>
       </c>
       <c r="L99">
-        <v>0.44549396162211019</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4559536170868154</v>
+      </c>
+      <c r="M99">
+        <v>0.4454939616221102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2">
         <v>43861</v>
       </c>
       <c r="B100">
-        <v>0.21540000000000001</v>
+        <v>0.2154</v>
       </c>
       <c r="C100">
         <v>63.6</v>
       </c>
       <c r="D100">
-        <v>3.6333843472699998</v>
+        <v>3.63338434727</v>
       </c>
       <c r="E100">
-        <v>2.2701272118099999E-3</v>
+        <v>0.00227012721181</v>
       </c>
       <c r="F100">
-        <v>99.411486040914426</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G100">
         <v>268.32</v>
@@ -4014,36 +4312,39 @@
         <v>22.01</v>
       </c>
       <c r="I100">
-        <v>6823.2070370000001</v>
+        <v>535</v>
       </c>
       <c r="J100">
-        <v>0.57987949353427981</v>
+        <v>0.4272266206726101</v>
       </c>
       <c r="K100">
-        <v>0.45398379728170951</v>
+        <v>0.5798794935342798</v>
       </c>
       <c r="L100">
+        <v>0.4539837972817095</v>
+      </c>
+      <c r="M100">
         <v>0.4238762451913749</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
         <v>43890</v>
       </c>
       <c r="B101">
-        <v>0.21437999999999999</v>
+        <v>0.21438</v>
       </c>
       <c r="C101">
         <v>55</v>
       </c>
       <c r="D101">
-        <v>2.9077736410599999</v>
+        <v>2.90777364106</v>
       </c>
       <c r="E101">
-        <v>-1.5442069763100001E-3</v>
+        <v>-0.00154420697631</v>
       </c>
       <c r="F101">
-        <v>99.411486040914426</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G101">
         <v>321.64</v>
@@ -4052,19 +4353,22 @@
         <v>22.2</v>
       </c>
       <c r="I101">
-        <v>7529.7909600000003</v>
+        <v>626</v>
       </c>
       <c r="J101">
-        <v>0.58750229972384127</v>
+        <v>0.4281155443621508</v>
       </c>
       <c r="K101">
-        <v>0.46101822027666101</v>
+        <v>0.5875022997238413</v>
       </c>
       <c r="L101">
-        <v>0.42780127232229659</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.461018220276661</v>
+      </c>
+      <c r="M101">
+        <v>0.4278012723222966</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2">
         <v>43921</v>
       </c>
@@ -4072,16 +4376,16 @@
         <v>0.23113</v>
       </c>
       <c r="C102">
-        <v>32.979999999999997</v>
+        <v>32.98</v>
       </c>
       <c r="D102">
-        <v>2.7188683817500001</v>
+        <v>2.71886838175</v>
       </c>
       <c r="E102">
-        <v>1.9744107687900002E-3</v>
+        <v>0.00197441076879</v>
       </c>
       <c r="F102">
-        <v>99.411486040914426</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G102">
         <v>329.31</v>
@@ -4090,36 +4394,39 @@
         <v>22.22</v>
       </c>
       <c r="I102">
-        <v>6661.6037399999996</v>
+        <v>635</v>
       </c>
       <c r="J102">
-        <v>0.59101622773308049</v>
+        <v>0.435464913763167</v>
       </c>
       <c r="K102">
-        <v>0.46343447405440552</v>
+        <v>0.5910162277330805</v>
       </c>
       <c r="L102">
-        <v>0.44156162466399201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4634344740544055</v>
+      </c>
+      <c r="M102">
+        <v>0.441561624663992</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2">
         <v>43951</v>
       </c>
       <c r="B103">
-        <v>0.23499999999999999</v>
+        <v>0.235</v>
       </c>
       <c r="C103">
         <v>23.34</v>
       </c>
       <c r="D103">
-        <v>2.1203186673199999</v>
+        <v>2.12031866732</v>
       </c>
       <c r="E103">
-        <v>1.0026252343710001E-2</v>
+        <v>0.01002625234371</v>
       </c>
       <c r="F103">
-        <v>99.411486040914426</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="G103">
         <v>287.48</v>
@@ -4128,19 +4435,22 @@
         <v>21.87</v>
       </c>
       <c r="I103">
-        <v>4337.1999040000001</v>
+        <v>504</v>
       </c>
       <c r="J103">
-        <v>0.59037013578636566</v>
+        <v>0.441427995197071</v>
       </c>
       <c r="K103">
+        <v>0.5903701357863657</v>
+      </c>
+      <c r="L103">
         <v>0.4650872943506536</v>
       </c>
-      <c r="L103">
-        <v>0.43379279223203088</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103">
+        <v>0.4337927922320309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
         <v>43982</v>
       </c>
@@ -4151,51 +4461,54 @@
         <v>31.02</v>
       </c>
       <c r="D104">
-        <v>1.5751649779200001</v>
+        <v>1.57516497792</v>
       </c>
       <c r="E104">
-        <v>-2.5998410838899999E-3</v>
+        <v>-0.00259984108389</v>
       </c>
       <c r="F104">
-        <v>98.308442482252886</v>
+        <v>98.30844248225289</v>
       </c>
       <c r="G104">
-        <v>275.20999999999998</v>
+        <v>275.21</v>
       </c>
       <c r="H104">
         <v>21.59</v>
       </c>
       <c r="I104">
-        <v>11007.467989999999</v>
+        <v>1799</v>
       </c>
       <c r="J104">
-        <v>0.58785906665965126</v>
+        <v>0.4442100828421174</v>
       </c>
       <c r="K104">
-        <v>0.46198690703846829</v>
+        <v>0.5878590666596513</v>
       </c>
       <c r="L104">
-        <v>0.43636627755170371</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4619869070384683</v>
+      </c>
+      <c r="M104">
+        <v>0.4363662775517037</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2">
         <v>44012</v>
       </c>
       <c r="B105">
-        <v>0.20200000000000001</v>
+        <v>0.202</v>
       </c>
       <c r="C105">
         <v>39.93</v>
       </c>
       <c r="D105">
-        <v>1.7521711121800001</v>
+        <v>1.75217111218</v>
       </c>
       <c r="E105">
-        <v>-6.1981466647700002E-3</v>
+        <v>-0.00619814666477</v>
       </c>
       <c r="F105">
-        <v>96.252875288479345</v>
+        <v>96.25287528847934</v>
       </c>
       <c r="G105">
         <v>203.66</v>
@@ -4204,36 +4517,39 @@
         <v>20.85</v>
       </c>
       <c r="I105">
-        <v>7572.009145</v>
+        <v>1350</v>
       </c>
       <c r="J105">
-        <v>0.59360378635717614</v>
+        <v>0.4559354453250682</v>
       </c>
       <c r="K105">
-        <v>0.46336854499305102</v>
+        <v>0.5936037863571761</v>
       </c>
       <c r="L105">
-        <v>0.42503146522526952</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.463368544993051</v>
+      </c>
+      <c r="M105">
+        <v>0.4250314652252695</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2">
         <v>44043</v>
       </c>
       <c r="B106">
-        <v>0.21440000000000001</v>
+        <v>0.2144</v>
       </c>
       <c r="C106">
         <v>42.81</v>
       </c>
       <c r="D106">
-        <v>1.8010354964699999</v>
+        <v>1.80103549647</v>
       </c>
       <c r="E106">
-        <v>-6.1264945265000004E-3</v>
+        <v>-0.0061264945265</v>
       </c>
       <c r="F106">
-        <v>98.048956182330201</v>
+        <v>98.0489561823302</v>
       </c>
       <c r="G106">
         <v>204.7</v>
@@ -4242,19 +4558,22 @@
         <v>20.23</v>
       </c>
       <c r="I106">
-        <v>8272.7793259999999</v>
+        <v>1488</v>
       </c>
       <c r="J106">
+        <v>0.4619913414790972</v>
+      </c>
+      <c r="K106">
         <v>0.5950080420233913</v>
       </c>
-      <c r="K106">
-        <v>0.45967740216766451</v>
-      </c>
       <c r="L106">
-        <v>0.42692085847831501</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4596774021676645</v>
+      </c>
+      <c r="M106">
+        <v>0.426920858478315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="2">
         <v>44074</v>
       </c>
@@ -4265,13 +4584,13 @@
         <v>44.26</v>
       </c>
       <c r="D107">
-        <v>2.8618966767299998</v>
+        <v>2.86189667673</v>
       </c>
       <c r="E107">
-        <v>-3.23849742065E-3</v>
+        <v>-0.00323849742065</v>
       </c>
       <c r="F107">
-        <v>103.20359737953279</v>
+        <v>103.2035973795328</v>
       </c>
       <c r="G107">
         <v>106.47</v>
@@ -4280,19 +4599,22 @@
         <v>20.46</v>
       </c>
       <c r="I107">
-        <v>7837.3605500000003</v>
+        <v>1725</v>
       </c>
       <c r="J107">
-        <v>0.58398445847573144</v>
+        <v>0.4673494867665212</v>
       </c>
       <c r="K107">
-        <v>0.44757337531585811</v>
+        <v>0.5839844584757314</v>
       </c>
       <c r="L107">
-        <v>0.42454675578825868</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4475733753158581</v>
+      </c>
+      <c r="M107">
+        <v>0.4245467557882587</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="2">
         <v>44104</v>
       </c>
@@ -4303,10 +4625,10 @@
         <v>41.09</v>
       </c>
       <c r="D108">
-        <v>3.9521394626699999</v>
+        <v>3.95213946267</v>
       </c>
       <c r="E108">
-        <v>-1.5655589119299999E-3</v>
+        <v>-0.00156555891193</v>
       </c>
       <c r="F108">
         <v>107.4431956605944</v>
@@ -4318,19 +4640,22 @@
         <v>20.66</v>
       </c>
       <c r="I108">
-        <v>7543.88328</v>
+        <v>1283</v>
       </c>
       <c r="J108">
-        <v>0.58016876667591322</v>
+        <v>0.4727589381604924</v>
       </c>
       <c r="K108">
-        <v>0.43745295021963332</v>
+        <v>0.5801687666759132</v>
       </c>
       <c r="L108">
-        <v>0.42714690059530103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4374529502196333</v>
+      </c>
+      <c r="M108">
+        <v>0.427146900595301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2">
         <v>44135</v>
       </c>
@@ -4341,13 +4666,13 @@
         <v>40.47</v>
       </c>
       <c r="D109">
-        <v>4.8895904081600001</v>
+        <v>4.88959040816</v>
       </c>
       <c r="E109">
-        <v>-1.8927849043500001E-3</v>
+        <v>-0.00189278490435</v>
       </c>
       <c r="F109">
-        <v>113.14838227884169</v>
+        <v>113.1483822788417</v>
       </c>
       <c r="G109">
         <v>157.96</v>
@@ -4356,19 +4681,22 @@
         <v>21.1</v>
       </c>
       <c r="I109">
-        <v>8122.73614</v>
+        <v>1227</v>
       </c>
       <c r="J109">
-        <v>0.58361478842266545</v>
+        <v>0.4751955039451729</v>
       </c>
       <c r="K109">
-        <v>0.43267898649953829</v>
+        <v>0.5836147884226655</v>
       </c>
       <c r="L109">
-        <v>0.44357898064405687</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4326789864995383</v>
+      </c>
+      <c r="M109">
+        <v>0.4435789806440569</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2">
         <v>44165</v>
       </c>
@@ -4379,10 +4707,10 @@
         <v>43.23</v>
       </c>
       <c r="D110">
-        <v>4.8358390051600004</v>
+        <v>4.83583900516</v>
       </c>
       <c r="E110">
-        <v>-8.7343819449999996E-5</v>
+        <v>-8.734381945E-05</v>
       </c>
       <c r="F110">
         <v>118.9970042591801</v>
@@ -4394,19 +4722,22 @@
         <v>21.16</v>
       </c>
       <c r="I110">
-        <v>7401.8369210000001</v>
+        <v>1366</v>
       </c>
       <c r="J110">
-        <v>0.58008730039024692</v>
+        <v>0.4845045128128564</v>
       </c>
       <c r="K110">
-        <v>0.43627320253206359</v>
+        <v>0.5800873003902469</v>
       </c>
       <c r="L110">
-        <v>0.43306618070035391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4362732025320636</v>
+      </c>
+      <c r="M110">
+        <v>0.4330661807003539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="2">
         <v>44196</v>
       </c>
@@ -4417,10 +4748,10 @@
         <v>49.87</v>
       </c>
       <c r="D111">
-        <v>5.8561062960400001</v>
+        <v>5.85610629604</v>
       </c>
       <c r="E111">
-        <v>-2.8612321911999997E-4</v>
+        <v>-0.00028612321912</v>
       </c>
       <c r="F111">
         <v>123.2737384642799</v>
@@ -4432,36 +4763,39 @@
         <v>21.14</v>
       </c>
       <c r="I111">
-        <v>7698.2856529999999</v>
+        <v>1452</v>
       </c>
       <c r="J111">
-        <v>0.57954118218079009</v>
+        <v>0.4909173632569305</v>
       </c>
       <c r="K111">
-        <v>0.43526071969860891</v>
+        <v>0.5795411821807901</v>
       </c>
       <c r="L111">
-        <v>0.43182007716889131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4352607196986089</v>
+      </c>
+      <c r="M111">
+        <v>0.4318200771688913</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2">
         <v>44227</v>
       </c>
       <c r="B112">
-        <v>0.26500000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="C112">
         <v>54.55</v>
       </c>
       <c r="D112">
-        <v>7.2683017492999999</v>
+        <v>7.2683017493</v>
       </c>
       <c r="E112">
-        <v>1.1615504806399999E-3</v>
+        <v>0.00116155048064</v>
       </c>
       <c r="F112">
-        <v>128.79505674297619</v>
+        <v>128.7950567429762</v>
       </c>
       <c r="G112">
         <v>364.08</v>
@@ -4470,33 +4804,36 @@
         <v>21.22</v>
       </c>
       <c r="I112">
-        <v>7851.0791499999996</v>
+        <v>1675</v>
       </c>
       <c r="J112">
-        <v>0.57413758810558391</v>
+        <v>0.4894656023952785</v>
       </c>
       <c r="K112">
-        <v>0.43034883037324839</v>
+        <v>0.5741375881055839</v>
       </c>
       <c r="L112">
-        <v>0.41295048777283128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4303488303732484</v>
+      </c>
+      <c r="M112">
+        <v>0.4129504877728313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="2">
         <v>44255</v>
       </c>
       <c r="B113">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="C113">
         <v>61.96</v>
       </c>
       <c r="D113">
-        <v>6.1585071665199997</v>
+        <v>6.15850716652</v>
       </c>
       <c r="E113">
-        <v>8.4343695104999996E-4</v>
+        <v>0.00084343695105</v>
       </c>
       <c r="F113">
         <v>130.4602210142325</v>
@@ -4508,36 +4845,39 @@
         <v>21.72</v>
       </c>
       <c r="I113">
-        <v>8168.41338</v>
+        <v>2046</v>
       </c>
       <c r="J113">
-        <v>0.59253408904705451</v>
+        <v>0.4914904976907563</v>
       </c>
       <c r="K113">
-        <v>0.43436233071105662</v>
+        <v>0.5925340890470545</v>
       </c>
       <c r="L113">
-        <v>0.41799837812952151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4343623307110566</v>
+      </c>
+      <c r="M113">
+        <v>0.4179983781295215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="2">
         <v>44286</v>
       </c>
       <c r="B114">
-        <v>0.35288000000000003</v>
+        <v>0.35288</v>
       </c>
       <c r="C114">
         <v>65.19</v>
       </c>
       <c r="D114">
-        <v>6.1270695793499996</v>
+        <v>6.12706957935</v>
       </c>
       <c r="E114">
-        <v>1.7539634591800001E-3</v>
+        <v>0.00175396345918</v>
       </c>
       <c r="F114">
-        <v>133.92351493987681</v>
+        <v>133.9235149398768</v>
       </c>
       <c r="G114">
         <v>447.53</v>
@@ -4546,19 +4886,22 @@
         <v>21.21</v>
       </c>
       <c r="I114">
-        <v>7616.440713</v>
+        <v>3053</v>
       </c>
       <c r="J114">
-        <v>0.60484524703408404</v>
+        <v>0.493276398525774</v>
       </c>
       <c r="K114">
-        <v>0.42931028426407392</v>
+        <v>0.604845247034084</v>
       </c>
       <c r="L114">
+        <v>0.4293102842640739</v>
+      </c>
+      <c r="M114">
         <v>0.4324131120358024</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115" s="2">
         <v>44316</v>
       </c>
@@ -4569,10 +4912,10 @@
         <v>64.77</v>
       </c>
       <c r="D115">
-        <v>7.1468162880900001</v>
+        <v>7.14681628809</v>
       </c>
       <c r="E115">
-        <v>3.4919188264500001E-3</v>
+        <v>0.00349191882645</v>
       </c>
       <c r="F115">
         <v>138.2897485328063</v>
@@ -4584,36 +4927,39 @@
         <v>21.39</v>
       </c>
       <c r="I115">
-        <v>7996.3116900000005</v>
+        <v>2596</v>
       </c>
       <c r="J115">
-        <v>0.65260502132568843</v>
+        <v>0.4979584699872221</v>
       </c>
       <c r="K115">
-        <v>0.43788837930916352</v>
+        <v>0.6526050213256884</v>
       </c>
       <c r="L115">
-        <v>0.45397104998939741</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4378883793091635</v>
+      </c>
+      <c r="M115">
+        <v>0.4539710499893974</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="2">
         <v>44347</v>
       </c>
       <c r="B116">
-        <v>0.33162999999999998</v>
+        <v>0.33163</v>
       </c>
       <c r="C116">
-        <v>68.040000000000006</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="D116">
-        <v>8.9087569243899996</v>
+        <v>8.90875692439</v>
       </c>
       <c r="E116">
-        <v>8.3340753555999998E-4</v>
+        <v>0.00083340753556</v>
       </c>
       <c r="F116">
-        <v>141.19374902319319</v>
+        <v>141.1937490231932</v>
       </c>
       <c r="G116">
         <v>320.43</v>
@@ -4622,36 +4968,39 @@
         <v>20.99</v>
       </c>
       <c r="I116">
-        <v>9925.828082</v>
+        <v>3383</v>
       </c>
       <c r="J116">
-        <v>0.66301888296627742</v>
+        <v>0.4925514921183144</v>
       </c>
       <c r="K116">
-        <v>0.43673132325079561</v>
+        <v>0.6630188829662774</v>
       </c>
       <c r="L116">
-        <v>0.48195593064082198</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.4367313232507956</v>
+      </c>
+      <c r="M116">
+        <v>0.481955930640822</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="2">
         <v>44377</v>
       </c>
       <c r="B117">
-        <v>0.39324999999999999</v>
+        <v>0.39325</v>
       </c>
       <c r="C117">
-        <v>73.069999999999993</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="D117">
         <v>10.30105100564</v>
       </c>
       <c r="E117">
-        <v>-1.7561370919100001E-3</v>
+        <v>-0.00175613709191</v>
       </c>
       <c r="F117">
-        <v>144.04650715402559</v>
+        <v>144.0465071540256</v>
       </c>
       <c r="G117">
         <v>261.45</v>
@@ -4660,19 +5009,22 @@
         <v>20.49</v>
       </c>
       <c r="I117">
-        <v>7937.7517500000004</v>
+        <v>3292</v>
       </c>
       <c r="J117">
-        <v>0.74360000000000004</v>
+        <v>0.4928136028756943</v>
       </c>
       <c r="K117">
-        <v>0.54659999999999997</v>
+        <v>0.7436</v>
       </c>
       <c r="L117">
-        <v>0.57140000000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5466</v>
+      </c>
+      <c r="M117">
+        <v>0.5714</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2">
         <v>44408</v>
       </c>
@@ -4686,10 +5038,10 @@
         <v>12.50994243239</v>
       </c>
       <c r="E118">
-        <v>5.2620856796199997E-3</v>
+        <v>0.00526208567962</v>
       </c>
       <c r="F118">
-        <v>149.22626419236391</v>
+        <v>149.2262641923639</v>
       </c>
       <c r="G118">
         <v>176.89</v>
@@ -4698,19 +5050,22 @@
         <v>20.11</v>
       </c>
       <c r="I118">
-        <v>10430.50346</v>
+        <v>4132</v>
       </c>
       <c r="J118">
-        <v>0.81340000000000001</v>
+        <v>0.4804314916743824</v>
       </c>
       <c r="K118">
+        <v>0.8134</v>
+      </c>
+      <c r="L118">
         <v>0.5746</v>
       </c>
-      <c r="L118">
-        <v>0.60260000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118">
+        <v>0.6026</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="2">
         <v>44439</v>
       </c>
@@ -4724,10 +5079,10 @@
         <v>15.42647593843</v>
       </c>
       <c r="E119">
-        <v>1.1548993042299999E-3</v>
+        <v>0.00115489930423</v>
       </c>
       <c r="F119">
-        <v>153.29800385743621</v>
+        <v>153.2980038574362</v>
       </c>
       <c r="G119">
         <v>142.63</v>
@@ -4736,36 +5091,39 @@
         <v>20.49</v>
       </c>
       <c r="I119">
-        <v>10146.06828</v>
+        <v>5167</v>
       </c>
       <c r="J119">
-        <v>0.86519999999999997</v>
+        <v>0.4632719261881695</v>
       </c>
       <c r="K119">
-        <v>0.62619999999999998</v>
+        <v>0.8652</v>
       </c>
       <c r="L119">
-        <v>0.62860000000000005</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6262</v>
+      </c>
+      <c r="M119">
+        <v>0.6286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="2">
         <v>44469</v>
       </c>
       <c r="B120">
-        <v>0.41875000000000001</v>
+        <v>0.41875</v>
       </c>
       <c r="C120">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D120">
-        <v>22.840596077920001</v>
+        <v>22.84059607792</v>
       </c>
       <c r="E120">
-        <v>1.5685281085000001E-4</v>
+        <v>0.00015685281085</v>
       </c>
       <c r="F120">
-        <v>156.95583781891941</v>
+        <v>156.9558378189194</v>
       </c>
       <c r="G120">
         <v>178.46</v>
@@ -4774,36 +5132,39 @@
         <v>20.71</v>
       </c>
       <c r="I120">
-        <v>9500.0568299999995</v>
+        <v>3519</v>
       </c>
       <c r="J120">
-        <v>0.84040000000000004</v>
+        <v>0.4579162425448056</v>
       </c>
       <c r="K120">
+        <v>0.8404</v>
+      </c>
+      <c r="L120">
         <v>0.5968</v>
       </c>
-      <c r="L120">
-        <v>0.62819999999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120">
+        <v>0.6282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="2">
         <v>44500</v>
       </c>
       <c r="B121">
-        <v>0.69499999999999995</v>
+        <v>0.695</v>
       </c>
       <c r="C121">
-        <v>83.65</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="D121">
-        <v>31.052466367539999</v>
+        <v>31.05246636754</v>
       </c>
       <c r="E121">
-        <v>2.0820298850400001E-3</v>
+        <v>0.00208202988504</v>
       </c>
       <c r="F121">
-        <v>167.00084927245319</v>
+        <v>167.0008492724532</v>
       </c>
       <c r="G121">
         <v>236.57</v>
@@ -4812,33 +5173,36 @@
         <v>21.11</v>
       </c>
       <c r="I121">
-        <v>8707.0949579999997</v>
+        <v>3018</v>
       </c>
       <c r="J121">
+        <v>0.446856934178489</v>
+      </c>
+      <c r="K121">
         <v>0.9224</v>
       </c>
-      <c r="K121">
-        <v>0.78359999999999996</v>
-      </c>
       <c r="L121">
-        <v>0.73719999999999997</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.7836</v>
+      </c>
+      <c r="M121">
+        <v>0.7372</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="2">
         <v>44530</v>
       </c>
       <c r="B122">
-        <v>0.90049999999999997</v>
+        <v>0.9005</v>
       </c>
       <c r="C122">
         <v>80.77</v>
       </c>
       <c r="D122">
-        <v>27.623432007750001</v>
+        <v>27.62343200775</v>
       </c>
       <c r="E122">
-        <v>3.5953446309099999E-3</v>
+        <v>0.00359534463091</v>
       </c>
       <c r="F122">
         <v>182.6188365838623</v>
@@ -4850,19 +5214,22 @@
         <v>21.07</v>
       </c>
       <c r="I122">
-        <v>9842.6817549999996</v>
+        <v>2217</v>
       </c>
       <c r="J122">
-        <v>1.0430661673860231</v>
+        <v>0.4431147265613738</v>
       </c>
       <c r="K122">
-        <v>0.93692931848523775</v>
+        <v>1.043066167386023</v>
       </c>
       <c r="L122">
-        <v>0.90023468100727166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9369293184852377</v>
+      </c>
+      <c r="M122">
+        <v>0.9002346810072717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="2">
         <v>44561</v>
       </c>
@@ -4873,13 +5240,13 @@
         <v>74.31</v>
       </c>
       <c r="D123">
-        <v>38.027119843180003</v>
+        <v>38.02711984318</v>
       </c>
       <c r="E123">
-        <v>6.7537719459000005E-4</v>
+        <v>0.00067537719459</v>
       </c>
       <c r="F123">
-        <v>182.61883658386239</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G123">
         <v>225.22</v>
@@ -4888,36 +5255,39 @@
         <v>21.47</v>
       </c>
       <c r="I123">
-        <v>8215.7566800000004</v>
+        <v>1418</v>
       </c>
       <c r="J123">
+        <v>0.4233923308224148</v>
+      </c>
+      <c r="K123">
         <v>1.088197583668632</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>1.034910306862554</v>
       </c>
-      <c r="L123">
-        <v>1.0146763089836801</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123">
+        <v>1.01467630898368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2">
         <v>44592</v>
       </c>
       <c r="B124">
-        <v>0.84638000000000002</v>
+        <v>0.84638</v>
       </c>
       <c r="C124">
         <v>85.53</v>
       </c>
       <c r="D124">
-        <v>28.260673316550001</v>
+        <v>28.26067331655</v>
       </c>
       <c r="E124">
-        <v>7.2132778214300001E-3</v>
+        <v>0.00721327782143</v>
       </c>
       <c r="F124">
-        <v>182.61883658386239</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G124">
         <v>246.66</v>
@@ -4926,19 +5296,22 @@
         <v>21.51</v>
       </c>
       <c r="I124">
-        <v>8167.5688419999997</v>
+        <v>2040</v>
       </c>
       <c r="J124">
-        <v>1.0968247820000001</v>
+        <v>0.4257859227826916</v>
       </c>
       <c r="K124">
-        <v>1.0750196999999999</v>
+        <v>1.096824782</v>
       </c>
       <c r="L124">
-        <v>1.0118994180000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0750197</v>
+      </c>
+      <c r="M124">
+        <v>1.011899418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="2">
         <v>44620</v>
       </c>
@@ -4946,16 +5319,16 @@
         <v>0.74417</v>
       </c>
       <c r="C125">
-        <v>95.76</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="D125">
-        <v>27.229715906700001</v>
+        <v>27.2297159067</v>
       </c>
       <c r="E125">
-        <v>2.3249575060999999E-3</v>
+        <v>0.0023249575061</v>
       </c>
       <c r="F125">
-        <v>182.61883658386239</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G125">
         <v>290.32</v>
@@ -4964,36 +5337,39 @@
         <v>21.22</v>
       </c>
       <c r="I125">
-        <v>9076.2218140000004</v>
+        <v>2358</v>
       </c>
       <c r="J125">
+        <v>0.4255570120255948</v>
+      </c>
+      <c r="K125">
         <v>1.078351677188643</v>
       </c>
-      <c r="K125">
-        <v>1.0516423260508621</v>
-      </c>
       <c r="L125">
+        <v>1.051642326050862</v>
+      </c>
+      <c r="M125">
         <v>0.9671592693428841</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126" s="2">
         <v>44651</v>
       </c>
       <c r="B126">
-        <v>0.87250000000000005</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="C126">
         <v>115.59</v>
       </c>
       <c r="D126">
-        <v>42.392970796119997</v>
+        <v>42.39297079612</v>
       </c>
       <c r="E126">
-        <v>1.1243597059100001E-3</v>
+        <v>0.00112435970591</v>
       </c>
       <c r="F126">
-        <v>182.61883658386239</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G126">
         <v>469.51</v>
@@ -5002,36 +5378,39 @@
         <v>21.34</v>
       </c>
       <c r="I126">
-        <v>8501.6344069999996</v>
+        <v>2404</v>
       </c>
       <c r="J126">
+        <v>0.422808140672978</v>
+      </c>
+      <c r="K126">
         <v>1.102667170194235</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>1.091178913291982</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>1.039086833340783</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127" s="2">
         <v>44681</v>
       </c>
       <c r="B127">
-        <v>0.92500000000000004</v>
+        <v>0.925</v>
       </c>
       <c r="C127">
         <v>105.78</v>
       </c>
       <c r="D127">
-        <v>32.204187228709998</v>
+        <v>32.20418722871</v>
       </c>
       <c r="E127">
-        <v>5.9364783402799997E-3</v>
+        <v>0.00593647834028</v>
       </c>
       <c r="F127">
-        <v>182.61883658386239</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G127">
         <v>354.62</v>
@@ -5040,36 +5419,39 @@
         <v>21.43</v>
       </c>
       <c r="I127">
-        <v>6838.6944700000004</v>
+        <v>2566</v>
       </c>
       <c r="J127">
-        <v>1.0970806751553821</v>
+        <v>0.4309435158909646</v>
       </c>
       <c r="K127">
-        <v>1.0990046629348871</v>
+        <v>1.097080675155382</v>
       </c>
       <c r="L127">
+        <v>1.099004662934887</v>
+      </c>
+      <c r="M127">
         <v>1.093198592925966</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" s="2">
         <v>44712</v>
       </c>
       <c r="B128">
-        <v>0.70750000000000002</v>
+        <v>0.7075</v>
       </c>
       <c r="C128">
         <v>112.37</v>
       </c>
       <c r="D128">
-        <v>29.170722673810001</v>
+        <v>29.17072267381</v>
       </c>
       <c r="E128">
-        <v>5.5741099967699997E-3</v>
+        <v>0.00557410999677</v>
       </c>
       <c r="F128">
-        <v>182.61883658386239</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G128">
         <v>289.56</v>
@@ -5078,24 +5460,27 @@
         <v>20.79</v>
       </c>
       <c r="I128">
-        <v>8749.5780899999991</v>
+        <v>2240</v>
       </c>
       <c r="J128">
+        <v>0.4305420265952875</v>
+      </c>
+      <c r="K128">
         <v>1.108720278516534</v>
       </c>
-      <c r="K128">
-        <v>1.0861554032322209</v>
-      </c>
       <c r="L128">
-        <v>1.0668233524329609</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.086155403232221</v>
+      </c>
+      <c r="M128">
+        <v>1.066823352432961</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="2">
         <v>44742</v>
       </c>
       <c r="B129">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C129">
         <v>120.08</v>
@@ -5104,10 +5489,10 @@
         <v>33.55773104275</v>
       </c>
       <c r="E129">
-        <v>6.482245167E-3</v>
+        <v>0.006482245167</v>
       </c>
       <c r="F129">
-        <v>182.61883658386239</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="G129">
         <v>218.07</v>
@@ -5116,74 +5501,80 @@
         <v>20.07</v>
       </c>
       <c r="I129">
-        <v>5857.9736659999999</v>
+        <v>1895</v>
       </c>
       <c r="J129">
+        <v>0.4314988735799397</v>
+      </c>
+      <c r="K129">
         <v>1.120474861733276</v>
       </c>
-      <c r="K129">
-        <v>1.1241310737773511</v>
-      </c>
       <c r="L129">
-        <v>1.0386344385134429</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.124131073777351</v>
+      </c>
+      <c r="M129">
+        <v>1.038634438513443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2">
         <v>44773</v>
       </c>
       <c r="B130">
-        <v>0.60099999999999998</v>
+        <v>0.601</v>
       </c>
       <c r="C130">
         <v>108.92</v>
       </c>
       <c r="D130">
-        <v>51.330030472979999</v>
+        <v>51.33003047298</v>
       </c>
       <c r="E130">
-        <v>1.6023636925599999E-3</v>
+        <v>0.00160236369256</v>
       </c>
       <c r="F130">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G130">
         <v>191.59</v>
       </c>
       <c r="H130">
-        <v>20.079999999999998</v>
+        <v>20.08</v>
       </c>
       <c r="I130">
-        <v>10346.628875</v>
+        <v>965</v>
       </c>
       <c r="J130">
+        <v>0.4229605741569059</v>
+      </c>
+      <c r="K130">
         <v>1.16786800286767</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>1.123289004127497</v>
       </c>
-      <c r="L130">
-        <v>0.99895578451332112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130">
+        <v>0.9989557845133211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2">
         <v>44804</v>
       </c>
       <c r="B131">
-        <v>0.59125000000000005</v>
+        <v>0.5912500000000001</v>
       </c>
       <c r="C131">
-        <v>98.6</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D131">
-        <v>70.043639803389993</v>
+        <v>70.04363980338999</v>
       </c>
       <c r="E131">
-        <v>2.8598623681999998E-4</v>
+        <v>0.00028598623682</v>
       </c>
       <c r="F131">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G131">
         <v>159.22</v>
@@ -5192,36 +5583,39 @@
         <v>20.2</v>
       </c>
       <c r="I131">
-        <v>10080.216522000001</v>
+        <v>1760</v>
       </c>
       <c r="J131">
-        <v>1.2482679950935069</v>
+        <v>0.427098100384093</v>
       </c>
       <c r="K131">
-        <v>1.1723366137788289</v>
+        <v>1.248267995093507</v>
       </c>
       <c r="L131">
-        <v>0.99204449865397848</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.172336613778829</v>
+      </c>
+      <c r="M131">
+        <v>0.9920444986539785</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2">
         <v>44834</v>
       </c>
       <c r="B132">
-        <v>0.67800000000000005</v>
+        <v>0.678</v>
       </c>
       <c r="C132">
         <v>90.16</v>
       </c>
       <c r="D132">
-        <v>59.102622250380001</v>
+        <v>59.10262225038</v>
       </c>
       <c r="E132">
-        <v>3.5691163859799999E-3</v>
+        <v>0.00356911638598</v>
       </c>
       <c r="F132">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G132">
         <v>134.72</v>
@@ -5230,36 +5624,39 @@
         <v>20.8</v>
       </c>
       <c r="I132">
-        <v>13366.05091</v>
+        <v>1463</v>
       </c>
       <c r="J132">
+        <v>0.4150715460078233</v>
+      </c>
+      <c r="K132">
         <v>1.292183548195688</v>
       </c>
-      <c r="K132">
-        <v>1.2031635187016421</v>
-      </c>
       <c r="L132">
-        <v>1.0043941133314509</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.203163518701642</v>
+      </c>
+      <c r="M132">
+        <v>1.004394113331451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="2">
         <v>44865</v>
       </c>
       <c r="B133">
-        <v>0.63624999999999998</v>
+        <v>0.63625</v>
       </c>
       <c r="C133">
         <v>93.13</v>
       </c>
       <c r="D133">
-        <v>39.022049938450003</v>
+        <v>39.02204993845</v>
       </c>
       <c r="E133">
-        <v>1.16745907546E-3</v>
+        <v>0.00116745907546</v>
       </c>
       <c r="F133">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G133">
         <v>198.93</v>
@@ -5268,19 +5665,22 @@
         <v>20.84</v>
       </c>
       <c r="I133">
-        <v>10682.943569999999</v>
+        <v>1355</v>
       </c>
       <c r="J133">
+        <v>0.4181872176073877</v>
+      </c>
+      <c r="K133">
         <v>1.310196068599417</v>
       </c>
-      <c r="K133">
-        <v>1.1961850787830199</v>
-      </c>
       <c r="L133">
+        <v>1.19618507878302</v>
+      </c>
+      <c r="M133">
         <v>1.018680420397299</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" s="2">
         <v>44895</v>
       </c>
@@ -5288,16 +5688,16 @@
         <v>0.58875</v>
       </c>
       <c r="C134">
-        <v>91.07</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="D134">
         <v>35.72328224044</v>
       </c>
       <c r="E134">
-        <v>-7.0207270670000004E-5</v>
+        <v>-7.020727067E-05</v>
       </c>
       <c r="F134">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G134">
         <v>171.93</v>
@@ -5306,36 +5706,39 @@
         <v>20.82</v>
       </c>
       <c r="I134">
-        <v>8996.4690200000005</v>
+        <v>1515</v>
       </c>
       <c r="J134">
+        <v>0.4200863261214181</v>
+      </c>
+      <c r="K134">
         <v>1.293497790224196</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>1.197417748251064</v>
       </c>
-      <c r="L134">
-        <v>0.99702844369124921</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134">
+        <v>0.9970284436912492</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2">
         <v>44926</v>
       </c>
       <c r="B135">
-        <v>0.51937999999999995</v>
+        <v>0.51938</v>
       </c>
       <c r="C135">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D135">
-        <v>36.044260036140003</v>
+        <v>36.04426003614</v>
       </c>
       <c r="E135">
-        <v>1.57748202329E-3</v>
+        <v>0.00157748202329</v>
       </c>
       <c r="F135">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G135">
         <v>169.82</v>
@@ -5344,95 +5747,104 @@
         <v>21.29</v>
       </c>
       <c r="I135">
-        <v>10896.843430000001</v>
+        <v>681</v>
       </c>
       <c r="J135">
+        <v>0.4068708911667951</v>
+      </c>
+      <c r="K135">
         <v>1.198608495949633</v>
       </c>
-      <c r="K135">
+      <c r="L135">
         <v>1.181452698983275</v>
       </c>
-      <c r="L135">
-        <v>0.96513995266359265</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135">
+        <v>0.9651399526635926</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2">
         <v>44957</v>
       </c>
       <c r="B136">
-        <v>0.44374999999999998</v>
+        <v>0.44375</v>
       </c>
       <c r="C136">
         <v>83.09</v>
       </c>
       <c r="D136">
-        <v>20.183970921349999</v>
+        <v>20.18397092135</v>
       </c>
       <c r="E136">
-        <v>1.2058698303300001E-3</v>
+        <v>0.00120586983033</v>
       </c>
       <c r="F136">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G136">
-        <v>287.28452054794519</v>
+        <v>287.2845205479452</v>
       </c>
       <c r="H136">
-        <v>20.770547945205479</v>
+        <v>20.77054794520548</v>
       </c>
       <c r="I136">
-        <v>11764.143317</v>
+        <v>990</v>
       </c>
       <c r="J136">
+        <v>0.417211062852551</v>
+      </c>
+      <c r="K136">
         <v>1.174684475237928</v>
       </c>
-      <c r="K136">
+      <c r="L136">
         <v>1.170395373570146</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <v>0.9331739747173603</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137" s="2">
         <v>44985</v>
       </c>
       <c r="B137">
-        <v>0.35749999999999998</v>
+        <v>0.3575</v>
       </c>
       <c r="C137">
-        <v>82.71</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="D137">
-        <v>16.537137278909999</v>
+        <v>16.53713727891</v>
       </c>
       <c r="E137">
-        <v>1.8277274577E-4</v>
+        <v>0.00018277274577</v>
       </c>
       <c r="F137">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G137">
-        <v>315.84712328767131</v>
+        <v>315.8471232876713</v>
       </c>
       <c r="H137">
         <v>20.86972602739726</v>
       </c>
       <c r="I137">
-        <v>10729.088323</v>
+        <v>1389</v>
       </c>
       <c r="J137">
-        <v>1.1758427642163329</v>
+        <v>0.4283147991232886</v>
       </c>
       <c r="K137">
-        <v>1.1579214256691459</v>
+        <v>1.175842764216333</v>
       </c>
       <c r="L137">
-        <v>0.92257627457561586</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.157921425669146</v>
+      </c>
+      <c r="M137">
+        <v>0.9225762745756159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="2">
         <v>45016</v>
       </c>
@@ -5443,39 +5855,42 @@
         <v>78.53</v>
       </c>
       <c r="D138">
-        <v>13.812076862290001</v>
+        <v>13.81207686229</v>
       </c>
       <c r="E138">
-        <v>6.4985238998999995E-4</v>
+        <v>0.00064985238999</v>
       </c>
       <c r="F138">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G138">
-        <v>367.95780821917799</v>
+        <v>367.957808219178</v>
       </c>
       <c r="H138">
         <v>20.91493150684931</v>
       </c>
       <c r="I138">
-        <v>12897.554323</v>
+        <v>1576</v>
       </c>
       <c r="J138">
-        <v>1.1578282026996349</v>
+        <v>0.4354095180796214</v>
       </c>
       <c r="K138">
-        <v>1.1410323773400759</v>
+        <v>1.157828202699635</v>
       </c>
       <c r="L138">
-        <v>0.88616328277536283</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.141032377340076</v>
+      </c>
+      <c r="M138">
+        <v>0.8861632827753628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="2">
         <v>45046</v>
       </c>
       <c r="B139">
-        <v>0.31337999999999999</v>
+        <v>0.31338</v>
       </c>
       <c r="C139">
         <v>84.11</v>
@@ -5484,36 +5899,39 @@
         <v>13.52052961513</v>
       </c>
       <c r="E139">
-        <v>1.9621746189800002E-3</v>
+        <v>0.00196217461898</v>
       </c>
       <c r="F139">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G139">
-        <v>346.80739726027389</v>
+        <v>346.8073972602739</v>
       </c>
       <c r="H139">
         <v>20.85602739726027</v>
       </c>
       <c r="I139">
-        <v>11470.164392999999</v>
+        <v>977</v>
       </c>
       <c r="J139">
+        <v>0.4411014470480559</v>
+      </c>
+      <c r="K139">
         <v>1.078547904516356</v>
       </c>
-      <c r="K139">
-        <v>0.94673136499137744</v>
-      </c>
       <c r="L139">
-        <v>0.84210606302436786</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9467313649913774</v>
+      </c>
+      <c r="M139">
+        <v>0.8421060630243679</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="2">
         <v>45077</v>
       </c>
       <c r="B140">
-        <v>0.32924999999999999</v>
+        <v>0.32925</v>
       </c>
       <c r="C140">
         <v>75.7</v>
@@ -5522,36 +5940,39 @@
         <v>10.10875599841</v>
       </c>
       <c r="E140">
-        <v>8.9208560651000003E-4</v>
+        <v>0.00089208560651</v>
       </c>
       <c r="F140">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G140">
-        <v>294.99397260273969</v>
+        <v>294.9939726027397</v>
       </c>
       <c r="H140">
-        <v>20.534383561643839</v>
+        <v>20.53438356164384</v>
       </c>
       <c r="I140">
-        <v>12468.853061</v>
+        <v>1091</v>
       </c>
       <c r="J140">
-        <v>1.0386406925442839</v>
+        <v>0.4552165907545774</v>
       </c>
       <c r="K140">
-        <v>0.85106231888117734</v>
+        <v>1.038640692544284</v>
       </c>
       <c r="L140">
-        <v>0.77420788052719713</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.8510623188811773</v>
+      </c>
+      <c r="M140">
+        <v>0.7742078805271971</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="2">
         <v>45107</v>
       </c>
       <c r="B141">
-        <v>0.28749999999999998</v>
+        <v>0.2875</v>
       </c>
       <c r="C141">
         <v>74.89</v>
@@ -5560,107 +5981,116 @@
         <v>10.35062473915</v>
       </c>
       <c r="E141">
-        <v>3.7371072992899998E-3</v>
+        <v>0.00373710729929</v>
       </c>
       <c r="F141">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G141">
-        <v>230.55068493150691</v>
+        <v>230.5506849315069</v>
       </c>
       <c r="H141">
-        <v>19.792328767123291</v>
+        <v>19.79232876712329</v>
       </c>
       <c r="I141">
-        <v>12420.804959999999</v>
+        <v>1127</v>
       </c>
       <c r="J141">
-        <v>0.99596422476946644</v>
+        <v>0.4606441776542338</v>
       </c>
       <c r="K141">
-        <v>0.79953108464007683</v>
+        <v>0.9959642247694664</v>
       </c>
       <c r="L141">
+        <v>0.7995310846400768</v>
+      </c>
+      <c r="M141">
         <v>0.6957576403035699</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" s="2">
         <v>45138</v>
       </c>
       <c r="B142">
-        <v>0.33462999999999998</v>
+        <v>0.33463</v>
       </c>
       <c r="C142">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D142">
-        <v>9.5452839896799997</v>
+        <v>9.54528398968</v>
       </c>
       <c r="E142">
-        <v>5.3904333131199996E-3</v>
+        <v>0.00539043331312</v>
       </c>
       <c r="F142">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G142">
-        <v>198.78424657534251</v>
+        <v>198.7842465753425</v>
       </c>
       <c r="H142">
-        <v>19.323698630136992</v>
+        <v>19.32369863013699</v>
       </c>
       <c r="I142">
-        <v>10706.056592999999</v>
+        <v>1086</v>
       </c>
       <c r="J142">
-        <v>0.94639757312577244</v>
+        <v>0.4584960806791654</v>
       </c>
       <c r="K142">
-        <v>0.74030796444656066</v>
+        <v>0.9463975731257724</v>
       </c>
       <c r="L142">
-        <v>0.65194260443692453</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.7403079644465607</v>
+      </c>
+      <c r="M142">
+        <v>0.6519426044369245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="2">
         <v>45169</v>
       </c>
       <c r="B143">
-        <v>0.38562999999999997</v>
+        <v>0.38563</v>
       </c>
       <c r="C143">
-        <v>86.162999999999997</v>
+        <v>86.163</v>
       </c>
       <c r="D143">
-        <v>11.191944563690001</v>
+        <v>11.19194456369</v>
       </c>
       <c r="E143">
-        <v>5.0296887896199996E-3</v>
+        <v>0.00502968878962</v>
       </c>
       <c r="F143">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G143">
-        <v>164.71027397260269</v>
+        <v>164.7102739726027</v>
       </c>
       <c r="H143">
-        <v>19.579999999999998</v>
+        <v>19.58</v>
       </c>
       <c r="I143">
-        <v>10530.22184</v>
+        <v>1701</v>
       </c>
       <c r="J143">
-        <v>0.92568620084712905</v>
+        <v>0.4470955345908955</v>
       </c>
       <c r="K143">
-        <v>0.74609206964943009</v>
+        <v>0.925686200847129</v>
       </c>
       <c r="L143">
-        <v>0.65170899824369033</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.7460920696494301</v>
+      </c>
+      <c r="M143">
+        <v>0.6517089982436903</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="2">
         <v>45199</v>
       </c>
@@ -5674,209 +6104,227 @@
         <v>11.54929514615</v>
       </c>
       <c r="E144">
-        <v>3.7853311465000001E-4</v>
+        <v>0.00037853311465</v>
       </c>
       <c r="F144">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G144">
-        <v>177.46027397260269</v>
+        <v>177.4602739726027</v>
       </c>
       <c r="H144">
-        <v>19.953424657534249</v>
+        <v>19.95342465753425</v>
       </c>
       <c r="I144">
-        <v>16206.180956</v>
+        <v>1459</v>
       </c>
       <c r="J144">
-        <v>0.95322741544683309</v>
+        <v>0.4478962499552843</v>
       </c>
       <c r="K144">
+        <v>0.9532274154468331</v>
+      </c>
+      <c r="L144">
         <v>0.7346532009962643</v>
       </c>
-      <c r="L144">
-        <v>0.66292927732573115</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144">
+        <v>0.6629292773257311</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="2">
         <v>45230</v>
       </c>
       <c r="B145">
-        <v>0.41138000000000002</v>
+        <v>0.41138</v>
       </c>
       <c r="C145">
-        <v>91.061000000000007</v>
+        <v>91.06100000000001</v>
       </c>
       <c r="D145">
         <v>14.56950705657</v>
       </c>
       <c r="E145">
-        <v>-1.7501803864400001E-3</v>
+        <v>-0.00175018038644</v>
       </c>
       <c r="F145">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G145">
-        <v>205.47863013698631</v>
+        <v>205.4786301369863</v>
       </c>
       <c r="H145">
-        <v>20.231780821917809</v>
+        <v>20.23178082191781</v>
       </c>
       <c r="I145">
-        <v>14718.155000000001</v>
+        <v>2937</v>
       </c>
       <c r="J145">
-        <v>0.94599247114297835</v>
+        <v>0.4335256992262623</v>
       </c>
       <c r="K145">
-        <v>0.73389518711060109</v>
+        <v>0.9459924711429784</v>
       </c>
       <c r="L145">
-        <v>0.67716792009747662</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.7338951871106011</v>
+      </c>
+      <c r="M145">
+        <v>0.6771679200974766</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="2">
         <v>45260</v>
       </c>
       <c r="B146">
-        <v>0.38550000000000001</v>
+        <v>0.3855</v>
       </c>
       <c r="C146">
-        <v>83.183000000000007</v>
+        <v>83.18300000000001</v>
       </c>
       <c r="D146">
         <v>14.48505487638</v>
       </c>
       <c r="E146">
-        <v>-3.9919961713500004E-3</v>
+        <v>-0.00399199617135</v>
       </c>
       <c r="F146">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G146">
-        <v>208.52082191780821</v>
+        <v>208.5208219178082</v>
       </c>
       <c r="H146">
-        <v>20.382054794520549</v>
+        <v>20.38205479452055</v>
       </c>
       <c r="I146">
-        <v>13071.85952</v>
+        <v>2094</v>
       </c>
       <c r="J146">
-        <v>0.93768189161242288</v>
+        <v>0.4279826061804835</v>
       </c>
       <c r="K146">
-        <v>0.71257671155591074</v>
+        <v>0.9376818916124229</v>
       </c>
       <c r="L146">
-        <v>0.67667524519453959</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.7125767115559107</v>
+      </c>
+      <c r="M146">
+        <v>0.6766752451945396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="2">
         <v>45291</v>
       </c>
       <c r="B147">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="C147">
-        <v>77.858000000000004</v>
+        <v>77.858</v>
       </c>
       <c r="D147">
-        <v>11.506657906659999</v>
+        <v>11.50665790666</v>
       </c>
       <c r="E147">
-        <v>-2.3225585349000001E-4</v>
+        <v>-0.00023225585349</v>
       </c>
       <c r="F147">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="G147">
-        <v>240.88780821917811</v>
+        <v>240.8878082191781</v>
       </c>
       <c r="H147">
         <v>20.62109589041096</v>
       </c>
       <c r="I147">
-        <v>16298.910889999999</v>
+        <v>1398</v>
       </c>
       <c r="J147">
-        <v>0.92821344372229564</v>
+        <v>0.424569904652916</v>
       </c>
       <c r="K147">
-        <v>0.68737599240611513</v>
+        <v>0.9282134437222956</v>
       </c>
       <c r="L147">
-        <v>0.64829633622090066</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6873759924061151</v>
+      </c>
+      <c r="M147">
+        <v>0.6482963362209007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="2">
         <v>45322</v>
       </c>
       <c r="B148">
-        <v>0.33538000000000001</v>
+        <v>0.33538</v>
       </c>
       <c r="C148">
-        <v>80.227000000000004</v>
+        <v>80.227</v>
       </c>
       <c r="D148">
-        <v>9.5596135531200002</v>
+        <v>9.55961355312</v>
       </c>
       <c r="E148">
-        <v>1.2534570104900001E-3</v>
+        <v>0.00125345701049</v>
       </c>
       <c r="F148">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="I148">
-        <v>13485.387704000001</v>
+        <v>2111</v>
       </c>
       <c r="J148">
-        <v>0.89083177357675469</v>
+        <v>0.4197783605972026</v>
       </c>
       <c r="K148">
-        <v>0.64580212031649897</v>
+        <v>0.8908317735767547</v>
       </c>
       <c r="L148">
+        <v>0.645802120316499</v>
+      </c>
+      <c r="M148">
         <v>0.6219078592027808</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149" s="2">
         <v>45351</v>
       </c>
       <c r="B149">
-        <v>0.35125000000000001</v>
+        <v>0.35125</v>
       </c>
       <c r="C149">
-        <v>83.763999999999996</v>
+        <v>83.764</v>
       </c>
       <c r="D149">
-        <v>8.1483808676400002</v>
+        <v>8.14838086764</v>
       </c>
       <c r="E149">
-        <v>9.2817046871000004E-4</v>
+        <v>0.00092817046871</v>
       </c>
       <c r="F149">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="I149">
-        <v>14071.209981</v>
+        <v>1821</v>
       </c>
       <c r="J149">
-        <v>0.69866013439740204</v>
+        <v>0.4260518803189536</v>
       </c>
       <c r="K149">
-        <v>0.49556971338925221</v>
+        <v>0.698660134397402</v>
       </c>
       <c r="L149">
+        <v>0.4955697133892522</v>
+      </c>
+      <c r="M149">
         <v>0.4838418500636259</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150" s="2">
         <v>45382</v>
       </c>
@@ -5884,31 +6332,34 @@
         <v>0.33</v>
       </c>
       <c r="C150">
-        <v>85.447000000000003</v>
+        <v>85.447</v>
       </c>
       <c r="D150">
-        <v>8.5537263218300001</v>
+        <v>8.55372632183</v>
       </c>
       <c r="E150">
-        <v>2.8804094734899998E-3</v>
+        <v>0.00288040947349</v>
       </c>
       <c r="F150">
-        <v>168.20156001145301</v>
+        <v>168.201560011453</v>
       </c>
       <c r="I150">
-        <v>11421.686390000001</v>
+        <v>1685</v>
       </c>
       <c r="J150">
+        <v>0.4311292700074834</v>
+      </c>
+      <c r="K150">
         <v>0.777707726822921</v>
       </c>
-      <c r="K150">
-        <v>0.54081078560023388</v>
-      </c>
       <c r="L150">
-        <v>0.52537230117329392</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5408107856002339</v>
+      </c>
+      <c r="M150">
+        <v>0.5253723011732939</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="2">
         <v>45412</v>
       </c>
@@ -5916,118 +6367,127 @@
         <v>0.32</v>
       </c>
       <c r="C151">
-        <v>90.054000000000002</v>
+        <v>90.054</v>
       </c>
       <c r="D151">
-        <v>9.0851190056700002</v>
+        <v>9.08511900567</v>
       </c>
       <c r="E151">
-        <v>1.2730999205960001E-2</v>
+        <v>0.01273099920596</v>
       </c>
       <c r="F151">
-        <v>173.00731886892299</v>
+        <v>173.007318868923</v>
       </c>
       <c r="I151">
-        <v>9400.9639920000009</v>
+        <v>1815</v>
       </c>
       <c r="J151">
-        <v>0.87780578980786939</v>
+        <v>0.4235886196926391</v>
       </c>
       <c r="K151">
-        <v>0.62652619586033631</v>
+        <v>0.8778057898078694</v>
       </c>
       <c r="L151">
-        <v>0.59228289493311659</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6265261958603363</v>
+      </c>
+      <c r="M151">
+        <v>0.5922828949331166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="2">
         <v>45443</v>
       </c>
       <c r="C152">
-        <v>81.995000000000005</v>
+        <v>81.995</v>
       </c>
       <c r="D152">
         <v>10.12306554509</v>
       </c>
       <c r="E152">
-        <v>-1.1919403790299999E-3</v>
+        <v>-0.00119194037903</v>
       </c>
       <c r="F152">
-        <v>173.00731886892299</v>
+        <v>173.007318868923</v>
       </c>
       <c r="I152">
-        <v>13379.146654</v>
+        <v>2050</v>
       </c>
       <c r="J152">
-        <v>0.85054968627198047</v>
+        <v>0.4309165925465337</v>
       </c>
       <c r="K152">
-        <v>0.59826281395902281</v>
+        <v>0.8505496862719805</v>
       </c>
       <c r="L152">
-        <v>0.57822257285562029</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5982628139590228</v>
+      </c>
+      <c r="M152">
+        <v>0.5782225728556203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="2">
         <v>45473</v>
       </c>
       <c r="C153">
-        <v>82.555000000000007</v>
+        <v>82.55500000000001</v>
       </c>
       <c r="D153">
-        <v>10.868977899780001</v>
+        <v>10.86897789978</v>
       </c>
       <c r="E153">
-        <v>-9.5207111757000008E-3</v>
+        <v>-0.009520711175700001</v>
       </c>
       <c r="F153">
-        <v>173.00731886892299</v>
+        <v>173.007318868923</v>
       </c>
       <c r="I153">
-        <v>14004.094446999999</v>
+        <v>1708</v>
       </c>
       <c r="J153">
-        <v>0.85588007129096022</v>
+        <v>0.4328209709492213</v>
       </c>
       <c r="K153">
-        <v>0.58249147722853234</v>
+        <v>0.8558800712909602</v>
       </c>
       <c r="L153">
-        <v>0.55557067387198389</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5824914772285323</v>
+      </c>
+      <c r="M153">
+        <v>0.5555706738719839</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="2">
         <v>45504</v>
       </c>
       <c r="C154">
-        <v>85.296000000000006</v>
+        <v>85.29600000000001</v>
       </c>
       <c r="D154">
         <v>10.34681932853</v>
       </c>
       <c r="E154">
-        <v>9.3039290123500002E-3</v>
+        <v>0.00930392901235</v>
       </c>
       <c r="F154">
-        <v>173.00731886892299</v>
+        <v>173.007318868923</v>
       </c>
       <c r="I154">
-        <v>13014.657209999999</v>
-      </c>
-      <c r="J154">
-        <v>0.88039073472723772</v>
+        <v>1814</v>
       </c>
       <c r="K154">
-        <v>0.57682205432194311</v>
+        <v>0.8803907347272377</v>
       </c>
       <c r="L154">
-        <v>0.55832860694312936</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5768220543219431</v>
+      </c>
+      <c r="M154">
+        <v>0.5583286069431294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="2">
         <v>45535</v>
       </c>
@@ -6038,22 +6498,38 @@
         <v>12.37459819711</v>
       </c>
       <c r="E155">
-        <v>2.1629147770700001E-3</v>
+        <v>0.00216291477707</v>
       </c>
       <c r="F155">
-        <v>173.00731886892299</v>
+        <v>173.007318868923</v>
       </c>
       <c r="I155">
-        <v>13914.468559999999</v>
-      </c>
-      <c r="J155">
+        <v>2084</v>
+      </c>
+      <c r="K155">
         <v>0.879706142553904</v>
       </c>
-      <c r="K155">
-        <v>0.57667386771215701</v>
-      </c>
       <c r="L155">
-        <v>0.56566120194117908</v>
+        <v>0.576673867712157</v>
+      </c>
+      <c r="M155">
+        <v>0.5656612019411791</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="2">
+        <v>45565</v>
+      </c>
+      <c r="I156">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="2">
+        <v>45596</v>
+      </c>
+      <c r="I157">
+        <v>1537</v>
       </c>
     </row>
   </sheetData>

--- a/data/predicción_precios_fertilizantes.xlsx
+++ b/data/predicción_precios_fertilizantes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>fob_urea_kg</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>natural_gas_europe_usd_per_mmbtu</t>
+  </si>
+  <si>
+    <t>coal_australian_usd_per_mt</t>
+  </si>
+  <si>
+    <t>coal_south_african_usd_per_mt</t>
   </si>
   <si>
     <t>inflación_mensual</t>
@@ -416,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -462,8 +468,14 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>40877</v>
       </c>
@@ -477,16 +489,22 @@
         <v>11.32</v>
       </c>
       <c r="E2">
+        <v>113.78</v>
+      </c>
+      <c r="F2">
+        <v>105.47</v>
+      </c>
+      <c r="G2">
         <v>0.00303368</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>187.79</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>20.77</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>40908</v>
       </c>
@@ -500,16 +518,22 @@
         <v>11.53</v>
       </c>
       <c r="E3">
+        <v>111.56</v>
+      </c>
+      <c r="F3">
+        <v>104.19</v>
+      </c>
+      <c r="G3">
         <v>0.00397937</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>270.52</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>20.99</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>40939</v>
       </c>
@@ -523,19 +547,25 @@
         <v>11.45</v>
       </c>
       <c r="E4">
+        <v>116.46</v>
+      </c>
+      <c r="F4">
+        <v>106.26</v>
+      </c>
+      <c r="G4">
         <v>0.00567152</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>397.44</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>20.87</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>40968</v>
       </c>
@@ -549,19 +579,25 @@
         <v>11.12</v>
       </c>
       <c r="E5">
+        <v>117.02</v>
+      </c>
+      <c r="F5">
+        <v>105.3</v>
+      </c>
+      <c r="G5">
         <v>0.00777487</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>432.71</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>20.81</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>934</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>40999</v>
       </c>
@@ -575,19 +611,25 @@
         <v>11.97</v>
       </c>
       <c r="E6">
+        <v>107.46</v>
+      </c>
+      <c r="F6">
+        <v>103.43</v>
+      </c>
+      <c r="G6">
         <v>0.00900918</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>445.15</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>21.1</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1155</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>41029</v>
       </c>
@@ -601,19 +643,25 @@
         <v>11.42</v>
       </c>
       <c r="E7">
+        <v>103.59</v>
+      </c>
+      <c r="F7">
+        <v>101.33</v>
+      </c>
+      <c r="G7">
         <v>0.00157996</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>383.58</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>21.34</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>923</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>41060</v>
       </c>
@@ -627,19 +675,25 @@
         <v>11.64</v>
       </c>
       <c r="E8">
+        <v>95.83</v>
+      </c>
+      <c r="F8">
+        <v>93.77</v>
+      </c>
+      <c r="G8">
         <v>-0.00194056</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>326.04</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>21.03</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1004</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>41090</v>
       </c>
@@ -653,22 +707,28 @@
         <v>11.49</v>
       </c>
       <c r="E9">
+        <v>87.19</v>
+      </c>
+      <c r="F9">
+        <v>85.31</v>
+      </c>
+      <c r="G9">
         <v>0.00175095</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>207.28</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>20.66</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>897</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.45156912230711</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>41121</v>
       </c>
@@ -682,22 +742,28 @@
         <v>11.13</v>
       </c>
       <c r="E10">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="F10">
+        <v>87.33</v>
+      </c>
+      <c r="G10">
         <v>0.00261228</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>206.41</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>20.17</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>703</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.4563965557663374</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>41152</v>
       </c>
@@ -711,22 +777,28 @@
         <v>11.18</v>
       </c>
       <c r="E11">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>89.11</v>
+      </c>
+      <c r="G11">
         <v>0.00288668</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>157.41</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>20.15</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>766</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.4657127177546659</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>41182</v>
       </c>
@@ -740,22 +812,28 @@
         <v>11.08</v>
       </c>
       <c r="E12">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="F12">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="G12">
         <v>0.01121914</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>137.1</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>20.29</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>1026</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.4753112583617692</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>41213</v>
       </c>
@@ -769,22 +847,28 @@
         <v>11.58</v>
       </c>
       <c r="E13">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="F13">
+        <v>82.8</v>
+      </c>
+      <c r="G13">
         <v>0.00086008</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>192.12</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>20.77</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>1086</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.4765936417394134</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>41243</v>
       </c>
@@ -798,22 +882,28 @@
         <v>11.83</v>
       </c>
       <c r="E14">
+        <v>85.89</v>
+      </c>
+      <c r="F14">
+        <v>85.73999999999999</v>
+      </c>
+      <c r="G14">
         <v>0.00139346</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>236.59</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>21.13</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>699</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.4834270269365712</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>41274</v>
       </c>
@@ -827,22 +917,28 @@
         <v>11.79</v>
       </c>
       <c r="E15">
+        <v>92.88</v>
+      </c>
+      <c r="F15">
+        <v>88.84</v>
+      </c>
+      <c r="G15">
         <v>-0.00185782</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>236.57</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>21.09</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>760</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.4959887405894605</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>41305</v>
       </c>
@@ -856,34 +952,40 @@
         <v>11.87</v>
       </c>
       <c r="E16">
+        <v>92.77</v>
+      </c>
+      <c r="F16">
+        <v>86.13</v>
+      </c>
+      <c r="G16">
         <v>0.00502823</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>99.270073</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>277.5</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>21.4</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>757</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.4794243298594665</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.8672605470437807</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.6744008263913943</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.6571884357926305</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>41333</v>
       </c>
@@ -897,34 +999,40 @@
         <v>11.77</v>
       </c>
       <c r="E17">
+        <v>94.94</v>
+      </c>
+      <c r="F17">
+        <v>85.13</v>
+      </c>
+      <c r="G17">
         <v>0.00184694</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>99.270073</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>389.36</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>21.17</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>910</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.4615169282430922</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.8685473684210524</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.6973968253968253</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>0.6790224719101122</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>41364</v>
       </c>
@@ -938,34 +1046,40 @@
         <v>11.87</v>
       </c>
       <c r="E18">
+        <v>90.98</v>
+      </c>
+      <c r="F18">
+        <v>82.77</v>
+      </c>
+      <c r="G18">
         <v>0.00438385</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>99.270073</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>392.47</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>21.64</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>863</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.4507139496875138</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.8550798734425991</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.6786829500291331</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.6491428815279966</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>41394</v>
       </c>
@@ -979,34 +1093,40 @@
         <v>12.88</v>
       </c>
       <c r="E19">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F19">
+        <v>82.02</v>
+      </c>
+      <c r="G19">
         <v>0.00178991480129</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>99.270073</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>315.47</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>21.47</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>809</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.4335360613646838</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.8518106005524388</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.6778942746051847</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.6543445696018247</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>41425</v>
       </c>
@@ -1020,34 +1140,40 @@
         <v>12.29</v>
       </c>
       <c r="E20">
+        <v>87.70999999999999</v>
+      </c>
+      <c r="F20">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="G20">
         <v>-0.00217898312721</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>99.270073</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>294.04</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>20.92</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>1171</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.4195287575540546</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.8422469678076685</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.6676538974803573</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.6478541739249454</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>41455</v>
       </c>
@@ -1061,34 +1187,40 @@
         <v>11.92</v>
       </c>
       <c r="E21">
+        <v>82.75431946201</v>
+      </c>
+      <c r="F21">
+        <v>77.28942633542</v>
+      </c>
+      <c r="G21">
         <v>-0.00144789862262</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>99.270073</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>189.7</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>20.19</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>1062</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.4077643599351691</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>0.8585037107303684</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.6499071626810746</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>0.6320951778946903</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>41486</v>
       </c>
@@ -1102,34 +1234,40 @@
         <v>11.6</v>
       </c>
       <c r="E22">
+        <v>77.25921082883001</v>
+      </c>
+      <c r="F22">
+        <v>72.64328692981</v>
+      </c>
+      <c r="G22">
         <v>-0.00018660335055</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>99.270073</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>207.07</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>19.51</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>1132</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.4031226055231591</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>0.8348733420306047</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.6357231285495277</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.608623615595951</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>41517</v>
       </c>
@@ -1143,34 +1281,40 @@
         <v>11.64</v>
       </c>
       <c r="E23">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="F23">
+        <v>72.91200000000001</v>
+      </c>
+      <c r="G23">
         <v>0.0017359094249</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>99.270073</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>180.33</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>19.75</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>2003</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.4058843099211358</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.8405950985701316</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.6467457881835041</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.6213613680524864</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>41547</v>
       </c>
@@ -1184,34 +1328,40 @@
         <v>11.25</v>
       </c>
       <c r="E24">
+        <v>77.6125</v>
+      </c>
+      <c r="F24">
+        <v>73.0975</v>
+      </c>
+      <c r="G24">
         <v>0.00567880702632</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>99.270073</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>151.4</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>20.39</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>1504</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.4117237310940446</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>0.8487359058149437</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.6421140644338255</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.6223573908089982</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>41578</v>
       </c>
@@ -1225,34 +1375,40 @@
         <v>11.37</v>
       </c>
       <c r="E25">
+        <v>79.41249999999999</v>
+      </c>
+      <c r="F25">
+        <v>80.64749999999999</v>
+      </c>
+      <c r="G25">
         <v>0.00408272123409</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>99.270073</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>193.63</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>20.69</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>1821</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.4124671284722797</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>0.8232638929131122</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0.6348739077977877</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0.6073372445208857</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>41608</v>
       </c>
@@ -1266,34 +1422,40 @@
         <v>11.42</v>
       </c>
       <c r="E26">
+        <v>82.25</v>
+      </c>
+      <c r="F26">
+        <v>83.818</v>
+      </c>
+      <c r="G26">
         <v>0.00394188623561</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>99.270073</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>202.12</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>20.9</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>2277</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.418826042110677</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>0.8121355641936376</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>0.6306641597470233</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.6009369425458041</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>41639</v>
       </c>
@@ -1307,34 +1469,40 @@
         <v>11.55</v>
       </c>
       <c r="E27">
+        <v>84.33750000000001</v>
+      </c>
+      <c r="F27">
+        <v>84.61499999999999</v>
+      </c>
+      <c r="G27">
         <v>0.00203496635956</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>99.270073</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>203.44</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>21.3</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>1110</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.4171315477450044</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>0.8074058386419162</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.6107523031239191</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.5891253726199061</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" s="2">
         <v>41670</v>
       </c>
@@ -1348,34 +1516,40 @@
         <v>11.59</v>
       </c>
       <c r="E28">
+        <v>81.61</v>
+      </c>
+      <c r="F28">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="G28">
         <v>0.00721709623224</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>100</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>361.17</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>21.29</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>1258</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.4150385260743131</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>0.7709181489739785</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>0.6066373078667835</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.6002775590720512</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" s="2">
         <v>41698</v>
       </c>
@@ -1389,34 +1563,40 @@
         <v>11.3</v>
       </c>
       <c r="E29">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="F29">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="G29">
         <v>0.00109903582645</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>100</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>296.94</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>21.3</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>1362</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.4236299912409605</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.7925621089687369</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>0.6139503909803039</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.6597338111517724</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="2">
         <v>41729</v>
       </c>
@@ -1430,34 +1610,40 @@
         <v>10.88</v>
       </c>
       <c r="E30">
+        <v>73.34</v>
+      </c>
+      <c r="F30">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="G30">
         <v>0.00696282099423</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>100</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>353.4</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>21.3</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>943</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>0.4177867716223456</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>0.8068686654566634</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>0.6180948817281297</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.6651449333001744</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" s="2">
         <v>41759</v>
       </c>
@@ -1471,34 +1657,40 @@
         <v>10.73</v>
       </c>
       <c r="E31">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="F31">
+        <v>75.06</v>
+      </c>
+      <c r="G31">
         <v>0.0029547590082</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>100</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>330.56</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>21.02</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>934</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>0.4182133219109875</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>0.8020950461564855</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>0.6157498824700319</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.6503967749331658</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" s="2">
         <v>41790</v>
       </c>
@@ -1512,34 +1704,40 @@
         <v>10.2</v>
       </c>
       <c r="E32">
+        <v>73.69</v>
+      </c>
+      <c r="F32">
+        <v>75.78</v>
+      </c>
+      <c r="G32">
         <v>-0.00041124006945</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>100</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>341.67</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>21.02</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>850</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>0.4129992138890161</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>0.7871571321656488</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>0.6024213151913201</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>0.6364812405234331</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
         <v>41820</v>
       </c>
@@ -1553,34 +1751,40 @@
         <v>9.77</v>
       </c>
       <c r="E33">
+        <v>71.48</v>
+      </c>
+      <c r="F33">
+        <v>74.09</v>
+      </c>
+      <c r="G33">
         <v>0.00104061164432</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>100</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>244.63</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>20.83</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>755</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0.4152802924549676</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>0.7605184164311056</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>0.5887944817376379</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.6153944841018681</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
         <v>41851</v>
       </c>
@@ -1594,34 +1798,40 @@
         <v>9.27</v>
       </c>
       <c r="E34">
+        <v>68.75</v>
+      </c>
+      <c r="F34">
+        <v>71.44</v>
+      </c>
+      <c r="G34">
         <v>0.00403367510875</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>100</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>226.27</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>20.33</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>1147</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>0.4066837383073431</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>0.7638108928979822</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>0.5866103312581704</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>0.6019163744878601</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35" s="2">
         <v>41882</v>
       </c>
@@ -1635,34 +1845,40 @@
         <v>9.140000000000001</v>
       </c>
       <c r="E35">
+        <v>68.94</v>
+      </c>
+      <c r="F35">
+        <v>71.19</v>
+      </c>
+      <c r="G35">
         <v>0.00209425743043</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>196.13</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>20.17</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>1063</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>0.3920306726312142</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>0.7447946316492472</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0.5829472606075842</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>0.580972938994164</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
         <v>41912</v>
       </c>
@@ -1676,34 +1892,40 @@
         <v>9.24</v>
       </c>
       <c r="E36">
+        <v>65.94</v>
+      </c>
+      <c r="F36">
+        <v>67.86</v>
+      </c>
+      <c r="G36">
         <v>0.00612724231634</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>100</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>162.06</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>20.5</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>1428</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>0.3861868317778936</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>0.7357620290506148</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>0.5870616816596992</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>0.5789874107822613</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
         <v>41943</v>
       </c>
@@ -1717,34 +1939,40 @@
         <v>9.77</v>
       </c>
       <c r="E37">
+        <v>63.71</v>
+      </c>
+      <c r="F37">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="G37">
         <v>0.00202797923177</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>100</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>221.56</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>20.83</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>1153</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>0.3724359129333883</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>0.7253086512339686</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.5785585953770748</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>0.5644320052005543</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" s="2">
         <v>41973</v>
       </c>
@@ -1758,34 +1986,40 @@
         <v>8.9</v>
       </c>
       <c r="E38">
+        <v>62.55</v>
+      </c>
+      <c r="F38">
+        <v>65.66</v>
+      </c>
+      <c r="G38">
         <v>0.00181231082894</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>100</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>223.24</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>20.99</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>782</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.362745204761725</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>0.7343521954270652</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>0.5759530835877673</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.565783392934301</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39" s="2">
         <v>42004</v>
       </c>
@@ -1799,34 +2033,40 @@
         <v>9.83</v>
       </c>
       <c r="E39">
+        <v>62.44</v>
+      </c>
+      <c r="F39">
+        <v>66.14</v>
+      </c>
+      <c r="G39">
         <v>0.00114753345983</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>100</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>232.19</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>21.4</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>608</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>0.3510992060285357</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>0.7496580666379383</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>0.5707380048592361</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>0.5625403764026504</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" s="2">
         <v>42035</v>
       </c>
@@ -1840,34 +2080,40 @@
         <v>9.25</v>
       </c>
       <c r="E40">
+        <v>61.44</v>
+      </c>
+      <c r="F40">
+        <v>59.29</v>
+      </c>
+      <c r="G40">
         <v>0.00590365500828</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>98.02628841387055</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>304.83</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>21.08</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>540</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>0.3633513553533081</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>0.7511502344638139</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>0.5684258519003971</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>0.553810900247991</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" s="2">
         <v>42063</v>
       </c>
@@ -1881,34 +2127,40 @@
         <v>8.27</v>
       </c>
       <c r="E41">
+        <v>69.05</v>
+      </c>
+      <c r="F41">
+        <v>63.48</v>
+      </c>
+      <c r="G41">
         <v>0.00612390657803</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>98.12605701209255</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>251.57</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>21.61</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>602</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>0.3619573622046161</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>0.760122959601557</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>0.5697013828398625</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>0.5485366794799648</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15">
       <c r="A42" s="2">
         <v>42094</v>
       </c>
@@ -1922,34 +2174,40 @@
         <v>8.27</v>
       </c>
       <c r="E42">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="F42">
+        <v>59.92</v>
+      </c>
+      <c r="G42">
         <v>0.00414185867872</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>98.0838213392952</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>400.65</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>21.56</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>591</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>0.3631586862825686</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>0.7510792430703208</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>0.5736145998586352</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>0.5335659721072206</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:15">
       <c r="A43" s="2">
         <v>42124</v>
       </c>
@@ -1963,34 +2221,40 @@
         <v>6.77444566675</v>
       </c>
       <c r="E43">
+        <v>56.24</v>
+      </c>
+      <c r="F43">
+        <v>58.95</v>
+      </c>
+      <c r="G43">
         <v>0.00837239522369</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>98.08382133929511</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>386.07</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>21.67</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>589</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>0.3735984231823404</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>0.7504441289241636</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>0.5693962956377918</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>0.5323431924868129</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15">
       <c r="A44" s="2">
         <v>42155</v>
       </c>
@@ -2004,34 +2268,40 @@
         <v>6.68399731108</v>
       </c>
       <c r="E44">
+        <v>61.19</v>
+      </c>
+      <c r="F44">
+        <v>61.63</v>
+      </c>
+      <c r="G44">
         <v>0.00177027607802</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>98.08382133929511</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>352.84</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>21.62</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>800</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>0.371643349262247</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>0.7374647734611713</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>0.5617302190931903</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>0.5205763152449127</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:15">
       <c r="A45" s="2">
         <v>42185</v>
       </c>
@@ -2045,34 +2315,40 @@
         <v>6.66672592954</v>
       </c>
       <c r="E45">
+        <v>58.96</v>
+      </c>
+      <c r="F45">
+        <v>60.71</v>
+      </c>
+      <c r="G45">
         <v>0.00407548979979</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>98.08382133929511</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>278.02</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>21.11</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>1131</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>0.3806598010628011</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>0.7362471033447635</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>0.5489128209475207</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>0.5189061203564601</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:15">
       <c r="A46" s="2">
         <v>42216</v>
       </c>
@@ -2086,34 +2362,40 @@
         <v>6.69403713465</v>
       </c>
       <c r="E46">
+        <v>59.9</v>
+      </c>
+      <c r="F46">
+        <v>57.9</v>
+      </c>
+      <c r="G46">
         <v>-0.00079501885287</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>98.08382133929511</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>273.59</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>20.96</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>903</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>0.3759760596801022</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>0.7360409638412788</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>0.5437687296742808</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>0.5144546614152439</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:15">
       <c r="A47" s="2">
         <v>42247</v>
       </c>
@@ -2127,34 +2409,40 @@
         <v>6.34573758328</v>
       </c>
       <c r="E47">
+        <v>59.14</v>
+      </c>
+      <c r="F47">
+        <v>55.02</v>
+      </c>
+      <c r="G47">
         <v>-1.30889878E-05</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>98.08382133929511</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>165.8</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>21</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>900</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>0.380137587460814</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>0.7332783886586499</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>0.5439808398904451</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>0.5024883515962226</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:15">
       <c r="A48" s="2">
         <v>42277</v>
       </c>
@@ -2168,34 +2456,40 @@
         <v>6.27869866034</v>
       </c>
       <c r="E48">
+        <v>57.65</v>
+      </c>
+      <c r="F48">
+        <v>51.38</v>
+      </c>
+      <c r="G48">
         <v>0.00264426749746</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>98.02628841387089</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>141.76</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>21.73</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>721</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>0.38712188555477</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>0.7316656752119209</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>0.5389258902595203</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>0.5010827813650858</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15">
       <c r="A49" s="2">
         <v>42308</v>
       </c>
@@ -2209,34 +2503,40 @@
         <v>6.0269578206</v>
       </c>
       <c r="E49">
+        <v>54.26</v>
+      </c>
+      <c r="F49">
+        <v>50.11</v>
+      </c>
+      <c r="G49">
         <v>-0.0009048161875800001</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>98.02829483619688</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>252.51</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>21.68</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>584</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>0.390999486008941</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>0.7248172806003725</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>0.5239990920389065</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>0.4939633701442998</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:15">
       <c r="A50" s="2">
         <v>42338</v>
       </c>
@@ -2250,34 +2550,40 @@
         <v>5.50083385123</v>
       </c>
       <c r="E50">
+        <v>52.47</v>
+      </c>
+      <c r="F50">
+        <v>53.34</v>
+      </c>
+      <c r="G50">
         <v>0.00107409300206</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>98.02829483619688</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>265.22</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>21.77</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>478</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>0.3913746865263442</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>0.7279191205105335</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>0.5134723375152869</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>0.4862558135097635</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:15">
       <c r="A51" s="2">
         <v>42369</v>
       </c>
@@ -2291,34 +2597,40 @@
         <v>5.09276298262</v>
       </c>
       <c r="E51">
+        <v>52.21</v>
+      </c>
+      <c r="F51">
+        <v>48.77</v>
+      </c>
+      <c r="G51">
         <v>0.00094405261526</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>98.08582776162112</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>314.72</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>22.07</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>317</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>0.3926346665409587</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>0.7368903829903433</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>0.5789985427337893</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>0.5695672343194765</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:15">
       <c r="A52" s="2">
         <v>42400</v>
       </c>
@@ -2332,34 +2644,40 @@
         <v>4.39818627541</v>
       </c>
       <c r="E52">
+        <v>49.02</v>
+      </c>
+      <c r="F52">
+        <v>49.09</v>
+      </c>
+      <c r="G52">
         <v>0.00308156793444</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>98.08582776162126</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>298.85</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>22.72</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>329</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>0.394715478699426</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>0.7082951047200332</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>0.52035543962008</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>0.4820168788629647</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:15">
       <c r="A53" s="2">
         <v>42429</v>
       </c>
@@ -2373,34 +2691,40 @@
         <v>3.96837858928</v>
       </c>
       <c r="E53">
+        <v>50.27</v>
+      </c>
+      <c r="F53">
+        <v>50.33</v>
+      </c>
+      <c r="G53">
         <v>0.00138043624841</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>98.08582776162126</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>371.81</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>22.26</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>429</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>0.3936626755262751</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>0.7131837726449133</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>0.50661793829489</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>0.4752541678252299</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:15">
       <c r="A54" s="2">
         <v>42460</v>
       </c>
@@ -2414,34 +2738,40 @@
         <v>3.9101802431</v>
       </c>
       <c r="E54">
+        <v>52.21</v>
+      </c>
+      <c r="F54">
+        <v>52.57</v>
+      </c>
+      <c r="G54">
         <v>0.00137015609557</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>98.08582776162126</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>400.65</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>22.41</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>703</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>0.3987260088157574</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>0.7122545484395849</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>0.5097552412684396</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>0.4794919871561822</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:15">
       <c r="A55" s="2">
         <v>42490</v>
       </c>
@@ -2455,34 +2785,40 @@
         <v>3.97007508979</v>
       </c>
       <c r="E55">
+        <v>50.69</v>
+      </c>
+      <c r="F55">
+        <v>52.35</v>
+      </c>
+      <c r="G55">
         <v>0.00306576018604</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>98.08582776162126</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>392.07</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>22.18</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>612</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>0.4022115066583381</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>0.70524149096461</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>0.5264900767246228</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>0.4708083191360896</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15">
       <c r="A56" s="2">
         <v>42521</v>
       </c>
@@ -2496,34 +2832,40 @@
         <v>4.32919186506</v>
       </c>
       <c r="E56">
+        <v>51.31</v>
+      </c>
+      <c r="F56">
+        <v>54.24</v>
+      </c>
+      <c r="G56">
         <v>0.0003179953095</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>98.08582776162126</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>296.52</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>21.89</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>660</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>0.4096727873360953</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>0.6801871339478551</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>0.4919299661332283</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>0.4507667876778689</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15">
       <c r="A57" s="2">
         <v>42551</v>
       </c>
@@ -2537,34 +2879,40 @@
         <v>4.75572046689</v>
       </c>
       <c r="E57">
+        <v>52.85</v>
+      </c>
+      <c r="F57">
+        <v>58.59</v>
+      </c>
+      <c r="G57">
         <v>0.00358857193346</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>97.84130078642208</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>246.5</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>20.74</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>656</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>0.4100854917662889</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>0.6774509940113768</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>0.4827820835235166</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>0.4359624158169977</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:15">
       <c r="A58" s="2">
         <v>42582</v>
       </c>
@@ -2578,34 +2926,40 @@
         <v>4.67473769135</v>
       </c>
       <c r="E58">
+        <v>61.24</v>
+      </c>
+      <c r="F58">
+        <v>62.39</v>
+      </c>
+      <c r="G58">
         <v>-0.00085202382591</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>97.91208819177156</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>181.77</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>20.37</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>711</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>0.3989305479935704</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>0.67394890533351</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>0.4749401360383756</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>0.4324644529996413</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:15">
       <c r="A59" s="2">
         <v>42613</v>
       </c>
@@ -2619,34 +2973,40 @@
         <v>4.0474899302</v>
       </c>
       <c r="E59">
+        <v>67.39</v>
+      </c>
+      <c r="F59">
+        <v>66.34</v>
+      </c>
+      <c r="G59">
         <v>-0.00163017094656</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>97.91208819177152</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>134.29</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>20.83</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>875</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>0.4010237827584965</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>0.6517968140188468</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>0.4659717030490173</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>0.4148335152970328</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15">
       <c r="A60" s="2">
         <v>42643</v>
       </c>
@@ -2660,34 +3020,40 @@
         <v>4.25361416995</v>
       </c>
       <c r="E60">
+        <v>72.72</v>
+      </c>
+      <c r="F60">
+        <v>68.33</v>
+      </c>
+      <c r="G60">
         <v>0.00152368939712</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>97.91208819177152</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>200.68</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>20.83</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>857</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>0.3942835232948146</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>0.6581080643125961</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>0.4622594157791444</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>0.4049646873664867</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15">
       <c r="A61" s="2">
         <v>42674</v>
       </c>
@@ -2701,34 +3067,40 @@
         <v>5.33681888345</v>
       </c>
       <c r="E61">
+        <v>94.2</v>
+      </c>
+      <c r="F61">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="G61">
         <v>-0.00082248029822</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>97.91208819177152</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>202.9</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>21.13</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>1204</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>0.3888616002696634</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>0.6329962394515387</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>0.4569607153811139</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>0.4017526614000725</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:15">
       <c r="A62" s="2">
         <v>42704</v>
       </c>
@@ -2742,34 +3114,40 @@
         <v>5.69317950115</v>
       </c>
       <c r="E62">
+        <v>103.43</v>
+      </c>
+      <c r="F62">
+        <v>89.15000000000001</v>
+      </c>
+      <c r="G62">
         <v>-0.00145242116852</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>97.91208819177152</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>179.69</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>21.31</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>961</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>0.3884322882259986</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>0.644940891062284</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>0.4501325491753546</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>0.3924427379220669</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:15">
       <c r="A63" s="2">
         <v>42735</v>
       </c>
@@ -2783,34 +3161,40 @@
         <v>5.4235014224</v>
       </c>
       <c r="E63">
+        <v>88.15000000000001</v>
+      </c>
+      <c r="F63">
+        <v>80.19</v>
+      </c>
+      <c r="G63">
         <v>0.00158789945524</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>97.91208819177152</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>270.98</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>21.38</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>800</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>0.3852569322608603</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>0.6133937372661861</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>0.4381112528138649</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>0.3852240718303008</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:15">
       <c r="A64" s="2">
         <v>42766</v>
       </c>
@@ -2824,34 +3208,40 @@
         <v>6.1443492548</v>
       </c>
       <c r="E64">
+        <v>83.73</v>
+      </c>
+      <c r="F64">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="G64">
         <v>0.00087802460833</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>97.91208819177152</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>401.06</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>21.31</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>859</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>0.3896085848709588</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>0.6119653913513597</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>0.4189712864604639</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>0.3757816224299683</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:15">
       <c r="A65" s="2">
         <v>42794</v>
       </c>
@@ -2865,34 +3255,40 @@
         <v>6.0515836448</v>
       </c>
       <c r="E65">
+        <v>79.98</v>
+      </c>
+      <c r="F65">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="G65">
         <v>0.00198239742056</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>97.91208819177152</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>374.02</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>21.73</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>1297</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>0.3886822412953408</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>0.6094123404924796</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>0.4194869450039482</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>0.3801776975183191</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:15">
       <c r="A66" s="2">
         <v>42825</v>
       </c>
@@ -2906,34 +3302,40 @@
         <v>5.00094507654</v>
       </c>
       <c r="E66">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="F66">
+        <v>79.11</v>
+      </c>
+      <c r="G66">
         <v>0.00137693262354</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>97.91208819177152</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>506.02</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>21.62</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>1109</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>0.395023196674302</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>0.5906995176848999</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>0.4095239204696108</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>0.3796829711461435</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:15">
       <c r="A67" s="2">
         <v>42855</v>
       </c>
@@ -2947,34 +3349,40 @@
         <v>5.0109139183</v>
       </c>
       <c r="E67">
+        <v>83.65000000000001</v>
+      </c>
+      <c r="F67">
+        <v>78.89</v>
+      </c>
+      <c r="G67">
         <v>0.00434842015415</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>97.95424232791308</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>415.07</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>21.76</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>878</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>0.4017131293788604</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>0.5868720639049638</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>0.405180175617541</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>0.3853709019696611</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:15">
       <c r="A68" s="2">
         <v>42886</v>
       </c>
@@ -2988,34 +3396,40 @@
         <v>5.05843597847</v>
       </c>
       <c r="E68">
+        <v>74.42</v>
+      </c>
+      <c r="F68">
+        <v>74.41</v>
+      </c>
+      <c r="G68">
         <v>0.00045645566958</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>97.97997752065884</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>322.6</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>21.63</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>901</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>0.4084150849026822</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>0.573869282856736</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>0.4015699245825985</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>0.3794184921721392</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:15">
       <c r="A69" s="2">
         <v>42916</v>
       </c>
@@ -3029,34 +3443,40 @@
         <v>4.88676678563</v>
       </c>
       <c r="E69">
+        <v>81.09</v>
+      </c>
+      <c r="F69">
+        <v>79.2</v>
+      </c>
+      <c r="G69">
         <v>-0.00576902248113</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>97.97997752065884</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>320.13</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>20.94</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>946</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>0.408486286366037</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>0.5712148756594164</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>0.4034776979418357</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>0.3774734637533921</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:15">
       <c r="A70" s="2">
         <v>42947</v>
       </c>
@@ -3070,34 +3490,40 @@
         <v>5.00392083226</v>
       </c>
       <c r="E70">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="F70">
+        <v>81.69</v>
+      </c>
+      <c r="G70">
         <v>-0.00140564910807</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>97.97997752065884</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>217.77</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>20</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>1184</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>0.4065801691005467</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>0.5718061065673941</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>0.4039366566347481</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>0.3723830460132087</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:15">
       <c r="A71" s="2">
         <v>42978</v>
       </c>
@@ -3111,34 +3537,40 @@
         <v>5.47660118187</v>
       </c>
       <c r="E71">
+        <v>98.58</v>
+      </c>
+      <c r="F71">
+        <v>87.84</v>
+      </c>
+      <c r="G71">
         <v>0.00011880160151</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>97.97997752065884</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>173.8</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>20.64</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>1356</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>0.4008384160326589</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>0.5670839700904221</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>0.4000445458004329</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>0.3762183908862028</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:15">
       <c r="A72" s="2">
         <v>43008</v>
       </c>
@@ -3152,34 +3584,40 @@
         <v>5.96114997199</v>
       </c>
       <c r="E72">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F72">
+        <v>92.26000000000001</v>
+      </c>
+      <c r="G72">
         <v>-0.00153016125844</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>97.97997752065884</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>195.94</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>20.83</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>1522</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>0.3977211777410029</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>0.561030784199779</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>0.4021054445406691</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>0.372834926962389</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:15">
       <c r="A73" s="2">
         <v>43039</v>
       </c>
@@ -3193,34 +3631,40 @@
         <v>6.17632034854</v>
       </c>
       <c r="E73">
+        <v>97.11</v>
+      </c>
+      <c r="F73">
+        <v>91.43000000000001</v>
+      </c>
+      <c r="G73">
         <v>-0.00144501037016</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>97.97997752065884</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>238.19</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>20.9</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>1578</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>0.4012334394982691</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>0.5626949628126553</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>0.3995277553379309</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>0.3807104265648893</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:15">
       <c r="A74" s="2">
         <v>43069</v>
       </c>
@@ -3234,34 +3678,40 @@
         <v>6.69459903982</v>
       </c>
       <c r="E74">
+        <v>96.64</v>
+      </c>
+      <c r="F74">
+        <v>91.39</v>
+      </c>
+      <c r="G74">
         <v>-0.00273660660508</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>97.97997752065884</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>195.82</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>20.88</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>1366</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>0.4001177018574126</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>0.5615750418085595</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>0.4058760094163821</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>0.3971248781318372</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:15">
       <c r="A75" s="2">
         <v>43100</v>
       </c>
@@ -3275,34 +3725,40 @@
         <v>7.13893361413</v>
       </c>
       <c r="E75">
+        <v>100.81</v>
+      </c>
+      <c r="F75">
+        <v>95.48</v>
+      </c>
+      <c r="G75">
         <v>0.00179457811322</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>97.97997752065884</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>230.95</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>21.46</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>1152</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>0.3927725196928165</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>0.5762267455775837</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>0.4084063713133668</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>0.4056065803137805</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:15">
       <c r="A76" s="2">
         <v>43131</v>
       </c>
@@ -3316,34 +3772,40 @@
         <v>6.66225501314</v>
       </c>
       <c r="E76">
+        <v>106.45</v>
+      </c>
+      <c r="F76">
+        <v>97.48</v>
+      </c>
+      <c r="G76">
         <v>0.00190552479263</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>97.97997752065884</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>312.03</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>20.94</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>1192</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>0.4023368317333454</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>0.5776619715289413</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>0.409342352213161</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>0.4092689479479041</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:15">
       <c r="A77" s="2">
         <v>43159</v>
       </c>
@@ -3357,34 +3819,40 @@
         <v>6.7187497665</v>
       </c>
       <c r="E77">
+        <v>105.95</v>
+      </c>
+      <c r="F77">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="G77">
         <v>0.00153156004926</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>97.97997752065884</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>310.7</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>21.68</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>1055</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>0.4064757432093491</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>0.5802853560060884</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>0.4129828136827214</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>0.4119379962762168</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:15">
       <c r="A78" s="2">
         <v>43190</v>
       </c>
@@ -3398,34 +3866,40 @@
         <v>6.69738764036</v>
       </c>
       <c r="E78">
+        <v>96.66</v>
+      </c>
+      <c r="F78">
+        <v>89.5</v>
+      </c>
+      <c r="G78">
         <v>0.00063701729307</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>97.97997752065884</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>307.97</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>21.53</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>1341</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>0.4094620637109461</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>0.5887058884603555</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>0.4194516232675338</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>0.4084890959634587</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:15">
       <c r="A79" s="2">
         <v>43220</v>
       </c>
@@ -3439,34 +3913,40 @@
         <v>6.92785820242</v>
       </c>
       <c r="E79">
+        <v>93.69</v>
+      </c>
+      <c r="F79">
+        <v>92.31999999999999</v>
+      </c>
+      <c r="G79">
         <v>-0.00138895199145</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>97.97997752065884</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>344.31</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>21.24</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>1090</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>0.4188083170562459</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>0.5996765247552019</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>0.4182540962496526</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>0.4082163228140767</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:15">
       <c r="A80" s="2">
         <v>43251</v>
       </c>
@@ -3480,34 +3960,40 @@
         <v>7.48735405732</v>
       </c>
       <c r="E80">
+        <v>105.29</v>
+      </c>
+      <c r="F80">
+        <v>101.89</v>
+      </c>
+      <c r="G80">
         <v>-0.0018259436073</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>97.97997752065884</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>425.86</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>20.99</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>1385</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>0.428691997961595</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>0.5992319244246379</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>0.4247061801827444</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>0.4092757319405805</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:15">
       <c r="A81" s="2">
         <v>43281</v>
       </c>
@@ -3521,34 +4007,40 @@
         <v>7.44894284404</v>
       </c>
       <c r="E81">
+        <v>114.33</v>
+      </c>
+      <c r="F81">
+        <v>103.88</v>
+      </c>
+      <c r="G81">
         <v>-0.00274227610422</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>97.97997752065884</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>262.28</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>20.13</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>1747</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>0.4298868253767242</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>0.5925505931277354</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>0.4232105630033004</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>0.410921143000296</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:15">
       <c r="A82" s="2">
         <v>43312</v>
       </c>
@@ -3562,34 +4054,40 @@
         <v>7.59883923025</v>
       </c>
       <c r="E82">
+        <v>119.57</v>
+      </c>
+      <c r="F82">
+        <v>106.02</v>
+      </c>
+      <c r="G82">
         <v>-4.117844953E-05</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>97.97997752065884</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>227.12</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>20</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>1579</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>0.429976049879927</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>0.5926849073507539</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>0.4235829246476788</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>0.4005033119652912</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:15">
       <c r="A83" s="2">
         <v>43343</v>
       </c>
@@ -3603,34 +4101,40 @@
         <v>8.084909938439999</v>
       </c>
       <c r="E83">
+        <v>117.34</v>
+      </c>
+      <c r="F83">
+        <v>98.48</v>
+      </c>
+      <c r="G83">
         <v>0.00269488517407</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>98.01516824569984</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>201.97</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>20.18</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>1540</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>0.4117908797641813</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>0.6070360547859387</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>0.4244212088682396</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>0.4063387360245332</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:15">
       <c r="A84" s="2">
         <v>43373</v>
       </c>
@@ -3644,34 +4148,40 @@
         <v>9.521577031210001</v>
       </c>
       <c r="E84">
+        <v>114.16</v>
+      </c>
+      <c r="F84">
+        <v>102.14</v>
+      </c>
+      <c r="G84">
         <v>0.00391878650828</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>98.01516824569973</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>149.22</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>20.88</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>1490</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>0.417696393813356</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>0.6037781957841553</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>0.4280846460807511</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>0.4146280495119632</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:15">
       <c r="A85" s="2">
         <v>43404</v>
       </c>
@@ -3685,34 +4195,40 @@
         <v>8.79096072974</v>
       </c>
       <c r="E85">
+        <v>108.73</v>
+      </c>
+      <c r="F85">
+        <v>100.34</v>
+      </c>
+      <c r="G85">
         <v>-0.00047014044846</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>98.01516824569973</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>172.67</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>21.05</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>1231</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>0.4104083154245683</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>0.6039922068969591</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>0.4407373645281277</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>0.4195099642783503</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:15">
       <c r="A86" s="2">
         <v>43434</v>
       </c>
@@ -3726,34 +4242,40 @@
         <v>8.26507901291</v>
       </c>
       <c r="E86">
+        <v>100.73</v>
+      </c>
+      <c r="F86">
+        <v>91.58</v>
+      </c>
+      <c r="G86">
         <v>-0.00252818995549</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>98.01516824569973</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>263.9</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>21.45</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>1271</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>0.4042221010633684</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>0.6234575520382455</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>0.4454718421567269</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>0.4376988824792035</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:15">
       <c r="A87" s="2">
         <v>43465</v>
       </c>
@@ -3767,34 +4289,40 @@
         <v>7.97624238009</v>
       </c>
       <c r="E87">
+        <v>101.37</v>
+      </c>
+      <c r="F87">
+        <v>95.41</v>
+      </c>
+      <c r="G87">
         <v>0.0009917513392399999</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>98.01516824569973</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>295.84</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>21.23</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>668</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>0.4004898727175514</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>0.6302897123397672</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>0.4538936917955425</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>0.4539792377992551</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:15">
       <c r="A88" s="2">
         <v>43496</v>
       </c>
@@ -3808,34 +4336,40 @@
         <v>7.26234323345</v>
       </c>
       <c r="E88">
+        <v>98.56</v>
+      </c>
+      <c r="F88">
+        <v>91.29000000000001</v>
+      </c>
+      <c r="G88">
         <v>0.00465456261143</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>98.01516824569973</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>394.89</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>21.4</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>658</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>0.4002712606044906</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>0.6286519971960961</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>0.4558955064314986</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>0.4505445931224069</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:15">
       <c r="A89" s="2">
         <v>43524</v>
       </c>
@@ -3849,34 +4383,40 @@
         <v>6.0057971222</v>
       </c>
       <c r="E89">
+        <v>95.42</v>
+      </c>
+      <c r="F89">
+        <v>84.16</v>
+      </c>
+      <c r="G89">
         <v>-0.00229347078498</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>98.01516824569973</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>355.02</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>21.8</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>689</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>0.4122060554901423</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>0.6250239082798074</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>0.4554264112708893</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>0.4514769796457457</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:15">
       <c r="A90" s="2">
         <v>43555</v>
       </c>
@@ -3890,34 +4430,40 @@
         <v>5.17873567413</v>
       </c>
       <c r="E90">
+        <v>93.12</v>
+      </c>
+      <c r="F90">
+        <v>78.81</v>
+      </c>
+      <c r="G90">
         <v>-0.00211455999295</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>98.01516824569973</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>436.05</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>21.9</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>1011</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>0.4203781202653709</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>0.6234674327292586</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>0.460548948085544</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>0.4487622053307301</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:15">
       <c r="A91" s="2">
         <v>43585</v>
       </c>
@@ -3931,34 +4477,40 @@
         <v>4.92218081968</v>
       </c>
       <c r="E91">
+        <v>86.77</v>
+      </c>
+      <c r="F91">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="G91">
         <v>0.00171565356043</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>98.01516824569973</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>358.33</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>22.01</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>1096</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>0.4302686741239212</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>0.622</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>0.4544</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>0.4476</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:15">
       <c r="A92" s="2">
         <v>43616</v>
       </c>
@@ -3972,34 +4524,40 @@
         <v>4.34105529405</v>
       </c>
       <c r="E92">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="F92">
+        <v>68.93000000000001</v>
+      </c>
+      <c r="G92">
         <v>-4.207610894E-05</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>98.01516824569973</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>336.86</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>21.66</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>1354</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>0.43031278198301</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>0.6126506698651649</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>0.4507624943472984</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>0.4423859214662514</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:15">
       <c r="A93" s="2">
         <v>43646</v>
       </c>
@@ -4013,34 +4571,40 @@
         <v>3.58800651227</v>
       </c>
       <c r="E93">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="F93">
+        <v>62.94</v>
+      </c>
+      <c r="G93">
         <v>-0.00035781895471</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>98.01516824569973</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>345.6</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>20.73</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>1868</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>0.435745964968454</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>0.6274000000000001</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>0.4554</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>0.4424</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:15">
       <c r="A94" s="2">
         <v>43677</v>
       </c>
@@ -4054,34 +4618,40 @@
         <v>3.62037140561</v>
       </c>
       <c r="E94">
+        <v>72.08</v>
+      </c>
+      <c r="F94">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="G94">
         <v>0.00091334275368</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>98.01516824569973</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>254.23</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>20.21</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>2378</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>0.4333316138449078</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>0.62</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>0.456</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>0.4462</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:15">
       <c r="A95" s="2">
         <v>43708</v>
       </c>
@@ -4095,34 +4665,40 @@
         <v>3.67677516041</v>
       </c>
       <c r="E95">
+        <v>65.55</v>
+      </c>
+      <c r="F95">
+        <v>60.43</v>
+      </c>
+      <c r="G95">
         <v>-0.00104143223119</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>98.01516824569973</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>176.19</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>20.03</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>1823</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>0.4344250928577083</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>0.6183587061173751</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>0.4546927883766855</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>0.4446507602159024</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:15">
       <c r="A96" s="2">
         <v>43738</v>
       </c>
@@ -4136,34 +4712,40 @@
         <v>4.20525568494</v>
       </c>
       <c r="E96">
+        <v>65.95</v>
+      </c>
+      <c r="F96">
+        <v>61.37</v>
+      </c>
+      <c r="G96">
         <v>-0.00011961364761</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>98.01516824569973</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>145.09</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>20.79</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>1731</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>0.4291885262761831</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>0.623</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>0.4606</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>0.4464</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:15">
       <c r="A97" s="2">
         <v>43769</v>
       </c>
@@ -4177,34 +4759,40 @@
         <v>5.05721785787</v>
       </c>
       <c r="E97">
+        <v>69.2</v>
+      </c>
+      <c r="F97">
+        <v>67.44</v>
+      </c>
+      <c r="G97">
         <v>0.00520726461684</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>137.0503756674423</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>244.06</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>20.67</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>1528</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>0.4230931517323515</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>0.6209818009238687</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>0.4604397761609888</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>0.4453506664447094</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:15">
       <c r="A98" s="2">
         <v>43799</v>
       </c>
@@ -4218,34 +4806,40 @@
         <v>5.15000421731</v>
       </c>
       <c r="E98">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="F98">
+        <v>73.62</v>
+      </c>
+      <c r="G98">
         <v>-0.00703696796229</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>99.4114860409143</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>245.19</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>21.26</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>1090</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>0.4230047475288597</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>0.6102945543333986</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>0.4599395366561294</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>0.4456775215020361</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:15">
       <c r="A99" s="2">
         <v>43830</v>
       </c>
@@ -4259,34 +4853,40 @@
         <v>4.62047221239</v>
       </c>
       <c r="E99">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="F99">
+        <v>76.03</v>
+      </c>
+      <c r="G99">
         <v>-8.186548111E-05</v>
       </c>
-      <c r="F99">
+      <c r="H99">
         <v>99.41148604091443</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>296.07</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>21.5</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>487</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>0.418306668427461</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>0.6121007748619023</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>0.4559536170868154</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>0.4454939616221102</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:15">
       <c r="A100" s="2">
         <v>43861</v>
       </c>
@@ -4300,34 +4900,40 @@
         <v>3.63338434727</v>
       </c>
       <c r="E100">
+        <v>69.66</v>
+      </c>
+      <c r="F100">
+        <v>82.09</v>
+      </c>
+      <c r="G100">
         <v>0.00227012721181</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>99.41148604091443</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>268.32</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>22.01</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>535</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>0.4272266206726101</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>0.5798794935342798</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>0.4539837972817095</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>0.4238762451913749</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:15">
       <c r="A101" s="2">
         <v>43890</v>
       </c>
@@ -4341,34 +4947,40 @@
         <v>2.90777364106</v>
       </c>
       <c r="E101">
+        <v>67.64</v>
+      </c>
+      <c r="F101">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="G101">
         <v>-0.00154420697631</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>99.41148604091443</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>321.64</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>22.2</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>626</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>0.4281155443621508</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>0.5875022997238413</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>0.461018220276661</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>0.4278012723222966</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:15">
       <c r="A102" s="2">
         <v>43921</v>
       </c>
@@ -4382,34 +4994,40 @@
         <v>2.71886838175</v>
       </c>
       <c r="E102">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="F102">
+        <v>67.89</v>
+      </c>
+      <c r="G102">
         <v>0.00197441076879</v>
       </c>
-      <c r="F102">
+      <c r="H102">
         <v>99.41148604091443</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>329.31</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>22.22</v>
       </c>
-      <c r="I102">
+      <c r="K102">
         <v>635</v>
       </c>
-      <c r="J102">
+      <c r="L102">
         <v>0.435464913763167</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>0.5910162277330805</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>0.4634344740544055</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>0.441561624663992</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:15">
       <c r="A103" s="2">
         <v>43951</v>
       </c>
@@ -4423,34 +5041,40 @@
         <v>2.12031866732</v>
       </c>
       <c r="E103">
+        <v>58.55</v>
+      </c>
+      <c r="F103">
+        <v>56.58</v>
+      </c>
+      <c r="G103">
         <v>0.01002625234371</v>
       </c>
-      <c r="F103">
+      <c r="H103">
         <v>99.41148604091443</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>287.48</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>21.87</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>504</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>0.441427995197071</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>0.5903701357863657</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>0.4650872943506536</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>0.4337927922320309</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:15">
       <c r="A104" s="2">
         <v>43982</v>
       </c>
@@ -4464,34 +5088,40 @@
         <v>1.57516497792</v>
       </c>
       <c r="E104">
+        <v>52.49</v>
+      </c>
+      <c r="F104">
+        <v>57.42</v>
+      </c>
+      <c r="G104">
         <v>-0.00259984108389</v>
       </c>
-      <c r="F104">
+      <c r="H104">
         <v>98.30844248225289</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>275.21</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>21.59</v>
       </c>
-      <c r="I104">
+      <c r="K104">
         <v>1799</v>
       </c>
-      <c r="J104">
+      <c r="L104">
         <v>0.4442100828421174</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>0.5878590666596513</v>
       </c>
-      <c r="L104">
+      <c r="N104">
         <v>0.4619869070384683</v>
       </c>
-      <c r="M104">
+      <c r="O104">
         <v>0.4363662775517037</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:15">
       <c r="A105" s="2">
         <v>44012</v>
       </c>
@@ -4505,34 +5135,40 @@
         <v>1.75217111218</v>
       </c>
       <c r="E105">
+        <v>52.21</v>
+      </c>
+      <c r="F105">
+        <v>56.81</v>
+      </c>
+      <c r="G105">
         <v>-0.00619814666477</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>96.25287528847934</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>203.66</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>20.85</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>1350</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>0.4559354453250682</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>0.5936037863571761</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>0.463368544993051</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>0.4250314652252695</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:15">
       <c r="A106" s="2">
         <v>44043</v>
       </c>
@@ -4546,34 +5182,40 @@
         <v>1.80103549647</v>
       </c>
       <c r="E106">
+        <v>51.56</v>
+      </c>
+      <c r="F106">
+        <v>56.6</v>
+      </c>
+      <c r="G106">
         <v>-0.0061264945265</v>
       </c>
-      <c r="F106">
+      <c r="H106">
         <v>98.0489561823302</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>204.7</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>20.23</v>
       </c>
-      <c r="I106">
+      <c r="K106">
         <v>1488</v>
       </c>
-      <c r="J106">
+      <c r="L106">
         <v>0.4619913414790972</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>0.5950080420233913</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>0.4596774021676645</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>0.426920858478315</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:15">
       <c r="A107" s="2">
         <v>44074</v>
       </c>
@@ -4587,34 +5229,40 @@
         <v>2.86189667673</v>
       </c>
       <c r="E107">
+        <v>50.14</v>
+      </c>
+      <c r="F107">
+        <v>57.38</v>
+      </c>
+      <c r="G107">
         <v>-0.00323849742065</v>
       </c>
-      <c r="F107">
+      <c r="H107">
         <v>103.2035973795328</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>106.47</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>20.46</v>
       </c>
-      <c r="I107">
+      <c r="K107">
         <v>1725</v>
       </c>
-      <c r="J107">
+      <c r="L107">
         <v>0.4673494867665212</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>0.5839844584757314</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>0.4475733753158581</v>
       </c>
-      <c r="M107">
+      <c r="O107">
         <v>0.4245467557882587</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:15">
       <c r="A108" s="2">
         <v>44104</v>
       </c>
@@ -4628,34 +5276,40 @@
         <v>3.95213946267</v>
       </c>
       <c r="E108">
+        <v>54.6</v>
+      </c>
+      <c r="F108">
+        <v>57.47</v>
+      </c>
+      <c r="G108">
         <v>-0.00156555891193</v>
       </c>
-      <c r="F108">
+      <c r="H108">
         <v>107.4431956605944</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>171.99</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>20.66</v>
       </c>
-      <c r="I108">
+      <c r="K108">
         <v>1283</v>
       </c>
-      <c r="J108">
+      <c r="L108">
         <v>0.4727589381604924</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>0.5801687666759132</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>0.4374529502196333</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>0.427146900595301</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:15">
       <c r="A109" s="2">
         <v>44135</v>
       </c>
@@ -4669,34 +5323,40 @@
         <v>4.88959040816</v>
       </c>
       <c r="E109">
+        <v>58.4</v>
+      </c>
+      <c r="F109">
+        <v>61.04</v>
+      </c>
+      <c r="G109">
         <v>-0.00189278490435</v>
       </c>
-      <c r="F109">
+      <c r="H109">
         <v>113.1483822788417</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>157.96</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>21.1</v>
       </c>
-      <c r="I109">
+      <c r="K109">
         <v>1227</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>0.4751955039451729</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>0.5836147884226655</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>0.4326789864995383</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>0.4435789806440569</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:15">
       <c r="A110" s="2">
         <v>44165</v>
       </c>
@@ -4710,34 +5370,40 @@
         <v>4.83583900516</v>
       </c>
       <c r="E110">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="F110">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="G110">
         <v>-8.734381945E-05</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>118.9970042591801</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>190.62</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>21.16</v>
       </c>
-      <c r="I110">
+      <c r="K110">
         <v>1366</v>
       </c>
-      <c r="J110">
+      <c r="L110">
         <v>0.4845045128128564</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>0.5800873003902469</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>0.4362732025320636</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>0.4330661807003539</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:15">
       <c r="A111" s="2">
         <v>44196</v>
       </c>
@@ -4751,34 +5417,40 @@
         <v>5.85610629604</v>
       </c>
       <c r="E111">
+        <v>83.03</v>
+      </c>
+      <c r="F111">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="G111">
         <v>-0.00028612321912</v>
       </c>
-      <c r="F111">
+      <c r="H111">
         <v>123.2737384642799</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>337.06</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>21.14</v>
       </c>
-      <c r="I111">
+      <c r="K111">
         <v>1452</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>0.4909173632569305</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>0.5795411821807901</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>0.4352607196986089</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>0.4318200771688913</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:15">
       <c r="A112" s="2">
         <v>44227</v>
       </c>
@@ -4792,34 +5464,40 @@
         <v>7.2683017493</v>
       </c>
       <c r="E112">
+        <v>86.83</v>
+      </c>
+      <c r="F112">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="G112">
         <v>0.00116155048064</v>
       </c>
-      <c r="F112">
+      <c r="H112">
         <v>128.7950567429762</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>364.08</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>21.22</v>
       </c>
-      <c r="I112">
+      <c r="K112">
         <v>1675</v>
       </c>
-      <c r="J112">
+      <c r="L112">
         <v>0.4894656023952785</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>0.5741375881055839</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>0.4303488303732484</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>0.4129504877728313</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:15">
       <c r="A113" s="2">
         <v>44255</v>
       </c>
@@ -4833,34 +5511,40 @@
         <v>6.15850716652</v>
       </c>
       <c r="E113">
+        <v>86.73999999999999</v>
+      </c>
+      <c r="F113">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="G113">
         <v>0.00084343695105</v>
       </c>
-      <c r="F113">
+      <c r="H113">
         <v>130.4602210142325</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>323.81</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>21.72</v>
       </c>
-      <c r="I113">
+      <c r="K113">
         <v>2046</v>
       </c>
-      <c r="J113">
+      <c r="L113">
         <v>0.4914904976907563</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>0.5925340890470545</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>0.4343623307110566</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>0.4179983781295215</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:15">
       <c r="A114" s="2">
         <v>44286</v>
       </c>
@@ -4874,34 +5558,40 @@
         <v>6.12706957935</v>
       </c>
       <c r="E114">
+        <v>94.92</v>
+      </c>
+      <c r="F114">
+        <v>90.66</v>
+      </c>
+      <c r="G114">
         <v>0.00175396345918</v>
       </c>
-      <c r="F114">
+      <c r="H114">
         <v>133.9235149398768</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>447.53</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>21.21</v>
       </c>
-      <c r="I114">
+      <c r="K114">
         <v>3053</v>
       </c>
-      <c r="J114">
+      <c r="L114">
         <v>0.493276398525774</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>0.604845247034084</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>0.4293102842640739</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>0.4324131120358024</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:15">
       <c r="A115" s="2">
         <v>44316</v>
       </c>
@@ -4915,34 +5605,40 @@
         <v>7.14681628809</v>
       </c>
       <c r="E115">
+        <v>92.22</v>
+      </c>
+      <c r="F115">
+        <v>89.13</v>
+      </c>
+      <c r="G115">
         <v>0.00349191882645</v>
       </c>
-      <c r="F115">
+      <c r="H115">
         <v>138.2897485328063</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>395.81</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>21.39</v>
       </c>
-      <c r="I115">
+      <c r="K115">
         <v>2596</v>
       </c>
-      <c r="J115">
+      <c r="L115">
         <v>0.4979584699872221</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>0.6526050213256884</v>
       </c>
-      <c r="L115">
+      <c r="N115">
         <v>0.4378883793091635</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>0.4539710499893974</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:15">
       <c r="A116" s="2">
         <v>44347</v>
       </c>
@@ -4956,34 +5652,40 @@
         <v>8.90875692439</v>
       </c>
       <c r="E116">
+        <v>107.04</v>
+      </c>
+      <c r="F116">
+        <v>99.31</v>
+      </c>
+      <c r="G116">
         <v>0.00083340753556</v>
       </c>
-      <c r="F116">
+      <c r="H116">
         <v>141.1937490231932</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <v>320.43</v>
       </c>
-      <c r="H116">
+      <c r="J116">
         <v>20.99</v>
       </c>
-      <c r="I116">
+      <c r="K116">
         <v>3383</v>
       </c>
-      <c r="J116">
+      <c r="L116">
         <v>0.4925514921183144</v>
       </c>
-      <c r="K116">
+      <c r="M116">
         <v>0.6630188829662774</v>
       </c>
-      <c r="L116">
+      <c r="N116">
         <v>0.4367313232507956</v>
       </c>
-      <c r="M116">
+      <c r="O116">
         <v>0.481955930640822</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:15">
       <c r="A117" s="2">
         <v>44377</v>
       </c>
@@ -4997,34 +5699,40 @@
         <v>10.30105100564</v>
       </c>
       <c r="E117">
+        <v>129.97</v>
+      </c>
+      <c r="F117">
+        <v>112.92</v>
+      </c>
+      <c r="G117">
         <v>-0.00175613709191</v>
       </c>
-      <c r="F117">
+      <c r="H117">
         <v>144.0465071540256</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>261.45</v>
       </c>
-      <c r="H117">
+      <c r="J117">
         <v>20.49</v>
       </c>
-      <c r="I117">
+      <c r="K117">
         <v>3292</v>
       </c>
-      <c r="J117">
+      <c r="L117">
         <v>0.4928136028756943</v>
       </c>
-      <c r="K117">
+      <c r="M117">
         <v>0.7436</v>
       </c>
-      <c r="L117">
+      <c r="N117">
         <v>0.5466</v>
       </c>
-      <c r="M117">
+      <c r="O117">
         <v>0.5714</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:15">
       <c r="A118" s="2">
         <v>44408</v>
       </c>
@@ -5038,34 +5746,40 @@
         <v>12.50994243239</v>
       </c>
       <c r="E118">
+        <v>151.97</v>
+      </c>
+      <c r="F118">
+        <v>122.33</v>
+      </c>
+      <c r="G118">
         <v>0.00526208567962</v>
       </c>
-      <c r="F118">
+      <c r="H118">
         <v>149.2262641923639</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>176.89</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>20.11</v>
       </c>
-      <c r="I118">
+      <c r="K118">
         <v>4132</v>
       </c>
-      <c r="J118">
+      <c r="L118">
         <v>0.4804314916743824</v>
       </c>
-      <c r="K118">
+      <c r="M118">
         <v>0.8134</v>
       </c>
-      <c r="L118">
+      <c r="N118">
         <v>0.5746</v>
       </c>
-      <c r="M118">
+      <c r="O118">
         <v>0.6026</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:15">
       <c r="A119" s="2">
         <v>44439</v>
       </c>
@@ -5079,34 +5793,40 @@
         <v>15.42647593843</v>
       </c>
       <c r="E119">
+        <v>169.58</v>
+      </c>
+      <c r="F119">
+        <v>137.92</v>
+      </c>
+      <c r="G119">
         <v>0.00115489930423</v>
       </c>
-      <c r="F119">
+      <c r="H119">
         <v>153.2980038574362</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>142.63</v>
       </c>
-      <c r="H119">
+      <c r="J119">
         <v>20.49</v>
       </c>
-      <c r="I119">
+      <c r="K119">
         <v>5167</v>
       </c>
-      <c r="J119">
+      <c r="L119">
         <v>0.4632719261881695</v>
       </c>
-      <c r="K119">
+      <c r="M119">
         <v>0.8652</v>
       </c>
-      <c r="L119">
+      <c r="N119">
         <v>0.6262</v>
       </c>
-      <c r="M119">
+      <c r="O119">
         <v>0.6286</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:15">
       <c r="A120" s="2">
         <v>44469</v>
       </c>
@@ -5120,34 +5840,40 @@
         <v>22.84059607792</v>
       </c>
       <c r="E120">
+        <v>185.69</v>
+      </c>
+      <c r="F120">
+        <v>146.05275137829</v>
+      </c>
+      <c r="G120">
         <v>0.00015685281085</v>
       </c>
-      <c r="F120">
+      <c r="H120">
         <v>156.9558378189194</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>178.46</v>
       </c>
-      <c r="H120">
+      <c r="J120">
         <v>20.71</v>
       </c>
-      <c r="I120">
+      <c r="K120">
         <v>3519</v>
       </c>
-      <c r="J120">
+      <c r="L120">
         <v>0.4579162425448056</v>
       </c>
-      <c r="K120">
+      <c r="M120">
         <v>0.8404</v>
       </c>
-      <c r="L120">
+      <c r="N120">
         <v>0.5968</v>
       </c>
-      <c r="M120">
+      <c r="O120">
         <v>0.6282</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:15">
       <c r="A121" s="2">
         <v>44500</v>
       </c>
@@ -5161,34 +5887,40 @@
         <v>31.05246636754</v>
       </c>
       <c r="E121">
+        <v>224.51</v>
+      </c>
+      <c r="F121">
+        <v>199.65</v>
+      </c>
+      <c r="G121">
         <v>0.00208202988504</v>
       </c>
-      <c r="F121">
+      <c r="H121">
         <v>167.0008492724532</v>
       </c>
-      <c r="G121">
+      <c r="I121">
         <v>236.57</v>
       </c>
-      <c r="H121">
+      <c r="J121">
         <v>21.11</v>
       </c>
-      <c r="I121">
+      <c r="K121">
         <v>3018</v>
       </c>
-      <c r="J121">
+      <c r="L121">
         <v>0.446856934178489</v>
       </c>
-      <c r="K121">
+      <c r="M121">
         <v>0.9224</v>
       </c>
-      <c r="L121">
+      <c r="N121">
         <v>0.7836</v>
       </c>
-      <c r="M121">
+      <c r="O121">
         <v>0.7372</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:15">
       <c r="A122" s="2">
         <v>44530</v>
       </c>
@@ -5202,34 +5934,40 @@
         <v>27.62343200775</v>
       </c>
       <c r="E122">
+        <v>157.48</v>
+      </c>
+      <c r="F122">
+        <v>128</v>
+      </c>
+      <c r="G122">
         <v>0.00359534463091</v>
       </c>
-      <c r="F122">
+      <c r="H122">
         <v>182.6188365838623</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <v>222.75</v>
       </c>
-      <c r="H122">
+      <c r="J122">
         <v>21.07</v>
       </c>
-      <c r="I122">
+      <c r="K122">
         <v>2217</v>
       </c>
-      <c r="J122">
+      <c r="L122">
         <v>0.4431147265613738</v>
       </c>
-      <c r="K122">
+      <c r="M122">
         <v>1.043066167386023</v>
       </c>
-      <c r="L122">
+      <c r="N122">
         <v>0.9369293184852377</v>
       </c>
-      <c r="M122">
+      <c r="O122">
         <v>0.9002346810072717</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:15">
       <c r="A123" s="2">
         <v>44561</v>
       </c>
@@ -5243,34 +5981,40 @@
         <v>38.02711984318</v>
       </c>
       <c r="E123">
+        <v>169.65</v>
+      </c>
+      <c r="F123">
+        <v>142.5</v>
+      </c>
+      <c r="G123">
         <v>0.00067537719459</v>
       </c>
-      <c r="F123">
+      <c r="H123">
         <v>182.6188365838624</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>225.22</v>
       </c>
-      <c r="H123">
+      <c r="J123">
         <v>21.47</v>
       </c>
-      <c r="I123">
+      <c r="K123">
         <v>1418</v>
       </c>
-      <c r="J123">
+      <c r="L123">
         <v>0.4233923308224148</v>
       </c>
-      <c r="K123">
+      <c r="M123">
         <v>1.088197583668632</v>
       </c>
-      <c r="L123">
+      <c r="N123">
         <v>1.034910306862554</v>
       </c>
-      <c r="M123">
+      <c r="O123">
         <v>1.01467630898368</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:15">
       <c r="A124" s="2">
         <v>44592</v>
       </c>
@@ -5284,34 +6028,40 @@
         <v>28.26067331655</v>
       </c>
       <c r="E124">
+        <v>196.95</v>
+      </c>
+      <c r="F124">
+        <v>168.5</v>
+      </c>
+      <c r="G124">
         <v>0.00721327782143</v>
       </c>
-      <c r="F124">
+      <c r="H124">
         <v>182.6188365838624</v>
       </c>
-      <c r="G124">
+      <c r="I124">
         <v>246.66</v>
       </c>
-      <c r="H124">
+      <c r="J124">
         <v>21.51</v>
       </c>
-      <c r="I124">
+      <c r="K124">
         <v>2040</v>
       </c>
-      <c r="J124">
+      <c r="L124">
         <v>0.4257859227826916</v>
       </c>
-      <c r="K124">
+      <c r="M124">
         <v>1.096824782</v>
       </c>
-      <c r="L124">
+      <c r="N124">
         <v>1.0750197</v>
       </c>
-      <c r="M124">
+      <c r="O124">
         <v>1.011899418</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:15">
       <c r="A125" s="2">
         <v>44620</v>
       </c>
@@ -5325,34 +6075,40 @@
         <v>27.2297159067</v>
       </c>
       <c r="E125">
+        <v>219.78</v>
+      </c>
+      <c r="F125">
+        <v>196.4</v>
+      </c>
+      <c r="G125">
         <v>0.0023249575061</v>
       </c>
-      <c r="F125">
+      <c r="H125">
         <v>182.6188365838624</v>
       </c>
-      <c r="G125">
+      <c r="I125">
         <v>290.32</v>
       </c>
-      <c r="H125">
+      <c r="J125">
         <v>21.22</v>
       </c>
-      <c r="I125">
+      <c r="K125">
         <v>2358</v>
       </c>
-      <c r="J125">
+      <c r="L125">
         <v>0.4255570120255948</v>
       </c>
-      <c r="K125">
+      <c r="M125">
         <v>1.078351677188643</v>
       </c>
-      <c r="L125">
+      <c r="N125">
         <v>1.051642326050862</v>
       </c>
-      <c r="M125">
+      <c r="O125">
         <v>0.9671592693428841</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:15">
       <c r="A126" s="2">
         <v>44651</v>
       </c>
@@ -5366,34 +6122,40 @@
         <v>42.39297079612</v>
       </c>
       <c r="E126">
+        <v>314.04</v>
+      </c>
+      <c r="F126">
+        <v>294.42</v>
+      </c>
+      <c r="G126">
         <v>0.00112435970591</v>
       </c>
-      <c r="F126">
+      <c r="H126">
         <v>182.6188365838624</v>
       </c>
-      <c r="G126">
+      <c r="I126">
         <v>469.51</v>
       </c>
-      <c r="H126">
+      <c r="J126">
         <v>21.34</v>
       </c>
-      <c r="I126">
+      <c r="K126">
         <v>2404</v>
       </c>
-      <c r="J126">
+      <c r="L126">
         <v>0.422808140672978</v>
       </c>
-      <c r="K126">
+      <c r="M126">
         <v>1.102667170194235</v>
       </c>
-      <c r="L126">
+      <c r="N126">
         <v>1.091178913291982</v>
       </c>
-      <c r="M126">
+      <c r="O126">
         <v>1.039086833340783</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:15">
       <c r="A127" s="2">
         <v>44681</v>
       </c>
@@ -5407,34 +6169,40 @@
         <v>32.20418722871</v>
       </c>
       <c r="E127">
+        <v>310.85</v>
+      </c>
+      <c r="F127">
+        <v>302</v>
+      </c>
+      <c r="G127">
         <v>0.00593647834028</v>
       </c>
-      <c r="F127">
+      <c r="H127">
         <v>182.6188365838624</v>
       </c>
-      <c r="G127">
+      <c r="I127">
         <v>354.62</v>
       </c>
-      <c r="H127">
+      <c r="J127">
         <v>21.43</v>
       </c>
-      <c r="I127">
+      <c r="K127">
         <v>2566</v>
       </c>
-      <c r="J127">
+      <c r="L127">
         <v>0.4309435158909646</v>
       </c>
-      <c r="K127">
+      <c r="M127">
         <v>1.097080675155382</v>
       </c>
-      <c r="L127">
+      <c r="N127">
         <v>1.099004662934887</v>
       </c>
-      <c r="M127">
+      <c r="O127">
         <v>1.093198592925966</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:15">
       <c r="A128" s="2">
         <v>44712</v>
       </c>
@@ -5448,34 +6216,40 @@
         <v>29.17072267381</v>
       </c>
       <c r="E128">
+        <v>371.86</v>
+      </c>
+      <c r="F128">
+        <v>280</v>
+      </c>
+      <c r="G128">
         <v>0.00557410999677</v>
       </c>
-      <c r="F128">
+      <c r="H128">
         <v>182.6188365838624</v>
       </c>
-      <c r="G128">
+      <c r="I128">
         <v>289.56</v>
       </c>
-      <c r="H128">
+      <c r="J128">
         <v>20.79</v>
       </c>
-      <c r="I128">
+      <c r="K128">
         <v>2240</v>
       </c>
-      <c r="J128">
+      <c r="L128">
         <v>0.4305420265952875</v>
       </c>
-      <c r="K128">
+      <c r="M128">
         <v>1.108720278516534</v>
       </c>
-      <c r="L128">
+      <c r="N128">
         <v>1.086155403232221</v>
       </c>
-      <c r="M128">
+      <c r="O128">
         <v>1.066823352432961</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:15">
       <c r="A129" s="2">
         <v>44742</v>
       </c>
@@ -5489,34 +6263,40 @@
         <v>33.55773104275</v>
       </c>
       <c r="E129">
+        <v>374.08</v>
+      </c>
+      <c r="F129">
+        <v>291.3568</v>
+      </c>
+      <c r="G129">
         <v>0.006482245167</v>
       </c>
-      <c r="F129">
+      <c r="H129">
         <v>182.6188365838624</v>
       </c>
-      <c r="G129">
+      <c r="I129">
         <v>218.07</v>
       </c>
-      <c r="H129">
+      <c r="J129">
         <v>20.07</v>
       </c>
-      <c r="I129">
+      <c r="K129">
         <v>1895</v>
       </c>
-      <c r="J129">
+      <c r="L129">
         <v>0.4314988735799397</v>
       </c>
-      <c r="K129">
+      <c r="M129">
         <v>1.120474861733276</v>
       </c>
-      <c r="L129">
+      <c r="N129">
         <v>1.124131073777351</v>
       </c>
-      <c r="M129">
+      <c r="O129">
         <v>1.038634438513443</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:15">
       <c r="A130" s="2">
         <v>44773</v>
       </c>
@@ -5530,34 +6310,40 @@
         <v>51.33003047298</v>
       </c>
       <c r="E130">
+        <v>402.2</v>
+      </c>
+      <c r="F130">
+        <v>269.08655771317</v>
+      </c>
+      <c r="G130">
         <v>0.00160236369256</v>
       </c>
-      <c r="F130">
+      <c r="H130">
         <v>168.201560011453</v>
       </c>
-      <c r="G130">
+      <c r="I130">
         <v>191.59</v>
       </c>
-      <c r="H130">
+      <c r="J130">
         <v>20.08</v>
       </c>
-      <c r="I130">
+      <c r="K130">
         <v>965</v>
       </c>
-      <c r="J130">
+      <c r="L130">
         <v>0.4229605741569059</v>
       </c>
-      <c r="K130">
+      <c r="M130">
         <v>1.16786800286767</v>
       </c>
-      <c r="L130">
+      <c r="N130">
         <v>1.123289004127497</v>
       </c>
-      <c r="M130">
+      <c r="O130">
         <v>0.9989557845133211</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:15">
       <c r="A131" s="2">
         <v>44804</v>
       </c>
@@ -5571,34 +6357,40 @@
         <v>70.04363980338999</v>
       </c>
       <c r="E131">
+        <v>406.97</v>
+      </c>
+      <c r="F131">
+        <v>274.61946388546</v>
+      </c>
+      <c r="G131">
         <v>0.00028598623682</v>
       </c>
-      <c r="F131">
+      <c r="H131">
         <v>168.201560011453</v>
       </c>
-      <c r="G131">
+      <c r="I131">
         <v>159.22</v>
       </c>
-      <c r="H131">
+      <c r="J131">
         <v>20.2</v>
       </c>
-      <c r="I131">
+      <c r="K131">
         <v>1760</v>
       </c>
-      <c r="J131">
+      <c r="L131">
         <v>0.427098100384093</v>
       </c>
-      <c r="K131">
+      <c r="M131">
         <v>1.248267995093507</v>
       </c>
-      <c r="L131">
+      <c r="N131">
         <v>1.172336613778829</v>
       </c>
-      <c r="M131">
+      <c r="O131">
         <v>0.9920444986539785</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:15">
       <c r="A132" s="2">
         <v>44834</v>
       </c>
@@ -5612,34 +6404,40 @@
         <v>59.10262225038</v>
       </c>
       <c r="E132">
+        <v>430.81</v>
+      </c>
+      <c r="F132">
+        <v>234.98445322437</v>
+      </c>
+      <c r="G132">
         <v>0.00356911638598</v>
       </c>
-      <c r="F132">
+      <c r="H132">
         <v>168.201560011453</v>
       </c>
-      <c r="G132">
+      <c r="I132">
         <v>134.72</v>
       </c>
-      <c r="H132">
+      <c r="J132">
         <v>20.8</v>
       </c>
-      <c r="I132">
+      <c r="K132">
         <v>1463</v>
       </c>
-      <c r="J132">
+      <c r="L132">
         <v>0.4150715460078233</v>
       </c>
-      <c r="K132">
+      <c r="M132">
         <v>1.292183548195688</v>
       </c>
-      <c r="L132">
+      <c r="N132">
         <v>1.203163518701642</v>
       </c>
-      <c r="M132">
+      <c r="O132">
         <v>1.004394113331451</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:15">
       <c r="A133" s="2">
         <v>44865</v>
       </c>
@@ -5653,34 +6451,40 @@
         <v>39.02204993845</v>
       </c>
       <c r="E133">
+        <v>389.79</v>
+      </c>
+      <c r="F133">
+        <v>191.21987979184</v>
+      </c>
+      <c r="G133">
         <v>0.00116745907546</v>
       </c>
-      <c r="F133">
+      <c r="H133">
         <v>168.201560011453</v>
       </c>
-      <c r="G133">
+      <c r="I133">
         <v>198.93</v>
       </c>
-      <c r="H133">
+      <c r="J133">
         <v>20.84</v>
       </c>
-      <c r="I133">
+      <c r="K133">
         <v>1355</v>
       </c>
-      <c r="J133">
+      <c r="L133">
         <v>0.4181872176073877</v>
       </c>
-      <c r="K133">
+      <c r="M133">
         <v>1.310196068599417</v>
       </c>
-      <c r="L133">
+      <c r="N133">
         <v>1.19618507878302</v>
       </c>
-      <c r="M133">
+      <c r="O133">
         <v>1.018680420397299</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:15">
       <c r="A134" s="2">
         <v>44895</v>
       </c>
@@ -5694,34 +6498,40 @@
         <v>35.72328224044</v>
       </c>
       <c r="E134">
+        <v>342.16</v>
+      </c>
+      <c r="F134">
+        <v>169.09656696557</v>
+      </c>
+      <c r="G134">
         <v>-7.020727067E-05</v>
       </c>
-      <c r="F134">
+      <c r="H134">
         <v>168.201560011453</v>
       </c>
-      <c r="G134">
+      <c r="I134">
         <v>171.93</v>
       </c>
-      <c r="H134">
+      <c r="J134">
         <v>20.82</v>
       </c>
-      <c r="I134">
+      <c r="K134">
         <v>1515</v>
       </c>
-      <c r="J134">
+      <c r="L134">
         <v>0.4200863261214181</v>
       </c>
-      <c r="K134">
+      <c r="M134">
         <v>1.293497790224196</v>
       </c>
-      <c r="L134">
+      <c r="N134">
         <v>1.197417748251064</v>
       </c>
-      <c r="M134">
+      <c r="O134">
         <v>0.9970284436912492</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:15">
       <c r="A135" s="2">
         <v>44926</v>
       </c>
@@ -5735,34 +6545,40 @@
         <v>36.04426003614</v>
       </c>
       <c r="E135">
+        <v>379.23</v>
+      </c>
+      <c r="F135">
+        <v>215</v>
+      </c>
+      <c r="G135">
         <v>0.00157748202329</v>
       </c>
-      <c r="F135">
+      <c r="H135">
         <v>168.201560011453</v>
       </c>
-      <c r="G135">
+      <c r="I135">
         <v>169.82</v>
       </c>
-      <c r="H135">
+      <c r="J135">
         <v>21.29</v>
       </c>
-      <c r="I135">
+      <c r="K135">
         <v>681</v>
       </c>
-      <c r="J135">
+      <c r="L135">
         <v>0.4068708911667951</v>
       </c>
-      <c r="K135">
+      <c r="M135">
         <v>1.198608495949633</v>
       </c>
-      <c r="L135">
+      <c r="N135">
         <v>1.181452698983275</v>
       </c>
-      <c r="M135">
+      <c r="O135">
         <v>0.9651399526635926</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:15">
       <c r="A136" s="2">
         <v>44957</v>
       </c>
@@ -5776,34 +6592,40 @@
         <v>20.18397092135</v>
       </c>
       <c r="E136">
+        <v>317.99</v>
+      </c>
+      <c r="F136">
+        <v>172</v>
+      </c>
+      <c r="G136">
         <v>0.00120586983033</v>
       </c>
-      <c r="F136">
+      <c r="H136">
         <v>168.201560011453</v>
       </c>
-      <c r="G136">
+      <c r="I136">
         <v>287.2845205479452</v>
       </c>
-      <c r="H136">
+      <c r="J136">
         <v>20.77054794520548</v>
       </c>
-      <c r="I136">
+      <c r="K136">
         <v>990</v>
       </c>
-      <c r="J136">
+      <c r="L136">
         <v>0.417211062852551</v>
       </c>
-      <c r="K136">
+      <c r="M136">
         <v>1.174684475237928</v>
       </c>
-      <c r="L136">
+      <c r="N136">
         <v>1.170395373570146</v>
       </c>
-      <c r="M136">
+      <c r="O136">
         <v>0.9331739747173603</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:15">
       <c r="A137" s="2">
         <v>44985</v>
       </c>
@@ -5817,34 +6639,40 @@
         <v>16.53713727891</v>
       </c>
       <c r="E137">
+        <v>207.48</v>
+      </c>
+      <c r="F137">
+        <v>144.67</v>
+      </c>
+      <c r="G137">
         <v>0.00018277274577</v>
       </c>
-      <c r="F137">
+      <c r="H137">
         <v>168.201560011453</v>
       </c>
-      <c r="G137">
+      <c r="I137">
         <v>315.8471232876713</v>
       </c>
-      <c r="H137">
+      <c r="J137">
         <v>20.86972602739726</v>
       </c>
-      <c r="I137">
+      <c r="K137">
         <v>1389</v>
       </c>
-      <c r="J137">
+      <c r="L137">
         <v>0.4283147991232886</v>
       </c>
-      <c r="K137">
+      <c r="M137">
         <v>1.175842764216333</v>
       </c>
-      <c r="L137">
+      <c r="N137">
         <v>1.157921425669146</v>
       </c>
-      <c r="M137">
+      <c r="O137">
         <v>0.9225762745756159</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:15">
       <c r="A138" s="2">
         <v>45016</v>
       </c>
@@ -5858,34 +6686,40 @@
         <v>13.81207686229</v>
       </c>
       <c r="E138">
+        <v>187.23</v>
+      </c>
+      <c r="F138">
+        <v>136.84</v>
+      </c>
+      <c r="G138">
         <v>0.00064985238999</v>
       </c>
-      <c r="F138">
+      <c r="H138">
         <v>168.201560011453</v>
       </c>
-      <c r="G138">
+      <c r="I138">
         <v>367.957808219178</v>
       </c>
-      <c r="H138">
+      <c r="J138">
         <v>20.91493150684931</v>
       </c>
-      <c r="I138">
+      <c r="K138">
         <v>1576</v>
       </c>
-      <c r="J138">
+      <c r="L138">
         <v>0.4354095180796214</v>
       </c>
-      <c r="K138">
+      <c r="M138">
         <v>1.157828202699635</v>
       </c>
-      <c r="L138">
+      <c r="N138">
         <v>1.141032377340076</v>
       </c>
-      <c r="M138">
+      <c r="O138">
         <v>0.8861632827753628</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:15">
       <c r="A139" s="2">
         <v>45046</v>
       </c>
@@ -5899,34 +6733,40 @@
         <v>13.52052961513</v>
       </c>
       <c r="E139">
+        <v>194.28</v>
+      </c>
+      <c r="F139">
+        <v>133.7451</v>
+      </c>
+      <c r="G139">
         <v>0.00196217461898</v>
       </c>
-      <c r="F139">
+      <c r="H139">
         <v>168.201560011453</v>
       </c>
-      <c r="G139">
+      <c r="I139">
         <v>346.8073972602739</v>
       </c>
-      <c r="H139">
+      <c r="J139">
         <v>20.85602739726027</v>
       </c>
-      <c r="I139">
+      <c r="K139">
         <v>977</v>
       </c>
-      <c r="J139">
+      <c r="L139">
         <v>0.4411014470480559</v>
       </c>
-      <c r="K139">
+      <c r="M139">
         <v>1.078547904516356</v>
       </c>
-      <c r="L139">
+      <c r="N139">
         <v>0.9467313649913774</v>
       </c>
-      <c r="M139">
+      <c r="O139">
         <v>0.8421060630243679</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:15">
       <c r="A140" s="2">
         <v>45077</v>
       </c>
@@ -5940,34 +6780,40 @@
         <v>10.10875599841</v>
       </c>
       <c r="E140">
+        <v>160.48</v>
+      </c>
+      <c r="F140">
+        <v>103</v>
+      </c>
+      <c r="G140">
         <v>0.00089208560651</v>
       </c>
-      <c r="F140">
+      <c r="H140">
         <v>168.201560011453</v>
       </c>
-      <c r="G140">
+      <c r="I140">
         <v>294.9939726027397</v>
       </c>
-      <c r="H140">
+      <c r="J140">
         <v>20.53438356164384</v>
       </c>
-      <c r="I140">
+      <c r="K140">
         <v>1091</v>
       </c>
-      <c r="J140">
+      <c r="L140">
         <v>0.4552165907545774</v>
       </c>
-      <c r="K140">
+      <c r="M140">
         <v>1.038640692544284</v>
       </c>
-      <c r="L140">
+      <c r="N140">
         <v>0.8510623188811773</v>
       </c>
-      <c r="M140">
+      <c r="O140">
         <v>0.7742078805271971</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:15">
       <c r="A141" s="2">
         <v>45107</v>
       </c>
@@ -5981,34 +6827,40 @@
         <v>10.35062473915</v>
       </c>
       <c r="E141">
+        <v>139.42</v>
+      </c>
+      <c r="F141">
+        <v>98.58</v>
+      </c>
+      <c r="G141">
         <v>0.00373710729929</v>
       </c>
-      <c r="F141">
+      <c r="H141">
         <v>168.201560011453</v>
       </c>
-      <c r="G141">
+      <c r="I141">
         <v>230.5506849315069</v>
       </c>
-      <c r="H141">
+      <c r="J141">
         <v>19.79232876712329</v>
       </c>
-      <c r="I141">
+      <c r="K141">
         <v>1127</v>
       </c>
-      <c r="J141">
+      <c r="L141">
         <v>0.4606441776542338</v>
       </c>
-      <c r="K141">
+      <c r="M141">
         <v>0.9959642247694664</v>
       </c>
-      <c r="L141">
+      <c r="N141">
         <v>0.7995310846400768</v>
       </c>
-      <c r="M141">
+      <c r="O141">
         <v>0.6957576403035699</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:15">
       <c r="A142" s="2">
         <v>45138</v>
       </c>
@@ -6022,34 +6874,40 @@
         <v>9.54528398968</v>
       </c>
       <c r="E142">
+        <v>140.63</v>
+      </c>
+      <c r="F142">
+        <v>96.75</v>
+      </c>
+      <c r="G142">
         <v>0.00539043331312</v>
       </c>
-      <c r="F142">
+      <c r="H142">
         <v>168.201560011453</v>
       </c>
-      <c r="G142">
+      <c r="I142">
         <v>198.7842465753425</v>
       </c>
-      <c r="H142">
+      <c r="J142">
         <v>19.32369863013699</v>
       </c>
-      <c r="I142">
+      <c r="K142">
         <v>1086</v>
       </c>
-      <c r="J142">
+      <c r="L142">
         <v>0.4584960806791654</v>
       </c>
-      <c r="K142">
+      <c r="M142">
         <v>0.9463975731257724</v>
       </c>
-      <c r="L142">
+      <c r="N142">
         <v>0.7403079644465607</v>
       </c>
-      <c r="M142">
+      <c r="O142">
         <v>0.6519426044369245</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:15">
       <c r="A143" s="2">
         <v>45169</v>
       </c>
@@ -6063,34 +6921,40 @@
         <v>11.19194456369</v>
       </c>
       <c r="E143">
+        <v>152.61</v>
+      </c>
+      <c r="F143">
+        <v>97.6046</v>
+      </c>
+      <c r="G143">
         <v>0.00502968878962</v>
       </c>
-      <c r="F143">
+      <c r="H143">
         <v>168.201560011453</v>
       </c>
-      <c r="G143">
+      <c r="I143">
         <v>164.7102739726027</v>
       </c>
-      <c r="H143">
+      <c r="J143">
         <v>19.58</v>
       </c>
-      <c r="I143">
+      <c r="K143">
         <v>1701</v>
       </c>
-      <c r="J143">
+      <c r="L143">
         <v>0.4470955345908955</v>
       </c>
-      <c r="K143">
+      <c r="M143">
         <v>0.925686200847129</v>
       </c>
-      <c r="L143">
+      <c r="N143">
         <v>0.7460920696494301</v>
       </c>
-      <c r="M143">
+      <c r="O143">
         <v>0.6517089982436903</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:15">
       <c r="A144" s="2">
         <v>45199</v>
       </c>
@@ -6104,34 +6968,40 @@
         <v>11.54929514615</v>
       </c>
       <c r="E144">
+        <v>162.47</v>
+      </c>
+      <c r="F144">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="G144">
         <v>0.00037853311465</v>
       </c>
-      <c r="F144">
+      <c r="H144">
         <v>168.201560011453</v>
       </c>
-      <c r="G144">
+      <c r="I144">
         <v>177.4602739726027</v>
       </c>
-      <c r="H144">
+      <c r="J144">
         <v>19.95342465753425</v>
       </c>
-      <c r="I144">
+      <c r="K144">
         <v>1459</v>
       </c>
-      <c r="J144">
+      <c r="L144">
         <v>0.4478962499552843</v>
       </c>
-      <c r="K144">
+      <c r="M144">
         <v>0.9532274154468331</v>
       </c>
-      <c r="L144">
+      <c r="N144">
         <v>0.7346532009962643</v>
       </c>
-      <c r="M144">
+      <c r="O144">
         <v>0.6629292773257311</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:15">
       <c r="A145" s="2">
         <v>45230</v>
       </c>
@@ -6145,34 +7015,40 @@
         <v>14.56950705657</v>
       </c>
       <c r="E145">
+        <v>142.12</v>
+      </c>
+      <c r="F145">
+        <v>128.4</v>
+      </c>
+      <c r="G145">
         <v>-0.00175018038644</v>
       </c>
-      <c r="F145">
+      <c r="H145">
         <v>168.201560011453</v>
       </c>
-      <c r="G145">
+      <c r="I145">
         <v>205.4786301369863</v>
       </c>
-      <c r="H145">
+      <c r="J145">
         <v>20.23178082191781</v>
       </c>
-      <c r="I145">
+      <c r="K145">
         <v>2937</v>
       </c>
-      <c r="J145">
+      <c r="L145">
         <v>0.4335256992262623</v>
       </c>
-      <c r="K145">
+      <c r="M145">
         <v>0.9459924711429784</v>
       </c>
-      <c r="L145">
+      <c r="N145">
         <v>0.7338951871106011</v>
       </c>
-      <c r="M145">
+      <c r="O145">
         <v>0.6771679200974766</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:15">
       <c r="A146" s="2">
         <v>45260</v>
       </c>
@@ -6186,34 +7062,40 @@
         <v>14.48505487638</v>
       </c>
       <c r="E146">
+        <v>126.82</v>
+      </c>
+      <c r="F146">
+        <v>109</v>
+      </c>
+      <c r="G146">
         <v>-0.00399199617135</v>
       </c>
-      <c r="F146">
+      <c r="H146">
         <v>168.201560011453</v>
       </c>
-      <c r="G146">
+      <c r="I146">
         <v>208.5208219178082</v>
       </c>
-      <c r="H146">
+      <c r="J146">
         <v>20.38205479452055</v>
       </c>
-      <c r="I146">
+      <c r="K146">
         <v>2094</v>
       </c>
-      <c r="J146">
+      <c r="L146">
         <v>0.4279826061804835</v>
       </c>
-      <c r="K146">
+      <c r="M146">
         <v>0.9376818916124229</v>
       </c>
-      <c r="L146">
+      <c r="N146">
         <v>0.7125767115559107</v>
       </c>
-      <c r="M146">
+      <c r="O146">
         <v>0.6766752451945396</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:15">
       <c r="A147" s="2">
         <v>45291</v>
       </c>
@@ -6227,34 +7109,40 @@
         <v>11.50665790666</v>
       </c>
       <c r="E147">
+        <v>141.82</v>
+      </c>
+      <c r="F147">
+        <v>108.8294</v>
+      </c>
+      <c r="G147">
         <v>-0.00023225585349</v>
       </c>
-      <c r="F147">
+      <c r="H147">
         <v>168.201560011453</v>
       </c>
-      <c r="G147">
+      <c r="I147">
         <v>240.8878082191781</v>
       </c>
-      <c r="H147">
+      <c r="J147">
         <v>20.62109589041096</v>
       </c>
-      <c r="I147">
+      <c r="K147">
         <v>1398</v>
       </c>
-      <c r="J147">
+      <c r="L147">
         <v>0.424569904652916</v>
       </c>
-      <c r="K147">
+      <c r="M147">
         <v>0.9282134437222956</v>
       </c>
-      <c r="L147">
+      <c r="N147">
         <v>0.6873759924061151</v>
       </c>
-      <c r="M147">
+      <c r="O147">
         <v>0.6482963362209007</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:15">
       <c r="A148" s="2">
         <v>45322</v>
       </c>
@@ -6268,28 +7156,34 @@
         <v>9.55961355312</v>
       </c>
       <c r="E148">
+        <v>124.9</v>
+      </c>
+      <c r="F148">
+        <v>106.75</v>
+      </c>
+      <c r="G148">
         <v>0.00125345701049</v>
       </c>
-      <c r="F148">
+      <c r="H148">
         <v>168.201560011453</v>
       </c>
-      <c r="I148">
+      <c r="K148">
         <v>2111</v>
       </c>
-      <c r="J148">
+      <c r="L148">
         <v>0.4197783605972026</v>
       </c>
-      <c r="K148">
+      <c r="M148">
         <v>0.8908317735767547</v>
       </c>
-      <c r="L148">
+      <c r="N148">
         <v>0.645802120316499</v>
       </c>
-      <c r="M148">
+      <c r="O148">
         <v>0.6219078592027808</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:15">
       <c r="A149" s="2">
         <v>45351</v>
       </c>
@@ -6303,28 +7197,34 @@
         <v>8.14838086764</v>
       </c>
       <c r="E149">
+        <v>124.22</v>
+      </c>
+      <c r="F149">
+        <v>105.193</v>
+      </c>
+      <c r="G149">
         <v>0.00092817046871</v>
       </c>
-      <c r="F149">
+      <c r="H149">
         <v>168.201560011453</v>
       </c>
-      <c r="I149">
+      <c r="K149">
         <v>1821</v>
       </c>
-      <c r="J149">
+      <c r="L149">
         <v>0.4260518803189536</v>
       </c>
-      <c r="K149">
+      <c r="M149">
         <v>0.698660134397402</v>
       </c>
-      <c r="L149">
+      <c r="N149">
         <v>0.4955697133892522</v>
       </c>
-      <c r="M149">
+      <c r="O149">
         <v>0.4838418500636259</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:15">
       <c r="A150" s="2">
         <v>45382</v>
       </c>
@@ -6338,28 +7238,34 @@
         <v>8.55372632183</v>
       </c>
       <c r="E150">
+        <v>131.49</v>
+      </c>
+      <c r="F150">
+        <v>104.84</v>
+      </c>
+      <c r="G150">
         <v>0.00288040947349</v>
       </c>
-      <c r="F150">
+      <c r="H150">
         <v>168.201560011453</v>
       </c>
-      <c r="I150">
+      <c r="K150">
         <v>1685</v>
       </c>
-      <c r="J150">
+      <c r="L150">
         <v>0.4311292700074834</v>
       </c>
-      <c r="K150">
+      <c r="M150">
         <v>0.777707726822921</v>
       </c>
-      <c r="L150">
+      <c r="N150">
         <v>0.5408107856002339</v>
       </c>
-      <c r="M150">
+      <c r="O150">
         <v>0.5253723011732939</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:15">
       <c r="A151" s="2">
         <v>45412</v>
       </c>
@@ -6373,28 +7279,34 @@
         <v>9.08511900567</v>
       </c>
       <c r="E151">
+        <v>134.97</v>
+      </c>
+      <c r="F151">
+        <v>104.89</v>
+      </c>
+      <c r="G151">
         <v>0.01273099920596</v>
       </c>
-      <c r="F151">
+      <c r="H151">
         <v>173.007318868923</v>
       </c>
-      <c r="I151">
+      <c r="K151">
         <v>1815</v>
       </c>
-      <c r="J151">
+      <c r="L151">
         <v>0.4235886196926391</v>
       </c>
-      <c r="K151">
+      <c r="M151">
         <v>0.8778057898078694</v>
       </c>
-      <c r="L151">
+      <c r="N151">
         <v>0.6265261958603363</v>
       </c>
-      <c r="M151">
+      <c r="O151">
         <v>0.5922828949331166</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:15">
       <c r="A152" s="2">
         <v>45443</v>
       </c>
@@ -6405,28 +7317,34 @@
         <v>10.12306554509</v>
       </c>
       <c r="E152">
+        <v>142.01</v>
+      </c>
+      <c r="F152">
+        <v>105.63</v>
+      </c>
+      <c r="G152">
         <v>-0.00119194037903</v>
       </c>
-      <c r="F152">
+      <c r="H152">
         <v>173.007318868923</v>
       </c>
-      <c r="I152">
+      <c r="K152">
         <v>2050</v>
       </c>
-      <c r="J152">
+      <c r="L152">
         <v>0.4309165925465337</v>
       </c>
-      <c r="K152">
+      <c r="M152">
         <v>0.8505496862719805</v>
       </c>
-      <c r="L152">
+      <c r="N152">
         <v>0.5982628139590228</v>
       </c>
-      <c r="M152">
+      <c r="O152">
         <v>0.5782225728556203</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:15">
       <c r="A153" s="2">
         <v>45473</v>
       </c>
@@ -6437,28 +7355,34 @@
         <v>10.86897789978</v>
       </c>
       <c r="E153">
+        <v>135.1</v>
+      </c>
+      <c r="F153">
+        <v>105.3</v>
+      </c>
+      <c r="G153">
         <v>-0.009520711175700001</v>
       </c>
-      <c r="F153">
+      <c r="H153">
         <v>173.007318868923</v>
       </c>
-      <c r="I153">
+      <c r="K153">
         <v>1708</v>
       </c>
-      <c r="J153">
+      <c r="L153">
         <v>0.4328209709492213</v>
       </c>
-      <c r="K153">
+      <c r="M153">
         <v>0.8558800712909602</v>
       </c>
-      <c r="L153">
+      <c r="N153">
         <v>0.5824914772285323</v>
       </c>
-      <c r="M153">
+      <c r="O153">
         <v>0.5555706738719839</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:15">
       <c r="A154" s="2">
         <v>45504</v>
       </c>
@@ -6469,25 +7393,31 @@
         <v>10.34681932853</v>
       </c>
       <c r="E154">
+        <v>137.55</v>
+      </c>
+      <c r="F154">
+        <v>105.31</v>
+      </c>
+      <c r="G154">
         <v>0.00930392901235</v>
       </c>
-      <c r="F154">
+      <c r="H154">
         <v>173.007318868923</v>
       </c>
-      <c r="I154">
+      <c r="K154">
         <v>1814</v>
       </c>
-      <c r="K154">
+      <c r="M154">
         <v>0.8803907347272377</v>
       </c>
-      <c r="L154">
+      <c r="N154">
         <v>0.5768220543219431</v>
       </c>
-      <c r="M154">
+      <c r="O154">
         <v>0.5583286069431294</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:15">
       <c r="A155" s="2">
         <v>45535</v>
       </c>
@@ -6498,37 +7428,43 @@
         <v>12.37459819711</v>
       </c>
       <c r="E155">
+        <v>145.76</v>
+      </c>
+      <c r="F155">
+        <v>106.21</v>
+      </c>
+      <c r="G155">
         <v>0.00216291477707</v>
       </c>
-      <c r="F155">
+      <c r="H155">
         <v>173.007318868923</v>
       </c>
-      <c r="I155">
+      <c r="K155">
         <v>2084</v>
       </c>
-      <c r="K155">
+      <c r="M155">
         <v>0.879706142553904</v>
       </c>
-      <c r="L155">
+      <c r="N155">
         <v>0.576673867712157</v>
       </c>
-      <c r="M155">
+      <c r="O155">
         <v>0.5656612019411791</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:15">
       <c r="A156" s="2">
         <v>45565</v>
       </c>
-      <c r="I156">
+      <c r="K156">
         <v>1388</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:15">
       <c r="A157" s="2">
         <v>45596</v>
       </c>
-      <c r="I157">
+      <c r="K157">
         <v>1537</v>
       </c>
     </row>

--- a/data/predicción_precios_fertilizantes.xlsx
+++ b/data/predicción_precios_fertilizantes.xlsx
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,6994 +477,7104 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>40877</v>
-      </c>
-      <c r="B2">
-        <v>0.48125</v>
-      </c>
-      <c r="C2">
-        <v>110.50409090909</v>
-      </c>
-      <c r="D2">
-        <v>11.32</v>
-      </c>
-      <c r="E2">
-        <v>113.78</v>
-      </c>
-      <c r="F2">
-        <v>105.47</v>
-      </c>
-      <c r="G2">
-        <v>0.00303368</v>
+        <v>40574</v>
       </c>
       <c r="I2">
-        <v>187.79</v>
+        <v>288.27</v>
       </c>
       <c r="J2">
-        <v>20.77</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>40908</v>
-      </c>
-      <c r="B3">
-        <v>0.42313</v>
-      </c>
-      <c r="C3">
-        <v>107.90904761905</v>
-      </c>
-      <c r="D3">
-        <v>11.53</v>
-      </c>
-      <c r="E3">
-        <v>111.56</v>
-      </c>
-      <c r="F3">
-        <v>104.19</v>
-      </c>
-      <c r="G3">
-        <v>0.00397937</v>
+        <v>40602</v>
       </c>
       <c r="I3">
-        <v>270.52</v>
+        <v>276.36</v>
       </c>
       <c r="J3">
-        <v>20.99</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>40939</v>
-      </c>
-      <c r="B4">
-        <v>0.368</v>
-      </c>
-      <c r="C4">
-        <v>111.15619047619</v>
-      </c>
-      <c r="D4">
-        <v>11.45</v>
-      </c>
-      <c r="E4">
-        <v>116.46</v>
-      </c>
-      <c r="F4">
-        <v>106.26</v>
-      </c>
-      <c r="G4">
-        <v>0.00567152</v>
+        <v>40633</v>
       </c>
       <c r="I4">
-        <v>397.44</v>
+        <v>326.57</v>
       </c>
       <c r="J4">
-        <v>20.87</v>
-      </c>
-      <c r="K4">
-        <v>750</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>40968</v>
-      </c>
-      <c r="B5">
-        <v>0.375</v>
-      </c>
-      <c r="C5">
-        <v>119.70238095238</v>
-      </c>
-      <c r="D5">
-        <v>11.12</v>
-      </c>
-      <c r="E5">
-        <v>117.02</v>
-      </c>
-      <c r="F5">
-        <v>105.3</v>
-      </c>
-      <c r="G5">
-        <v>0.00777487</v>
+        <v>40663</v>
       </c>
       <c r="I5">
-        <v>432.71</v>
+        <v>356.7</v>
       </c>
       <c r="J5">
-        <v>20.81</v>
-      </c>
-      <c r="K5">
-        <v>934</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>40999</v>
-      </c>
-      <c r="B6">
-        <v>0.39313</v>
-      </c>
-      <c r="C6">
-        <v>124.92863636364</v>
-      </c>
-      <c r="D6">
-        <v>11.97</v>
-      </c>
-      <c r="E6">
-        <v>107.46</v>
-      </c>
-      <c r="F6">
-        <v>103.43</v>
-      </c>
-      <c r="G6">
-        <v>0.00900918</v>
+        <v>40694</v>
       </c>
       <c r="I6">
-        <v>445.15</v>
+        <v>249.46</v>
       </c>
       <c r="J6">
-        <v>21.1</v>
-      </c>
-      <c r="K6">
-        <v>1155</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>41029</v>
-      </c>
-      <c r="B7">
-        <v>0.49438</v>
-      </c>
-      <c r="C7">
-        <v>120.4635</v>
-      </c>
-      <c r="D7">
-        <v>11.42</v>
-      </c>
-      <c r="E7">
-        <v>103.59</v>
-      </c>
-      <c r="F7">
-        <v>101.33</v>
-      </c>
-      <c r="G7">
-        <v>0.00157996</v>
+        <v>40724</v>
       </c>
       <c r="I7">
-        <v>383.58</v>
+        <v>231.05</v>
       </c>
       <c r="J7">
-        <v>21.34</v>
-      </c>
-      <c r="K7">
-        <v>923</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>41060</v>
-      </c>
-      <c r="B8">
-        <v>0.51313</v>
-      </c>
-      <c r="C8">
-        <v>110.52173913044</v>
-      </c>
-      <c r="D8">
-        <v>11.64</v>
-      </c>
-      <c r="E8">
-        <v>95.83</v>
-      </c>
-      <c r="F8">
-        <v>93.77</v>
-      </c>
-      <c r="G8">
-        <v>-0.00194056</v>
+        <v>40755</v>
       </c>
       <c r="I8">
-        <v>326.04</v>
+        <v>230.84</v>
       </c>
       <c r="J8">
-        <v>21.03</v>
-      </c>
-      <c r="K8">
-        <v>1004</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>41090</v>
-      </c>
-      <c r="B9">
-        <v>0.45688</v>
-      </c>
-      <c r="C9">
-        <v>95.58904761905001</v>
-      </c>
-      <c r="D9">
-        <v>11.49</v>
-      </c>
-      <c r="E9">
-        <v>87.19</v>
-      </c>
-      <c r="F9">
-        <v>85.31</v>
-      </c>
-      <c r="G9">
-        <v>0.00175095</v>
+        <v>40786</v>
       </c>
       <c r="I9">
-        <v>207.28</v>
+        <v>154.74</v>
       </c>
       <c r="J9">
-        <v>20.66</v>
-      </c>
-      <c r="K9">
-        <v>897</v>
-      </c>
-      <c r="L9">
-        <v>0.45156912230711</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>41121</v>
-      </c>
-      <c r="B10">
-        <v>0.3075</v>
-      </c>
-      <c r="C10">
-        <v>103.14090909091</v>
-      </c>
-      <c r="D10">
-        <v>11.13</v>
-      </c>
-      <c r="E10">
-        <v>88.23999999999999</v>
-      </c>
-      <c r="F10">
-        <v>87.33</v>
-      </c>
-      <c r="G10">
-        <v>0.00261228</v>
+        <v>40816</v>
       </c>
       <c r="I10">
-        <v>206.41</v>
+        <v>185.34</v>
       </c>
       <c r="J10">
-        <v>20.17</v>
-      </c>
-      <c r="K10">
-        <v>703</v>
-      </c>
-      <c r="L10">
-        <v>0.4563965557663374</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>41152</v>
-      </c>
-      <c r="B11">
-        <v>0.3825</v>
-      </c>
-      <c r="C11">
-        <v>113.34</v>
-      </c>
-      <c r="D11">
-        <v>11.18</v>
-      </c>
-      <c r="E11">
-        <v>91</v>
-      </c>
-      <c r="F11">
-        <v>89.11</v>
-      </c>
-      <c r="G11">
-        <v>0.00288668</v>
+        <v>40847</v>
       </c>
       <c r="I11">
-        <v>157.41</v>
+        <v>182.53</v>
       </c>
       <c r="J11">
-        <v>20.15</v>
-      </c>
-      <c r="K11">
-        <v>766</v>
-      </c>
-      <c r="L11">
-        <v>0.4657127177546659</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>41182</v>
+        <v>40877</v>
       </c>
       <c r="B12">
-        <v>0.38438</v>
+        <v>0.48125</v>
       </c>
       <c r="C12">
-        <v>113.3825</v>
+        <v>110.50409090909</v>
       </c>
       <c r="D12">
-        <v>11.08</v>
+        <v>11.32</v>
       </c>
       <c r="E12">
-        <v>88.95999999999999</v>
+        <v>113.78</v>
       </c>
       <c r="F12">
-        <v>85.81999999999999</v>
+        <v>105.47</v>
       </c>
       <c r="G12">
-        <v>0.01121914</v>
+        <v>0.00303368</v>
       </c>
       <c r="I12">
-        <v>137.1</v>
+        <v>187.79</v>
       </c>
       <c r="J12">
-        <v>20.29</v>
-      </c>
-      <c r="K12">
-        <v>1026</v>
-      </c>
-      <c r="L12">
-        <v>0.4753112583617692</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>41213</v>
+        <v>40908</v>
       </c>
       <c r="B13">
-        <v>0.349</v>
+        <v>0.42313</v>
       </c>
       <c r="C13">
-        <v>111.97347826087</v>
+        <v>107.90904761905</v>
       </c>
       <c r="D13">
-        <v>11.58</v>
+        <v>11.53</v>
       </c>
       <c r="E13">
-        <v>81.84999999999999</v>
+        <v>111.56</v>
       </c>
       <c r="F13">
-        <v>82.8</v>
+        <v>104.19</v>
       </c>
       <c r="G13">
-        <v>0.00086008</v>
+        <v>0.00397937</v>
       </c>
       <c r="I13">
-        <v>192.12</v>
+        <v>270.52</v>
       </c>
       <c r="J13">
-        <v>20.77</v>
-      </c>
-      <c r="K13">
-        <v>1086</v>
-      </c>
-      <c r="L13">
-        <v>0.4765936417394134</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>41243</v>
+        <v>40939</v>
       </c>
       <c r="B14">
-        <v>0.3835</v>
+        <v>0.368</v>
       </c>
       <c r="C14">
-        <v>109.71181818182</v>
+        <v>111.15619047619</v>
       </c>
       <c r="D14">
-        <v>11.83</v>
+        <v>11.45</v>
       </c>
       <c r="E14">
-        <v>85.89</v>
+        <v>116.46</v>
       </c>
       <c r="F14">
-        <v>85.73999999999999</v>
+        <v>106.26</v>
       </c>
       <c r="G14">
-        <v>0.00139346</v>
+        <v>0.00567152</v>
       </c>
       <c r="I14">
-        <v>236.59</v>
+        <v>397.44</v>
       </c>
       <c r="J14">
-        <v>21.13</v>
+        <v>20.87</v>
       </c>
       <c r="K14">
-        <v>699</v>
-      </c>
-      <c r="L14">
-        <v>0.4834270269365712</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>41274</v>
+        <v>40968</v>
       </c>
       <c r="B15">
-        <v>0.37583</v>
+        <v>0.375</v>
       </c>
       <c r="C15">
-        <v>109.6765</v>
+        <v>119.70238095238</v>
       </c>
       <c r="D15">
-        <v>11.79</v>
+        <v>11.12</v>
       </c>
       <c r="E15">
-        <v>92.88</v>
+        <v>117.02</v>
       </c>
       <c r="F15">
-        <v>88.84</v>
+        <v>105.3</v>
       </c>
       <c r="G15">
-        <v>-0.00185782</v>
+        <v>0.00777487</v>
       </c>
       <c r="I15">
-        <v>236.57</v>
+        <v>432.71</v>
       </c>
       <c r="J15">
-        <v>21.09</v>
+        <v>20.81</v>
       </c>
       <c r="K15">
-        <v>760</v>
-      </c>
-      <c r="L15">
-        <v>0.4959887405894605</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>41305</v>
+        <v>40999</v>
       </c>
       <c r="B16">
-        <v>0.38</v>
+        <v>0.39313</v>
       </c>
       <c r="C16">
-        <v>112.97363636364</v>
+        <v>124.92863636364</v>
       </c>
       <c r="D16">
-        <v>11.87</v>
+        <v>11.97</v>
       </c>
       <c r="E16">
-        <v>92.77</v>
+        <v>107.46</v>
       </c>
       <c r="F16">
-        <v>86.13</v>
+        <v>103.43</v>
       </c>
       <c r="G16">
-        <v>0.00502823</v>
-      </c>
-      <c r="H16">
-        <v>99.270073</v>
+        <v>0.00900918</v>
       </c>
       <c r="I16">
-        <v>277.5</v>
+        <v>445.15</v>
       </c>
       <c r="J16">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="K16">
-        <v>757</v>
-      </c>
-      <c r="L16">
-        <v>0.4794243298594665</v>
-      </c>
-      <c r="M16">
-        <v>0.8672605470437807</v>
-      </c>
-      <c r="N16">
-        <v>0.6744008263913943</v>
-      </c>
-      <c r="O16">
-        <v>0.6571884357926305</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>41333</v>
+        <v>41029</v>
       </c>
       <c r="B17">
-        <v>0.41563</v>
+        <v>0.49438</v>
       </c>
       <c r="C17">
-        <v>116.5195</v>
+        <v>120.4635</v>
       </c>
       <c r="D17">
-        <v>11.77</v>
+        <v>11.42</v>
       </c>
       <c r="E17">
-        <v>94.94</v>
+        <v>103.59</v>
       </c>
       <c r="F17">
-        <v>85.13</v>
+        <v>101.33</v>
       </c>
       <c r="G17">
-        <v>0.00184694</v>
-      </c>
-      <c r="H17">
-        <v>99.270073</v>
+        <v>0.00157996</v>
       </c>
       <c r="I17">
-        <v>389.36</v>
+        <v>383.58</v>
       </c>
       <c r="J17">
-        <v>21.17</v>
+        <v>21.34</v>
       </c>
       <c r="K17">
-        <v>910</v>
-      </c>
-      <c r="L17">
-        <v>0.4615169282430922</v>
-      </c>
-      <c r="M17">
-        <v>0.8685473684210524</v>
-      </c>
-      <c r="N17">
-        <v>0.6973968253968253</v>
-      </c>
-      <c r="O17">
-        <v>0.6790224719101122</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>41364</v>
+        <v>41060</v>
       </c>
       <c r="B18">
-        <v>0.39563</v>
+        <v>0.51313</v>
       </c>
       <c r="C18">
-        <v>109.24</v>
+        <v>110.52173913044</v>
       </c>
       <c r="D18">
-        <v>11.87</v>
+        <v>11.64</v>
       </c>
       <c r="E18">
-        <v>90.98</v>
+        <v>95.83</v>
       </c>
       <c r="F18">
-        <v>82.77</v>
+        <v>93.77</v>
       </c>
       <c r="G18">
-        <v>0.00438385</v>
-      </c>
-      <c r="H18">
-        <v>99.270073</v>
+        <v>-0.00194056</v>
       </c>
       <c r="I18">
-        <v>392.47</v>
+        <v>326.04</v>
       </c>
       <c r="J18">
-        <v>21.64</v>
+        <v>21.03</v>
       </c>
       <c r="K18">
-        <v>863</v>
-      </c>
-      <c r="L18">
-        <v>0.4507139496875138</v>
-      </c>
-      <c r="M18">
-        <v>0.8550798734425991</v>
-      </c>
-      <c r="N18">
-        <v>0.6786829500291331</v>
-      </c>
-      <c r="O18">
-        <v>0.6491428815279966</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>41394</v>
+        <v>41090</v>
       </c>
       <c r="B19">
-        <v>0.36563</v>
+        <v>0.45688</v>
       </c>
       <c r="C19">
-        <v>102.87545454546</v>
+        <v>95.58904761905001</v>
       </c>
       <c r="D19">
-        <v>12.88</v>
+        <v>11.49</v>
       </c>
       <c r="E19">
-        <v>87.76000000000001</v>
+        <v>87.19</v>
       </c>
       <c r="F19">
-        <v>82.02</v>
+        <v>85.31</v>
       </c>
       <c r="G19">
-        <v>0.00178991480129</v>
-      </c>
-      <c r="H19">
-        <v>99.270073</v>
+        <v>0.00175095</v>
       </c>
       <c r="I19">
-        <v>315.47</v>
+        <v>207.28</v>
       </c>
       <c r="J19">
-        <v>21.47</v>
+        <v>20.66</v>
       </c>
       <c r="K19">
-        <v>809</v>
+        <v>897</v>
       </c>
       <c r="L19">
-        <v>0.4335360613646838</v>
-      </c>
-      <c r="M19">
-        <v>0.8518106005524388</v>
-      </c>
-      <c r="N19">
-        <v>0.6778942746051847</v>
-      </c>
-      <c r="O19">
-        <v>0.6543445696018247</v>
+        <v>0.45156912230711</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>41425</v>
+        <v>41121</v>
       </c>
       <c r="B20">
-        <v>0.35813</v>
+        <v>0.3075</v>
       </c>
       <c r="C20">
-        <v>103.02695652174</v>
+        <v>103.14090909091</v>
       </c>
       <c r="D20">
-        <v>12.29</v>
+        <v>11.13</v>
       </c>
       <c r="E20">
-        <v>87.70999999999999</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="F20">
-        <v>81.79000000000001</v>
+        <v>87.33</v>
       </c>
       <c r="G20">
-        <v>-0.00217898312721</v>
-      </c>
-      <c r="H20">
-        <v>99.270073</v>
+        <v>0.00261228</v>
       </c>
       <c r="I20">
-        <v>294.04</v>
+        <v>206.41</v>
       </c>
       <c r="J20">
-        <v>20.92</v>
+        <v>20.17</v>
       </c>
       <c r="K20">
-        <v>1171</v>
+        <v>703</v>
       </c>
       <c r="L20">
-        <v>0.4195287575540546</v>
-      </c>
-      <c r="M20">
-        <v>0.8422469678076685</v>
-      </c>
-      <c r="N20">
-        <v>0.6676538974803573</v>
-      </c>
-      <c r="O20">
-        <v>0.6478541739249454</v>
+        <v>0.4563965557663374</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>41455</v>
+        <v>41152</v>
       </c>
       <c r="B21">
-        <v>0.32938</v>
+        <v>0.3825</v>
       </c>
       <c r="C21">
-        <v>103.11</v>
+        <v>113.34</v>
       </c>
       <c r="D21">
-        <v>11.92</v>
+        <v>11.18</v>
       </c>
       <c r="E21">
-        <v>82.75431946201</v>
+        <v>91</v>
       </c>
       <c r="F21">
-        <v>77.28942633542</v>
+        <v>89.11</v>
       </c>
       <c r="G21">
-        <v>-0.00144789862262</v>
-      </c>
-      <c r="H21">
-        <v>99.270073</v>
+        <v>0.00288668</v>
       </c>
       <c r="I21">
-        <v>189.7</v>
+        <v>157.41</v>
       </c>
       <c r="J21">
-        <v>20.19</v>
+        <v>20.15</v>
       </c>
       <c r="K21">
-        <v>1062</v>
+        <v>766</v>
       </c>
       <c r="L21">
-        <v>0.4077643599351691</v>
-      </c>
-      <c r="M21">
-        <v>0.8585037107303684</v>
-      </c>
-      <c r="N21">
-        <v>0.6499071626810746</v>
-      </c>
-      <c r="O21">
-        <v>0.6320951778946903</v>
+        <v>0.4657127177546659</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>41486</v>
+        <v>41182</v>
       </c>
       <c r="B22">
-        <v>0.3125</v>
+        <v>0.38438</v>
       </c>
       <c r="C22">
-        <v>107.71608695652</v>
+        <v>113.3825</v>
       </c>
       <c r="D22">
-        <v>11.6</v>
+        <v>11.08</v>
       </c>
       <c r="E22">
-        <v>77.25921082883001</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="F22">
-        <v>72.64328692981</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="G22">
-        <v>-0.00018660335055</v>
-      </c>
-      <c r="H22">
-        <v>99.270073</v>
+        <v>0.01121914</v>
       </c>
       <c r="I22">
-        <v>207.07</v>
+        <v>137.1</v>
       </c>
       <c r="J22">
-        <v>19.51</v>
+        <v>20.29</v>
       </c>
       <c r="K22">
-        <v>1132</v>
+        <v>1026</v>
       </c>
       <c r="L22">
-        <v>0.4031226055231591</v>
-      </c>
-      <c r="M22">
-        <v>0.8348733420306047</v>
-      </c>
-      <c r="N22">
-        <v>0.6357231285495277</v>
-      </c>
-      <c r="O22">
-        <v>0.608623615595951</v>
+        <v>0.4753112583617692</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>41517</v>
+        <v>41213</v>
       </c>
       <c r="B23">
-        <v>0.31063</v>
+        <v>0.349</v>
       </c>
       <c r="C23">
-        <v>110.96454545455</v>
+        <v>111.97347826087</v>
       </c>
       <c r="D23">
-        <v>11.64</v>
+        <v>11.58</v>
       </c>
       <c r="E23">
-        <v>76.95999999999999</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="F23">
-        <v>72.91200000000001</v>
+        <v>82.8</v>
       </c>
       <c r="G23">
-        <v>0.0017359094249</v>
-      </c>
-      <c r="H23">
-        <v>99.270073</v>
+        <v>0.00086008</v>
       </c>
       <c r="I23">
-        <v>180.33</v>
+        <v>192.12</v>
       </c>
       <c r="J23">
-        <v>19.75</v>
+        <v>20.77</v>
       </c>
       <c r="K23">
-        <v>2003</v>
+        <v>1086</v>
       </c>
       <c r="L23">
-        <v>0.4058843099211358</v>
-      </c>
-      <c r="M23">
-        <v>0.8405950985701316</v>
-      </c>
-      <c r="N23">
-        <v>0.6467457881835041</v>
-      </c>
-      <c r="O23">
-        <v>0.6213613680524864</v>
+        <v>0.4765936417394134</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>41547</v>
+        <v>41243</v>
       </c>
       <c r="B24">
-        <v>0.301</v>
+        <v>0.3835</v>
       </c>
       <c r="C24">
-        <v>111.62142857143</v>
+        <v>109.71181818182</v>
       </c>
       <c r="D24">
-        <v>11.25</v>
+        <v>11.83</v>
       </c>
       <c r="E24">
-        <v>77.6125</v>
+        <v>85.89</v>
       </c>
       <c r="F24">
-        <v>73.0975</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="G24">
-        <v>0.00567880702632</v>
-      </c>
-      <c r="H24">
-        <v>99.270073</v>
+        <v>0.00139346</v>
       </c>
       <c r="I24">
-        <v>151.4</v>
+        <v>236.59</v>
       </c>
       <c r="J24">
-        <v>20.39</v>
+        <v>21.13</v>
       </c>
       <c r="K24">
-        <v>1504</v>
+        <v>699</v>
       </c>
       <c r="L24">
-        <v>0.4117237310940446</v>
-      </c>
-      <c r="M24">
-        <v>0.8487359058149437</v>
-      </c>
-      <c r="N24">
-        <v>0.6421140644338255</v>
-      </c>
-      <c r="O24">
-        <v>0.6223573908089982</v>
+        <v>0.4834270269365712</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>41578</v>
+        <v>41274</v>
       </c>
       <c r="B25">
-        <v>0.29688</v>
+        <v>0.37583</v>
       </c>
       <c r="C25">
-        <v>109.47869565217</v>
+        <v>109.6765</v>
       </c>
       <c r="D25">
-        <v>11.37</v>
+        <v>11.79</v>
       </c>
       <c r="E25">
-        <v>79.41249999999999</v>
+        <v>92.88</v>
       </c>
       <c r="F25">
-        <v>80.64749999999999</v>
+        <v>88.84</v>
       </c>
       <c r="G25">
-        <v>0.00408272123409</v>
-      </c>
-      <c r="H25">
-        <v>99.270073</v>
+        <v>-0.00185782</v>
       </c>
       <c r="I25">
-        <v>193.63</v>
+        <v>236.57</v>
       </c>
       <c r="J25">
-        <v>20.69</v>
+        <v>21.09</v>
       </c>
       <c r="K25">
-        <v>1821</v>
+        <v>760</v>
       </c>
       <c r="L25">
-        <v>0.4124671284722797</v>
-      </c>
-      <c r="M25">
-        <v>0.8232638929131122</v>
-      </c>
-      <c r="N25">
-        <v>0.6348739077977877</v>
-      </c>
-      <c r="O25">
-        <v>0.6073372445208857</v>
+        <v>0.4959887405894605</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>41608</v>
+        <v>41305</v>
       </c>
       <c r="B26">
-        <v>0.305</v>
+        <v>0.38</v>
       </c>
       <c r="C26">
-        <v>108.07619047619</v>
+        <v>112.97363636364</v>
       </c>
       <c r="D26">
-        <v>11.42</v>
+        <v>11.87</v>
       </c>
       <c r="E26">
-        <v>82.25</v>
+        <v>92.77</v>
       </c>
       <c r="F26">
-        <v>83.818</v>
+        <v>86.13</v>
       </c>
       <c r="G26">
-        <v>0.00394188623561</v>
+        <v>0.00502823</v>
       </c>
       <c r="H26">
         <v>99.270073</v>
       </c>
       <c r="I26">
-        <v>202.12</v>
+        <v>277.5</v>
       </c>
       <c r="J26">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="K26">
-        <v>2277</v>
+        <v>757</v>
       </c>
       <c r="L26">
-        <v>0.418826042110677</v>
+        <v>0.4794243298594665</v>
       </c>
       <c r="M26">
-        <v>0.8121355641936376</v>
+        <v>0.8672605470437807</v>
       </c>
       <c r="N26">
-        <v>0.6306641597470233</v>
+        <v>0.6744008263913943</v>
       </c>
       <c r="O26">
-        <v>0.6009369425458041</v>
+        <v>0.6571884357926305</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>41639</v>
+        <v>41333</v>
       </c>
       <c r="B27">
-        <v>0.305</v>
+        <v>0.41563</v>
       </c>
       <c r="C27">
-        <v>110.674</v>
+        <v>116.5195</v>
       </c>
       <c r="D27">
-        <v>11.55</v>
+        <v>11.77</v>
       </c>
       <c r="E27">
-        <v>84.33750000000001</v>
+        <v>94.94</v>
       </c>
       <c r="F27">
-        <v>84.61499999999999</v>
+        <v>85.13</v>
       </c>
       <c r="G27">
-        <v>0.00203496635956</v>
+        <v>0.00184694</v>
       </c>
       <c r="H27">
         <v>99.270073</v>
       </c>
       <c r="I27">
-        <v>203.44</v>
+        <v>389.36</v>
       </c>
       <c r="J27">
-        <v>21.3</v>
+        <v>21.17</v>
       </c>
       <c r="K27">
-        <v>1110</v>
+        <v>910</v>
       </c>
       <c r="L27">
-        <v>0.4171315477450044</v>
+        <v>0.4615169282430922</v>
       </c>
       <c r="M27">
-        <v>0.8074058386419162</v>
+        <v>0.8685473684210524</v>
       </c>
       <c r="N27">
-        <v>0.6107523031239191</v>
+        <v>0.6973968253968253</v>
       </c>
       <c r="O27">
-        <v>0.5891253726199061</v>
+        <v>0.6790224719101122</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>41670</v>
+        <v>41364</v>
       </c>
       <c r="B28">
-        <v>0.33</v>
+        <v>0.39563</v>
       </c>
       <c r="C28">
-        <v>107.42</v>
+        <v>109.24</v>
       </c>
       <c r="D28">
-        <v>11.59</v>
+        <v>11.87</v>
       </c>
       <c r="E28">
-        <v>81.61</v>
+        <v>90.98</v>
       </c>
       <c r="F28">
-        <v>82.90000000000001</v>
+        <v>82.77</v>
       </c>
       <c r="G28">
-        <v>0.00721709623224</v>
+        <v>0.00438385</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I28">
-        <v>361.17</v>
+        <v>392.47</v>
       </c>
       <c r="J28">
-        <v>21.29</v>
+        <v>21.64</v>
       </c>
       <c r="K28">
-        <v>1258</v>
+        <v>863</v>
       </c>
       <c r="L28">
-        <v>0.4150385260743131</v>
+        <v>0.4507139496875138</v>
       </c>
       <c r="M28">
-        <v>0.7709181489739785</v>
+        <v>0.8550798734425991</v>
       </c>
       <c r="N28">
-        <v>0.6066373078667835</v>
+        <v>0.6786829500291331</v>
       </c>
       <c r="O28">
-        <v>0.6002775590720512</v>
+        <v>0.6491428815279966</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>41698</v>
+        <v>41394</v>
       </c>
       <c r="B29">
-        <v>0.35313</v>
+        <v>0.36563</v>
       </c>
       <c r="C29">
-        <v>108.81</v>
+        <v>102.87545454546</v>
       </c>
       <c r="D29">
-        <v>11.3</v>
+        <v>12.88</v>
       </c>
       <c r="E29">
-        <v>76.29000000000001</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="F29">
-        <v>77.59999999999999</v>
+        <v>82.02</v>
       </c>
       <c r="G29">
-        <v>0.00109903582645</v>
+        <v>0.00178991480129</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I29">
-        <v>296.94</v>
+        <v>315.47</v>
       </c>
       <c r="J29">
-        <v>21.3</v>
+        <v>21.47</v>
       </c>
       <c r="K29">
-        <v>1362</v>
+        <v>809</v>
       </c>
       <c r="L29">
-        <v>0.4236299912409605</v>
+        <v>0.4335360613646838</v>
       </c>
       <c r="M29">
-        <v>0.7925621089687369</v>
+        <v>0.8518106005524388</v>
       </c>
       <c r="N29">
-        <v>0.6139503909803039</v>
+        <v>0.6778942746051847</v>
       </c>
       <c r="O29">
-        <v>0.6597338111517724</v>
+        <v>0.6543445696018247</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>41729</v>
+        <v>41425</v>
       </c>
       <c r="B30">
-        <v>0.3275</v>
+        <v>0.35813</v>
       </c>
       <c r="C30">
-        <v>107.4</v>
+        <v>103.02695652174</v>
       </c>
       <c r="D30">
-        <v>10.88</v>
+        <v>12.29</v>
       </c>
       <c r="E30">
-        <v>73.34</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="F30">
-        <v>74.59999999999999</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="G30">
-        <v>0.00696282099423</v>
+        <v>-0.00217898312721</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I30">
-        <v>353.4</v>
+        <v>294.04</v>
       </c>
       <c r="J30">
-        <v>21.3</v>
+        <v>20.92</v>
       </c>
       <c r="K30">
-        <v>943</v>
+        <v>1171</v>
       </c>
       <c r="L30">
-        <v>0.4177867716223456</v>
+        <v>0.4195287575540546</v>
       </c>
       <c r="M30">
-        <v>0.8068686654566634</v>
+        <v>0.8422469678076685</v>
       </c>
       <c r="N30">
-        <v>0.6180948817281297</v>
+        <v>0.6676538974803573</v>
       </c>
       <c r="O30">
-        <v>0.6651449333001744</v>
+        <v>0.6478541739249454</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2">
-        <v>41759</v>
+        <v>41455</v>
       </c>
       <c r="B31">
-        <v>0.26</v>
+        <v>0.32938</v>
       </c>
       <c r="C31">
-        <v>107.79</v>
+        <v>103.11</v>
       </c>
       <c r="D31">
-        <v>10.73</v>
+        <v>11.92</v>
       </c>
       <c r="E31">
-        <v>72.81999999999999</v>
+        <v>82.75431946201</v>
       </c>
       <c r="F31">
-        <v>75.06</v>
+        <v>77.28942633542</v>
       </c>
       <c r="G31">
-        <v>0.0029547590082</v>
+        <v>-0.00144789862262</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I31">
-        <v>330.56</v>
+        <v>189.7</v>
       </c>
       <c r="J31">
-        <v>21.02</v>
+        <v>20.19</v>
       </c>
       <c r="K31">
-        <v>934</v>
+        <v>1062</v>
       </c>
       <c r="L31">
-        <v>0.4182133219109875</v>
+        <v>0.4077643599351691</v>
       </c>
       <c r="M31">
-        <v>0.8020950461564855</v>
+        <v>0.8585037107303684</v>
       </c>
       <c r="N31">
-        <v>0.6157498824700319</v>
+        <v>0.6499071626810746</v>
       </c>
       <c r="O31">
-        <v>0.6503967749331658</v>
+        <v>0.6320951778946903</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2">
-        <v>41790</v>
+        <v>41486</v>
       </c>
       <c r="B32">
-        <v>0.265</v>
+        <v>0.3125</v>
       </c>
       <c r="C32">
-        <v>109.68</v>
+        <v>107.71608695652</v>
       </c>
       <c r="D32">
-        <v>10.2</v>
+        <v>11.6</v>
       </c>
       <c r="E32">
-        <v>73.69</v>
+        <v>77.25921082883001</v>
       </c>
       <c r="F32">
-        <v>75.78</v>
+        <v>72.64328692981</v>
       </c>
       <c r="G32">
-        <v>-0.00041124006945</v>
+        <v>-0.00018660335055</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I32">
-        <v>341.67</v>
+        <v>207.07</v>
       </c>
       <c r="J32">
-        <v>21.02</v>
+        <v>19.51</v>
       </c>
       <c r="K32">
-        <v>850</v>
+        <v>1132</v>
       </c>
       <c r="L32">
-        <v>0.4129992138890161</v>
+        <v>0.4031226055231591</v>
       </c>
       <c r="M32">
-        <v>0.7871571321656488</v>
+        <v>0.8348733420306047</v>
       </c>
       <c r="N32">
-        <v>0.6024213151913201</v>
+        <v>0.6357231285495277</v>
       </c>
       <c r="O32">
-        <v>0.6364812405234331</v>
+        <v>0.608623615595951</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2">
-        <v>41820</v>
+        <v>41517</v>
       </c>
       <c r="B33">
-        <v>0.28875</v>
+        <v>0.31063</v>
       </c>
       <c r="C33">
-        <v>111.87</v>
+        <v>110.96454545455</v>
       </c>
       <c r="D33">
-        <v>9.77</v>
+        <v>11.64</v>
       </c>
       <c r="E33">
-        <v>71.48</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="F33">
-        <v>74.09</v>
+        <v>72.91200000000001</v>
       </c>
       <c r="G33">
-        <v>0.00104061164432</v>
+        <v>0.0017359094249</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I33">
-        <v>244.63</v>
+        <v>180.33</v>
       </c>
       <c r="J33">
-        <v>20.83</v>
+        <v>19.75</v>
       </c>
       <c r="K33">
-        <v>755</v>
+        <v>2003</v>
       </c>
       <c r="L33">
-        <v>0.4152802924549676</v>
+        <v>0.4058843099211358</v>
       </c>
       <c r="M33">
-        <v>0.7605184164311056</v>
+        <v>0.8405950985701316</v>
       </c>
       <c r="N33">
-        <v>0.5887944817376379</v>
+        <v>0.6467457881835041</v>
       </c>
       <c r="O33">
-        <v>0.6153944841018681</v>
+        <v>0.6213613680524864</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2">
-        <v>41851</v>
+        <v>41547</v>
       </c>
       <c r="B34">
-        <v>0.305</v>
+        <v>0.301</v>
       </c>
       <c r="C34">
-        <v>106.98</v>
+        <v>111.62142857143</v>
       </c>
       <c r="D34">
-        <v>9.27</v>
+        <v>11.25</v>
       </c>
       <c r="E34">
-        <v>68.75</v>
+        <v>77.6125</v>
       </c>
       <c r="F34">
-        <v>71.44</v>
+        <v>73.0975</v>
       </c>
       <c r="G34">
-        <v>0.00403367510875</v>
+        <v>0.00567880702632</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I34">
-        <v>226.27</v>
+        <v>151.4</v>
       </c>
       <c r="J34">
-        <v>20.33</v>
+        <v>20.39</v>
       </c>
       <c r="K34">
-        <v>1147</v>
+        <v>1504</v>
       </c>
       <c r="L34">
-        <v>0.4066837383073431</v>
+        <v>0.4117237310940446</v>
       </c>
       <c r="M34">
-        <v>0.7638108928979822</v>
+        <v>0.8487359058149437</v>
       </c>
       <c r="N34">
-        <v>0.5866103312581704</v>
+        <v>0.6421140644338255</v>
       </c>
       <c r="O34">
-        <v>0.6019163744878601</v>
+        <v>0.6223573908089982</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2">
-        <v>41882</v>
+        <v>41578</v>
       </c>
       <c r="B35">
-        <v>0.31125</v>
+        <v>0.29688</v>
       </c>
       <c r="C35">
-        <v>101.92</v>
+        <v>109.47869565217</v>
       </c>
       <c r="D35">
-        <v>9.140000000000001</v>
+        <v>11.37</v>
       </c>
       <c r="E35">
-        <v>68.94</v>
+        <v>79.41249999999999</v>
       </c>
       <c r="F35">
-        <v>71.19</v>
+        <v>80.64749999999999</v>
       </c>
       <c r="G35">
-        <v>0.00209425743043</v>
+        <v>0.00408272123409</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I35">
-        <v>196.13</v>
+        <v>193.63</v>
       </c>
       <c r="J35">
-        <v>20.17</v>
+        <v>20.69</v>
       </c>
       <c r="K35">
-        <v>1063</v>
+        <v>1821</v>
       </c>
       <c r="L35">
-        <v>0.3920306726312142</v>
+        <v>0.4124671284722797</v>
       </c>
       <c r="M35">
-        <v>0.7447946316492472</v>
+        <v>0.8232638929131122</v>
       </c>
       <c r="N35">
-        <v>0.5829472606075842</v>
+        <v>0.6348739077977877</v>
       </c>
       <c r="O35">
-        <v>0.580972938994164</v>
+        <v>0.6073372445208857</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2">
-        <v>41912</v>
+        <v>41608</v>
       </c>
       <c r="B36">
-        <v>0.3175</v>
+        <v>0.305</v>
       </c>
       <c r="C36">
-        <v>97.34</v>
+        <v>108.07619047619</v>
       </c>
       <c r="D36">
-        <v>9.24</v>
+        <v>11.42</v>
       </c>
       <c r="E36">
-        <v>65.94</v>
+        <v>82.25</v>
       </c>
       <c r="F36">
-        <v>67.86</v>
+        <v>83.818</v>
       </c>
       <c r="G36">
-        <v>0.00612724231634</v>
+        <v>0.00394188623561</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I36">
-        <v>162.06</v>
+        <v>202.12</v>
       </c>
       <c r="J36">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="K36">
-        <v>1428</v>
+        <v>2277</v>
       </c>
       <c r="L36">
-        <v>0.3861868317778936</v>
+        <v>0.418826042110677</v>
       </c>
       <c r="M36">
-        <v>0.7357620290506148</v>
+        <v>0.8121355641936376</v>
       </c>
       <c r="N36">
-        <v>0.5870616816596992</v>
+        <v>0.6306641597470233</v>
       </c>
       <c r="O36">
-        <v>0.5789874107822613</v>
+        <v>0.6009369425458041</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2">
-        <v>41943</v>
+        <v>41639</v>
       </c>
       <c r="B37">
-        <v>0.3175</v>
+        <v>0.305</v>
       </c>
       <c r="C37">
-        <v>87.27</v>
+        <v>110.674</v>
       </c>
       <c r="D37">
-        <v>9.77</v>
+        <v>11.55</v>
       </c>
       <c r="E37">
-        <v>63.71</v>
+        <v>84.33750000000001</v>
       </c>
       <c r="F37">
-        <v>65.73999999999999</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="G37">
-        <v>0.00202797923177</v>
+        <v>0.00203496635956</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>99.270073</v>
       </c>
       <c r="I37">
-        <v>221.56</v>
+        <v>203.44</v>
       </c>
       <c r="J37">
-        <v>20.83</v>
+        <v>21.3</v>
       </c>
       <c r="K37">
-        <v>1153</v>
+        <v>1110</v>
       </c>
       <c r="L37">
-        <v>0.3724359129333883</v>
+        <v>0.4171315477450044</v>
       </c>
       <c r="M37">
-        <v>0.7253086512339686</v>
+        <v>0.8074058386419162</v>
       </c>
       <c r="N37">
-        <v>0.5785585953770748</v>
+        <v>0.6107523031239191</v>
       </c>
       <c r="O37">
-        <v>0.5644320052005543</v>
+        <v>0.5891253726199061</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2">
-        <v>41973</v>
+        <v>41670</v>
       </c>
       <c r="B38">
-        <v>0.3175</v>
+        <v>0.33</v>
       </c>
       <c r="C38">
-        <v>78.44</v>
+        <v>107.42</v>
       </c>
       <c r="D38">
-        <v>8.9</v>
+        <v>11.59</v>
       </c>
       <c r="E38">
-        <v>62.55</v>
+        <v>81.61</v>
       </c>
       <c r="F38">
-        <v>65.66</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G38">
-        <v>0.00181231082894</v>
+        <v>0.00721709623224</v>
       </c>
       <c r="H38">
         <v>100</v>
       </c>
       <c r="I38">
-        <v>223.24</v>
+        <v>361.17</v>
       </c>
       <c r="J38">
-        <v>20.99</v>
+        <v>21.29</v>
       </c>
       <c r="K38">
-        <v>782</v>
+        <v>1258</v>
       </c>
       <c r="L38">
-        <v>0.362745204761725</v>
+        <v>0.4150385260743131</v>
       </c>
       <c r="M38">
-        <v>0.7343521954270652</v>
+        <v>0.7709181489739785</v>
       </c>
       <c r="N38">
-        <v>0.5759530835877673</v>
+        <v>0.6066373078667835</v>
       </c>
       <c r="O38">
-        <v>0.565783392934301</v>
+        <v>0.6002775590720512</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2">
-        <v>42004</v>
+        <v>41698</v>
       </c>
       <c r="B39">
-        <v>0.30813</v>
+        <v>0.35313</v>
       </c>
       <c r="C39">
-        <v>62.33</v>
+        <v>108.81</v>
       </c>
       <c r="D39">
-        <v>9.83</v>
+        <v>11.3</v>
       </c>
       <c r="E39">
-        <v>62.44</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="F39">
-        <v>66.14</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G39">
-        <v>0.00114753345983</v>
+        <v>0.00109903582645</v>
       </c>
       <c r="H39">
         <v>100</v>
       </c>
       <c r="I39">
-        <v>232.19</v>
+        <v>296.94</v>
       </c>
       <c r="J39">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="K39">
-        <v>608</v>
+        <v>1362</v>
       </c>
       <c r="L39">
-        <v>0.3510992060285357</v>
+        <v>0.4236299912409605</v>
       </c>
       <c r="M39">
-        <v>0.7496580666379383</v>
+        <v>0.7925621089687369</v>
       </c>
       <c r="N39">
-        <v>0.5707380048592361</v>
+        <v>0.6139503909803039</v>
       </c>
       <c r="O39">
-        <v>0.5625403764026504</v>
+        <v>0.6597338111517724</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2">
-        <v>42035</v>
+        <v>41729</v>
       </c>
       <c r="B40">
-        <v>0.305</v>
+        <v>0.3275</v>
       </c>
       <c r="C40">
-        <v>48.07</v>
+        <v>107.4</v>
       </c>
       <c r="D40">
-        <v>9.25</v>
+        <v>10.88</v>
       </c>
       <c r="E40">
-        <v>61.44</v>
+        <v>73.34</v>
       </c>
       <c r="F40">
-        <v>59.29</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G40">
-        <v>0.00590365500828</v>
+        <v>0.00696282099423</v>
       </c>
       <c r="H40">
-        <v>98.02628841387055</v>
+        <v>100</v>
       </c>
       <c r="I40">
-        <v>304.83</v>
+        <v>353.4</v>
       </c>
       <c r="J40">
-        <v>21.08</v>
+        <v>21.3</v>
       </c>
       <c r="K40">
-        <v>540</v>
+        <v>943</v>
       </c>
       <c r="L40">
-        <v>0.3633513553533081</v>
+        <v>0.4177867716223456</v>
       </c>
       <c r="M40">
-        <v>0.7511502344638139</v>
+        <v>0.8068686654566634</v>
       </c>
       <c r="N40">
-        <v>0.5684258519003971</v>
+        <v>0.6180948817281297</v>
       </c>
       <c r="O40">
-        <v>0.553810900247991</v>
+        <v>0.6651449333001744</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2">
-        <v>42063</v>
+        <v>41759</v>
       </c>
       <c r="B41">
-        <v>0.305</v>
+        <v>0.26</v>
       </c>
       <c r="C41">
-        <v>57.93</v>
+        <v>107.79</v>
       </c>
       <c r="D41">
-        <v>8.27</v>
+        <v>10.73</v>
       </c>
       <c r="E41">
-        <v>69.05</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="F41">
-        <v>63.48</v>
+        <v>75.06</v>
       </c>
       <c r="G41">
-        <v>0.00612390657803</v>
+        <v>0.0029547590082</v>
       </c>
       <c r="H41">
-        <v>98.12605701209255</v>
+        <v>100</v>
       </c>
       <c r="I41">
-        <v>251.57</v>
+        <v>330.56</v>
       </c>
       <c r="J41">
-        <v>21.61</v>
+        <v>21.02</v>
       </c>
       <c r="K41">
-        <v>602</v>
+        <v>934</v>
       </c>
       <c r="L41">
-        <v>0.3619573622046161</v>
+        <v>0.4182133219109875</v>
       </c>
       <c r="M41">
-        <v>0.760122959601557</v>
+        <v>0.8020950461564855</v>
       </c>
       <c r="N41">
-        <v>0.5697013828398625</v>
+        <v>0.6157498824700319</v>
       </c>
       <c r="O41">
-        <v>0.5485366794799648</v>
+        <v>0.6503967749331658</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2">
-        <v>42094</v>
+        <v>41790</v>
       </c>
       <c r="B42">
-        <v>0.2955</v>
+        <v>0.265</v>
       </c>
       <c r="C42">
-        <v>55.79</v>
+        <v>109.68</v>
       </c>
       <c r="D42">
-        <v>8.27</v>
+        <v>10.2</v>
       </c>
       <c r="E42">
-        <v>64.76000000000001</v>
+        <v>73.69</v>
       </c>
       <c r="F42">
-        <v>59.92</v>
+        <v>75.78</v>
       </c>
       <c r="G42">
-        <v>0.00414185867872</v>
+        <v>-0.00041124006945</v>
       </c>
       <c r="H42">
-        <v>98.0838213392952</v>
+        <v>100</v>
       </c>
       <c r="I42">
-        <v>400.65</v>
+        <v>341.67</v>
       </c>
       <c r="J42">
-        <v>21.56</v>
+        <v>21.02</v>
       </c>
       <c r="K42">
-        <v>591</v>
+        <v>850</v>
       </c>
       <c r="L42">
-        <v>0.3631586862825686</v>
+        <v>0.4129992138890161</v>
       </c>
       <c r="M42">
-        <v>0.7510792430703208</v>
+        <v>0.7871571321656488</v>
       </c>
       <c r="N42">
-        <v>0.5736145998586352</v>
+        <v>0.6024213151913201</v>
       </c>
       <c r="O42">
-        <v>0.5335659721072206</v>
+        <v>0.6364812405234331</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2">
-        <v>42124</v>
+        <v>41820</v>
       </c>
       <c r="B43">
-        <v>0.26</v>
+        <v>0.28875</v>
       </c>
       <c r="C43">
-        <v>59.39</v>
+        <v>111.87</v>
       </c>
       <c r="D43">
-        <v>6.77444566675</v>
+        <v>9.77</v>
       </c>
       <c r="E43">
-        <v>56.24</v>
+        <v>71.48</v>
       </c>
       <c r="F43">
-        <v>58.95</v>
+        <v>74.09</v>
       </c>
       <c r="G43">
-        <v>0.00837239522369</v>
+        <v>0.00104061164432</v>
       </c>
       <c r="H43">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="I43">
-        <v>386.07</v>
+        <v>244.63</v>
       </c>
       <c r="J43">
-        <v>21.67</v>
+        <v>20.83</v>
       </c>
       <c r="K43">
-        <v>589</v>
+        <v>755</v>
       </c>
       <c r="L43">
-        <v>0.3735984231823404</v>
+        <v>0.4152802924549676</v>
       </c>
       <c r="M43">
-        <v>0.7504441289241636</v>
+        <v>0.7605184164311056</v>
       </c>
       <c r="N43">
-        <v>0.5693962956377918</v>
+        <v>0.5887944817376379</v>
       </c>
       <c r="O43">
-        <v>0.5323431924868129</v>
+        <v>0.6153944841018681</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2">
-        <v>42155</v>
+        <v>41851</v>
       </c>
       <c r="B44">
-        <v>0.265</v>
+        <v>0.305</v>
       </c>
       <c r="C44">
-        <v>64.56</v>
+        <v>106.98</v>
       </c>
       <c r="D44">
-        <v>6.68399731108</v>
+        <v>9.27</v>
       </c>
       <c r="E44">
-        <v>61.19</v>
+        <v>68.75</v>
       </c>
       <c r="F44">
-        <v>61.63</v>
+        <v>71.44</v>
       </c>
       <c r="G44">
-        <v>0.00177027607802</v>
+        <v>0.00403367510875</v>
       </c>
       <c r="H44">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="I44">
-        <v>352.84</v>
+        <v>226.27</v>
       </c>
       <c r="J44">
-        <v>21.62</v>
+        <v>20.33</v>
       </c>
       <c r="K44">
-        <v>800</v>
+        <v>1147</v>
       </c>
       <c r="L44">
-        <v>0.371643349262247</v>
+        <v>0.4066837383073431</v>
       </c>
       <c r="M44">
-        <v>0.7374647734611713</v>
+        <v>0.7638108928979822</v>
       </c>
       <c r="N44">
-        <v>0.5617302190931903</v>
+        <v>0.5866103312581704</v>
       </c>
       <c r="O44">
-        <v>0.5205763152449127</v>
+        <v>0.6019163744878601</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2">
-        <v>42185</v>
+        <v>41882</v>
       </c>
       <c r="B45">
-        <v>0.28875</v>
+        <v>0.31125</v>
       </c>
       <c r="C45">
-        <v>62.34</v>
+        <v>101.92</v>
       </c>
       <c r="D45">
-        <v>6.66672592954</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E45">
-        <v>58.96</v>
+        <v>68.94</v>
       </c>
       <c r="F45">
-        <v>60.71</v>
+        <v>71.19</v>
       </c>
       <c r="G45">
-        <v>0.00407548979979</v>
+        <v>0.00209425743043</v>
       </c>
       <c r="H45">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="I45">
-        <v>278.02</v>
+        <v>196.13</v>
       </c>
       <c r="J45">
-        <v>21.11</v>
+        <v>20.17</v>
       </c>
       <c r="K45">
-        <v>1131</v>
+        <v>1063</v>
       </c>
       <c r="L45">
-        <v>0.3806598010628011</v>
+        <v>0.3920306726312142</v>
       </c>
       <c r="M45">
-        <v>0.7362471033447635</v>
+        <v>0.7447946316492472</v>
       </c>
       <c r="N45">
-        <v>0.5489128209475207</v>
+        <v>0.5829472606075842</v>
       </c>
       <c r="O45">
-        <v>0.5189061203564601</v>
+        <v>0.580972938994164</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2">
-        <v>42216</v>
+        <v>41912</v>
       </c>
       <c r="B46">
-        <v>0.28375</v>
+        <v>0.3175</v>
       </c>
       <c r="C46">
-        <v>55.87</v>
+        <v>97.34</v>
       </c>
       <c r="D46">
-        <v>6.69403713465</v>
+        <v>9.24</v>
       </c>
       <c r="E46">
-        <v>59.9</v>
+        <v>65.94</v>
       </c>
       <c r="F46">
-        <v>57.9</v>
+        <v>67.86</v>
       </c>
       <c r="G46">
-        <v>-0.00079501885287</v>
+        <v>0.00612724231634</v>
       </c>
       <c r="H46">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="I46">
-        <v>273.59</v>
+        <v>162.06</v>
       </c>
       <c r="J46">
-        <v>20.96</v>
+        <v>20.5</v>
       </c>
       <c r="K46">
-        <v>903</v>
+        <v>1428</v>
       </c>
       <c r="L46">
-        <v>0.3759760596801022</v>
+        <v>0.3861868317778936</v>
       </c>
       <c r="M46">
-        <v>0.7360409638412788</v>
+        <v>0.7357620290506148</v>
       </c>
       <c r="N46">
-        <v>0.5437687296742808</v>
+        <v>0.5870616816596992</v>
       </c>
       <c r="O46">
-        <v>0.5144546614152439</v>
+        <v>0.5789874107822613</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2">
-        <v>42247</v>
+        <v>41943</v>
       </c>
       <c r="B47">
-        <v>0.27463</v>
+        <v>0.3175</v>
       </c>
       <c r="C47">
-        <v>46.99</v>
+        <v>87.27</v>
       </c>
       <c r="D47">
-        <v>6.34573758328</v>
+        <v>9.77</v>
       </c>
       <c r="E47">
-        <v>59.14</v>
+        <v>63.71</v>
       </c>
       <c r="F47">
-        <v>55.02</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="G47">
-        <v>-1.30889878E-05</v>
+        <v>0.00202797923177</v>
       </c>
       <c r="H47">
-        <v>98.08382133929511</v>
+        <v>100</v>
       </c>
       <c r="I47">
-        <v>165.8</v>
+        <v>221.56</v>
       </c>
       <c r="J47">
-        <v>21</v>
+        <v>20.83</v>
       </c>
       <c r="K47">
-        <v>900</v>
+        <v>1153</v>
       </c>
       <c r="L47">
-        <v>0.380137587460814</v>
+        <v>0.3724359129333883</v>
       </c>
       <c r="M47">
-        <v>0.7332783886586499</v>
+        <v>0.7253086512339686</v>
       </c>
       <c r="N47">
-        <v>0.5439808398904451</v>
+        <v>0.5785585953770748</v>
       </c>
       <c r="O47">
-        <v>0.5024883515962226</v>
+        <v>0.5644320052005543</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2">
-        <v>42277</v>
+        <v>41973</v>
       </c>
       <c r="B48">
-        <v>0.27938</v>
+        <v>0.3175</v>
       </c>
       <c r="C48">
-        <v>47.24</v>
+        <v>78.44</v>
       </c>
       <c r="D48">
-        <v>6.27869866034</v>
+        <v>8.9</v>
       </c>
       <c r="E48">
-        <v>57.65</v>
+        <v>62.55</v>
       </c>
       <c r="F48">
-        <v>51.38</v>
+        <v>65.66</v>
       </c>
       <c r="G48">
-        <v>0.00264426749746</v>
+        <v>0.00181231082894</v>
       </c>
       <c r="H48">
-        <v>98.02628841387089</v>
+        <v>100</v>
       </c>
       <c r="I48">
-        <v>141.76</v>
+        <v>223.24</v>
       </c>
       <c r="J48">
-        <v>21.73</v>
+        <v>20.99</v>
       </c>
       <c r="K48">
-        <v>721</v>
+        <v>782</v>
       </c>
       <c r="L48">
-        <v>0.38712188555477</v>
+        <v>0.362745204761725</v>
       </c>
       <c r="M48">
-        <v>0.7316656752119209</v>
+        <v>0.7343521954270652</v>
       </c>
       <c r="N48">
-        <v>0.5389258902595203</v>
+        <v>0.5759530835877673</v>
       </c>
       <c r="O48">
-        <v>0.5010827813650858</v>
+        <v>0.565783392934301</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2">
-        <v>42308</v>
+        <v>42004</v>
       </c>
       <c r="B49">
-        <v>0.25063</v>
+        <v>0.30813</v>
       </c>
       <c r="C49">
-        <v>48.12</v>
+        <v>62.33</v>
       </c>
       <c r="D49">
-        <v>6.0269578206</v>
+        <v>9.83</v>
       </c>
       <c r="E49">
-        <v>54.26</v>
+        <v>62.44</v>
       </c>
       <c r="F49">
-        <v>50.11</v>
+        <v>66.14</v>
       </c>
       <c r="G49">
-        <v>-0.0009048161875800001</v>
+        <v>0.00114753345983</v>
       </c>
       <c r="H49">
-        <v>98.02829483619688</v>
+        <v>100</v>
       </c>
       <c r="I49">
-        <v>252.51</v>
+        <v>232.19</v>
       </c>
       <c r="J49">
-        <v>21.68</v>
+        <v>21.4</v>
       </c>
       <c r="K49">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="L49">
-        <v>0.390999486008941</v>
+        <v>0.3510992060285357</v>
       </c>
       <c r="M49">
-        <v>0.7248172806003725</v>
+        <v>0.7496580666379383</v>
       </c>
       <c r="N49">
-        <v>0.5239990920389065</v>
+        <v>0.5707380048592361</v>
       </c>
       <c r="O49">
-        <v>0.4939633701442998</v>
+        <v>0.5625403764026504</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2">
-        <v>42338</v>
+        <v>42035</v>
       </c>
       <c r="B50">
-        <v>0.26363</v>
+        <v>0.305</v>
       </c>
       <c r="C50">
-        <v>44.42</v>
+        <v>48.07</v>
       </c>
       <c r="D50">
-        <v>5.50083385123</v>
+        <v>9.25</v>
       </c>
       <c r="E50">
-        <v>52.47</v>
+        <v>61.44</v>
       </c>
       <c r="F50">
-        <v>53.34</v>
+        <v>59.29</v>
       </c>
       <c r="G50">
-        <v>0.00107409300206</v>
+        <v>0.00590365500828</v>
       </c>
       <c r="H50">
-        <v>98.02829483619688</v>
+        <v>98.02628841387055</v>
       </c>
       <c r="I50">
-        <v>265.22</v>
+        <v>304.83</v>
       </c>
       <c r="J50">
-        <v>21.77</v>
+        <v>21.08</v>
       </c>
       <c r="K50">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="L50">
-        <v>0.3913746865263442</v>
+        <v>0.3633513553533081</v>
       </c>
       <c r="M50">
-        <v>0.7279191205105335</v>
+        <v>0.7511502344638139</v>
       </c>
       <c r="N50">
-        <v>0.5134723375152869</v>
+        <v>0.5684258519003971</v>
       </c>
       <c r="O50">
-        <v>0.4862558135097635</v>
+        <v>0.553810900247991</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2">
-        <v>42369</v>
+        <v>42063</v>
       </c>
       <c r="B51">
-        <v>0.264</v>
+        <v>0.305</v>
       </c>
       <c r="C51">
-        <v>37.72</v>
+        <v>57.93</v>
       </c>
       <c r="D51">
-        <v>5.09276298262</v>
+        <v>8.27</v>
       </c>
       <c r="E51">
-        <v>52.21</v>
+        <v>69.05</v>
       </c>
       <c r="F51">
-        <v>48.77</v>
+        <v>63.48</v>
       </c>
       <c r="G51">
-        <v>0.00094405261526</v>
+        <v>0.00612390657803</v>
       </c>
       <c r="H51">
-        <v>98.08582776162112</v>
+        <v>98.12605701209255</v>
       </c>
       <c r="I51">
-        <v>314.72</v>
+        <v>251.57</v>
       </c>
       <c r="J51">
-        <v>22.07</v>
+        <v>21.61</v>
       </c>
       <c r="K51">
-        <v>317</v>
+        <v>602</v>
       </c>
       <c r="L51">
-        <v>0.3926346665409587</v>
+        <v>0.3619573622046161</v>
       </c>
       <c r="M51">
-        <v>0.7368903829903433</v>
+        <v>0.760122959601557</v>
       </c>
       <c r="N51">
-        <v>0.5789985427337893</v>
+        <v>0.5697013828398625</v>
       </c>
       <c r="O51">
-        <v>0.5695672343194765</v>
+        <v>0.5485366794799648</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2">
-        <v>42400</v>
+        <v>42094</v>
       </c>
       <c r="B52">
-        <v>0.23388</v>
+        <v>0.2955</v>
       </c>
       <c r="C52">
-        <v>30.8</v>
+        <v>55.79</v>
       </c>
       <c r="D52">
-        <v>4.39818627541</v>
+        <v>8.27</v>
       </c>
       <c r="E52">
-        <v>49.02</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="F52">
-        <v>49.09</v>
+        <v>59.92</v>
       </c>
       <c r="G52">
-        <v>0.00308156793444</v>
+        <v>0.00414185867872</v>
       </c>
       <c r="H52">
-        <v>98.08582776162126</v>
+        <v>98.0838213392952</v>
       </c>
       <c r="I52">
-        <v>298.85</v>
+        <v>400.65</v>
       </c>
       <c r="J52">
-        <v>22.72</v>
+        <v>21.56</v>
       </c>
       <c r="K52">
-        <v>329</v>
+        <v>591</v>
       </c>
       <c r="L52">
-        <v>0.394715478699426</v>
+        <v>0.3631586862825686</v>
       </c>
       <c r="M52">
-        <v>0.7082951047200332</v>
+        <v>0.7510792430703208</v>
       </c>
       <c r="N52">
-        <v>0.52035543962008</v>
+        <v>0.5736145998586352</v>
       </c>
       <c r="O52">
-        <v>0.4820168788629647</v>
+        <v>0.5335659721072206</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2">
-        <v>42429</v>
+        <v>42124</v>
       </c>
       <c r="B53">
-        <v>0.19188</v>
+        <v>0.26</v>
       </c>
       <c r="C53">
-        <v>33.2</v>
+        <v>59.39</v>
       </c>
       <c r="D53">
-        <v>3.96837858928</v>
+        <v>6.77444566675</v>
       </c>
       <c r="E53">
-        <v>50.27</v>
+        <v>56.24</v>
       </c>
       <c r="F53">
-        <v>50.33</v>
+        <v>58.95</v>
       </c>
       <c r="G53">
-        <v>0.00138043624841</v>
+        <v>0.00837239522369</v>
       </c>
       <c r="H53">
-        <v>98.08582776162126</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="I53">
-        <v>371.81</v>
+        <v>386.07</v>
       </c>
       <c r="J53">
-        <v>22.26</v>
+        <v>21.67</v>
       </c>
       <c r="K53">
-        <v>429</v>
+        <v>589</v>
       </c>
       <c r="L53">
-        <v>0.3936626755262751</v>
+        <v>0.3735984231823404</v>
       </c>
       <c r="M53">
-        <v>0.7131837726449133</v>
+        <v>0.7504441289241636</v>
       </c>
       <c r="N53">
-        <v>0.50661793829489</v>
+        <v>0.5693962956377918</v>
       </c>
       <c r="O53">
-        <v>0.4752541678252299</v>
+        <v>0.5323431924868129</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2">
-        <v>42460</v>
+        <v>42155</v>
       </c>
       <c r="B54">
-        <v>0.20175</v>
+        <v>0.265</v>
       </c>
       <c r="C54">
-        <v>39.07</v>
+        <v>64.56</v>
       </c>
       <c r="D54">
-        <v>3.9101802431</v>
+        <v>6.68399731108</v>
       </c>
       <c r="E54">
-        <v>52.21</v>
+        <v>61.19</v>
       </c>
       <c r="F54">
-        <v>52.57</v>
+        <v>61.63</v>
       </c>
       <c r="G54">
-        <v>0.00137015609557</v>
+        <v>0.00177027607802</v>
       </c>
       <c r="H54">
-        <v>98.08582776162126</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="I54">
-        <v>400.65</v>
+        <v>352.84</v>
       </c>
       <c r="J54">
-        <v>22.41</v>
+        <v>21.62</v>
       </c>
       <c r="K54">
-        <v>703</v>
+        <v>800</v>
       </c>
       <c r="L54">
-        <v>0.3987260088157574</v>
+        <v>0.371643349262247</v>
       </c>
       <c r="M54">
-        <v>0.7122545484395849</v>
+        <v>0.7374647734611713</v>
       </c>
       <c r="N54">
-        <v>0.5097552412684396</v>
+        <v>0.5617302190931903</v>
       </c>
       <c r="O54">
-        <v>0.4794919871561822</v>
+        <v>0.5205763152449127</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2">
-        <v>42490</v>
+        <v>42185</v>
       </c>
       <c r="B55">
-        <v>0.19625</v>
+        <v>0.28875</v>
       </c>
       <c r="C55">
-        <v>42.25</v>
+        <v>62.34</v>
       </c>
       <c r="D55">
-        <v>3.97007508979</v>
+        <v>6.66672592954</v>
       </c>
       <c r="E55">
-        <v>50.69</v>
+        <v>58.96</v>
       </c>
       <c r="F55">
-        <v>52.35</v>
+        <v>60.71</v>
       </c>
       <c r="G55">
-        <v>0.00306576018604</v>
+        <v>0.00407548979979</v>
       </c>
       <c r="H55">
-        <v>98.08582776162126</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="I55">
-        <v>392.07</v>
+        <v>278.02</v>
       </c>
       <c r="J55">
-        <v>22.18</v>
+        <v>21.11</v>
       </c>
       <c r="K55">
-        <v>612</v>
+        <v>1131</v>
       </c>
       <c r="L55">
-        <v>0.4022115066583381</v>
+        <v>0.3806598010628011</v>
       </c>
       <c r="M55">
-        <v>0.70524149096461</v>
+        <v>0.7362471033447635</v>
       </c>
       <c r="N55">
-        <v>0.5264900767246228</v>
+        <v>0.5489128209475207</v>
       </c>
       <c r="O55">
-        <v>0.4708083191360896</v>
+        <v>0.5189061203564601</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2">
-        <v>42521</v>
+        <v>42216</v>
       </c>
       <c r="B56">
-        <v>0.19838</v>
+        <v>0.28375</v>
       </c>
       <c r="C56">
-        <v>47.13</v>
+        <v>55.87</v>
       </c>
       <c r="D56">
-        <v>4.32919186506</v>
+        <v>6.69403713465</v>
       </c>
       <c r="E56">
-        <v>51.31</v>
+        <v>59.9</v>
       </c>
       <c r="F56">
-        <v>54.24</v>
+        <v>57.9</v>
       </c>
       <c r="G56">
-        <v>0.0003179953095</v>
+        <v>-0.00079501885287</v>
       </c>
       <c r="H56">
-        <v>98.08582776162126</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="I56">
-        <v>296.52</v>
+        <v>273.59</v>
       </c>
       <c r="J56">
-        <v>21.89</v>
+        <v>20.96</v>
       </c>
       <c r="K56">
-        <v>660</v>
+        <v>903</v>
       </c>
       <c r="L56">
-        <v>0.4096727873360953</v>
+        <v>0.3759760596801022</v>
       </c>
       <c r="M56">
-        <v>0.6801871339478551</v>
+        <v>0.7360409638412788</v>
       </c>
       <c r="N56">
-        <v>0.4919299661332283</v>
+        <v>0.5437687296742808</v>
       </c>
       <c r="O56">
-        <v>0.4507667876778689</v>
+        <v>0.5144546614152439</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2">
-        <v>42551</v>
+        <v>42247</v>
       </c>
       <c r="B57">
-        <v>0.14263</v>
+        <v>0.27463</v>
       </c>
       <c r="C57">
-        <v>48.48</v>
+        <v>46.99</v>
       </c>
       <c r="D57">
-        <v>4.75572046689</v>
+        <v>6.34573758328</v>
       </c>
       <c r="E57">
-        <v>52.85</v>
+        <v>59.14</v>
       </c>
       <c r="F57">
-        <v>58.59</v>
+        <v>55.02</v>
       </c>
       <c r="G57">
-        <v>0.00358857193346</v>
+        <v>-1.30889878E-05</v>
       </c>
       <c r="H57">
-        <v>97.84130078642208</v>
+        <v>98.08382133929511</v>
       </c>
       <c r="I57">
-        <v>246.5</v>
+        <v>165.8</v>
       </c>
       <c r="J57">
-        <v>20.74</v>
+        <v>21</v>
       </c>
       <c r="K57">
-        <v>656</v>
+        <v>900</v>
       </c>
       <c r="L57">
-        <v>0.4100854917662889</v>
+        <v>0.380137587460814</v>
       </c>
       <c r="M57">
-        <v>0.6774509940113768</v>
+        <v>0.7332783886586499</v>
       </c>
       <c r="N57">
-        <v>0.4827820835235166</v>
+        <v>0.5439808398904451</v>
       </c>
       <c r="O57">
-        <v>0.4359624158169977</v>
+        <v>0.5024883515962226</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2">
-        <v>42582</v>
+        <v>42277</v>
       </c>
       <c r="B58">
-        <v>0.181</v>
+        <v>0.27938</v>
       </c>
       <c r="C58">
-        <v>45.07</v>
+        <v>47.24</v>
       </c>
       <c r="D58">
-        <v>4.67473769135</v>
+        <v>6.27869866034</v>
       </c>
       <c r="E58">
-        <v>61.24</v>
+        <v>57.65</v>
       </c>
       <c r="F58">
-        <v>62.39</v>
+        <v>51.38</v>
       </c>
       <c r="G58">
-        <v>-0.00085202382591</v>
+        <v>0.00264426749746</v>
       </c>
       <c r="H58">
-        <v>97.91208819177156</v>
+        <v>98.02628841387089</v>
       </c>
       <c r="I58">
-        <v>181.77</v>
+        <v>141.76</v>
       </c>
       <c r="J58">
-        <v>20.37</v>
+        <v>21.73</v>
       </c>
       <c r="K58">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="L58">
-        <v>0.3989305479935704</v>
+        <v>0.38712188555477</v>
       </c>
       <c r="M58">
-        <v>0.67394890533351</v>
+        <v>0.7316656752119209</v>
       </c>
       <c r="N58">
-        <v>0.4749401360383756</v>
+        <v>0.5389258902595203</v>
       </c>
       <c r="O58">
-        <v>0.4324644529996413</v>
+        <v>0.5010827813650858</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2">
-        <v>42613</v>
+        <v>42308</v>
       </c>
       <c r="B59">
-        <v>0.18625</v>
+        <v>0.25063</v>
       </c>
       <c r="C59">
-        <v>46.14</v>
+        <v>48.12</v>
       </c>
       <c r="D59">
-        <v>4.0474899302</v>
+        <v>6.0269578206</v>
       </c>
       <c r="E59">
-        <v>67.39</v>
+        <v>54.26</v>
       </c>
       <c r="F59">
-        <v>66.34</v>
+        <v>50.11</v>
       </c>
       <c r="G59">
-        <v>-0.00163017094656</v>
+        <v>-0.0009048161875800001</v>
       </c>
       <c r="H59">
-        <v>97.91208819177152</v>
+        <v>98.02829483619688</v>
       </c>
       <c r="I59">
-        <v>134.29</v>
+        <v>252.51</v>
       </c>
       <c r="J59">
-        <v>20.83</v>
+        <v>21.68</v>
       </c>
       <c r="K59">
-        <v>875</v>
+        <v>584</v>
       </c>
       <c r="L59">
-        <v>0.4010237827584965</v>
+        <v>0.390999486008941</v>
       </c>
       <c r="M59">
-        <v>0.6517968140188468</v>
+        <v>0.7248172806003725</v>
       </c>
       <c r="N59">
-        <v>0.4659717030490173</v>
+        <v>0.5239990920389065</v>
       </c>
       <c r="O59">
-        <v>0.4148335152970328</v>
+        <v>0.4939633701442998</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2">
-        <v>42643</v>
+        <v>42338</v>
       </c>
       <c r="B60">
-        <v>0.1873</v>
+        <v>0.26363</v>
       </c>
       <c r="C60">
-        <v>46.19</v>
+        <v>44.42</v>
       </c>
       <c r="D60">
-        <v>4.25361416995</v>
+        <v>5.50083385123</v>
       </c>
       <c r="E60">
-        <v>72.72</v>
+        <v>52.47</v>
       </c>
       <c r="F60">
-        <v>68.33</v>
+        <v>53.34</v>
       </c>
       <c r="G60">
-        <v>0.00152368939712</v>
+        <v>0.00107409300206</v>
       </c>
       <c r="H60">
-        <v>97.91208819177152</v>
+        <v>98.02829483619688</v>
       </c>
       <c r="I60">
-        <v>200.68</v>
+        <v>265.22</v>
       </c>
       <c r="J60">
-        <v>20.83</v>
+        <v>21.77</v>
       </c>
       <c r="K60">
-        <v>857</v>
+        <v>478</v>
       </c>
       <c r="L60">
-        <v>0.3942835232948146</v>
+        <v>0.3913746865263442</v>
       </c>
       <c r="M60">
-        <v>0.6581080643125961</v>
+        <v>0.7279191205105335</v>
       </c>
       <c r="N60">
-        <v>0.4622594157791444</v>
+        <v>0.5134723375152869</v>
       </c>
       <c r="O60">
-        <v>0.4049646873664867</v>
+        <v>0.4862558135097635</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2">
-        <v>42674</v>
+        <v>42369</v>
       </c>
       <c r="B61">
-        <v>0.1875</v>
+        <v>0.264</v>
       </c>
       <c r="C61">
-        <v>49.73</v>
+        <v>37.72</v>
       </c>
       <c r="D61">
-        <v>5.33681888345</v>
+        <v>5.09276298262</v>
       </c>
       <c r="E61">
-        <v>94.2</v>
+        <v>52.21</v>
       </c>
       <c r="F61">
-        <v>83.79000000000001</v>
+        <v>48.77</v>
       </c>
       <c r="G61">
-        <v>-0.00082248029822</v>
+        <v>0.00094405261526</v>
       </c>
       <c r="H61">
-        <v>97.91208819177152</v>
+        <v>98.08582776162112</v>
       </c>
       <c r="I61">
-        <v>202.9</v>
+        <v>314.72</v>
       </c>
       <c r="J61">
-        <v>21.13</v>
+        <v>22.07</v>
       </c>
       <c r="K61">
-        <v>1204</v>
+        <v>317</v>
       </c>
       <c r="L61">
-        <v>0.3888616002696634</v>
+        <v>0.3926346665409587</v>
       </c>
       <c r="M61">
-        <v>0.6329962394515387</v>
+        <v>0.7368903829903433</v>
       </c>
       <c r="N61">
-        <v>0.4569607153811139</v>
+        <v>0.5789985427337893</v>
       </c>
       <c r="O61">
-        <v>0.4017526614000725</v>
+        <v>0.5695672343194765</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2">
-        <v>42704</v>
+        <v>42400</v>
       </c>
       <c r="B62">
-        <v>0.205</v>
+        <v>0.23388</v>
       </c>
       <c r="C62">
-        <v>46.44</v>
+        <v>30.8</v>
       </c>
       <c r="D62">
-        <v>5.69317950115</v>
+        <v>4.39818627541</v>
       </c>
       <c r="E62">
-        <v>103.43</v>
+        <v>49.02</v>
       </c>
       <c r="F62">
-        <v>89.15000000000001</v>
+        <v>49.09</v>
       </c>
       <c r="G62">
-        <v>-0.00145242116852</v>
+        <v>0.00308156793444</v>
       </c>
       <c r="H62">
-        <v>97.91208819177152</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="I62">
-        <v>179.69</v>
+        <v>298.85</v>
       </c>
       <c r="J62">
-        <v>21.31</v>
+        <v>22.72</v>
       </c>
       <c r="K62">
-        <v>961</v>
+        <v>329</v>
       </c>
       <c r="L62">
-        <v>0.3884322882259986</v>
+        <v>0.394715478699426</v>
       </c>
       <c r="M62">
-        <v>0.644940891062284</v>
+        <v>0.7082951047200332</v>
       </c>
       <c r="N62">
-        <v>0.4501325491753546</v>
+        <v>0.52035543962008</v>
       </c>
       <c r="O62">
-        <v>0.3924427379220669</v>
+        <v>0.4820168788629647</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2">
-        <v>42735</v>
+        <v>42429</v>
       </c>
       <c r="B63">
-        <v>0.21775</v>
+        <v>0.19188</v>
       </c>
       <c r="C63">
-        <v>54.07</v>
+        <v>33.2</v>
       </c>
       <c r="D63">
-        <v>5.4235014224</v>
+        <v>3.96837858928</v>
       </c>
       <c r="E63">
-        <v>88.15000000000001</v>
+        <v>50.27</v>
       </c>
       <c r="F63">
-        <v>80.19</v>
+        <v>50.33</v>
       </c>
       <c r="G63">
-        <v>0.00158789945524</v>
+        <v>0.00138043624841</v>
       </c>
       <c r="H63">
-        <v>97.91208819177152</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="I63">
-        <v>270.98</v>
+        <v>371.81</v>
       </c>
       <c r="J63">
-        <v>21.38</v>
+        <v>22.26</v>
       </c>
       <c r="K63">
-        <v>800</v>
+        <v>429</v>
       </c>
       <c r="L63">
-        <v>0.3852569322608603</v>
+        <v>0.3936626755262751</v>
       </c>
       <c r="M63">
-        <v>0.6133937372661861</v>
+        <v>0.7131837726449133</v>
       </c>
       <c r="N63">
-        <v>0.4381112528138649</v>
+        <v>0.50661793829489</v>
       </c>
       <c r="O63">
-        <v>0.3852240718303008</v>
+        <v>0.4752541678252299</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2">
-        <v>42766</v>
+        <v>42460</v>
       </c>
       <c r="B64">
-        <v>0.23375</v>
+        <v>0.20175</v>
       </c>
       <c r="C64">
-        <v>54.89</v>
+        <v>39.07</v>
       </c>
       <c r="D64">
-        <v>6.1443492548</v>
+        <v>3.9101802431</v>
       </c>
       <c r="E64">
-        <v>83.73</v>
+        <v>52.21</v>
       </c>
       <c r="F64">
-        <v>86.48999999999999</v>
+        <v>52.57</v>
       </c>
       <c r="G64">
-        <v>0.00087802460833</v>
+        <v>0.00137015609557</v>
       </c>
       <c r="H64">
-        <v>97.91208819177152</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="I64">
-        <v>401.06</v>
+        <v>400.65</v>
       </c>
       <c r="J64">
-        <v>21.31</v>
+        <v>22.41</v>
       </c>
       <c r="K64">
-        <v>859</v>
+        <v>703</v>
       </c>
       <c r="L64">
-        <v>0.3896085848709588</v>
+        <v>0.3987260088157574</v>
       </c>
       <c r="M64">
-        <v>0.6119653913513597</v>
+        <v>0.7122545484395849</v>
       </c>
       <c r="N64">
-        <v>0.4189712864604639</v>
+        <v>0.5097552412684396</v>
       </c>
       <c r="O64">
-        <v>0.3757816224299683</v>
+        <v>0.4794919871561822</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2">
-        <v>42794</v>
+        <v>42490</v>
       </c>
       <c r="B65">
-        <v>0.19188</v>
+        <v>0.19625</v>
       </c>
       <c r="C65">
-        <v>55.49</v>
+        <v>42.25</v>
       </c>
       <c r="D65">
-        <v>6.0515836448</v>
+        <v>3.97007508979</v>
       </c>
       <c r="E65">
-        <v>79.98</v>
+        <v>50.69</v>
       </c>
       <c r="F65">
-        <v>83.59999999999999</v>
+        <v>52.35</v>
       </c>
       <c r="G65">
-        <v>0.00198239742056</v>
+        <v>0.00306576018604</v>
       </c>
       <c r="H65">
-        <v>97.91208819177152</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="I65">
-        <v>374.02</v>
+        <v>392.07</v>
       </c>
       <c r="J65">
-        <v>21.73</v>
+        <v>22.18</v>
       </c>
       <c r="K65">
-        <v>1297</v>
+        <v>612</v>
       </c>
       <c r="L65">
-        <v>0.3886822412953408</v>
+        <v>0.4022115066583381</v>
       </c>
       <c r="M65">
-        <v>0.6094123404924796</v>
+        <v>0.70524149096461</v>
       </c>
       <c r="N65">
-        <v>0.4194869450039482</v>
+        <v>0.5264900767246228</v>
       </c>
       <c r="O65">
-        <v>0.3801776975183191</v>
+        <v>0.4708083191360896</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2">
-        <v>42825</v>
+        <v>42521</v>
       </c>
       <c r="B66">
-        <v>0.2235</v>
+        <v>0.19838</v>
       </c>
       <c r="C66">
-        <v>51.97</v>
+        <v>47.13</v>
       </c>
       <c r="D66">
-        <v>5.00094507654</v>
+        <v>4.32919186506</v>
       </c>
       <c r="E66">
-        <v>80.90000000000001</v>
+        <v>51.31</v>
       </c>
       <c r="F66">
-        <v>79.11</v>
+        <v>54.24</v>
       </c>
       <c r="G66">
-        <v>0.00137693262354</v>
+        <v>0.0003179953095</v>
       </c>
       <c r="H66">
-        <v>97.91208819177152</v>
+        <v>98.08582776162126</v>
       </c>
       <c r="I66">
-        <v>506.02</v>
+        <v>296.52</v>
       </c>
       <c r="J66">
-        <v>21.62</v>
+        <v>21.89</v>
       </c>
       <c r="K66">
-        <v>1109</v>
+        <v>660</v>
       </c>
       <c r="L66">
-        <v>0.395023196674302</v>
+        <v>0.4096727873360953</v>
       </c>
       <c r="M66">
-        <v>0.5906995176848999</v>
+        <v>0.6801871339478551</v>
       </c>
       <c r="N66">
-        <v>0.4095239204696108</v>
+        <v>0.4919299661332283</v>
       </c>
       <c r="O66">
-        <v>0.3796829711461435</v>
+        <v>0.4507667876778689</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2">
-        <v>42855</v>
+        <v>42551</v>
       </c>
       <c r="B67">
-        <v>0.20788</v>
+        <v>0.14263</v>
       </c>
       <c r="C67">
-        <v>52.98</v>
+        <v>48.48</v>
       </c>
       <c r="D67">
-        <v>5.0109139183</v>
+        <v>4.75572046689</v>
       </c>
       <c r="E67">
-        <v>83.65000000000001</v>
+        <v>52.85</v>
       </c>
       <c r="F67">
-        <v>78.89</v>
+        <v>58.59</v>
       </c>
       <c r="G67">
-        <v>0.00434842015415</v>
+        <v>0.00358857193346</v>
       </c>
       <c r="H67">
-        <v>97.95424232791308</v>
+        <v>97.84130078642208</v>
       </c>
       <c r="I67">
-        <v>415.07</v>
+        <v>246.5</v>
       </c>
       <c r="J67">
-        <v>21.76</v>
+        <v>20.74</v>
       </c>
       <c r="K67">
-        <v>878</v>
+        <v>656</v>
       </c>
       <c r="L67">
-        <v>0.4017131293788604</v>
+        <v>0.4100854917662889</v>
       </c>
       <c r="M67">
-        <v>0.5868720639049638</v>
+        <v>0.6774509940113768</v>
       </c>
       <c r="N67">
-        <v>0.405180175617541</v>
+        <v>0.4827820835235166</v>
       </c>
       <c r="O67">
-        <v>0.3853709019696611</v>
+        <v>0.4359624158169977</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2">
-        <v>42886</v>
+        <v>42582</v>
       </c>
       <c r="B68">
-        <v>0.17875</v>
+        <v>0.181</v>
       </c>
       <c r="C68">
-        <v>50.87</v>
+        <v>45.07</v>
       </c>
       <c r="D68">
-        <v>5.05843597847</v>
+        <v>4.67473769135</v>
       </c>
       <c r="E68">
-        <v>74.42</v>
+        <v>61.24</v>
       </c>
       <c r="F68">
-        <v>74.41</v>
+        <v>62.39</v>
       </c>
       <c r="G68">
-        <v>0.00045645566958</v>
+        <v>-0.00085202382591</v>
       </c>
       <c r="H68">
-        <v>97.97997752065884</v>
+        <v>97.91208819177156</v>
       </c>
       <c r="I68">
-        <v>322.6</v>
+        <v>181.77</v>
       </c>
       <c r="J68">
-        <v>21.63</v>
+        <v>20.37</v>
       </c>
       <c r="K68">
-        <v>901</v>
+        <v>711</v>
       </c>
       <c r="L68">
-        <v>0.4084150849026822</v>
+        <v>0.3989305479935704</v>
       </c>
       <c r="M68">
-        <v>0.573869282856736</v>
+        <v>0.67394890533351</v>
       </c>
       <c r="N68">
-        <v>0.4015699245825985</v>
+        <v>0.4749401360383756</v>
       </c>
       <c r="O68">
-        <v>0.3794184921721392</v>
+        <v>0.4324644529996413</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2">
-        <v>42916</v>
+        <v>42613</v>
       </c>
       <c r="B69">
-        <v>0.191</v>
+        <v>0.18625</v>
       </c>
       <c r="C69">
-        <v>46.89</v>
+        <v>46.14</v>
       </c>
       <c r="D69">
-        <v>4.88676678563</v>
+        <v>4.0474899302</v>
       </c>
       <c r="E69">
-        <v>81.09</v>
+        <v>67.39</v>
       </c>
       <c r="F69">
-        <v>79.2</v>
+        <v>66.34</v>
       </c>
       <c r="G69">
-        <v>-0.00576902248113</v>
+        <v>-0.00163017094656</v>
       </c>
       <c r="H69">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="I69">
-        <v>320.13</v>
+        <v>134.29</v>
       </c>
       <c r="J69">
-        <v>20.94</v>
+        <v>20.83</v>
       </c>
       <c r="K69">
-        <v>946</v>
+        <v>875</v>
       </c>
       <c r="L69">
-        <v>0.408486286366037</v>
+        <v>0.4010237827584965</v>
       </c>
       <c r="M69">
-        <v>0.5712148756594164</v>
+        <v>0.6517968140188468</v>
       </c>
       <c r="N69">
-        <v>0.4034776979418357</v>
+        <v>0.4659717030490173</v>
       </c>
       <c r="O69">
-        <v>0.3774734637533921</v>
+        <v>0.4148335152970328</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2">
-        <v>42947</v>
+        <v>42643</v>
       </c>
       <c r="B70">
-        <v>0.181</v>
+        <v>0.1873</v>
       </c>
       <c r="C70">
-        <v>48.69</v>
+        <v>46.19</v>
       </c>
       <c r="D70">
-        <v>5.00392083226</v>
+        <v>4.25361416995</v>
       </c>
       <c r="E70">
-        <v>87.48999999999999</v>
+        <v>72.72</v>
       </c>
       <c r="F70">
-        <v>81.69</v>
+        <v>68.33</v>
       </c>
       <c r="G70">
-        <v>-0.00140564910807</v>
+        <v>0.00152368939712</v>
       </c>
       <c r="H70">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="I70">
-        <v>217.77</v>
+        <v>200.68</v>
       </c>
       <c r="J70">
-        <v>20</v>
+        <v>20.83</v>
       </c>
       <c r="K70">
-        <v>1184</v>
+        <v>857</v>
       </c>
       <c r="L70">
-        <v>0.4065801691005467</v>
+        <v>0.3942835232948146</v>
       </c>
       <c r="M70">
-        <v>0.5718061065673941</v>
+        <v>0.6581080643125961</v>
       </c>
       <c r="N70">
-        <v>0.4039366566347481</v>
+        <v>0.4622594157791444</v>
       </c>
       <c r="O70">
-        <v>0.3723830460132087</v>
+        <v>0.4049646873664867</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2">
-        <v>42978</v>
+        <v>42674</v>
       </c>
       <c r="B71">
-        <v>0.19263</v>
+        <v>0.1875</v>
       </c>
       <c r="C71">
-        <v>51.37</v>
+        <v>49.73</v>
       </c>
       <c r="D71">
-        <v>5.47660118187</v>
+        <v>5.33681888345</v>
       </c>
       <c r="E71">
-        <v>98.58</v>
+        <v>94.2</v>
       </c>
       <c r="F71">
-        <v>87.84</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="G71">
-        <v>0.00011880160151</v>
+        <v>-0.00082248029822</v>
       </c>
       <c r="H71">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="I71">
-        <v>173.8</v>
+        <v>202.9</v>
       </c>
       <c r="J71">
-        <v>20.64</v>
+        <v>21.13</v>
       </c>
       <c r="K71">
-        <v>1356</v>
+        <v>1204</v>
       </c>
       <c r="L71">
-        <v>0.4008384160326589</v>
+        <v>0.3888616002696634</v>
       </c>
       <c r="M71">
-        <v>0.5670839700904221</v>
+        <v>0.6329962394515387</v>
       </c>
       <c r="N71">
-        <v>0.4000445458004329</v>
+        <v>0.4569607153811139</v>
       </c>
       <c r="O71">
-        <v>0.3762183908862028</v>
+        <v>0.4017526614000725</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2">
-        <v>43008</v>
+        <v>42704</v>
       </c>
       <c r="B72">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="C72">
-        <v>55.16</v>
+        <v>46.44</v>
       </c>
       <c r="D72">
-        <v>5.96114997199</v>
+        <v>5.69317950115</v>
       </c>
       <c r="E72">
-        <v>97.81999999999999</v>
+        <v>103.43</v>
       </c>
       <c r="F72">
-        <v>92.26000000000001</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="G72">
-        <v>-0.00153016125844</v>
+        <v>-0.00145242116852</v>
       </c>
       <c r="H72">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="I72">
-        <v>195.94</v>
+        <v>179.69</v>
       </c>
       <c r="J72">
-        <v>20.83</v>
+        <v>21.31</v>
       </c>
       <c r="K72">
-        <v>1522</v>
+        <v>961</v>
       </c>
       <c r="L72">
-        <v>0.3977211777410029</v>
+        <v>0.3884322882259986</v>
       </c>
       <c r="M72">
-        <v>0.561030784199779</v>
+        <v>0.644940891062284</v>
       </c>
       <c r="N72">
-        <v>0.4021054445406691</v>
+        <v>0.4501325491753546</v>
       </c>
       <c r="O72">
-        <v>0.372834926962389</v>
+        <v>0.3924427379220669</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2">
-        <v>43039</v>
+        <v>42735</v>
       </c>
       <c r="B73">
-        <v>0.2525</v>
+        <v>0.21775</v>
       </c>
       <c r="C73">
-        <v>57.62</v>
+        <v>54.07</v>
       </c>
       <c r="D73">
-        <v>6.17632034854</v>
+        <v>5.4235014224</v>
       </c>
       <c r="E73">
-        <v>97.11</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="F73">
-        <v>91.43000000000001</v>
+        <v>80.19</v>
       </c>
       <c r="G73">
-        <v>-0.00144501037016</v>
+        <v>0.00158789945524</v>
       </c>
       <c r="H73">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="I73">
-        <v>238.19</v>
+        <v>270.98</v>
       </c>
       <c r="J73">
-        <v>20.9</v>
+        <v>21.38</v>
       </c>
       <c r="K73">
-        <v>1578</v>
+        <v>800</v>
       </c>
       <c r="L73">
-        <v>0.4012334394982691</v>
+        <v>0.3852569322608603</v>
       </c>
       <c r="M73">
-        <v>0.5626949628126553</v>
+        <v>0.6133937372661861</v>
       </c>
       <c r="N73">
-        <v>0.3995277553379309</v>
+        <v>0.4381112528138649</v>
       </c>
       <c r="O73">
-        <v>0.3807104265648893</v>
+        <v>0.3852240718303008</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2">
-        <v>43069</v>
+        <v>42766</v>
       </c>
       <c r="B74">
-        <v>0.28</v>
+        <v>0.23375</v>
       </c>
       <c r="C74">
-        <v>62.57</v>
+        <v>54.89</v>
       </c>
       <c r="D74">
-        <v>6.69459903982</v>
+        <v>6.1443492548</v>
       </c>
       <c r="E74">
-        <v>96.64</v>
+        <v>83.73</v>
       </c>
       <c r="F74">
-        <v>91.39</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="G74">
-        <v>-0.00273660660508</v>
+        <v>0.00087802460833</v>
       </c>
       <c r="H74">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="I74">
-        <v>195.82</v>
+        <v>401.06</v>
       </c>
       <c r="J74">
-        <v>20.88</v>
+        <v>21.31</v>
       </c>
       <c r="K74">
-        <v>1366</v>
+        <v>859</v>
       </c>
       <c r="L74">
-        <v>0.4001177018574126</v>
+        <v>0.3896085848709588</v>
       </c>
       <c r="M74">
-        <v>0.5615750418085595</v>
+        <v>0.6119653913513597</v>
       </c>
       <c r="N74">
-        <v>0.4058760094163821</v>
+        <v>0.4189712864604639</v>
       </c>
       <c r="O74">
-        <v>0.3971248781318372</v>
+        <v>0.3757816224299683</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2">
-        <v>43100</v>
+        <v>42794</v>
       </c>
       <c r="B75">
-        <v>0.21463</v>
+        <v>0.19188</v>
       </c>
       <c r="C75">
-        <v>64.20999999999999</v>
+        <v>55.49</v>
       </c>
       <c r="D75">
-        <v>7.13893361413</v>
+        <v>6.0515836448</v>
       </c>
       <c r="E75">
-        <v>100.81</v>
+        <v>79.98</v>
       </c>
       <c r="F75">
-        <v>95.48</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G75">
-        <v>0.00179457811322</v>
+        <v>0.00198239742056</v>
       </c>
       <c r="H75">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="I75">
-        <v>230.95</v>
+        <v>374.02</v>
       </c>
       <c r="J75">
-        <v>21.46</v>
+        <v>21.73</v>
       </c>
       <c r="K75">
-        <v>1152</v>
+        <v>1297</v>
       </c>
       <c r="L75">
-        <v>0.3927725196928165</v>
+        <v>0.3886822412953408</v>
       </c>
       <c r="M75">
-        <v>0.5762267455775837</v>
+        <v>0.6094123404924796</v>
       </c>
       <c r="N75">
-        <v>0.4084063713133668</v>
+        <v>0.4194869450039482</v>
       </c>
       <c r="O75">
-        <v>0.4056065803137805</v>
+        <v>0.3801776975183191</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2">
-        <v>43131</v>
+        <v>42825</v>
       </c>
       <c r="B76">
-        <v>0.21963</v>
+        <v>0.2235</v>
       </c>
       <c r="C76">
-        <v>68.98999999999999</v>
+        <v>51.97</v>
       </c>
       <c r="D76">
-        <v>6.66225501314</v>
+        <v>5.00094507654</v>
       </c>
       <c r="E76">
-        <v>106.45</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F76">
-        <v>97.48</v>
+        <v>79.11</v>
       </c>
       <c r="G76">
-        <v>0.00190552479263</v>
+        <v>0.00137693262354</v>
       </c>
       <c r="H76">
-        <v>97.97997752065884</v>
+        <v>97.91208819177152</v>
       </c>
       <c r="I76">
-        <v>312.03</v>
+        <v>506.02</v>
       </c>
       <c r="J76">
-        <v>20.94</v>
+        <v>21.62</v>
       </c>
       <c r="K76">
-        <v>1192</v>
+        <v>1109</v>
       </c>
       <c r="L76">
-        <v>0.4023368317333454</v>
+        <v>0.395023196674302</v>
       </c>
       <c r="M76">
-        <v>0.5776619715289413</v>
+        <v>0.5906995176848999</v>
       </c>
       <c r="N76">
-        <v>0.409342352213161</v>
+        <v>0.4095239204696108</v>
       </c>
       <c r="O76">
-        <v>0.4092689479479041</v>
+        <v>0.3796829711461435</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="2">
-        <v>43159</v>
+        <v>42855</v>
       </c>
       <c r="B77">
-        <v>0.2325</v>
+        <v>0.20788</v>
       </c>
       <c r="C77">
-        <v>65.42</v>
+        <v>52.98</v>
       </c>
       <c r="D77">
-        <v>6.7187497665</v>
+        <v>5.0109139183</v>
       </c>
       <c r="E77">
-        <v>105.95</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="F77">
-        <v>92.68000000000001</v>
+        <v>78.89</v>
       </c>
       <c r="G77">
-        <v>0.00153156004926</v>
+        <v>0.00434842015415</v>
       </c>
       <c r="H77">
-        <v>97.97997752065884</v>
+        <v>97.95424232791308</v>
       </c>
       <c r="I77">
-        <v>310.7</v>
+        <v>415.07</v>
       </c>
       <c r="J77">
-        <v>21.68</v>
+        <v>21.76</v>
       </c>
       <c r="K77">
-        <v>1055</v>
+        <v>878</v>
       </c>
       <c r="L77">
-        <v>0.4064757432093491</v>
+        <v>0.4017131293788604</v>
       </c>
       <c r="M77">
-        <v>0.5802853560060884</v>
+        <v>0.5868720639049638</v>
       </c>
       <c r="N77">
-        <v>0.4129828136827214</v>
+        <v>0.405180175617541</v>
       </c>
       <c r="O77">
-        <v>0.4119379962762168</v>
+        <v>0.3853709019696611</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2">
-        <v>43190</v>
+        <v>42886</v>
       </c>
       <c r="B78">
-        <v>0.2325</v>
+        <v>0.17875</v>
       </c>
       <c r="C78">
-        <v>66.45</v>
+        <v>50.87</v>
       </c>
       <c r="D78">
-        <v>6.69738764036</v>
+        <v>5.05843597847</v>
       </c>
       <c r="E78">
-        <v>96.66</v>
+        <v>74.42</v>
       </c>
       <c r="F78">
-        <v>89.5</v>
+        <v>74.41</v>
       </c>
       <c r="G78">
-        <v>0.00063701729307</v>
+        <v>0.00045645566958</v>
       </c>
       <c r="H78">
         <v>97.97997752065884</v>
       </c>
       <c r="I78">
-        <v>307.97</v>
+        <v>322.6</v>
       </c>
       <c r="J78">
-        <v>21.53</v>
+        <v>21.63</v>
       </c>
       <c r="K78">
-        <v>1341</v>
+        <v>901</v>
       </c>
       <c r="L78">
-        <v>0.4094620637109461</v>
+        <v>0.4084150849026822</v>
       </c>
       <c r="M78">
-        <v>0.5887058884603555</v>
+        <v>0.573869282856736</v>
       </c>
       <c r="N78">
-        <v>0.4194516232675338</v>
+        <v>0.4015699245825985</v>
       </c>
       <c r="O78">
-        <v>0.4084890959634587</v>
+        <v>0.3794184921721392</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2">
-        <v>43220</v>
+        <v>42916</v>
       </c>
       <c r="B79">
-        <v>0.23063</v>
+        <v>0.191</v>
       </c>
       <c r="C79">
-        <v>71.63</v>
+        <v>46.89</v>
       </c>
       <c r="D79">
-        <v>6.92785820242</v>
+        <v>4.88676678563</v>
       </c>
       <c r="E79">
-        <v>93.69</v>
+        <v>81.09</v>
       </c>
       <c r="F79">
-        <v>92.31999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="G79">
-        <v>-0.00138895199145</v>
+        <v>-0.00576902248113</v>
       </c>
       <c r="H79">
         <v>97.97997752065884</v>
       </c>
       <c r="I79">
-        <v>344.31</v>
+        <v>320.13</v>
       </c>
       <c r="J79">
-        <v>21.24</v>
+        <v>20.94</v>
       </c>
       <c r="K79">
-        <v>1090</v>
+        <v>946</v>
       </c>
       <c r="L79">
-        <v>0.4188083170562459</v>
+        <v>0.408486286366037</v>
       </c>
       <c r="M79">
-        <v>0.5996765247552019</v>
+        <v>0.5712148756594164</v>
       </c>
       <c r="N79">
-        <v>0.4182540962496526</v>
+        <v>0.4034776979418357</v>
       </c>
       <c r="O79">
-        <v>0.4082163228140767</v>
+        <v>0.3774734637533921</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2">
-        <v>43251</v>
+        <v>42947</v>
       </c>
       <c r="B80">
-        <v>0.22188</v>
+        <v>0.181</v>
       </c>
       <c r="C80">
-        <v>76.65000000000001</v>
+        <v>48.69</v>
       </c>
       <c r="D80">
-        <v>7.48735405732</v>
+        <v>5.00392083226</v>
       </c>
       <c r="E80">
-        <v>105.29</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="F80">
-        <v>101.89</v>
+        <v>81.69</v>
       </c>
       <c r="G80">
-        <v>-0.0018259436073</v>
+        <v>-0.00140564910807</v>
       </c>
       <c r="H80">
         <v>97.97997752065884</v>
       </c>
       <c r="I80">
-        <v>425.86</v>
+        <v>217.77</v>
       </c>
       <c r="J80">
-        <v>20.99</v>
+        <v>20</v>
       </c>
       <c r="K80">
-        <v>1385</v>
+        <v>1184</v>
       </c>
       <c r="L80">
-        <v>0.428691997961595</v>
+        <v>0.4065801691005467</v>
       </c>
       <c r="M80">
-        <v>0.5992319244246379</v>
+        <v>0.5718061065673941</v>
       </c>
       <c r="N80">
-        <v>0.4247061801827444</v>
+        <v>0.4039366566347481</v>
       </c>
       <c r="O80">
-        <v>0.4092757319405805</v>
+        <v>0.3723830460132087</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2">
-        <v>43281</v>
+        <v>42978</v>
       </c>
       <c r="B81">
-        <v>0.224</v>
+        <v>0.19263</v>
       </c>
       <c r="C81">
-        <v>75.19</v>
+        <v>51.37</v>
       </c>
       <c r="D81">
-        <v>7.44894284404</v>
+        <v>5.47660118187</v>
       </c>
       <c r="E81">
-        <v>114.33</v>
+        <v>98.58</v>
       </c>
       <c r="F81">
-        <v>103.88</v>
+        <v>87.84</v>
       </c>
       <c r="G81">
-        <v>-0.00274227610422</v>
+        <v>0.00011880160151</v>
       </c>
       <c r="H81">
         <v>97.97997752065884</v>
       </c>
       <c r="I81">
-        <v>262.28</v>
+        <v>173.8</v>
       </c>
       <c r="J81">
-        <v>20.13</v>
+        <v>20.64</v>
       </c>
       <c r="K81">
-        <v>1747</v>
+        <v>1356</v>
       </c>
       <c r="L81">
-        <v>0.4298868253767242</v>
+        <v>0.4008384160326589</v>
       </c>
       <c r="M81">
-        <v>0.5925505931277354</v>
+        <v>0.5670839700904221</v>
       </c>
       <c r="N81">
-        <v>0.4232105630033004</v>
+        <v>0.4000445458004329</v>
       </c>
       <c r="O81">
-        <v>0.410921143000296</v>
+        <v>0.3762183908862028</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2">
-        <v>43312</v>
+        <v>43008</v>
       </c>
       <c r="B82">
-        <v>0.2525</v>
+        <v>0.219</v>
       </c>
       <c r="C82">
-        <v>74.44</v>
+        <v>55.16</v>
       </c>
       <c r="D82">
-        <v>7.59883923025</v>
+        <v>5.96114997199</v>
       </c>
       <c r="E82">
-        <v>119.57</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="F82">
-        <v>106.02</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="G82">
-        <v>-4.117844953E-05</v>
+        <v>-0.00153016125844</v>
       </c>
       <c r="H82">
         <v>97.97997752065884</v>
       </c>
       <c r="I82">
-        <v>227.12</v>
+        <v>195.94</v>
       </c>
       <c r="J82">
-        <v>20</v>
+        <v>20.83</v>
       </c>
       <c r="K82">
-        <v>1579</v>
+        <v>1522</v>
       </c>
       <c r="L82">
-        <v>0.429976049879927</v>
+        <v>0.3977211777410029</v>
       </c>
       <c r="M82">
-        <v>0.5926849073507539</v>
+        <v>0.561030784199779</v>
       </c>
       <c r="N82">
-        <v>0.4235829246476788</v>
+        <v>0.4021054445406691</v>
       </c>
       <c r="O82">
-        <v>0.4005033119652912</v>
+        <v>0.372834926962389</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2">
-        <v>43343</v>
+        <v>43039</v>
       </c>
       <c r="B83">
-        <v>0.26</v>
+        <v>0.2525</v>
       </c>
       <c r="C83">
-        <v>73.13</v>
+        <v>57.62</v>
       </c>
       <c r="D83">
-        <v>8.084909938439999</v>
+        <v>6.17632034854</v>
       </c>
       <c r="E83">
-        <v>117.34</v>
+        <v>97.11</v>
       </c>
       <c r="F83">
-        <v>98.48</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="G83">
-        <v>0.00269488517407</v>
+        <v>-0.00144501037016</v>
       </c>
       <c r="H83">
-        <v>98.01516824569984</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I83">
-        <v>201.97</v>
+        <v>238.19</v>
       </c>
       <c r="J83">
-        <v>20.18</v>
+        <v>20.9</v>
       </c>
       <c r="K83">
-        <v>1540</v>
+        <v>1578</v>
       </c>
       <c r="L83">
-        <v>0.4117908797641813</v>
+        <v>0.4012334394982691</v>
       </c>
       <c r="M83">
-        <v>0.6070360547859387</v>
+        <v>0.5626949628126553</v>
       </c>
       <c r="N83">
-        <v>0.4244212088682396</v>
+        <v>0.3995277553379309</v>
       </c>
       <c r="O83">
-        <v>0.4063387360245332</v>
+        <v>0.3807104265648893</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2">
-        <v>43373</v>
+        <v>43069</v>
       </c>
       <c r="B84">
-        <v>0.2675</v>
+        <v>0.28</v>
       </c>
       <c r="C84">
-        <v>78.86</v>
+        <v>62.57</v>
       </c>
       <c r="D84">
-        <v>9.521577031210001</v>
+        <v>6.69459903982</v>
       </c>
       <c r="E84">
-        <v>114.16</v>
+        <v>96.64</v>
       </c>
       <c r="F84">
-        <v>102.14</v>
+        <v>91.39</v>
       </c>
       <c r="G84">
-        <v>0.00391878650828</v>
+        <v>-0.00273660660508</v>
       </c>
       <c r="H84">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I84">
-        <v>149.22</v>
+        <v>195.82</v>
       </c>
       <c r="J84">
         <v>20.88</v>
       </c>
       <c r="K84">
-        <v>1490</v>
+        <v>1366</v>
       </c>
       <c r="L84">
-        <v>0.417696393813356</v>
+        <v>0.4001177018574126</v>
       </c>
       <c r="M84">
-        <v>0.6037781957841553</v>
+        <v>0.5615750418085595</v>
       </c>
       <c r="N84">
-        <v>0.4280846460807511</v>
+        <v>0.4058760094163821</v>
       </c>
       <c r="O84">
-        <v>0.4146280495119632</v>
+        <v>0.3971248781318372</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2">
-        <v>43404</v>
+        <v>43100</v>
       </c>
       <c r="B85">
-        <v>0.27</v>
+        <v>0.21463</v>
       </c>
       <c r="C85">
-        <v>80.47</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="D85">
-        <v>8.79096072974</v>
+        <v>7.13893361413</v>
       </c>
       <c r="E85">
-        <v>108.73</v>
+        <v>100.81</v>
       </c>
       <c r="F85">
-        <v>100.34</v>
+        <v>95.48</v>
       </c>
       <c r="G85">
-        <v>-0.00047014044846</v>
+        <v>0.00179457811322</v>
       </c>
       <c r="H85">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I85">
-        <v>172.67</v>
+        <v>230.95</v>
       </c>
       <c r="J85">
-        <v>21.05</v>
+        <v>21.46</v>
       </c>
       <c r="K85">
-        <v>1231</v>
+        <v>1152</v>
       </c>
       <c r="L85">
-        <v>0.4104083154245683</v>
+        <v>0.3927725196928165</v>
       </c>
       <c r="M85">
-        <v>0.6039922068969591</v>
+        <v>0.5762267455775837</v>
       </c>
       <c r="N85">
-        <v>0.4407373645281277</v>
+        <v>0.4084063713133668</v>
       </c>
       <c r="O85">
-        <v>0.4195099642783503</v>
+        <v>0.4056065803137805</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2">
-        <v>43434</v>
+        <v>43131</v>
       </c>
       <c r="B86">
-        <v>0.3056</v>
+        <v>0.21963</v>
       </c>
       <c r="C86">
-        <v>65.17</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="D86">
-        <v>8.26507901291</v>
+        <v>6.66225501314</v>
       </c>
       <c r="E86">
-        <v>100.73</v>
+        <v>106.45</v>
       </c>
       <c r="F86">
-        <v>91.58</v>
+        <v>97.48</v>
       </c>
       <c r="G86">
-        <v>-0.00252818995549</v>
+        <v>0.00190552479263</v>
       </c>
       <c r="H86">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I86">
-        <v>263.9</v>
+        <v>312.03</v>
       </c>
       <c r="J86">
-        <v>21.45</v>
+        <v>20.94</v>
       </c>
       <c r="K86">
-        <v>1271</v>
+        <v>1192</v>
       </c>
       <c r="L86">
-        <v>0.4042221010633684</v>
+        <v>0.4023368317333454</v>
       </c>
       <c r="M86">
-        <v>0.6234575520382455</v>
+        <v>0.5776619715289413</v>
       </c>
       <c r="N86">
-        <v>0.4454718421567269</v>
+        <v>0.409342352213161</v>
       </c>
       <c r="O86">
-        <v>0.4376988824792035</v>
+        <v>0.4092689479479041</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2">
-        <v>43465</v>
+        <v>43159</v>
       </c>
       <c r="B87">
-        <v>0.27667</v>
+        <v>0.2325</v>
       </c>
       <c r="C87">
-        <v>56.46</v>
+        <v>65.42</v>
       </c>
       <c r="D87">
-        <v>7.97624238009</v>
+        <v>6.7187497665</v>
       </c>
       <c r="E87">
-        <v>101.37</v>
+        <v>105.95</v>
       </c>
       <c r="F87">
-        <v>95.41</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="G87">
-        <v>0.0009917513392399999</v>
+        <v>0.00153156004926</v>
       </c>
       <c r="H87">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I87">
-        <v>295.84</v>
+        <v>310.7</v>
       </c>
       <c r="J87">
-        <v>21.23</v>
+        <v>21.68</v>
       </c>
       <c r="K87">
-        <v>668</v>
+        <v>1055</v>
       </c>
       <c r="L87">
-        <v>0.4004898727175514</v>
+        <v>0.4064757432093491</v>
       </c>
       <c r="M87">
-        <v>0.6302897123397672</v>
+        <v>0.5802853560060884</v>
       </c>
       <c r="N87">
-        <v>0.4538936917955425</v>
+        <v>0.4129828136827214</v>
       </c>
       <c r="O87">
-        <v>0.4539792377992551</v>
+        <v>0.4119379962762168</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2">
-        <v>43496</v>
+        <v>43190</v>
       </c>
       <c r="B88">
-        <v>0.26</v>
+        <v>0.2325</v>
       </c>
       <c r="C88">
-        <v>59.27</v>
+        <v>66.45</v>
       </c>
       <c r="D88">
-        <v>7.26234323345</v>
+        <v>6.69738764036</v>
       </c>
       <c r="E88">
-        <v>98.56</v>
+        <v>96.66</v>
       </c>
       <c r="F88">
-        <v>91.29000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="G88">
-        <v>0.00465456261143</v>
+        <v>0.00063701729307</v>
       </c>
       <c r="H88">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I88">
-        <v>394.89</v>
+        <v>307.97</v>
       </c>
       <c r="J88">
-        <v>21.4</v>
+        <v>21.53</v>
       </c>
       <c r="K88">
-        <v>658</v>
+        <v>1341</v>
       </c>
       <c r="L88">
-        <v>0.4002712606044906</v>
+        <v>0.4094620637109461</v>
       </c>
       <c r="M88">
-        <v>0.6286519971960961</v>
+        <v>0.5887058884603555</v>
       </c>
       <c r="N88">
-        <v>0.4558955064314986</v>
+        <v>0.4194516232675338</v>
       </c>
       <c r="O88">
-        <v>0.4505445931224069</v>
+        <v>0.4084890959634587</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="2">
-        <v>43524</v>
+        <v>43220</v>
       </c>
       <c r="B89">
-        <v>0.25063</v>
+        <v>0.23063</v>
       </c>
       <c r="C89">
-        <v>64.13</v>
+        <v>71.63</v>
       </c>
       <c r="D89">
-        <v>6.0057971222</v>
+        <v>6.92785820242</v>
       </c>
       <c r="E89">
-        <v>95.42</v>
+        <v>93.69</v>
       </c>
       <c r="F89">
-        <v>84.16</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="G89">
-        <v>-0.00229347078498</v>
+        <v>-0.00138895199145</v>
       </c>
       <c r="H89">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I89">
-        <v>355.02</v>
+        <v>344.31</v>
       </c>
       <c r="J89">
-        <v>21.8</v>
+        <v>21.24</v>
       </c>
       <c r="K89">
-        <v>689</v>
+        <v>1090</v>
       </c>
       <c r="L89">
-        <v>0.4122060554901423</v>
+        <v>0.4188083170562459</v>
       </c>
       <c r="M89">
-        <v>0.6250239082798074</v>
+        <v>0.5996765247552019</v>
       </c>
       <c r="N89">
-        <v>0.4554264112708893</v>
+        <v>0.4182540962496526</v>
       </c>
       <c r="O89">
-        <v>0.4514769796457457</v>
+        <v>0.4082163228140767</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2">
-        <v>43555</v>
+        <v>43251</v>
       </c>
       <c r="B90">
-        <v>0.2475</v>
+        <v>0.22188</v>
       </c>
       <c r="C90">
-        <v>66.41</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="D90">
-        <v>5.17873567413</v>
+        <v>7.48735405732</v>
       </c>
       <c r="E90">
-        <v>93.12</v>
+        <v>105.29</v>
       </c>
       <c r="F90">
-        <v>78.81</v>
+        <v>101.89</v>
       </c>
       <c r="G90">
-        <v>-0.00211455999295</v>
+        <v>-0.0018259436073</v>
       </c>
       <c r="H90">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I90">
-        <v>436.05</v>
+        <v>425.86</v>
       </c>
       <c r="J90">
-        <v>21.9</v>
+        <v>20.99</v>
       </c>
       <c r="K90">
-        <v>1011</v>
+        <v>1385</v>
       </c>
       <c r="L90">
-        <v>0.4203781202653709</v>
+        <v>0.428691997961595</v>
       </c>
       <c r="M90">
-        <v>0.6234674327292586</v>
+        <v>0.5992319244246379</v>
       </c>
       <c r="N90">
-        <v>0.460548948085544</v>
+        <v>0.4247061801827444</v>
       </c>
       <c r="O90">
-        <v>0.4487622053307301</v>
+        <v>0.4092757319405805</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2">
-        <v>43585</v>
+        <v>43281</v>
       </c>
       <c r="B91">
-        <v>0.2475</v>
+        <v>0.224</v>
       </c>
       <c r="C91">
-        <v>71.2</v>
+        <v>75.19</v>
       </c>
       <c r="D91">
-        <v>4.92218081968</v>
+        <v>7.44894284404</v>
       </c>
       <c r="E91">
-        <v>86.77</v>
+        <v>114.33</v>
       </c>
       <c r="F91">
-        <v>72.48999999999999</v>
+        <v>103.88</v>
       </c>
       <c r="G91">
-        <v>0.00171565356043</v>
+        <v>-0.00274227610422</v>
       </c>
       <c r="H91">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I91">
-        <v>358.33</v>
+        <v>262.28</v>
       </c>
       <c r="J91">
-        <v>22.01</v>
+        <v>20.13</v>
       </c>
       <c r="K91">
-        <v>1096</v>
+        <v>1747</v>
       </c>
       <c r="L91">
-        <v>0.4302686741239212</v>
+        <v>0.4298868253767242</v>
       </c>
       <c r="M91">
-        <v>0.622</v>
+        <v>0.5925505931277354</v>
       </c>
       <c r="N91">
-        <v>0.4544</v>
+        <v>0.4232105630033004</v>
       </c>
       <c r="O91">
-        <v>0.4476</v>
+        <v>0.410921143000296</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="2">
-        <v>43616</v>
+        <v>43312</v>
       </c>
       <c r="B92">
-        <v>0.2475</v>
+        <v>0.2525</v>
       </c>
       <c r="C92">
-        <v>70.53</v>
+        <v>74.44</v>
       </c>
       <c r="D92">
-        <v>4.34105529405</v>
+        <v>7.59883923025</v>
       </c>
       <c r="E92">
-        <v>82.31999999999999</v>
+        <v>119.57</v>
       </c>
       <c r="F92">
-        <v>68.93000000000001</v>
+        <v>106.02</v>
       </c>
       <c r="G92">
-        <v>-4.207610894E-05</v>
+        <v>-4.117844953E-05</v>
       </c>
       <c r="H92">
-        <v>98.01516824569973</v>
+        <v>97.97997752065884</v>
       </c>
       <c r="I92">
-        <v>336.86</v>
+        <v>227.12</v>
       </c>
       <c r="J92">
-        <v>21.66</v>
+        <v>20</v>
       </c>
       <c r="K92">
-        <v>1354</v>
+        <v>1579</v>
       </c>
       <c r="L92">
-        <v>0.43031278198301</v>
+        <v>0.429976049879927</v>
       </c>
       <c r="M92">
-        <v>0.6126506698651649</v>
+        <v>0.5926849073507539</v>
       </c>
       <c r="N92">
-        <v>0.4507624943472984</v>
+        <v>0.4235829246476788</v>
       </c>
       <c r="O92">
-        <v>0.4423859214662514</v>
+        <v>0.4005033119652912</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="2">
-        <v>43646</v>
+        <v>43343</v>
       </c>
       <c r="B93">
-        <v>0.2475</v>
+        <v>0.26</v>
       </c>
       <c r="C93">
-        <v>63.3</v>
+        <v>73.13</v>
       </c>
       <c r="D93">
-        <v>3.58800651227</v>
+        <v>8.084909938439999</v>
       </c>
       <c r="E93">
-        <v>72.48999999999999</v>
+        <v>117.34</v>
       </c>
       <c r="F93">
-        <v>62.94</v>
+        <v>98.48</v>
       </c>
       <c r="G93">
-        <v>-0.00035781895471</v>
+        <v>0.00269488517407</v>
       </c>
       <c r="H93">
-        <v>98.01516824569973</v>
+        <v>98.01516824569984</v>
       </c>
       <c r="I93">
-        <v>345.6</v>
+        <v>201.97</v>
       </c>
       <c r="J93">
-        <v>20.73</v>
+        <v>20.18</v>
       </c>
       <c r="K93">
-        <v>1868</v>
+        <v>1540</v>
       </c>
       <c r="L93">
-        <v>0.435745964968454</v>
+        <v>0.4117908797641813</v>
       </c>
       <c r="M93">
-        <v>0.6274000000000001</v>
+        <v>0.6070360547859387</v>
       </c>
       <c r="N93">
-        <v>0.4554</v>
+        <v>0.4244212088682396</v>
       </c>
       <c r="O93">
-        <v>0.4424</v>
+        <v>0.4063387360245332</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2">
-        <v>43677</v>
+        <v>43373</v>
       </c>
       <c r="B94">
-        <v>0.2635</v>
+        <v>0.2675</v>
       </c>
       <c r="C94">
-        <v>64</v>
+        <v>78.86</v>
       </c>
       <c r="D94">
-        <v>3.62037140561</v>
+        <v>9.521577031210001</v>
       </c>
       <c r="E94">
-        <v>72.08</v>
+        <v>114.16</v>
       </c>
       <c r="F94">
-        <v>65.79000000000001</v>
+        <v>102.14</v>
       </c>
       <c r="G94">
-        <v>0.00091334275368</v>
+        <v>0.00391878650828</v>
       </c>
       <c r="H94">
         <v>98.01516824569973</v>
       </c>
       <c r="I94">
-        <v>254.23</v>
+        <v>149.22</v>
       </c>
       <c r="J94">
-        <v>20.21</v>
+        <v>20.88</v>
       </c>
       <c r="K94">
-        <v>2378</v>
+        <v>1490</v>
       </c>
       <c r="L94">
-        <v>0.4333316138449078</v>
+        <v>0.417696393813356</v>
       </c>
       <c r="M94">
-        <v>0.62</v>
+        <v>0.6037781957841553</v>
       </c>
       <c r="N94">
-        <v>0.456</v>
+        <v>0.4280846460807511</v>
       </c>
       <c r="O94">
-        <v>0.4462</v>
+        <v>0.4146280495119632</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B95">
-        <v>0.2625</v>
+        <v>0.27</v>
       </c>
       <c r="C95">
-        <v>59.25</v>
+        <v>80.47</v>
       </c>
       <c r="D95">
-        <v>3.67677516041</v>
+        <v>8.79096072974</v>
       </c>
       <c r="E95">
-        <v>65.55</v>
+        <v>108.73</v>
       </c>
       <c r="F95">
-        <v>60.43</v>
+        <v>100.34</v>
       </c>
       <c r="G95">
-        <v>-0.00104143223119</v>
+        <v>-0.00047014044846</v>
       </c>
       <c r="H95">
         <v>98.01516824569973</v>
       </c>
       <c r="I95">
-        <v>176.19</v>
+        <v>172.67</v>
       </c>
       <c r="J95">
-        <v>20.03</v>
+        <v>21.05</v>
       </c>
       <c r="K95">
-        <v>1823</v>
+        <v>1231</v>
       </c>
       <c r="L95">
-        <v>0.4344250928577083</v>
+        <v>0.4104083154245683</v>
       </c>
       <c r="M95">
-        <v>0.6183587061173751</v>
+        <v>0.6039922068969591</v>
       </c>
       <c r="N95">
-        <v>0.4546927883766855</v>
+        <v>0.4407373645281277</v>
       </c>
       <c r="O95">
-        <v>0.4446507602159024</v>
+        <v>0.4195099642783503</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="2">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B96">
-        <v>0.23775</v>
+        <v>0.3056</v>
       </c>
       <c r="C96">
-        <v>62.33</v>
+        <v>65.17</v>
       </c>
       <c r="D96">
-        <v>4.20525568494</v>
+        <v>8.26507901291</v>
       </c>
       <c r="E96">
-        <v>65.95</v>
+        <v>100.73</v>
       </c>
       <c r="F96">
-        <v>61.37</v>
+        <v>91.58</v>
       </c>
       <c r="G96">
-        <v>-0.00011961364761</v>
+        <v>-0.00252818995549</v>
       </c>
       <c r="H96">
         <v>98.01516824569973</v>
       </c>
       <c r="I96">
-        <v>145.09</v>
+        <v>263.9</v>
       </c>
       <c r="J96">
-        <v>20.79</v>
+        <v>21.45</v>
       </c>
       <c r="K96">
-        <v>1731</v>
+        <v>1271</v>
       </c>
       <c r="L96">
-        <v>0.4291885262761831</v>
+        <v>0.4042221010633684</v>
       </c>
       <c r="M96">
-        <v>0.623</v>
+        <v>0.6234575520382455</v>
       </c>
       <c r="N96">
-        <v>0.4606</v>
+        <v>0.4454718421567269</v>
       </c>
       <c r="O96">
-        <v>0.4464</v>
+        <v>0.4376988824792035</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="2">
-        <v>43769</v>
+        <v>43465</v>
       </c>
       <c r="B97">
-        <v>0.237</v>
+        <v>0.27667</v>
       </c>
       <c r="C97">
-        <v>59.37</v>
+        <v>56.46</v>
       </c>
       <c r="D97">
-        <v>5.05721785787</v>
+        <v>7.97624238009</v>
       </c>
       <c r="E97">
-        <v>69.2</v>
+        <v>101.37</v>
       </c>
       <c r="F97">
-        <v>67.44</v>
+        <v>95.41</v>
       </c>
       <c r="G97">
-        <v>0.00520726461684</v>
+        <v>0.0009917513392399999</v>
       </c>
       <c r="H97">
-        <v>137.0503756674423</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I97">
-        <v>244.06</v>
+        <v>295.84</v>
       </c>
       <c r="J97">
-        <v>20.67</v>
+        <v>21.23</v>
       </c>
       <c r="K97">
-        <v>1528</v>
+        <v>668</v>
       </c>
       <c r="L97">
-        <v>0.4230931517323515</v>
+        <v>0.4004898727175514</v>
       </c>
       <c r="M97">
-        <v>0.6209818009238687</v>
+        <v>0.6302897123397672</v>
       </c>
       <c r="N97">
-        <v>0.4604397761609888</v>
+        <v>0.4538936917955425</v>
       </c>
       <c r="O97">
-        <v>0.4453506664447094</v>
+        <v>0.4539792377992551</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2">
-        <v>43799</v>
+        <v>43496</v>
       </c>
       <c r="B98">
-        <v>0.2245</v>
+        <v>0.26</v>
       </c>
       <c r="C98">
-        <v>62.74</v>
+        <v>59.27</v>
       </c>
       <c r="D98">
-        <v>5.15000421731</v>
+        <v>7.26234323345</v>
       </c>
       <c r="E98">
-        <v>66.98999999999999</v>
+        <v>98.56</v>
       </c>
       <c r="F98">
-        <v>73.62</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="G98">
-        <v>-0.00703696796229</v>
+        <v>0.00465456261143</v>
       </c>
       <c r="H98">
-        <v>99.4114860409143</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I98">
-        <v>245.19</v>
+        <v>394.89</v>
       </c>
       <c r="J98">
-        <v>21.26</v>
+        <v>21.4</v>
       </c>
       <c r="K98">
-        <v>1090</v>
+        <v>658</v>
       </c>
       <c r="L98">
-        <v>0.4230047475288597</v>
+        <v>0.4002712606044906</v>
       </c>
       <c r="M98">
-        <v>0.6102945543333986</v>
+        <v>0.6286519971960961</v>
       </c>
       <c r="N98">
-        <v>0.4599395366561294</v>
+        <v>0.4558955064314986</v>
       </c>
       <c r="O98">
-        <v>0.4456775215020361</v>
+        <v>0.4505445931224069</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2">
-        <v>43830</v>
+        <v>43524</v>
       </c>
       <c r="B99">
-        <v>0.2175</v>
+        <v>0.25063</v>
       </c>
       <c r="C99">
-        <v>65.84999999999999</v>
+        <v>64.13</v>
       </c>
       <c r="D99">
-        <v>4.62047221239</v>
+        <v>6.0057971222</v>
       </c>
       <c r="E99">
-        <v>66.18000000000001</v>
+        <v>95.42</v>
       </c>
       <c r="F99">
-        <v>76.03</v>
+        <v>84.16</v>
       </c>
       <c r="G99">
-        <v>-8.186548111E-05</v>
+        <v>-0.00229347078498</v>
       </c>
       <c r="H99">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I99">
-        <v>296.07</v>
+        <v>355.02</v>
       </c>
       <c r="J99">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="K99">
-        <v>487</v>
+        <v>689</v>
       </c>
       <c r="L99">
-        <v>0.418306668427461</v>
+        <v>0.4122060554901423</v>
       </c>
       <c r="M99">
-        <v>0.6121007748619023</v>
+        <v>0.6250239082798074</v>
       </c>
       <c r="N99">
-        <v>0.4559536170868154</v>
+        <v>0.4554264112708893</v>
       </c>
       <c r="O99">
-        <v>0.4454939616221102</v>
+        <v>0.4514769796457457</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="2">
-        <v>43861</v>
+        <v>43555</v>
       </c>
       <c r="B100">
-        <v>0.2154</v>
+        <v>0.2475</v>
       </c>
       <c r="C100">
-        <v>63.6</v>
+        <v>66.41</v>
       </c>
       <c r="D100">
-        <v>3.63338434727</v>
+        <v>5.17873567413</v>
       </c>
       <c r="E100">
-        <v>69.66</v>
+        <v>93.12</v>
       </c>
       <c r="F100">
-        <v>82.09</v>
+        <v>78.81</v>
       </c>
       <c r="G100">
-        <v>0.00227012721181</v>
+        <v>-0.00211455999295</v>
       </c>
       <c r="H100">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I100">
-        <v>268.32</v>
+        <v>436.05</v>
       </c>
       <c r="J100">
-        <v>22.01</v>
+        <v>21.9</v>
       </c>
       <c r="K100">
-        <v>535</v>
+        <v>1011</v>
       </c>
       <c r="L100">
-        <v>0.4272266206726101</v>
+        <v>0.4203781202653709</v>
       </c>
       <c r="M100">
-        <v>0.5798794935342798</v>
+        <v>0.6234674327292586</v>
       </c>
       <c r="N100">
-        <v>0.4539837972817095</v>
+        <v>0.460548948085544</v>
       </c>
       <c r="O100">
-        <v>0.4238762451913749</v>
+        <v>0.4487622053307301</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="2">
-        <v>43890</v>
+        <v>43585</v>
       </c>
       <c r="B101">
-        <v>0.21438</v>
+        <v>0.2475</v>
       </c>
       <c r="C101">
-        <v>55</v>
+        <v>71.2</v>
       </c>
       <c r="D101">
-        <v>2.90777364106</v>
+        <v>4.92218081968</v>
       </c>
       <c r="E101">
-        <v>67.64</v>
+        <v>86.77</v>
       </c>
       <c r="F101">
-        <v>79.98999999999999</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="G101">
-        <v>-0.00154420697631</v>
+        <v>0.00171565356043</v>
       </c>
       <c r="H101">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I101">
-        <v>321.64</v>
+        <v>358.33</v>
       </c>
       <c r="J101">
-        <v>22.2</v>
+        <v>22.01</v>
       </c>
       <c r="K101">
-        <v>626</v>
+        <v>1096</v>
       </c>
       <c r="L101">
-        <v>0.4281155443621508</v>
+        <v>0.4302686741239212</v>
       </c>
       <c r="M101">
-        <v>0.5875022997238413</v>
+        <v>0.622</v>
       </c>
       <c r="N101">
-        <v>0.461018220276661</v>
+        <v>0.4544</v>
       </c>
       <c r="O101">
-        <v>0.4278012723222966</v>
+        <v>0.4476</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="2">
-        <v>43921</v>
+        <v>43616</v>
       </c>
       <c r="B102">
-        <v>0.23113</v>
+        <v>0.2475</v>
       </c>
       <c r="C102">
-        <v>32.98</v>
+        <v>70.53</v>
       </c>
       <c r="D102">
-        <v>2.71886838175</v>
+        <v>4.34105529405</v>
       </c>
       <c r="E102">
-        <v>66.73999999999999</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="F102">
-        <v>67.89</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="G102">
-        <v>0.00197441076879</v>
+        <v>-4.207610894E-05</v>
       </c>
       <c r="H102">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I102">
-        <v>329.31</v>
+        <v>336.86</v>
       </c>
       <c r="J102">
-        <v>22.22</v>
+        <v>21.66</v>
       </c>
       <c r="K102">
-        <v>635</v>
+        <v>1354</v>
       </c>
       <c r="L102">
-        <v>0.435464913763167</v>
+        <v>0.43031278198301</v>
       </c>
       <c r="M102">
-        <v>0.5910162277330805</v>
+        <v>0.6126506698651649</v>
       </c>
       <c r="N102">
-        <v>0.4634344740544055</v>
+        <v>0.4507624943472984</v>
       </c>
       <c r="O102">
-        <v>0.441561624663992</v>
+        <v>0.4423859214662514</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="2">
-        <v>43951</v>
+        <v>43646</v>
       </c>
       <c r="B103">
-        <v>0.235</v>
+        <v>0.2475</v>
       </c>
       <c r="C103">
-        <v>23.34</v>
+        <v>63.3</v>
       </c>
       <c r="D103">
-        <v>2.12031866732</v>
+        <v>3.58800651227</v>
       </c>
       <c r="E103">
-        <v>58.55</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="F103">
-        <v>56.58</v>
+        <v>62.94</v>
       </c>
       <c r="G103">
-        <v>0.01002625234371</v>
+        <v>-0.00035781895471</v>
       </c>
       <c r="H103">
-        <v>99.41148604091443</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I103">
-        <v>287.48</v>
+        <v>345.6</v>
       </c>
       <c r="J103">
-        <v>21.87</v>
+        <v>20.73</v>
       </c>
       <c r="K103">
-        <v>504</v>
+        <v>1868</v>
       </c>
       <c r="L103">
-        <v>0.441427995197071</v>
+        <v>0.435745964968454</v>
       </c>
       <c r="M103">
-        <v>0.5903701357863657</v>
+        <v>0.6274000000000001</v>
       </c>
       <c r="N103">
-        <v>0.4650872943506536</v>
+        <v>0.4554</v>
       </c>
       <c r="O103">
-        <v>0.4337927922320309</v>
+        <v>0.4424</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2">
-        <v>43982</v>
+        <v>43677</v>
       </c>
       <c r="B104">
-        <v>0.2019</v>
+        <v>0.2635</v>
       </c>
       <c r="C104">
-        <v>31.02</v>
+        <v>64</v>
       </c>
       <c r="D104">
-        <v>1.57516497792</v>
+        <v>3.62037140561</v>
       </c>
       <c r="E104">
-        <v>52.49</v>
+        <v>72.08</v>
       </c>
       <c r="F104">
-        <v>57.42</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="G104">
-        <v>-0.00259984108389</v>
+        <v>0.00091334275368</v>
       </c>
       <c r="H104">
-        <v>98.30844248225289</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I104">
-        <v>275.21</v>
+        <v>254.23</v>
       </c>
       <c r="J104">
-        <v>21.59</v>
+        <v>20.21</v>
       </c>
       <c r="K104">
-        <v>1799</v>
+        <v>2378</v>
       </c>
       <c r="L104">
-        <v>0.4442100828421174</v>
+        <v>0.4333316138449078</v>
       </c>
       <c r="M104">
-        <v>0.5878590666596513</v>
+        <v>0.62</v>
       </c>
       <c r="N104">
-        <v>0.4619869070384683</v>
+        <v>0.456</v>
       </c>
       <c r="O104">
-        <v>0.4363662775517037</v>
+        <v>0.4462</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2">
-        <v>44012</v>
+        <v>43708</v>
       </c>
       <c r="B105">
-        <v>0.202</v>
+        <v>0.2625</v>
       </c>
       <c r="C105">
-        <v>39.93</v>
+        <v>59.25</v>
       </c>
       <c r="D105">
-        <v>1.75217111218</v>
+        <v>3.67677516041</v>
       </c>
       <c r="E105">
-        <v>52.21</v>
+        <v>65.55</v>
       </c>
       <c r="F105">
-        <v>56.81</v>
+        <v>60.43</v>
       </c>
       <c r="G105">
-        <v>-0.00619814666477</v>
+        <v>-0.00104143223119</v>
       </c>
       <c r="H105">
-        <v>96.25287528847934</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I105">
-        <v>203.66</v>
+        <v>176.19</v>
       </c>
       <c r="J105">
-        <v>20.85</v>
+        <v>20.03</v>
       </c>
       <c r="K105">
-        <v>1350</v>
+        <v>1823</v>
       </c>
       <c r="L105">
-        <v>0.4559354453250682</v>
+        <v>0.4344250928577083</v>
       </c>
       <c r="M105">
-        <v>0.5936037863571761</v>
+        <v>0.6183587061173751</v>
       </c>
       <c r="N105">
-        <v>0.463368544993051</v>
+        <v>0.4546927883766855</v>
       </c>
       <c r="O105">
-        <v>0.4250314652252695</v>
+        <v>0.4446507602159024</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2">
-        <v>44043</v>
+        <v>43738</v>
       </c>
       <c r="B106">
-        <v>0.2144</v>
+        <v>0.23775</v>
       </c>
       <c r="C106">
-        <v>42.81</v>
+        <v>62.33</v>
       </c>
       <c r="D106">
-        <v>1.80103549647</v>
+        <v>4.20525568494</v>
       </c>
       <c r="E106">
-        <v>51.56</v>
+        <v>65.95</v>
       </c>
       <c r="F106">
-        <v>56.6</v>
+        <v>61.37</v>
       </c>
       <c r="G106">
-        <v>-0.0061264945265</v>
+        <v>-0.00011961364761</v>
       </c>
       <c r="H106">
-        <v>98.0489561823302</v>
+        <v>98.01516824569973</v>
       </c>
       <c r="I106">
-        <v>204.7</v>
+        <v>145.09</v>
       </c>
       <c r="J106">
-        <v>20.23</v>
+        <v>20.79</v>
       </c>
       <c r="K106">
-        <v>1488</v>
+        <v>1731</v>
       </c>
       <c r="L106">
-        <v>0.4619913414790972</v>
+        <v>0.4291885262761831</v>
       </c>
       <c r="M106">
-        <v>0.5950080420233913</v>
+        <v>0.623</v>
       </c>
       <c r="N106">
-        <v>0.4596774021676645</v>
+        <v>0.4606</v>
       </c>
       <c r="O106">
-        <v>0.426920858478315</v>
+        <v>0.4464</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="2">
-        <v>44074</v>
+        <v>43769</v>
       </c>
       <c r="B107">
-        <v>0.2495</v>
+        <v>0.237</v>
       </c>
       <c r="C107">
-        <v>44.26</v>
+        <v>59.37</v>
       </c>
       <c r="D107">
-        <v>2.86189667673</v>
+        <v>5.05721785787</v>
       </c>
       <c r="E107">
-        <v>50.14</v>
+        <v>69.2</v>
       </c>
       <c r="F107">
-        <v>57.38</v>
+        <v>67.44</v>
       </c>
       <c r="G107">
-        <v>-0.00323849742065</v>
+        <v>0.00520726461684</v>
       </c>
       <c r="H107">
-        <v>103.2035973795328</v>
+        <v>137.0503756674423</v>
       </c>
       <c r="I107">
-        <v>106.47</v>
+        <v>244.06</v>
       </c>
       <c r="J107">
-        <v>20.46</v>
+        <v>20.67</v>
       </c>
       <c r="K107">
-        <v>1725</v>
+        <v>1528</v>
       </c>
       <c r="L107">
-        <v>0.4673494867665212</v>
+        <v>0.4230931517323515</v>
       </c>
       <c r="M107">
-        <v>0.5839844584757314</v>
+        <v>0.6209818009238687</v>
       </c>
       <c r="N107">
-        <v>0.4475733753158581</v>
+        <v>0.4604397761609888</v>
       </c>
       <c r="O107">
-        <v>0.4245467557882587</v>
+        <v>0.4453506664447094</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2">
-        <v>44104</v>
+        <v>43799</v>
       </c>
       <c r="B108">
-        <v>0.2505</v>
+        <v>0.2245</v>
       </c>
       <c r="C108">
-        <v>41.09</v>
+        <v>62.74</v>
       </c>
       <c r="D108">
-        <v>3.95213946267</v>
+        <v>5.15000421731</v>
       </c>
       <c r="E108">
-        <v>54.6</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F108">
-        <v>57.47</v>
+        <v>73.62</v>
       </c>
       <c r="G108">
-        <v>-0.00156555891193</v>
+        <v>-0.00703696796229</v>
       </c>
       <c r="H108">
-        <v>107.4431956605944</v>
+        <v>99.4114860409143</v>
       </c>
       <c r="I108">
-        <v>171.99</v>
+        <v>245.19</v>
       </c>
       <c r="J108">
-        <v>20.66</v>
+        <v>21.26</v>
       </c>
       <c r="K108">
-        <v>1283</v>
+        <v>1090</v>
       </c>
       <c r="L108">
-        <v>0.4727589381604924</v>
+        <v>0.4230047475288597</v>
       </c>
       <c r="M108">
-        <v>0.5801687666759132</v>
+        <v>0.6102945543333986</v>
       </c>
       <c r="N108">
-        <v>0.4374529502196333</v>
+        <v>0.4599395366561294</v>
       </c>
       <c r="O108">
-        <v>0.427146900595301</v>
+        <v>0.4456775215020361</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2">
-        <v>44135</v>
+        <v>43830</v>
       </c>
       <c r="B109">
-        <v>0.245</v>
+        <v>0.2175</v>
       </c>
       <c r="C109">
-        <v>40.47</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D109">
-        <v>4.88959040816</v>
+        <v>4.62047221239</v>
       </c>
       <c r="E109">
-        <v>58.4</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="F109">
-        <v>61.04</v>
+        <v>76.03</v>
       </c>
       <c r="G109">
-        <v>-0.00189278490435</v>
+        <v>-8.186548111E-05</v>
       </c>
       <c r="H109">
-        <v>113.1483822788417</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="I109">
-        <v>157.96</v>
+        <v>296.07</v>
       </c>
       <c r="J109">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="K109">
-        <v>1227</v>
+        <v>487</v>
       </c>
       <c r="L109">
-        <v>0.4751955039451729</v>
+        <v>0.418306668427461</v>
       </c>
       <c r="M109">
-        <v>0.5836147884226655</v>
+        <v>0.6121007748619023</v>
       </c>
       <c r="N109">
-        <v>0.4326789864995383</v>
+        <v>0.4559536170868154</v>
       </c>
       <c r="O109">
-        <v>0.4435789806440569</v>
+        <v>0.4454939616221102</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="2">
-        <v>44165</v>
+        <v>43861</v>
       </c>
       <c r="B110">
-        <v>0.245</v>
+        <v>0.2154</v>
       </c>
       <c r="C110">
-        <v>43.23</v>
+        <v>63.6</v>
       </c>
       <c r="D110">
-        <v>4.83583900516</v>
+        <v>3.63338434727</v>
       </c>
       <c r="E110">
-        <v>64.40000000000001</v>
+        <v>69.66</v>
       </c>
       <c r="F110">
-        <v>69.43000000000001</v>
+        <v>82.09</v>
       </c>
       <c r="G110">
-        <v>-8.734381945E-05</v>
+        <v>0.00227012721181</v>
       </c>
       <c r="H110">
-        <v>118.9970042591801</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="I110">
-        <v>190.62</v>
+        <v>268.32</v>
       </c>
       <c r="J110">
-        <v>21.16</v>
+        <v>22.01</v>
       </c>
       <c r="K110">
-        <v>1366</v>
+        <v>535</v>
       </c>
       <c r="L110">
-        <v>0.4845045128128564</v>
+        <v>0.4272266206726101</v>
       </c>
       <c r="M110">
-        <v>0.5800873003902469</v>
+        <v>0.5798794935342798</v>
       </c>
       <c r="N110">
-        <v>0.4362732025320636</v>
+        <v>0.4539837972817095</v>
       </c>
       <c r="O110">
-        <v>0.4330661807003539</v>
+        <v>0.4238762451913749</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="2">
-        <v>44196</v>
+        <v>43890</v>
       </c>
       <c r="B111">
-        <v>0.245</v>
+        <v>0.21438</v>
       </c>
       <c r="C111">
-        <v>49.87</v>
+        <v>55</v>
       </c>
       <c r="D111">
-        <v>5.85610629604</v>
+        <v>2.90777364106</v>
       </c>
       <c r="E111">
-        <v>83.03</v>
+        <v>67.64</v>
       </c>
       <c r="F111">
-        <v>85.18000000000001</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="G111">
-        <v>-0.00028612321912</v>
+        <v>-0.00154420697631</v>
       </c>
       <c r="H111">
-        <v>123.2737384642799</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="I111">
-        <v>337.06</v>
+        <v>321.64</v>
       </c>
       <c r="J111">
-        <v>21.14</v>
+        <v>22.2</v>
       </c>
       <c r="K111">
-        <v>1452</v>
+        <v>626</v>
       </c>
       <c r="L111">
-        <v>0.4909173632569305</v>
+        <v>0.4281155443621508</v>
       </c>
       <c r="M111">
-        <v>0.5795411821807901</v>
+        <v>0.5875022997238413</v>
       </c>
       <c r="N111">
-        <v>0.4352607196986089</v>
+        <v>0.461018220276661</v>
       </c>
       <c r="O111">
-        <v>0.4318200771688913</v>
+        <v>0.4278012723222966</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="2">
-        <v>44227</v>
+        <v>43921</v>
       </c>
       <c r="B112">
-        <v>0.265</v>
+        <v>0.23113</v>
       </c>
       <c r="C112">
-        <v>54.55</v>
+        <v>32.98</v>
       </c>
       <c r="D112">
-        <v>7.2683017493</v>
+        <v>2.71886838175</v>
       </c>
       <c r="E112">
-        <v>86.83</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="F112">
-        <v>86.84999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="G112">
-        <v>0.00116155048064</v>
+        <v>0.00197441076879</v>
       </c>
       <c r="H112">
-        <v>128.7950567429762</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="I112">
-        <v>364.08</v>
+        <v>329.31</v>
       </c>
       <c r="J112">
-        <v>21.22</v>
+        <v>22.22</v>
       </c>
       <c r="K112">
-        <v>1675</v>
+        <v>635</v>
       </c>
       <c r="L112">
-        <v>0.4894656023952785</v>
+        <v>0.435464913763167</v>
       </c>
       <c r="M112">
-        <v>0.5741375881055839</v>
+        <v>0.5910162277330805</v>
       </c>
       <c r="N112">
-        <v>0.4303488303732484</v>
+        <v>0.4634344740544055</v>
       </c>
       <c r="O112">
-        <v>0.4129504877728313</v>
+        <v>0.441561624663992</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="2">
-        <v>44255</v>
+        <v>43951</v>
       </c>
       <c r="B113">
-        <v>0.335</v>
+        <v>0.235</v>
       </c>
       <c r="C113">
-        <v>61.96</v>
+        <v>23.34</v>
       </c>
       <c r="D113">
-        <v>6.15850716652</v>
+        <v>2.12031866732</v>
       </c>
       <c r="E113">
-        <v>86.73999999999999</v>
+        <v>58.55</v>
       </c>
       <c r="F113">
-        <v>82.76000000000001</v>
+        <v>56.58</v>
       </c>
       <c r="G113">
-        <v>0.00084343695105</v>
+        <v>0.01002625234371</v>
       </c>
       <c r="H113">
-        <v>130.4602210142325</v>
+        <v>99.41148604091443</v>
       </c>
       <c r="I113">
-        <v>323.81</v>
+        <v>287.48</v>
       </c>
       <c r="J113">
-        <v>21.72</v>
+        <v>21.87</v>
       </c>
       <c r="K113">
-        <v>2046</v>
+        <v>504</v>
       </c>
       <c r="L113">
-        <v>0.4914904976907563</v>
+        <v>0.441427995197071</v>
       </c>
       <c r="M113">
-        <v>0.5925340890470545</v>
+        <v>0.5903701357863657</v>
       </c>
       <c r="N113">
-        <v>0.4343623307110566</v>
+        <v>0.4650872943506536</v>
       </c>
       <c r="O113">
-        <v>0.4179983781295215</v>
+        <v>0.4337927922320309</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="2">
-        <v>44286</v>
+        <v>43982</v>
       </c>
       <c r="B114">
-        <v>0.35288</v>
+        <v>0.2019</v>
       </c>
       <c r="C114">
-        <v>65.19</v>
+        <v>31.02</v>
       </c>
       <c r="D114">
-        <v>6.12706957935</v>
+        <v>1.57516497792</v>
       </c>
       <c r="E114">
-        <v>94.92</v>
+        <v>52.49</v>
       </c>
       <c r="F114">
-        <v>90.66</v>
+        <v>57.42</v>
       </c>
       <c r="G114">
-        <v>0.00175396345918</v>
+        <v>-0.00259984108389</v>
       </c>
       <c r="H114">
-        <v>133.9235149398768</v>
+        <v>98.30844248225289</v>
       </c>
       <c r="I114">
-        <v>447.53</v>
+        <v>275.21</v>
       </c>
       <c r="J114">
-        <v>21.21</v>
+        <v>21.59</v>
       </c>
       <c r="K114">
-        <v>3053</v>
+        <v>1799</v>
       </c>
       <c r="L114">
-        <v>0.493276398525774</v>
+        <v>0.4442100828421174</v>
       </c>
       <c r="M114">
-        <v>0.604845247034084</v>
+        <v>0.5878590666596513</v>
       </c>
       <c r="N114">
-        <v>0.4293102842640739</v>
+        <v>0.4619869070384683</v>
       </c>
       <c r="O114">
-        <v>0.4324131120358024</v>
+        <v>0.4363662775517037</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2">
-        <v>44316</v>
+        <v>44012</v>
       </c>
       <c r="B115">
-        <v>0.3281</v>
+        <v>0.202</v>
       </c>
       <c r="C115">
-        <v>64.77</v>
+        <v>39.93</v>
       </c>
       <c r="D115">
-        <v>7.14681628809</v>
+        <v>1.75217111218</v>
       </c>
       <c r="E115">
-        <v>92.22</v>
+        <v>52.21</v>
       </c>
       <c r="F115">
-        <v>89.13</v>
+        <v>56.81</v>
       </c>
       <c r="G115">
-        <v>0.00349191882645</v>
+        <v>-0.00619814666477</v>
       </c>
       <c r="H115">
-        <v>138.2897485328063</v>
+        <v>96.25287528847934</v>
       </c>
       <c r="I115">
-        <v>395.81</v>
+        <v>203.66</v>
       </c>
       <c r="J115">
-        <v>21.39</v>
+        <v>20.85</v>
       </c>
       <c r="K115">
-        <v>2596</v>
+        <v>1350</v>
       </c>
       <c r="L115">
-        <v>0.4979584699872221</v>
+        <v>0.4559354453250682</v>
       </c>
       <c r="M115">
-        <v>0.6526050213256884</v>
+        <v>0.5936037863571761</v>
       </c>
       <c r="N115">
-        <v>0.4378883793091635</v>
+        <v>0.463368544993051</v>
       </c>
       <c r="O115">
-        <v>0.4539710499893974</v>
+        <v>0.4250314652252695</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2">
-        <v>44347</v>
+        <v>44043</v>
       </c>
       <c r="B116">
-        <v>0.33163</v>
+        <v>0.2144</v>
       </c>
       <c r="C116">
-        <v>68.04000000000001</v>
+        <v>42.81</v>
       </c>
       <c r="D116">
-        <v>8.90875692439</v>
+        <v>1.80103549647</v>
       </c>
       <c r="E116">
-        <v>107.04</v>
+        <v>51.56</v>
       </c>
       <c r="F116">
-        <v>99.31</v>
+        <v>56.6</v>
       </c>
       <c r="G116">
-        <v>0.00083340753556</v>
+        <v>-0.0061264945265</v>
       </c>
       <c r="H116">
-        <v>141.1937490231932</v>
+        <v>98.0489561823302</v>
       </c>
       <c r="I116">
-        <v>320.43</v>
+        <v>204.7</v>
       </c>
       <c r="J116">
-        <v>20.99</v>
+        <v>20.23</v>
       </c>
       <c r="K116">
-        <v>3383</v>
+        <v>1488</v>
       </c>
       <c r="L116">
-        <v>0.4925514921183144</v>
+        <v>0.4619913414790972</v>
       </c>
       <c r="M116">
-        <v>0.6630188829662774</v>
+        <v>0.5950080420233913</v>
       </c>
       <c r="N116">
-        <v>0.4367313232507956</v>
+        <v>0.4596774021676645</v>
       </c>
       <c r="O116">
-        <v>0.481955930640822</v>
+        <v>0.426920858478315</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="2">
-        <v>44377</v>
+        <v>44074</v>
       </c>
       <c r="B117">
-        <v>0.39325</v>
+        <v>0.2495</v>
       </c>
       <c r="C117">
-        <v>73.06999999999999</v>
+        <v>44.26</v>
       </c>
       <c r="D117">
-        <v>10.30105100564</v>
+        <v>2.86189667673</v>
       </c>
       <c r="E117">
-        <v>129.97</v>
+        <v>50.14</v>
       </c>
       <c r="F117">
-        <v>112.92</v>
+        <v>57.38</v>
       </c>
       <c r="G117">
-        <v>-0.00175613709191</v>
+        <v>-0.00323849742065</v>
       </c>
       <c r="H117">
-        <v>144.0465071540256</v>
+        <v>103.2035973795328</v>
       </c>
       <c r="I117">
-        <v>261.45</v>
+        <v>106.47</v>
       </c>
       <c r="J117">
-        <v>20.49</v>
+        <v>20.46</v>
       </c>
       <c r="K117">
-        <v>3292</v>
+        <v>1725</v>
       </c>
       <c r="L117">
-        <v>0.4928136028756943</v>
+        <v>0.4673494867665212</v>
       </c>
       <c r="M117">
-        <v>0.7436</v>
+        <v>0.5839844584757314</v>
       </c>
       <c r="N117">
-        <v>0.5466</v>
+        <v>0.4475733753158581</v>
       </c>
       <c r="O117">
-        <v>0.5714</v>
+        <v>0.4245467557882587</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="2">
-        <v>44408</v>
+        <v>44104</v>
       </c>
       <c r="B118">
-        <v>0.4415</v>
+        <v>0.2505</v>
       </c>
       <c r="C118">
-        <v>74.39</v>
+        <v>41.09</v>
       </c>
       <c r="D118">
-        <v>12.50994243239</v>
+        <v>3.95213946267</v>
       </c>
       <c r="E118">
-        <v>151.97</v>
+        <v>54.6</v>
       </c>
       <c r="F118">
-        <v>122.33</v>
+        <v>57.47</v>
       </c>
       <c r="G118">
-        <v>0.00526208567962</v>
+        <v>-0.00156555891193</v>
       </c>
       <c r="H118">
-        <v>149.2262641923639</v>
+        <v>107.4431956605944</v>
       </c>
       <c r="I118">
-        <v>176.89</v>
+        <v>171.99</v>
       </c>
       <c r="J118">
-        <v>20.11</v>
+        <v>20.66</v>
       </c>
       <c r="K118">
-        <v>4132</v>
+        <v>1283</v>
       </c>
       <c r="L118">
-        <v>0.4804314916743824</v>
+        <v>0.4727589381604924</v>
       </c>
       <c r="M118">
-        <v>0.8134</v>
+        <v>0.5801687666759132</v>
       </c>
       <c r="N118">
-        <v>0.5746</v>
+        <v>0.4374529502196333</v>
       </c>
       <c r="O118">
-        <v>0.6026</v>
+        <v>0.427146900595301</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="2">
-        <v>44439</v>
+        <v>44135</v>
       </c>
       <c r="B119">
-        <v>0.44688</v>
+        <v>0.245</v>
       </c>
       <c r="C119">
-        <v>70.02</v>
+        <v>40.47</v>
       </c>
       <c r="D119">
-        <v>15.42647593843</v>
+        <v>4.88959040816</v>
       </c>
       <c r="E119">
-        <v>169.58</v>
+        <v>58.4</v>
       </c>
       <c r="F119">
-        <v>137.92</v>
+        <v>61.04</v>
       </c>
       <c r="G119">
-        <v>0.00115489930423</v>
+        <v>-0.00189278490435</v>
       </c>
       <c r="H119">
-        <v>153.2980038574362</v>
+        <v>113.1483822788417</v>
       </c>
       <c r="I119">
-        <v>142.63</v>
+        <v>157.96</v>
       </c>
       <c r="J119">
-        <v>20.49</v>
+        <v>21.1</v>
       </c>
       <c r="K119">
-        <v>5167</v>
+        <v>1227</v>
       </c>
       <c r="L119">
-        <v>0.4632719261881695</v>
+        <v>0.4751955039451729</v>
       </c>
       <c r="M119">
-        <v>0.8652</v>
+        <v>0.5836147884226655</v>
       </c>
       <c r="N119">
-        <v>0.6262</v>
+        <v>0.4326789864995383</v>
       </c>
       <c r="O119">
-        <v>0.6286</v>
+        <v>0.4435789806440569</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="2">
-        <v>44469</v>
+        <v>44165</v>
       </c>
       <c r="B120">
-        <v>0.41875</v>
+        <v>0.245</v>
       </c>
       <c r="C120">
-        <v>74.59999999999999</v>
+        <v>43.23</v>
       </c>
       <c r="D120">
-        <v>22.84059607792</v>
+        <v>4.83583900516</v>
       </c>
       <c r="E120">
-        <v>185.69</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F120">
-        <v>146.05275137829</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="G120">
-        <v>0.00015685281085</v>
+        <v>-8.734381945E-05</v>
       </c>
       <c r="H120">
-        <v>156.9558378189194</v>
+        <v>118.9970042591801</v>
       </c>
       <c r="I120">
-        <v>178.46</v>
+        <v>190.62</v>
       </c>
       <c r="J120">
-        <v>20.71</v>
+        <v>21.16</v>
       </c>
       <c r="K120">
-        <v>3519</v>
+        <v>1366</v>
       </c>
       <c r="L120">
-        <v>0.4579162425448056</v>
+        <v>0.4845045128128564</v>
       </c>
       <c r="M120">
-        <v>0.8404</v>
+        <v>0.5800873003902469</v>
       </c>
       <c r="N120">
-        <v>0.5968</v>
+        <v>0.4362732025320636</v>
       </c>
       <c r="O120">
-        <v>0.6282</v>
+        <v>0.4330661807003539</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="2">
-        <v>44500</v>
+        <v>44196</v>
       </c>
       <c r="B121">
-        <v>0.695</v>
+        <v>0.245</v>
       </c>
       <c r="C121">
-        <v>83.65000000000001</v>
+        <v>49.87</v>
       </c>
       <c r="D121">
-        <v>31.05246636754</v>
+        <v>5.85610629604</v>
       </c>
       <c r="E121">
-        <v>224.51</v>
+        <v>83.03</v>
       </c>
       <c r="F121">
-        <v>199.65</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="G121">
-        <v>0.00208202988504</v>
+        <v>-0.00028612321912</v>
       </c>
       <c r="H121">
-        <v>167.0008492724532</v>
+        <v>123.2737384642799</v>
       </c>
       <c r="I121">
-        <v>236.57</v>
+        <v>337.06</v>
       </c>
       <c r="J121">
-        <v>21.11</v>
+        <v>21.14</v>
       </c>
       <c r="K121">
-        <v>3018</v>
+        <v>1452</v>
       </c>
       <c r="L121">
-        <v>0.446856934178489</v>
+        <v>0.4909173632569305</v>
       </c>
       <c r="M121">
-        <v>0.9224</v>
+        <v>0.5795411821807901</v>
       </c>
       <c r="N121">
-        <v>0.7836</v>
+        <v>0.4352607196986089</v>
       </c>
       <c r="O121">
-        <v>0.7372</v>
+        <v>0.4318200771688913</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="2">
-        <v>44530</v>
+        <v>44227</v>
       </c>
       <c r="B122">
-        <v>0.9005</v>
+        <v>0.265</v>
       </c>
       <c r="C122">
-        <v>80.77</v>
+        <v>54.55</v>
       </c>
       <c r="D122">
-        <v>27.62343200775</v>
+        <v>7.2683017493</v>
       </c>
       <c r="E122">
-        <v>157.48</v>
+        <v>86.83</v>
       </c>
       <c r="F122">
-        <v>128</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="G122">
-        <v>0.00359534463091</v>
+        <v>0.00116155048064</v>
       </c>
       <c r="H122">
-        <v>182.6188365838623</v>
+        <v>128.7950567429762</v>
       </c>
       <c r="I122">
-        <v>222.75</v>
+        <v>364.08</v>
       </c>
       <c r="J122">
-        <v>21.07</v>
+        <v>21.22</v>
       </c>
       <c r="K122">
-        <v>2217</v>
+        <v>1675</v>
       </c>
       <c r="L122">
-        <v>0.4431147265613738</v>
+        <v>0.4894656023952785</v>
       </c>
       <c r="M122">
-        <v>1.043066167386023</v>
+        <v>0.5741375881055839</v>
       </c>
       <c r="N122">
-        <v>0.9369293184852377</v>
+        <v>0.4303488303732484</v>
       </c>
       <c r="O122">
-        <v>0.9002346810072717</v>
+        <v>0.4129504877728313</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="2">
-        <v>44561</v>
+        <v>44255</v>
       </c>
       <c r="B123">
-        <v>0.89</v>
+        <v>0.335</v>
       </c>
       <c r="C123">
-        <v>74.31</v>
+        <v>61.96</v>
       </c>
       <c r="D123">
-        <v>38.02711984318</v>
+        <v>6.15850716652</v>
       </c>
       <c r="E123">
-        <v>169.65</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="F123">
-        <v>142.5</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="G123">
-        <v>0.00067537719459</v>
+        <v>0.00084343695105</v>
       </c>
       <c r="H123">
-        <v>182.6188365838624</v>
+        <v>130.4602210142325</v>
       </c>
       <c r="I123">
-        <v>225.22</v>
+        <v>323.81</v>
       </c>
       <c r="J123">
-        <v>21.47</v>
+        <v>21.72</v>
       </c>
       <c r="K123">
-        <v>1418</v>
+        <v>2046</v>
       </c>
       <c r="L123">
-        <v>0.4233923308224148</v>
+        <v>0.4914904976907563</v>
       </c>
       <c r="M123">
-        <v>1.088197583668632</v>
+        <v>0.5925340890470545</v>
       </c>
       <c r="N123">
-        <v>1.034910306862554</v>
+        <v>0.4343623307110566</v>
       </c>
       <c r="O123">
-        <v>1.01467630898368</v>
+        <v>0.4179983781295215</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="2">
-        <v>44592</v>
+        <v>44286</v>
       </c>
       <c r="B124">
-        <v>0.84638</v>
+        <v>0.35288</v>
       </c>
       <c r="C124">
-        <v>85.53</v>
+        <v>65.19</v>
       </c>
       <c r="D124">
-        <v>28.26067331655</v>
+        <v>6.12706957935</v>
       </c>
       <c r="E124">
-        <v>196.95</v>
+        <v>94.92</v>
       </c>
       <c r="F124">
-        <v>168.5</v>
+        <v>90.66</v>
       </c>
       <c r="G124">
-        <v>0.00721327782143</v>
+        <v>0.00175396345918</v>
       </c>
       <c r="H124">
-        <v>182.6188365838624</v>
+        <v>133.9235149398768</v>
       </c>
       <c r="I124">
-        <v>246.66</v>
+        <v>447.53</v>
       </c>
       <c r="J124">
-        <v>21.51</v>
+        <v>21.21</v>
       </c>
       <c r="K124">
-        <v>2040</v>
+        <v>3053</v>
       </c>
       <c r="L124">
-        <v>0.4257859227826916</v>
+        <v>0.493276398525774</v>
       </c>
       <c r="M124">
-        <v>1.096824782</v>
+        <v>0.604845247034084</v>
       </c>
       <c r="N124">
-        <v>1.0750197</v>
+        <v>0.4293102842640739</v>
       </c>
       <c r="O124">
-        <v>1.011899418</v>
+        <v>0.4324131120358024</v>
       </c>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="2">
-        <v>44620</v>
+        <v>44316</v>
       </c>
       <c r="B125">
-        <v>0.74417</v>
+        <v>0.3281</v>
       </c>
       <c r="C125">
-        <v>95.76000000000001</v>
+        <v>64.77</v>
       </c>
       <c r="D125">
-        <v>27.2297159067</v>
+        <v>7.14681628809</v>
       </c>
       <c r="E125">
-        <v>219.78</v>
+        <v>92.22</v>
       </c>
       <c r="F125">
-        <v>196.4</v>
+        <v>89.13</v>
       </c>
       <c r="G125">
-        <v>0.0023249575061</v>
+        <v>0.00349191882645</v>
       </c>
       <c r="H125">
-        <v>182.6188365838624</v>
+        <v>138.2897485328063</v>
       </c>
       <c r="I125">
-        <v>290.32</v>
+        <v>395.81</v>
       </c>
       <c r="J125">
-        <v>21.22</v>
+        <v>21.39</v>
       </c>
       <c r="K125">
-        <v>2358</v>
+        <v>2596</v>
       </c>
       <c r="L125">
-        <v>0.4255570120255948</v>
+        <v>0.4979584699872221</v>
       </c>
       <c r="M125">
-        <v>1.078351677188643</v>
+        <v>0.6526050213256884</v>
       </c>
       <c r="N125">
-        <v>1.051642326050862</v>
+        <v>0.4378883793091635</v>
       </c>
       <c r="O125">
-        <v>0.9671592693428841</v>
+        <v>0.4539710499893974</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="2">
-        <v>44651</v>
+        <v>44347</v>
       </c>
       <c r="B126">
-        <v>0.8725000000000001</v>
+        <v>0.33163</v>
       </c>
       <c r="C126">
-        <v>115.59</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="D126">
-        <v>42.39297079612</v>
+        <v>8.90875692439</v>
       </c>
       <c r="E126">
-        <v>314.04</v>
+        <v>107.04</v>
       </c>
       <c r="F126">
-        <v>294.42</v>
+        <v>99.31</v>
       </c>
       <c r="G126">
-        <v>0.00112435970591</v>
+        <v>0.00083340753556</v>
       </c>
       <c r="H126">
-        <v>182.6188365838624</v>
+        <v>141.1937490231932</v>
       </c>
       <c r="I126">
-        <v>469.51</v>
+        <v>320.43</v>
       </c>
       <c r="J126">
-        <v>21.34</v>
+        <v>20.99</v>
       </c>
       <c r="K126">
-        <v>2404</v>
+        <v>3383</v>
       </c>
       <c r="L126">
-        <v>0.422808140672978</v>
+        <v>0.4925514921183144</v>
       </c>
       <c r="M126">
-        <v>1.102667170194235</v>
+        <v>0.6630188829662774</v>
       </c>
       <c r="N126">
-        <v>1.091178913291982</v>
+        <v>0.4367313232507956</v>
       </c>
       <c r="O126">
-        <v>1.039086833340783</v>
+        <v>0.481955930640822</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="2">
-        <v>44681</v>
+        <v>44377</v>
       </c>
       <c r="B127">
-        <v>0.925</v>
+        <v>0.39325</v>
       </c>
       <c r="C127">
-        <v>105.78</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="D127">
-        <v>32.20418722871</v>
+        <v>10.30105100564</v>
       </c>
       <c r="E127">
-        <v>310.85</v>
+        <v>129.97</v>
       </c>
       <c r="F127">
-        <v>302</v>
+        <v>112.92</v>
       </c>
       <c r="G127">
-        <v>0.00593647834028</v>
+        <v>-0.00175613709191</v>
       </c>
       <c r="H127">
-        <v>182.6188365838624</v>
+        <v>144.0465071540256</v>
       </c>
       <c r="I127">
-        <v>354.62</v>
+        <v>261.45</v>
       </c>
       <c r="J127">
-        <v>21.43</v>
+        <v>20.49</v>
       </c>
       <c r="K127">
-        <v>2566</v>
+        <v>3292</v>
       </c>
       <c r="L127">
-        <v>0.4309435158909646</v>
+        <v>0.4928136028756943</v>
       </c>
       <c r="M127">
-        <v>1.097080675155382</v>
+        <v>0.7436</v>
       </c>
       <c r="N127">
-        <v>1.099004662934887</v>
+        <v>0.5466</v>
       </c>
       <c r="O127">
-        <v>1.093198592925966</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="2">
-        <v>44712</v>
+        <v>44408</v>
       </c>
       <c r="B128">
-        <v>0.7075</v>
+        <v>0.4415</v>
       </c>
       <c r="C128">
-        <v>112.37</v>
+        <v>74.39</v>
       </c>
       <c r="D128">
-        <v>29.17072267381</v>
+        <v>12.50994243239</v>
       </c>
       <c r="E128">
-        <v>371.86</v>
+        <v>151.97</v>
       </c>
       <c r="F128">
-        <v>280</v>
+        <v>122.33</v>
       </c>
       <c r="G128">
-        <v>0.00557410999677</v>
+        <v>0.00526208567962</v>
       </c>
       <c r="H128">
-        <v>182.6188365838624</v>
+        <v>149.2262641923639</v>
       </c>
       <c r="I128">
-        <v>289.56</v>
+        <v>176.89</v>
       </c>
       <c r="J128">
-        <v>20.79</v>
+        <v>20.11</v>
       </c>
       <c r="K128">
-        <v>2240</v>
+        <v>4132</v>
       </c>
       <c r="L128">
-        <v>0.4305420265952875</v>
+        <v>0.4804314916743824</v>
       </c>
       <c r="M128">
-        <v>1.108720278516534</v>
+        <v>0.8134</v>
       </c>
       <c r="N128">
-        <v>1.086155403232221</v>
+        <v>0.5746</v>
       </c>
       <c r="O128">
-        <v>1.066823352432961</v>
+        <v>0.6026</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="2">
-        <v>44742</v>
+        <v>44439</v>
       </c>
       <c r="B129">
-        <v>0.6899999999999999</v>
+        <v>0.44688</v>
       </c>
       <c r="C129">
-        <v>120.08</v>
+        <v>70.02</v>
       </c>
       <c r="D129">
-        <v>33.55773104275</v>
+        <v>15.42647593843</v>
       </c>
       <c r="E129">
-        <v>374.08</v>
+        <v>169.58</v>
       </c>
       <c r="F129">
-        <v>291.3568</v>
+        <v>137.92</v>
       </c>
       <c r="G129">
-        <v>0.006482245167</v>
+        <v>0.00115489930423</v>
       </c>
       <c r="H129">
-        <v>182.6188365838624</v>
+        <v>153.2980038574362</v>
       </c>
       <c r="I129">
-        <v>218.07</v>
+        <v>142.63</v>
       </c>
       <c r="J129">
-        <v>20.07</v>
+        <v>20.49</v>
       </c>
       <c r="K129">
-        <v>1895</v>
+        <v>5167</v>
       </c>
       <c r="L129">
-        <v>0.4314988735799397</v>
+        <v>0.4632719261881695</v>
       </c>
       <c r="M129">
-        <v>1.120474861733276</v>
+        <v>0.8652</v>
       </c>
       <c r="N129">
-        <v>1.124131073777351</v>
+        <v>0.6262</v>
       </c>
       <c r="O129">
-        <v>1.038634438513443</v>
+        <v>0.6286</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2">
-        <v>44773</v>
+        <v>44469</v>
       </c>
       <c r="B130">
-        <v>0.601</v>
+        <v>0.41875</v>
       </c>
       <c r="C130">
-        <v>108.92</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D130">
-        <v>51.33003047298</v>
+        <v>22.84059607792</v>
       </c>
       <c r="E130">
-        <v>402.2</v>
+        <v>185.69</v>
       </c>
       <c r="F130">
-        <v>269.08655771317</v>
+        <v>146.05275137829</v>
       </c>
       <c r="G130">
-        <v>0.00160236369256</v>
+        <v>0.00015685281085</v>
       </c>
       <c r="H130">
-        <v>168.201560011453</v>
+        <v>156.9558378189194</v>
       </c>
       <c r="I130">
-        <v>191.59</v>
+        <v>178.46</v>
       </c>
       <c r="J130">
-        <v>20.08</v>
+        <v>20.71</v>
       </c>
       <c r="K130">
-        <v>965</v>
+        <v>3519</v>
       </c>
       <c r="L130">
-        <v>0.4229605741569059</v>
+        <v>0.4579162425448056</v>
       </c>
       <c r="M130">
-        <v>1.16786800286767</v>
+        <v>0.8404</v>
       </c>
       <c r="N130">
-        <v>1.123289004127497</v>
+        <v>0.5968</v>
       </c>
       <c r="O130">
-        <v>0.9989557845133211</v>
+        <v>0.6282</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2">
-        <v>44804</v>
+        <v>44500</v>
       </c>
       <c r="B131">
-        <v>0.5912500000000001</v>
+        <v>0.695</v>
       </c>
       <c r="C131">
-        <v>98.59999999999999</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="D131">
-        <v>70.04363980338999</v>
+        <v>31.05246636754</v>
       </c>
       <c r="E131">
-        <v>406.97</v>
+        <v>224.51</v>
       </c>
       <c r="F131">
-        <v>274.61946388546</v>
+        <v>199.65</v>
       </c>
       <c r="G131">
-        <v>0.00028598623682</v>
+        <v>0.00208202988504</v>
       </c>
       <c r="H131">
-        <v>168.201560011453</v>
+        <v>167.0008492724532</v>
       </c>
       <c r="I131">
-        <v>159.22</v>
+        <v>236.57</v>
       </c>
       <c r="J131">
-        <v>20.2</v>
+        <v>21.11</v>
       </c>
       <c r="K131">
-        <v>1760</v>
+        <v>3018</v>
       </c>
       <c r="L131">
-        <v>0.427098100384093</v>
+        <v>0.446856934178489</v>
       </c>
       <c r="M131">
-        <v>1.248267995093507</v>
+        <v>0.9224</v>
       </c>
       <c r="N131">
-        <v>1.172336613778829</v>
+        <v>0.7836</v>
       </c>
       <c r="O131">
-        <v>0.9920444986539785</v>
+        <v>0.7372</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="2">
-        <v>44834</v>
+        <v>44530</v>
       </c>
       <c r="B132">
-        <v>0.678</v>
+        <v>0.9005</v>
       </c>
       <c r="C132">
-        <v>90.16</v>
+        <v>80.77</v>
       </c>
       <c r="D132">
-        <v>59.10262225038</v>
+        <v>27.62343200775</v>
       </c>
       <c r="E132">
-        <v>430.81</v>
+        <v>157.48</v>
       </c>
       <c r="F132">
-        <v>234.98445322437</v>
+        <v>128</v>
       </c>
       <c r="G132">
-        <v>0.00356911638598</v>
+        <v>0.00359534463091</v>
       </c>
       <c r="H132">
-        <v>168.201560011453</v>
+        <v>182.6188365838623</v>
       </c>
       <c r="I132">
-        <v>134.72</v>
+        <v>222.75</v>
       </c>
       <c r="J132">
-        <v>20.8</v>
+        <v>21.07</v>
       </c>
       <c r="K132">
-        <v>1463</v>
+        <v>2217</v>
       </c>
       <c r="L132">
-        <v>0.4150715460078233</v>
+        <v>0.4431147265613738</v>
       </c>
       <c r="M132">
-        <v>1.292183548195688</v>
+        <v>1.043066167386023</v>
       </c>
       <c r="N132">
-        <v>1.203163518701642</v>
+        <v>0.9369293184852377</v>
       </c>
       <c r="O132">
-        <v>1.004394113331451</v>
+        <v>0.9002346810072717</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="2">
-        <v>44865</v>
+        <v>44561</v>
       </c>
       <c r="B133">
-        <v>0.63625</v>
+        <v>0.89</v>
       </c>
       <c r="C133">
-        <v>93.13</v>
+        <v>74.31</v>
       </c>
       <c r="D133">
-        <v>39.02204993845</v>
+        <v>38.02711984318</v>
       </c>
       <c r="E133">
-        <v>389.79</v>
+        <v>169.65</v>
       </c>
       <c r="F133">
-        <v>191.21987979184</v>
+        <v>142.5</v>
       </c>
       <c r="G133">
-        <v>0.00116745907546</v>
+        <v>0.00067537719459</v>
       </c>
       <c r="H133">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="I133">
-        <v>198.93</v>
+        <v>225.22</v>
       </c>
       <c r="J133">
-        <v>20.84</v>
+        <v>21.47</v>
       </c>
       <c r="K133">
-        <v>1355</v>
+        <v>1418</v>
       </c>
       <c r="L133">
-        <v>0.4181872176073877</v>
+        <v>0.4233923308224148</v>
       </c>
       <c r="M133">
-        <v>1.310196068599417</v>
+        <v>1.088197583668632</v>
       </c>
       <c r="N133">
-        <v>1.19618507878302</v>
+        <v>1.034910306862554</v>
       </c>
       <c r="O133">
-        <v>1.018680420397299</v>
+        <v>1.01467630898368</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="2">
-        <v>44895</v>
+        <v>44592</v>
       </c>
       <c r="B134">
-        <v>0.58875</v>
+        <v>0.84638</v>
       </c>
       <c r="C134">
-        <v>91.06999999999999</v>
+        <v>85.53</v>
       </c>
       <c r="D134">
-        <v>35.72328224044</v>
+        <v>28.26067331655</v>
       </c>
       <c r="E134">
-        <v>342.16</v>
+        <v>196.95</v>
       </c>
       <c r="F134">
-        <v>169.09656696557</v>
+        <v>168.5</v>
       </c>
       <c r="G134">
-        <v>-7.020727067E-05</v>
+        <v>0.00721327782143</v>
       </c>
       <c r="H134">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="I134">
-        <v>171.93</v>
+        <v>246.66</v>
       </c>
       <c r="J134">
-        <v>20.82</v>
+        <v>21.51</v>
       </c>
       <c r="K134">
-        <v>1515</v>
+        <v>2040</v>
       </c>
       <c r="L134">
-        <v>0.4200863261214181</v>
+        <v>0.4257859227826916</v>
       </c>
       <c r="M134">
-        <v>1.293497790224196</v>
+        <v>1.096824782</v>
       </c>
       <c r="N134">
-        <v>1.197417748251064</v>
+        <v>1.0750197</v>
       </c>
       <c r="O134">
-        <v>0.9970284436912492</v>
+        <v>1.011899418</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2">
-        <v>44926</v>
+        <v>44620</v>
       </c>
       <c r="B135">
-        <v>0.51938</v>
+        <v>0.74417</v>
       </c>
       <c r="C135">
-        <v>80.90000000000001</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="D135">
-        <v>36.04426003614</v>
+        <v>27.2297159067</v>
       </c>
       <c r="E135">
-        <v>379.23</v>
+        <v>219.78</v>
       </c>
       <c r="F135">
-        <v>215</v>
+        <v>196.4</v>
       </c>
       <c r="G135">
-        <v>0.00157748202329</v>
+        <v>0.0023249575061</v>
       </c>
       <c r="H135">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="I135">
-        <v>169.82</v>
+        <v>290.32</v>
       </c>
       <c r="J135">
-        <v>21.29</v>
+        <v>21.22</v>
       </c>
       <c r="K135">
-        <v>681</v>
+        <v>2358</v>
       </c>
       <c r="L135">
-        <v>0.4068708911667951</v>
+        <v>0.4255570120255948</v>
       </c>
       <c r="M135">
-        <v>1.198608495949633</v>
+        <v>1.078351677188643</v>
       </c>
       <c r="N135">
-        <v>1.181452698983275</v>
+        <v>1.051642326050862</v>
       </c>
       <c r="O135">
-        <v>0.9651399526635926</v>
+        <v>0.9671592693428841</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2">
-        <v>44957</v>
+        <v>44651</v>
       </c>
       <c r="B136">
-        <v>0.44375</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="C136">
-        <v>83.09</v>
+        <v>115.59</v>
       </c>
       <c r="D136">
-        <v>20.18397092135</v>
+        <v>42.39297079612</v>
       </c>
       <c r="E136">
-        <v>317.99</v>
+        <v>314.04</v>
       </c>
       <c r="F136">
-        <v>172</v>
+        <v>294.42</v>
       </c>
       <c r="G136">
-        <v>0.00120586983033</v>
+        <v>0.00112435970591</v>
       </c>
       <c r="H136">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="I136">
-        <v>287.2845205479452</v>
+        <v>469.51</v>
       </c>
       <c r="J136">
-        <v>20.77054794520548</v>
+        <v>21.34</v>
       </c>
       <c r="K136">
-        <v>990</v>
+        <v>2404</v>
       </c>
       <c r="L136">
-        <v>0.417211062852551</v>
+        <v>0.422808140672978</v>
       </c>
       <c r="M136">
-        <v>1.174684475237928</v>
+        <v>1.102667170194235</v>
       </c>
       <c r="N136">
-        <v>1.170395373570146</v>
+        <v>1.091178913291982</v>
       </c>
       <c r="O136">
-        <v>0.9331739747173603</v>
+        <v>1.039086833340783</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2">
-        <v>44985</v>
+        <v>44681</v>
       </c>
       <c r="B137">
-        <v>0.3575</v>
+        <v>0.925</v>
       </c>
       <c r="C137">
-        <v>82.70999999999999</v>
+        <v>105.78</v>
       </c>
       <c r="D137">
-        <v>16.53713727891</v>
+        <v>32.20418722871</v>
       </c>
       <c r="E137">
-        <v>207.48</v>
+        <v>310.85</v>
       </c>
       <c r="F137">
-        <v>144.67</v>
+        <v>302</v>
       </c>
       <c r="G137">
-        <v>0.00018277274577</v>
+        <v>0.00593647834028</v>
       </c>
       <c r="H137">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="I137">
-        <v>315.8471232876713</v>
+        <v>354.62</v>
       </c>
       <c r="J137">
-        <v>20.86972602739726</v>
+        <v>21.43</v>
       </c>
       <c r="K137">
-        <v>1389</v>
+        <v>2566</v>
       </c>
       <c r="L137">
-        <v>0.4283147991232886</v>
+        <v>0.4309435158909646</v>
       </c>
       <c r="M137">
-        <v>1.175842764216333</v>
+        <v>1.097080675155382</v>
       </c>
       <c r="N137">
-        <v>1.157921425669146</v>
+        <v>1.099004662934887</v>
       </c>
       <c r="O137">
-        <v>0.9225762745756159</v>
+        <v>1.093198592925966</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2">
-        <v>45016</v>
+        <v>44712</v>
       </c>
       <c r="B138">
-        <v>0.3135</v>
+        <v>0.7075</v>
       </c>
       <c r="C138">
-        <v>78.53</v>
+        <v>112.37</v>
       </c>
       <c r="D138">
-        <v>13.81207686229</v>
+        <v>29.17072267381</v>
       </c>
       <c r="E138">
-        <v>187.23</v>
+        <v>371.86</v>
       </c>
       <c r="F138">
-        <v>136.84</v>
+        <v>280</v>
       </c>
       <c r="G138">
-        <v>0.00064985238999</v>
+        <v>0.00557410999677</v>
       </c>
       <c r="H138">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="I138">
-        <v>367.957808219178</v>
+        <v>289.56</v>
       </c>
       <c r="J138">
-        <v>20.91493150684931</v>
+        <v>20.79</v>
       </c>
       <c r="K138">
-        <v>1576</v>
+        <v>2240</v>
       </c>
       <c r="L138">
-        <v>0.4354095180796214</v>
+        <v>0.4305420265952875</v>
       </c>
       <c r="M138">
-        <v>1.157828202699635</v>
+        <v>1.108720278516534</v>
       </c>
       <c r="N138">
-        <v>1.141032377340076</v>
+        <v>1.086155403232221</v>
       </c>
       <c r="O138">
-        <v>0.8861632827753628</v>
+        <v>1.066823352432961</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="2">
-        <v>45046</v>
+        <v>44742</v>
       </c>
       <c r="B139">
-        <v>0.31338</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C139">
-        <v>84.11</v>
+        <v>120.08</v>
       </c>
       <c r="D139">
-        <v>13.52052961513</v>
+        <v>33.55773104275</v>
       </c>
       <c r="E139">
-        <v>194.28</v>
+        <v>374.08</v>
       </c>
       <c r="F139">
-        <v>133.7451</v>
+        <v>291.3568</v>
       </c>
       <c r="G139">
-        <v>0.00196217461898</v>
+        <v>0.006482245167</v>
       </c>
       <c r="H139">
-        <v>168.201560011453</v>
+        <v>182.6188365838624</v>
       </c>
       <c r="I139">
-        <v>346.8073972602739</v>
+        <v>218.07</v>
       </c>
       <c r="J139">
-        <v>20.85602739726027</v>
+        <v>20.07</v>
       </c>
       <c r="K139">
-        <v>977</v>
+        <v>1895</v>
       </c>
       <c r="L139">
-        <v>0.4411014470480559</v>
+        <v>0.4314988735799397</v>
       </c>
       <c r="M139">
-        <v>1.078547904516356</v>
+        <v>1.120474861733276</v>
       </c>
       <c r="N139">
-        <v>0.9467313649913774</v>
+        <v>1.124131073777351</v>
       </c>
       <c r="O139">
-        <v>0.8421060630243679</v>
+        <v>1.038634438513443</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="2">
-        <v>45077</v>
+        <v>44773</v>
       </c>
       <c r="B140">
-        <v>0.32925</v>
+        <v>0.601</v>
       </c>
       <c r="C140">
-        <v>75.7</v>
+        <v>108.92</v>
       </c>
       <c r="D140">
-        <v>10.10875599841</v>
+        <v>51.33003047298</v>
       </c>
       <c r="E140">
-        <v>160.48</v>
+        <v>402.2</v>
       </c>
       <c r="F140">
-        <v>103</v>
+        <v>269.08655771317</v>
       </c>
       <c r="G140">
-        <v>0.00089208560651</v>
+        <v>0.00160236369256</v>
       </c>
       <c r="H140">
         <v>168.201560011453</v>
       </c>
       <c r="I140">
-        <v>294.9939726027397</v>
+        <v>191.59</v>
       </c>
       <c r="J140">
-        <v>20.53438356164384</v>
+        <v>20.08</v>
       </c>
       <c r="K140">
-        <v>1091</v>
+        <v>965</v>
       </c>
       <c r="L140">
-        <v>0.4552165907545774</v>
+        <v>0.4229605741569059</v>
       </c>
       <c r="M140">
-        <v>1.038640692544284</v>
+        <v>1.16786800286767</v>
       </c>
       <c r="N140">
-        <v>0.8510623188811773</v>
+        <v>1.123289004127497</v>
       </c>
       <c r="O140">
-        <v>0.7742078805271971</v>
+        <v>0.9989557845133211</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="2">
-        <v>45107</v>
+        <v>44804</v>
       </c>
       <c r="B141">
-        <v>0.2875</v>
+        <v>0.5912500000000001</v>
       </c>
       <c r="C141">
-        <v>74.89</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D141">
-        <v>10.35062473915</v>
+        <v>70.04363980338999</v>
       </c>
       <c r="E141">
-        <v>139.42</v>
+        <v>406.97</v>
       </c>
       <c r="F141">
-        <v>98.58</v>
+        <v>274.61946388546</v>
       </c>
       <c r="G141">
-        <v>0.00373710729929</v>
+        <v>0.00028598623682</v>
       </c>
       <c r="H141">
         <v>168.201560011453</v>
       </c>
       <c r="I141">
-        <v>230.5506849315069</v>
+        <v>159.22</v>
       </c>
       <c r="J141">
-        <v>19.79232876712329</v>
+        <v>20.2</v>
       </c>
       <c r="K141">
-        <v>1127</v>
+        <v>1760</v>
       </c>
       <c r="L141">
-        <v>0.4606441776542338</v>
+        <v>0.427098100384093</v>
       </c>
       <c r="M141">
-        <v>0.9959642247694664</v>
+        <v>1.248267995093507</v>
       </c>
       <c r="N141">
-        <v>0.7995310846400768</v>
+        <v>1.172336613778829</v>
       </c>
       <c r="O141">
-        <v>0.6957576403035699</v>
+        <v>0.9920444986539785</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2">
-        <v>45138</v>
+        <v>44834</v>
       </c>
       <c r="B142">
-        <v>0.33463</v>
+        <v>0.678</v>
       </c>
       <c r="C142">
-        <v>80.09999999999999</v>
+        <v>90.16</v>
       </c>
       <c r="D142">
-        <v>9.54528398968</v>
+        <v>59.10262225038</v>
       </c>
       <c r="E142">
-        <v>140.63</v>
+        <v>430.81</v>
       </c>
       <c r="F142">
-        <v>96.75</v>
+        <v>234.98445322437</v>
       </c>
       <c r="G142">
-        <v>0.00539043331312</v>
+        <v>0.00356911638598</v>
       </c>
       <c r="H142">
         <v>168.201560011453</v>
       </c>
       <c r="I142">
-        <v>198.7842465753425</v>
+        <v>134.72</v>
       </c>
       <c r="J142">
-        <v>19.32369863013699</v>
+        <v>20.8</v>
       </c>
       <c r="K142">
-        <v>1086</v>
+        <v>1463</v>
       </c>
       <c r="L142">
-        <v>0.4584960806791654</v>
+        <v>0.4150715460078233</v>
       </c>
       <c r="M142">
-        <v>0.9463975731257724</v>
+        <v>1.292183548195688</v>
       </c>
       <c r="N142">
-        <v>0.7403079644465607</v>
+        <v>1.203163518701642</v>
       </c>
       <c r="O142">
-        <v>0.6519426044369245</v>
+        <v>1.004394113331451</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2">
-        <v>45169</v>
+        <v>44865</v>
       </c>
       <c r="B143">
-        <v>0.38563</v>
+        <v>0.63625</v>
       </c>
       <c r="C143">
-        <v>86.163</v>
+        <v>93.13</v>
       </c>
       <c r="D143">
-        <v>11.19194456369</v>
+        <v>39.02204993845</v>
       </c>
       <c r="E143">
-        <v>152.61</v>
+        <v>389.79</v>
       </c>
       <c r="F143">
-        <v>97.6046</v>
+        <v>191.21987979184</v>
       </c>
       <c r="G143">
-        <v>0.00502968878962</v>
+        <v>0.00116745907546</v>
       </c>
       <c r="H143">
         <v>168.201560011453</v>
       </c>
       <c r="I143">
-        <v>164.7102739726027</v>
+        <v>198.93</v>
       </c>
       <c r="J143">
-        <v>19.58</v>
+        <v>20.84</v>
       </c>
       <c r="K143">
-        <v>1701</v>
+        <v>1355</v>
       </c>
       <c r="L143">
-        <v>0.4470955345908955</v>
+        <v>0.4181872176073877</v>
       </c>
       <c r="M143">
-        <v>0.925686200847129</v>
+        <v>1.310196068599417</v>
       </c>
       <c r="N143">
-        <v>0.7460920696494301</v>
+        <v>1.19618507878302</v>
       </c>
       <c r="O143">
-        <v>0.6517089982436903</v>
+        <v>1.018680420397299</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="2">
-        <v>45199</v>
+        <v>44895</v>
       </c>
       <c r="B144">
-        <v>0.38</v>
+        <v>0.58875</v>
       </c>
       <c r="C144">
-        <v>94</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="D144">
-        <v>11.54929514615</v>
+        <v>35.72328224044</v>
       </c>
       <c r="E144">
-        <v>162.47</v>
+        <v>342.16</v>
       </c>
       <c r="F144">
-        <v>99.84999999999999</v>
+        <v>169.09656696557</v>
       </c>
       <c r="G144">
-        <v>0.00037853311465</v>
+        <v>-7.020727067E-05</v>
       </c>
       <c r="H144">
         <v>168.201560011453</v>
       </c>
       <c r="I144">
-        <v>177.4602739726027</v>
+        <v>171.93</v>
       </c>
       <c r="J144">
-        <v>19.95342465753425</v>
+        <v>20.82</v>
       </c>
       <c r="K144">
-        <v>1459</v>
+        <v>1515</v>
       </c>
       <c r="L144">
-        <v>0.4478962499552843</v>
+        <v>0.4200863261214181</v>
       </c>
       <c r="M144">
-        <v>0.9532274154468331</v>
+        <v>1.293497790224196</v>
       </c>
       <c r="N144">
-        <v>0.7346532009962643</v>
+        <v>1.197417748251064</v>
       </c>
       <c r="O144">
-        <v>0.6629292773257311</v>
+        <v>0.9970284436912492</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="2">
-        <v>45230</v>
+        <v>44926</v>
       </c>
       <c r="B145">
-        <v>0.41138</v>
+        <v>0.51938</v>
       </c>
       <c r="C145">
-        <v>91.06100000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D145">
-        <v>14.56950705657</v>
+        <v>36.04426003614</v>
       </c>
       <c r="E145">
-        <v>142.12</v>
+        <v>379.23</v>
       </c>
       <c r="F145">
-        <v>128.4</v>
+        <v>215</v>
       </c>
       <c r="G145">
-        <v>-0.00175018038644</v>
+        <v>0.00157748202329</v>
       </c>
       <c r="H145">
         <v>168.201560011453</v>
       </c>
       <c r="I145">
-        <v>205.4786301369863</v>
+        <v>169.82</v>
       </c>
       <c r="J145">
-        <v>20.23178082191781</v>
+        <v>21.29</v>
       </c>
       <c r="K145">
-        <v>2937</v>
+        <v>681</v>
       </c>
       <c r="L145">
-        <v>0.4335256992262623</v>
+        <v>0.4068708911667951</v>
       </c>
       <c r="M145">
-        <v>0.9459924711429784</v>
+        <v>1.198608495949633</v>
       </c>
       <c r="N145">
-        <v>0.7338951871106011</v>
+        <v>1.181452698983275</v>
       </c>
       <c r="O145">
-        <v>0.6771679200974766</v>
+        <v>0.9651399526635926</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="2">
-        <v>45260</v>
+        <v>44957</v>
       </c>
       <c r="B146">
-        <v>0.3855</v>
+        <v>0.44375</v>
       </c>
       <c r="C146">
-        <v>83.18300000000001</v>
+        <v>83.09</v>
       </c>
       <c r="D146">
-        <v>14.48505487638</v>
+        <v>20.18397092135</v>
       </c>
       <c r="E146">
-        <v>126.82</v>
+        <v>317.99</v>
       </c>
       <c r="F146">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="G146">
-        <v>-0.00399199617135</v>
+        <v>0.00120586983033</v>
       </c>
       <c r="H146">
         <v>168.201560011453</v>
       </c>
       <c r="I146">
-        <v>208.5208219178082</v>
+        <v>287.2845205479452</v>
       </c>
       <c r="J146">
-        <v>20.38205479452055</v>
+        <v>20.77054794520548</v>
       </c>
       <c r="K146">
-        <v>2094</v>
+        <v>990</v>
       </c>
       <c r="L146">
-        <v>0.4279826061804835</v>
+        <v>0.417211062852551</v>
       </c>
       <c r="M146">
-        <v>0.9376818916124229</v>
+        <v>1.174684475237928</v>
       </c>
       <c r="N146">
-        <v>0.7125767115559107</v>
+        <v>1.170395373570146</v>
       </c>
       <c r="O146">
-        <v>0.6766752451945396</v>
+        <v>0.9331739747173603</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2">
-        <v>45291</v>
+        <v>44985</v>
       </c>
       <c r="B147">
-        <v>0.354</v>
+        <v>0.3575</v>
       </c>
       <c r="C147">
-        <v>77.858</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="D147">
-        <v>11.50665790666</v>
+        <v>16.53713727891</v>
       </c>
       <c r="E147">
-        <v>141.82</v>
+        <v>207.48</v>
       </c>
       <c r="F147">
-        <v>108.8294</v>
+        <v>144.67</v>
       </c>
       <c r="G147">
-        <v>-0.00023225585349</v>
+        <v>0.00018277274577</v>
       </c>
       <c r="H147">
         <v>168.201560011453</v>
       </c>
       <c r="I147">
-        <v>240.8878082191781</v>
+        <v>315.8471232876713</v>
       </c>
       <c r="J147">
-        <v>20.62109589041096</v>
+        <v>20.86972602739726</v>
       </c>
       <c r="K147">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="L147">
-        <v>0.424569904652916</v>
+        <v>0.4283147991232886</v>
       </c>
       <c r="M147">
-        <v>0.9282134437222956</v>
+        <v>1.175842764216333</v>
       </c>
       <c r="N147">
-        <v>0.6873759924061151</v>
+        <v>1.157921425669146</v>
       </c>
       <c r="O147">
-        <v>0.6482963362209007</v>
+        <v>0.9225762745756159</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="2">
-        <v>45322</v>
+        <v>45016</v>
       </c>
       <c r="B148">
-        <v>0.33538</v>
+        <v>0.3135</v>
       </c>
       <c r="C148">
-        <v>80.227</v>
+        <v>78.53</v>
       </c>
       <c r="D148">
-        <v>9.55961355312</v>
+        <v>13.81207686229</v>
       </c>
       <c r="E148">
-        <v>124.9</v>
+        <v>187.23</v>
       </c>
       <c r="F148">
-        <v>106.75</v>
+        <v>136.84</v>
       </c>
       <c r="G148">
-        <v>0.00125345701049</v>
+        <v>0.00064985238999</v>
       </c>
       <c r="H148">
         <v>168.201560011453</v>
       </c>
+      <c r="I148">
+        <v>367.957808219178</v>
+      </c>
+      <c r="J148">
+        <v>20.91493150684931</v>
+      </c>
       <c r="K148">
-        <v>2111</v>
+        <v>1576</v>
       </c>
       <c r="L148">
-        <v>0.4197783605972026</v>
+        <v>0.4354095180796214</v>
       </c>
       <c r="M148">
-        <v>0.8908317735767547</v>
+        <v>1.157828202699635</v>
       </c>
       <c r="N148">
-        <v>0.645802120316499</v>
+        <v>1.141032377340076</v>
       </c>
       <c r="O148">
-        <v>0.6219078592027808</v>
+        <v>0.8861632827753628</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="2">
-        <v>45351</v>
+        <v>45046</v>
       </c>
       <c r="B149">
-        <v>0.35125</v>
+        <v>0.31338</v>
       </c>
       <c r="C149">
-        <v>83.764</v>
+        <v>84.11</v>
       </c>
       <c r="D149">
-        <v>8.14838086764</v>
+        <v>13.52052961513</v>
       </c>
       <c r="E149">
-        <v>124.22</v>
+        <v>194.28</v>
       </c>
       <c r="F149">
-        <v>105.193</v>
+        <v>133.7451</v>
       </c>
       <c r="G149">
-        <v>0.00092817046871</v>
+        <v>0.00196217461898</v>
       </c>
       <c r="H149">
         <v>168.201560011453</v>
       </c>
+      <c r="I149">
+        <v>346.8073972602739</v>
+      </c>
+      <c r="J149">
+        <v>20.85602739726027</v>
+      </c>
       <c r="K149">
-        <v>1821</v>
+        <v>977</v>
       </c>
       <c r="L149">
-        <v>0.4260518803189536</v>
+        <v>0.4411014470480559</v>
       </c>
       <c r="M149">
-        <v>0.698660134397402</v>
+        <v>1.078547904516356</v>
       </c>
       <c r="N149">
-        <v>0.4955697133892522</v>
+        <v>0.9467313649913774</v>
       </c>
       <c r="O149">
-        <v>0.4838418500636259</v>
+        <v>0.8421060630243679</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="2">
-        <v>45382</v>
+        <v>45077</v>
       </c>
       <c r="B150">
-        <v>0.33</v>
+        <v>0.32925</v>
       </c>
       <c r="C150">
-        <v>85.447</v>
+        <v>75.7</v>
       </c>
       <c r="D150">
-        <v>8.55372632183</v>
+        <v>10.10875599841</v>
       </c>
       <c r="E150">
-        <v>131.49</v>
+        <v>160.48</v>
       </c>
       <c r="F150">
-        <v>104.84</v>
+        <v>103</v>
       </c>
       <c r="G150">
-        <v>0.00288040947349</v>
+        <v>0.00089208560651</v>
       </c>
       <c r="H150">
         <v>168.201560011453</v>
       </c>
+      <c r="I150">
+        <v>294.9939726027397</v>
+      </c>
+      <c r="J150">
+        <v>20.53438356164384</v>
+      </c>
       <c r="K150">
-        <v>1685</v>
+        <v>1091</v>
       </c>
       <c r="L150">
-        <v>0.4311292700074834</v>
+        <v>0.4552165907545774</v>
       </c>
       <c r="M150">
-        <v>0.777707726822921</v>
+        <v>1.038640692544284</v>
       </c>
       <c r="N150">
-        <v>0.5408107856002339</v>
+        <v>0.8510623188811773</v>
       </c>
       <c r="O150">
-        <v>0.5253723011732939</v>
+        <v>0.7742078805271971</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2">
-        <v>45412</v>
+        <v>45107</v>
       </c>
       <c r="B151">
-        <v>0.32</v>
+        <v>0.2875</v>
       </c>
       <c r="C151">
-        <v>90.054</v>
+        <v>74.89</v>
       </c>
       <c r="D151">
-        <v>9.08511900567</v>
+        <v>10.35062473915</v>
       </c>
       <c r="E151">
-        <v>134.97</v>
+        <v>139.42</v>
       </c>
       <c r="F151">
-        <v>104.89</v>
+        <v>98.58</v>
       </c>
       <c r="G151">
-        <v>0.01273099920596</v>
+        <v>0.00373710729929</v>
       </c>
       <c r="H151">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="I151">
+        <v>230.5506849315069</v>
+      </c>
+      <c r="J151">
+        <v>19.79232876712329</v>
       </c>
       <c r="K151">
-        <v>1815</v>
+        <v>1127</v>
       </c>
       <c r="L151">
-        <v>0.4235886196926391</v>
+        <v>0.4606441776542338</v>
       </c>
       <c r="M151">
-        <v>0.8778057898078694</v>
+        <v>0.9959642247694664</v>
       </c>
       <c r="N151">
-        <v>0.6265261958603363</v>
+        <v>0.7995310846400768</v>
       </c>
       <c r="O151">
-        <v>0.5922828949331166</v>
+        <v>0.6957576403035699</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2">
-        <v>45443</v>
+        <v>45138</v>
+      </c>
+      <c r="B152">
+        <v>0.33463</v>
       </c>
       <c r="C152">
-        <v>81.995</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D152">
-        <v>10.12306554509</v>
+        <v>9.54528398968</v>
       </c>
       <c r="E152">
-        <v>142.01</v>
+        <v>140.63</v>
       </c>
       <c r="F152">
-        <v>105.63</v>
+        <v>96.75</v>
       </c>
       <c r="G152">
-        <v>-0.00119194037903</v>
+        <v>0.00539043331312</v>
       </c>
       <c r="H152">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="I152">
+        <v>198.7842465753425</v>
+      </c>
+      <c r="J152">
+        <v>19.32369863013699</v>
       </c>
       <c r="K152">
-        <v>2050</v>
+        <v>1086</v>
       </c>
       <c r="L152">
-        <v>0.4309165925465337</v>
+        <v>0.4584960806791654</v>
       </c>
       <c r="M152">
-        <v>0.8505496862719805</v>
+        <v>0.9463975731257724</v>
       </c>
       <c r="N152">
-        <v>0.5982628139590228</v>
+        <v>0.7403079644465607</v>
       </c>
       <c r="O152">
-        <v>0.5782225728556203</v>
+        <v>0.6519426044369245</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="2">
-        <v>45473</v>
+        <v>45169</v>
+      </c>
+      <c r="B153">
+        <v>0.38563</v>
       </c>
       <c r="C153">
-        <v>82.55500000000001</v>
+        <v>86.163</v>
       </c>
       <c r="D153">
-        <v>10.86897789978</v>
+        <v>11.19194456369</v>
       </c>
       <c r="E153">
-        <v>135.1</v>
+        <v>152.61</v>
       </c>
       <c r="F153">
-        <v>105.3</v>
+        <v>97.6046</v>
       </c>
       <c r="G153">
-        <v>-0.009520711175700001</v>
+        <v>0.00502968878962</v>
       </c>
       <c r="H153">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="I153">
+        <v>164.7102739726027</v>
+      </c>
+      <c r="J153">
+        <v>19.58</v>
       </c>
       <c r="K153">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="L153">
-        <v>0.4328209709492213</v>
+        <v>0.4470955345908955</v>
       </c>
       <c r="M153">
-        <v>0.8558800712909602</v>
+        <v>0.925686200847129</v>
       </c>
       <c r="N153">
-        <v>0.5824914772285323</v>
+        <v>0.7460920696494301</v>
       </c>
       <c r="O153">
-        <v>0.5555706738719839</v>
+        <v>0.6517089982436903</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2">
-        <v>45504</v>
+        <v>45199</v>
+      </c>
+      <c r="B154">
+        <v>0.38</v>
       </c>
       <c r="C154">
-        <v>85.29600000000001</v>
+        <v>94</v>
       </c>
       <c r="D154">
-        <v>10.34681932853</v>
+        <v>11.54929514615</v>
       </c>
       <c r="E154">
-        <v>137.55</v>
+        <v>162.47</v>
       </c>
       <c r="F154">
-        <v>105.31</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="G154">
-        <v>0.00930392901235</v>
+        <v>0.00037853311465</v>
       </c>
       <c r="H154">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="I154">
+        <v>177.4602739726027</v>
+      </c>
+      <c r="J154">
+        <v>19.95342465753425</v>
       </c>
       <c r="K154">
-        <v>1814</v>
+        <v>1459</v>
+      </c>
+      <c r="L154">
+        <v>0.4478962499552843</v>
       </c>
       <c r="M154">
-        <v>0.8803907347272377</v>
+        <v>0.9532274154468331</v>
       </c>
       <c r="N154">
-        <v>0.5768220543219431</v>
+        <v>0.7346532009962643</v>
       </c>
       <c r="O154">
-        <v>0.5583286069431294</v>
+        <v>0.6629292773257311</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2">
-        <v>45535</v>
+        <v>45230</v>
+      </c>
+      <c r="B155">
+        <v>0.41138</v>
       </c>
       <c r="C155">
-        <v>80.863</v>
+        <v>91.06100000000001</v>
       </c>
       <c r="D155">
-        <v>12.37459819711</v>
+        <v>14.56950705657</v>
       </c>
       <c r="E155">
-        <v>145.76</v>
+        <v>142.12</v>
       </c>
       <c r="F155">
-        <v>106.21</v>
+        <v>128.4</v>
       </c>
       <c r="G155">
-        <v>0.00216291477707</v>
+        <v>-0.00175018038644</v>
       </c>
       <c r="H155">
-        <v>173.007318868923</v>
+        <v>168.201560011453</v>
+      </c>
+      <c r="I155">
+        <v>205.4786301369863</v>
+      </c>
+      <c r="J155">
+        <v>20.23178082191781</v>
       </c>
       <c r="K155">
-        <v>2084</v>
+        <v>2937</v>
+      </c>
+      <c r="L155">
+        <v>0.4335256992262623</v>
       </c>
       <c r="M155">
-        <v>0.879706142553904</v>
+        <v>0.9459924711429784</v>
       </c>
       <c r="N155">
-        <v>0.576673867712157</v>
+        <v>0.7338951871106011</v>
       </c>
       <c r="O155">
-        <v>0.5656612019411791</v>
+        <v>0.6771679200974766</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="2">
-        <v>45565</v>
+        <v>45260</v>
+      </c>
+      <c r="B156">
+        <v>0.3855</v>
+      </c>
+      <c r="C156">
+        <v>83.18300000000001</v>
+      </c>
+      <c r="D156">
+        <v>14.48505487638</v>
+      </c>
+      <c r="E156">
+        <v>126.82</v>
+      </c>
+      <c r="F156">
+        <v>109</v>
+      </c>
+      <c r="G156">
+        <v>-0.00399199617135</v>
+      </c>
+      <c r="H156">
+        <v>168.201560011453</v>
+      </c>
+      <c r="I156">
+        <v>208.5208219178082</v>
+      </c>
+      <c r="J156">
+        <v>20.38205479452055</v>
       </c>
       <c r="K156">
-        <v>1388</v>
+        <v>2094</v>
+      </c>
+      <c r="L156">
+        <v>0.4279826061804835</v>
+      </c>
+      <c r="M156">
+        <v>0.9376818916124229</v>
+      </c>
+      <c r="N156">
+        <v>0.7125767115559107</v>
+      </c>
+      <c r="O156">
+        <v>0.6766752451945396</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B157">
+        <v>0.354</v>
+      </c>
+      <c r="C157">
+        <v>77.858</v>
+      </c>
+      <c r="D157">
+        <v>11.50665790666</v>
+      </c>
+      <c r="E157">
+        <v>141.82</v>
+      </c>
+      <c r="F157">
+        <v>108.8294</v>
+      </c>
+      <c r="G157">
+        <v>-0.00023225585349</v>
+      </c>
+      <c r="H157">
+        <v>168.201560011453</v>
+      </c>
+      <c r="I157">
+        <v>240.8878082191781</v>
+      </c>
+      <c r="J157">
+        <v>20.62109589041096</v>
+      </c>
+      <c r="K157">
+        <v>1398</v>
+      </c>
+      <c r="L157">
+        <v>0.424569904652916</v>
+      </c>
+      <c r="M157">
+        <v>0.9282134437222956</v>
+      </c>
+      <c r="N157">
+        <v>0.6873759924061151</v>
+      </c>
+      <c r="O157">
+        <v>0.6482963362209007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B158">
+        <v>0.33538</v>
+      </c>
+      <c r="C158">
+        <v>80.227</v>
+      </c>
+      <c r="D158">
+        <v>9.55961355312</v>
+      </c>
+      <c r="E158">
+        <v>124.9</v>
+      </c>
+      <c r="F158">
+        <v>106.75</v>
+      </c>
+      <c r="G158">
+        <v>0.00125345701049</v>
+      </c>
+      <c r="H158">
+        <v>168.201560011453</v>
+      </c>
+      <c r="K158">
+        <v>2111</v>
+      </c>
+      <c r="L158">
+        <v>0.4197783605972026</v>
+      </c>
+      <c r="M158">
+        <v>0.8908317735767547</v>
+      </c>
+      <c r="N158">
+        <v>0.645802120316499</v>
+      </c>
+      <c r="O158">
+        <v>0.6219078592027808</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B159">
+        <v>0.35125</v>
+      </c>
+      <c r="C159">
+        <v>83.764</v>
+      </c>
+      <c r="D159">
+        <v>8.14838086764</v>
+      </c>
+      <c r="E159">
+        <v>124.22</v>
+      </c>
+      <c r="F159">
+        <v>105.193</v>
+      </c>
+      <c r="G159">
+        <v>0.00092817046871</v>
+      </c>
+      <c r="H159">
+        <v>168.201560011453</v>
+      </c>
+      <c r="K159">
+        <v>1821</v>
+      </c>
+      <c r="L159">
+        <v>0.4260518803189536</v>
+      </c>
+      <c r="M159">
+        <v>0.698660134397402</v>
+      </c>
+      <c r="N159">
+        <v>0.4955697133892522</v>
+      </c>
+      <c r="O159">
+        <v>0.4838418500636259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B160">
+        <v>0.33</v>
+      </c>
+      <c r="C160">
+        <v>85.447</v>
+      </c>
+      <c r="D160">
+        <v>8.55372632183</v>
+      </c>
+      <c r="E160">
+        <v>131.49</v>
+      </c>
+      <c r="F160">
+        <v>104.84</v>
+      </c>
+      <c r="G160">
+        <v>0.00288040947349</v>
+      </c>
+      <c r="H160">
+        <v>168.201560011453</v>
+      </c>
+      <c r="K160">
+        <v>1685</v>
+      </c>
+      <c r="L160">
+        <v>0.4311292700074834</v>
+      </c>
+      <c r="M160">
+        <v>0.777707726822921</v>
+      </c>
+      <c r="N160">
+        <v>0.5408107856002339</v>
+      </c>
+      <c r="O160">
+        <v>0.5253723011732939</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B161">
+        <v>0.32</v>
+      </c>
+      <c r="C161">
+        <v>90.054</v>
+      </c>
+      <c r="D161">
+        <v>9.08511900567</v>
+      </c>
+      <c r="E161">
+        <v>134.97</v>
+      </c>
+      <c r="F161">
+        <v>104.89</v>
+      </c>
+      <c r="G161">
+        <v>0.01273099920596</v>
+      </c>
+      <c r="H161">
+        <v>173.007318868923</v>
+      </c>
+      <c r="K161">
+        <v>1815</v>
+      </c>
+      <c r="L161">
+        <v>0.4235886196926391</v>
+      </c>
+      <c r="M161">
+        <v>0.8778057898078694</v>
+      </c>
+      <c r="N161">
+        <v>0.6265261958603363</v>
+      </c>
+      <c r="O161">
+        <v>0.5922828949331166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="2">
+        <v>45443</v>
+      </c>
+      <c r="C162">
+        <v>81.995</v>
+      </c>
+      <c r="D162">
+        <v>10.12306554509</v>
+      </c>
+      <c r="E162">
+        <v>142.01</v>
+      </c>
+      <c r="F162">
+        <v>105.63</v>
+      </c>
+      <c r="G162">
+        <v>-0.00119194037903</v>
+      </c>
+      <c r="H162">
+        <v>173.007318868923</v>
+      </c>
+      <c r="K162">
+        <v>2050</v>
+      </c>
+      <c r="L162">
+        <v>0.4309165925465337</v>
+      </c>
+      <c r="M162">
+        <v>0.8505496862719805</v>
+      </c>
+      <c r="N162">
+        <v>0.5982628139590228</v>
+      </c>
+      <c r="O162">
+        <v>0.5782225728556203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="2">
+        <v>45473</v>
+      </c>
+      <c r="C163">
+        <v>82.55500000000001</v>
+      </c>
+      <c r="D163">
+        <v>10.86897789978</v>
+      </c>
+      <c r="E163">
+        <v>135.1</v>
+      </c>
+      <c r="F163">
+        <v>105.3</v>
+      </c>
+      <c r="G163">
+        <v>-0.009520711175700001</v>
+      </c>
+      <c r="H163">
+        <v>173.007318868923</v>
+      </c>
+      <c r="K163">
+        <v>1708</v>
+      </c>
+      <c r="L163">
+        <v>0.4328209709492213</v>
+      </c>
+      <c r="M163">
+        <v>0.8558800712909602</v>
+      </c>
+      <c r="N163">
+        <v>0.5824914772285323</v>
+      </c>
+      <c r="O163">
+        <v>0.5555706738719839</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="2">
+        <v>45504</v>
+      </c>
+      <c r="C164">
+        <v>85.29600000000001</v>
+      </c>
+      <c r="D164">
+        <v>10.34681932853</v>
+      </c>
+      <c r="E164">
+        <v>137.55</v>
+      </c>
+      <c r="F164">
+        <v>105.31</v>
+      </c>
+      <c r="G164">
+        <v>0.00930392901235</v>
+      </c>
+      <c r="H164">
+        <v>173.007318868923</v>
+      </c>
+      <c r="K164">
+        <v>1814</v>
+      </c>
+      <c r="M164">
+        <v>0.8803907347272377</v>
+      </c>
+      <c r="N164">
+        <v>0.5768220543219431</v>
+      </c>
+      <c r="O164">
+        <v>0.5583286069431294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="2">
+        <v>45535</v>
+      </c>
+      <c r="C165">
+        <v>80.863</v>
+      </c>
+      <c r="D165">
+        <v>12.37459819711</v>
+      </c>
+      <c r="E165">
+        <v>145.76</v>
+      </c>
+      <c r="F165">
+        <v>106.21</v>
+      </c>
+      <c r="G165">
+        <v>0.00216291477707</v>
+      </c>
+      <c r="H165">
+        <v>173.007318868923</v>
+      </c>
+      <c r="K165">
+        <v>2084</v>
+      </c>
+      <c r="M165">
+        <v>0.879706142553904</v>
+      </c>
+      <c r="N165">
+        <v>0.576673867712157</v>
+      </c>
+      <c r="O165">
+        <v>0.5656612019411791</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="2">
+        <v>45565</v>
+      </c>
+      <c r="K166">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="2">
         <v>45596</v>
       </c>
-      <c r="K157">
+      <c r="K167">
         <v>1537</v>
       </c>
     </row>
